--- a/streamlit/Houses_Cleaned.xlsx
+++ b/streamlit/Houses_Cleaned.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
         <v>73</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -508,7 +508,7 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -529,7 +529,7 @@
         <v>60</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -550,7 +550,7 @@
         <v>75</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -571,7 +571,7 @@
         <v>50</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -592,7 +592,7 @@
         <v>50</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -613,7 +613,7 @@
         <v>64</v>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>80</v>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -655,7 +655,7 @@
         <v>55</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -695,7 +695,7 @@
         <v>60</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -716,7 +716,7 @@
         <v>175</v>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -737,7 +737,7 @@
         <v>70</v>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>78</v>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -779,7 +779,7 @@
         <v>55</v>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>60</v>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -821,7 +821,7 @@
         <v>43</v>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>44</v>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
         <v>61</v>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -905,7 +905,7 @@
         <v>68</v>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
         <v>106</v>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>45</v>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -968,7 +968,7 @@
         <v>58</v>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -989,7 +989,7 @@
         <v>20</v>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         <v>54</v>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1031,7 +1031,7 @@
         <v>39</v>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>56</v>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1073,7 +1073,7 @@
         <v>70</v>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         <v>57</v>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>50</v>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1136,7 +1136,7 @@
         <v>80</v>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1157,7 +1157,7 @@
         <v>62</v>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>53</v>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>53</v>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         <v>55</v>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1241,7 +1241,7 @@
         <v>58</v>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1262,7 +1262,7 @@
         <v>42</v>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         <v>114</v>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1325,7 +1325,7 @@
         <v>93</v>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         <v>75</v>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>63</v>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1388,7 +1388,7 @@
         <v>73</v>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         <v>56</v>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>52</v>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1451,7 +1451,7 @@
         <v>31</v>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1472,7 +1472,7 @@
         <v>48</v>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1493,7 +1493,7 @@
         <v>40</v>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>56</v>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         <v>56</v>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>35</v>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1577,7 +1577,7 @@
         <v>61</v>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         <v>51</v>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1638,7 +1638,7 @@
         <v>112</v>
       </c>
       <c r="C58" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1659,7 +1659,7 @@
         <v>42</v>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         <v>65</v>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         <v>58</v>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>40</v>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>45</v>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -1764,7 +1764,7 @@
         <v>45</v>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
         <v>45</v>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>55</v>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -1848,7 +1848,7 @@
         <v>65</v>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
         <v>69</v>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>47</v>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         <v>60</v>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>33</v>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>51</v>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -1974,7 +1974,7 @@
         <v>46</v>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -1995,7 +1995,7 @@
         <v>75</v>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -2016,7 +2016,7 @@
         <v>44</v>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>61</v>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>70</v>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -2079,7 +2079,7 @@
         <v>68</v>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         <v>65</v>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>98</v>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         <v>61</v>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -2163,7 +2163,7 @@
         <v>75</v>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -2184,7 +2184,7 @@
         <v>25</v>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         <v>51</v>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         <v>25</v>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         <v>55</v>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>55</v>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         <v>65</v>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -2310,7 +2310,7 @@
         <v>75</v>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
         <v>54</v>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>55</v>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -2373,7 +2373,7 @@
         <v>47</v>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -2394,7 +2394,7 @@
         <v>49</v>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -2415,7 +2415,7 @@
         <v>60</v>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         <v>80</v>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -2457,7 +2457,7 @@
         <v>78</v>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -2478,7 +2478,7 @@
         <v>70</v>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -2499,7 +2499,7 @@
         <v>228</v>
       </c>
       <c r="C99" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         <v>52</v>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         <v>65</v>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -2560,7 +2560,7 @@
       </c>
       <c r="B102" t="inlineStr"/>
       <c r="C102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         <v>60</v>
       </c>
       <c r="C103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         <v>35</v>
       </c>
       <c r="C104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -2623,7 +2623,7 @@
         <v>50</v>
       </c>
       <c r="C105" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>56</v>
       </c>
       <c r="C106" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>61</v>
       </c>
       <c r="C107" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         <v>54</v>
       </c>
       <c r="C108" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>57</v>
       </c>
       <c r="C109" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>40</v>
       </c>
       <c r="C111" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>50</v>
       </c>
       <c r="C112" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -2791,7 +2791,7 @@
         <v>54</v>
       </c>
       <c r="C113" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -2812,7 +2812,7 @@
         <v>76</v>
       </c>
       <c r="C114" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -2833,7 +2833,7 @@
         <v>55</v>
       </c>
       <c r="C115" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
         <v>72</v>
       </c>
       <c r="C117" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>40</v>
       </c>
       <c r="C118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>77</v>
       </c>
       <c r="C119" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -2936,7 +2936,7 @@
         <v>56</v>
       </c>
       <c r="C120" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -2957,7 +2957,7 @@
         <v>45</v>
       </c>
       <c r="C121" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -2978,7 +2978,7 @@
         <v>61</v>
       </c>
       <c r="C122" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         <v>54</v>
       </c>
       <c r="C123" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         <v>50</v>
       </c>
       <c r="C124" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         <v>55</v>
       </c>
       <c r="C125" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>68</v>
       </c>
       <c r="C126" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         <v>34</v>
       </c>
       <c r="C128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -3125,7 +3125,7 @@
         <v>50</v>
       </c>
       <c r="C129" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>54</v>
       </c>
       <c r="C130" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>40</v>
       </c>
       <c r="C131" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         <v>54</v>
       </c>
       <c r="C132" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>64</v>
       </c>
       <c r="C133" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         <v>71</v>
       </c>
       <c r="C134" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>54</v>
       </c>
       <c r="C135" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -3272,7 +3272,7 @@
         <v>71</v>
       </c>
       <c r="C136" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>55</v>
       </c>
       <c r="C137" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>53</v>
       </c>
       <c r="C138" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -3335,7 +3335,7 @@
         <v>90</v>
       </c>
       <c r="C139" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -3356,7 +3356,7 @@
         <v>42</v>
       </c>
       <c r="C140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>50</v>
       </c>
       <c r="C141" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -3398,7 +3398,7 @@
         <v>54</v>
       </c>
       <c r="C142" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>92</v>
       </c>
       <c r="C143" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         <v>70</v>
       </c>
       <c r="C144" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -3461,7 +3461,7 @@
         <v>60</v>
       </c>
       <c r="C145" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         <v>50</v>
       </c>
       <c r="C146" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
         <v>54</v>
       </c>
       <c r="C147" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>73</v>
       </c>
       <c r="C148" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -3545,7 +3545,7 @@
         <v>80</v>
       </c>
       <c r="C149" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -3566,7 +3566,7 @@
         <v>138</v>
       </c>
       <c r="C150" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         <v>42</v>
       </c>
       <c r="C151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>60</v>
       </c>
       <c r="C152" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -3629,7 +3629,7 @@
         <v>67</v>
       </c>
       <c r="C153" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>68</v>
       </c>
       <c r="C154" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         <v>55</v>
       </c>
       <c r="C155" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
         <v>76</v>
       </c>
       <c r="C156" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -3713,7 +3713,7 @@
         <v>54</v>
       </c>
       <c r="C157" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -3734,7 +3734,7 @@
         <v>57</v>
       </c>
       <c r="C158" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -3755,7 +3755,7 @@
         <v>72</v>
       </c>
       <c r="C159" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>95</v>
       </c>
       <c r="C160" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -3797,7 +3797,7 @@
         <v>56</v>
       </c>
       <c r="C161" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>62</v>
       </c>
       <c r="C162" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -3839,7 +3839,7 @@
         <v>51</v>
       </c>
       <c r="C163" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>41</v>
       </c>
       <c r="C164" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -3881,7 +3881,7 @@
         <v>52</v>
       </c>
       <c r="C165" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -3902,7 +3902,7 @@
         <v>61</v>
       </c>
       <c r="C166" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -3923,7 +3923,7 @@
         <v>68</v>
       </c>
       <c r="C167" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>51</v>
       </c>
       <c r="C168" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>70</v>
       </c>
       <c r="C169" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>45</v>
       </c>
       <c r="C170" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -4007,7 +4007,7 @@
         <v>70</v>
       </c>
       <c r="C171" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         <v>65</v>
       </c>
       <c r="C172" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -4070,7 +4070,7 @@
         <v>57</v>
       </c>
       <c r="C174" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -4091,7 +4091,7 @@
         <v>51</v>
       </c>
       <c r="C175" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -4112,7 +4112,7 @@
         <v>32</v>
       </c>
       <c r="C176" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
         <v>67</v>
       </c>
       <c r="C177" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -4154,7 +4154,7 @@
         <v>57</v>
       </c>
       <c r="C178" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>55</v>
       </c>
       <c r="C179" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -4196,7 +4196,7 @@
         <v>61</v>
       </c>
       <c r="C180" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>61</v>
       </c>
       <c r="C181" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -4238,7 +4238,7 @@
         <v>61</v>
       </c>
       <c r="C182" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>50</v>
       </c>
       <c r="C183" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -4280,7 +4280,7 @@
         <v>56</v>
       </c>
       <c r="C184" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -4301,7 +4301,7 @@
         <v>46</v>
       </c>
       <c r="C185" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>55</v>
       </c>
       <c r="C186" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -4343,7 +4343,7 @@
         <v>61</v>
       </c>
       <c r="C187" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -4364,7 +4364,7 @@
         <v>60</v>
       </c>
       <c r="C188" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -4385,7 +4385,7 @@
         <v>72</v>
       </c>
       <c r="C189" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -4406,7 +4406,7 @@
         <v>45</v>
       </c>
       <c r="C190" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
         <v>54</v>
       </c>
       <c r="C191" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -4448,7 +4448,7 @@
         <v>63</v>
       </c>
       <c r="C192" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         <v>68</v>
       </c>
       <c r="C193" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -4490,7 +4490,7 @@
         <v>122</v>
       </c>
       <c r="C194" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -4511,7 +4511,7 @@
         <v>71</v>
       </c>
       <c r="C195" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>100</v>
       </c>
       <c r="C196" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>65</v>
       </c>
       <c r="C197" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>57</v>
       </c>
       <c r="C198" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -4595,7 +4595,7 @@
         <v>98</v>
       </c>
       <c r="C199" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -4616,7 +4616,7 @@
         <v>56</v>
       </c>
       <c r="C200" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -4637,7 +4637,7 @@
         <v>60</v>
       </c>
       <c r="C201" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>43</v>
       </c>
       <c r="C202" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -4679,7 +4679,7 @@
         <v>36</v>
       </c>
       <c r="C203" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>63</v>
       </c>
       <c r="C204" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>90</v>
       </c>
       <c r="C206" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -4763,7 +4763,7 @@
         <v>112</v>
       </c>
       <c r="C207" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -4784,7 +4784,7 @@
         <v>54</v>
       </c>
       <c r="C208" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>54</v>
       </c>
       <c r="C209" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         <v>54</v>
       </c>
       <c r="C210" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>56</v>
       </c>
       <c r="C211" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -4868,7 +4868,7 @@
         <v>80</v>
       </c>
       <c r="C212" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>60</v>
       </c>
       <c r="C213" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -4908,7 +4908,7 @@
       </c>
       <c r="B214" t="inlineStr"/>
       <c r="C214" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -4929,7 +4929,7 @@
         <v>64</v>
       </c>
       <c r="C215" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -4950,7 +4950,7 @@
         <v>65</v>
       </c>
       <c r="C216" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>56</v>
       </c>
       <c r="C217" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -4992,7 +4992,7 @@
         <v>55</v>
       </c>
       <c r="C218" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -5013,7 +5013,7 @@
         <v>45</v>
       </c>
       <c r="C219" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>76</v>
       </c>
       <c r="C220" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -5055,7 +5055,7 @@
         <v>67</v>
       </c>
       <c r="C221" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>55</v>
       </c>
       <c r="C222" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -5097,7 +5097,7 @@
         <v>63</v>
       </c>
       <c r="C223" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -5118,7 +5118,7 @@
         <v>60</v>
       </c>
       <c r="C224" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -5139,7 +5139,7 @@
         <v>50</v>
       </c>
       <c r="C225" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -5160,7 +5160,7 @@
         <v>53</v>
       </c>
       <c r="C226" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>51</v>
       </c>
       <c r="C227" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         <v>68</v>
       </c>
       <c r="C228" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -5223,7 +5223,7 @@
         <v>57</v>
       </c>
       <c r="C229" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         <v>108</v>
       </c>
       <c r="C230" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -5328,7 +5328,7 @@
         <v>57</v>
       </c>
       <c r="C234" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
         <v>60</v>
       </c>
       <c r="C235" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>55</v>
       </c>
       <c r="C236" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         <v>70</v>
       </c>
       <c r="C237" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -5412,7 +5412,7 @@
         <v>80</v>
       </c>
       <c r="C238" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>60</v>
       </c>
       <c r="C239" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -5454,7 +5454,7 @@
         <v>45</v>
       </c>
       <c r="C240" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>59</v>
       </c>
       <c r="C241" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -5496,7 +5496,7 @@
         <v>60</v>
       </c>
       <c r="C242" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         <v>84</v>
       </c>
       <c r="C243" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>60</v>
       </c>
       <c r="C244" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -5559,7 +5559,7 @@
         <v>54</v>
       </c>
       <c r="C245" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -5580,7 +5580,7 @@
         <v>65</v>
       </c>
       <c r="C246" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
         <v>70</v>
       </c>
       <c r="C247" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -5622,7 +5622,7 @@
         <v>64</v>
       </c>
       <c r="C248" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>55</v>
       </c>
       <c r="C249" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -5664,7 +5664,7 @@
         <v>33</v>
       </c>
       <c r="C250" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -5685,7 +5685,7 @@
         <v>57</v>
       </c>
       <c r="C251" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -5706,7 +5706,7 @@
         <v>38</v>
       </c>
       <c r="C252" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -5727,7 +5727,7 @@
         <v>71</v>
       </c>
       <c r="C253" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -5748,7 +5748,7 @@
         <v>96</v>
       </c>
       <c r="C254" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>59</v>
       </c>
       <c r="C255" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>50</v>
       </c>
       <c r="C256" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -5811,7 +5811,7 @@
         <v>56</v>
       </c>
       <c r="C257" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -5830,7 +5830,7 @@
       </c>
       <c r="B258" t="inlineStr"/>
       <c r="C258" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         <v>87</v>
       </c>
       <c r="C259" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -5872,7 +5872,7 @@
         <v>57</v>
       </c>
       <c r="C260" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         <v>33</v>
       </c>
       <c r="C261" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         <v>100</v>
       </c>
       <c r="C262" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         <v>50</v>
       </c>
       <c r="C263" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         <v>54</v>
       </c>
       <c r="C264" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>70</v>
       </c>
       <c r="C265" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>77</v>
       </c>
       <c r="C266" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -6019,7 +6019,7 @@
         <v>57</v>
       </c>
       <c r="C267" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         <v>70</v>
       </c>
       <c r="C268" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -6061,7 +6061,7 @@
         <v>43</v>
       </c>
       <c r="C269" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -6082,7 +6082,7 @@
         <v>53</v>
       </c>
       <c r="C270" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -6103,7 +6103,7 @@
         <v>50</v>
       </c>
       <c r="C271" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         <v>55</v>
       </c>
       <c r="C272" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -6145,7 +6145,7 @@
         <v>76</v>
       </c>
       <c r="C273" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         <v>90</v>
       </c>
       <c r="C274" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
         <v>37</v>
       </c>
       <c r="C275" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         <v>55</v>
       </c>
       <c r="C276" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>70</v>
       </c>
       <c r="C277" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -6250,7 +6250,7 @@
         <v>37</v>
       </c>
       <c r="C278" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -6271,7 +6271,7 @@
         <v>50</v>
       </c>
       <c r="C279" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>71</v>
       </c>
       <c r="C280" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
         <v>86</v>
       </c>
       <c r="C281" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>55</v>
       </c>
       <c r="C282" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         <v>64</v>
       </c>
       <c r="C283" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -6376,7 +6376,7 @@
         <v>176</v>
       </c>
       <c r="C284" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>55</v>
       </c>
       <c r="C285" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>61</v>
       </c>
       <c r="C286" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -6439,7 +6439,7 @@
         <v>33</v>
       </c>
       <c r="C287" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>44</v>
       </c>
       <c r="C288" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -6481,7 +6481,7 @@
         <v>50</v>
       </c>
       <c r="C289" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -6502,7 +6502,7 @@
         <v>45</v>
       </c>
       <c r="C290" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>58</v>
       </c>
       <c r="C291" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>42</v>
       </c>
       <c r="C292" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -6565,7 +6565,7 @@
         <v>53</v>
       </c>
       <c r="C293" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -6586,7 +6586,7 @@
         <v>66</v>
       </c>
       <c r="C294" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -6607,7 +6607,7 @@
         <v>54</v>
       </c>
       <c r="C295" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -6628,7 +6628,7 @@
         <v>35</v>
       </c>
       <c r="C296" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
         <v>47</v>
       </c>
       <c r="C297" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -6668,7 +6668,7 @@
       </c>
       <c r="B298" t="inlineStr"/>
       <c r="C298" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
         <v>45</v>
       </c>
       <c r="C299" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>62</v>
       </c>
       <c r="C300" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>44</v>
       </c>
       <c r="C301" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -6752,7 +6752,7 @@
         <v>67</v>
       </c>
       <c r="C302" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -6773,7 +6773,7 @@
         <v>57</v>
       </c>
       <c r="C303" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -6794,7 +6794,7 @@
         <v>55</v>
       </c>
       <c r="C304" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -6815,7 +6815,7 @@
         <v>52</v>
       </c>
       <c r="C305" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -6836,7 +6836,7 @@
         <v>47</v>
       </c>
       <c r="C306" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>61</v>
       </c>
       <c r="C307" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>60</v>
       </c>
       <c r="C308" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -6899,7 +6899,7 @@
         <v>32</v>
       </c>
       <c r="C309" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -6920,7 +6920,7 @@
         <v>57</v>
       </c>
       <c r="C310" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -6941,7 +6941,7 @@
         <v>37</v>
       </c>
       <c r="C311" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -6962,7 +6962,7 @@
         <v>50</v>
       </c>
       <c r="C312" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -6983,7 +6983,7 @@
         <v>120</v>
       </c>
       <c r="C313" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>90</v>
       </c>
       <c r="C314" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -7025,7 +7025,7 @@
         <v>40</v>
       </c>
       <c r="C315" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>58</v>
       </c>
       <c r="C316" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -7067,7 +7067,7 @@
         <v>54</v>
       </c>
       <c r="C317" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -7088,7 +7088,7 @@
         <v>73</v>
       </c>
       <c r="C318" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         <v>65</v>
       </c>
       <c r="C319" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
       </c>
       <c r="B320" t="inlineStr"/>
       <c r="C320" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -7149,7 +7149,7 @@
         <v>56</v>
       </c>
       <c r="C321" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -7170,7 +7170,7 @@
         <v>143</v>
       </c>
       <c r="C322" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -7191,7 +7191,7 @@
         <v>54</v>
       </c>
       <c r="C323" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>30</v>
       </c>
       <c r="C324" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -7233,7 +7233,7 @@
         <v>40</v>
       </c>
       <c r="C325" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         <v>65</v>
       </c>
       <c r="C326" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -7275,7 +7275,7 @@
         <v>60</v>
       </c>
       <c r="C327" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -7296,7 +7296,7 @@
         <v>85</v>
       </c>
       <c r="C328" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
         <v>50</v>
       </c>
       <c r="C329" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -7338,7 +7338,7 @@
         <v>73</v>
       </c>
       <c r="C330" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>76</v>
       </c>
       <c r="C331" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -7380,7 +7380,7 @@
         <v>55</v>
       </c>
       <c r="C332" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -7401,7 +7401,7 @@
         <v>71</v>
       </c>
       <c r="C333" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -7422,7 +7422,7 @@
         <v>48</v>
       </c>
       <c r="C334" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -7443,7 +7443,7 @@
         <v>58</v>
       </c>
       <c r="C335" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -7464,7 +7464,7 @@
         <v>43</v>
       </c>
       <c r="C336" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -7485,7 +7485,7 @@
         <v>62</v>
       </c>
       <c r="C337" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>48</v>
       </c>
       <c r="C338" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -7548,7 +7548,7 @@
         <v>60</v>
       </c>
       <c r="C340" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>43</v>
       </c>
       <c r="C341" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -7590,7 +7590,7 @@
         <v>70</v>
       </c>
       <c r="C342" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>70</v>
       </c>
       <c r="C343" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -7630,7 +7630,7 @@
       </c>
       <c r="B344" t="inlineStr"/>
       <c r="C344" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         <v>61</v>
       </c>
       <c r="C345" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -7672,7 +7672,7 @@
         <v>39</v>
       </c>
       <c r="C346" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -7693,7 +7693,7 @@
         <v>60</v>
       </c>
       <c r="C347" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -7714,7 +7714,7 @@
         <v>30</v>
       </c>
       <c r="C348" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -7735,7 +7735,7 @@
         <v>88</v>
       </c>
       <c r="C349" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         <v>51</v>
       </c>
       <c r="C350" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -7777,7 +7777,7 @@
         <v>55</v>
       </c>
       <c r="C351" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -7798,7 +7798,7 @@
         <v>35</v>
       </c>
       <c r="C352" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -7819,7 +7819,7 @@
         <v>47</v>
       </c>
       <c r="C353" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -7840,7 +7840,7 @@
         <v>55</v>
       </c>
       <c r="C354" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -7861,7 +7861,7 @@
         <v>65</v>
       </c>
       <c r="C355" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -7882,7 +7882,7 @@
         <v>118</v>
       </c>
       <c r="C356" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -7903,7 +7903,7 @@
         <v>53</v>
       </c>
       <c r="C357" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -7924,7 +7924,7 @@
         <v>100</v>
       </c>
       <c r="C358" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
         <v>52</v>
       </c>
       <c r="C359" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -7966,7 +7966,7 @@
         <v>70</v>
       </c>
       <c r="C360" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -7987,7 +7987,7 @@
         <v>43</v>
       </c>
       <c r="C361" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -8008,7 +8008,7 @@
         <v>45</v>
       </c>
       <c r="C362" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -8029,7 +8029,7 @@
         <v>190</v>
       </c>
       <c r="C363" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -8050,7 +8050,7 @@
         <v>100</v>
       </c>
       <c r="C364" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -8071,7 +8071,7 @@
         <v>44</v>
       </c>
       <c r="C365" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -8092,7 +8092,7 @@
         <v>90</v>
       </c>
       <c r="C366" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>93</v>
       </c>
       <c r="C367" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -8134,7 +8134,7 @@
         <v>55</v>
       </c>
       <c r="C368" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         <v>38</v>
       </c>
       <c r="C369" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>49</v>
       </c>
       <c r="C370" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -8197,7 +8197,7 @@
         <v>105</v>
       </c>
       <c r="C371" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -8218,7 +8218,7 @@
         <v>42</v>
       </c>
       <c r="C372" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -8239,7 +8239,7 @@
         <v>73</v>
       </c>
       <c r="C373" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -8260,7 +8260,7 @@
         <v>37</v>
       </c>
       <c r="C374" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
         <v>55</v>
       </c>
       <c r="C375" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -8302,7 +8302,7 @@
         <v>71</v>
       </c>
       <c r="C376" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -8323,7 +8323,7 @@
         <v>63</v>
       </c>
       <c r="C377" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         <v>58</v>
       </c>
       <c r="C378" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
         <v>35</v>
       </c>
       <c r="C379" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         <v>57</v>
       </c>
       <c r="C380" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -8405,7 +8405,7 @@
       </c>
       <c r="B381" t="inlineStr"/>
       <c r="C381" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -8426,7 +8426,7 @@
         <v>61</v>
       </c>
       <c r="C382" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -8447,7 +8447,7 @@
         <v>63</v>
       </c>
       <c r="C383" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -8468,7 +8468,7 @@
         <v>42</v>
       </c>
       <c r="C384" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>56</v>
       </c>
       <c r="C385" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>56</v>
       </c>
       <c r="C386" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -8531,7 +8531,7 @@
         <v>45</v>
       </c>
       <c r="C387" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -8552,7 +8552,7 @@
         <v>58</v>
       </c>
       <c r="C388" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -8573,7 +8573,7 @@
         <v>65</v>
       </c>
       <c r="C389" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>38</v>
       </c>
       <c r="C390" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>27</v>
       </c>
       <c r="C391" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -8636,7 +8636,7 @@
         <v>43</v>
       </c>
       <c r="C392" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -8657,7 +8657,7 @@
         <v>40</v>
       </c>
       <c r="C393" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -8678,7 +8678,7 @@
         <v>60</v>
       </c>
       <c r="C394" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         <v>35</v>
       </c>
       <c r="C395" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -8720,7 +8720,7 @@
         <v>80</v>
       </c>
       <c r="C396" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -8741,7 +8741,7 @@
         <v>38</v>
       </c>
       <c r="C397" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -8762,7 +8762,7 @@
         <v>74</v>
       </c>
       <c r="C398" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -8783,7 +8783,7 @@
         <v>59</v>
       </c>
       <c r="C399" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -8804,7 +8804,7 @@
         <v>50</v>
       </c>
       <c r="C400" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -8825,7 +8825,7 @@
         <v>70</v>
       </c>
       <c r="C401" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -8846,7 +8846,7 @@
         <v>53</v>
       </c>
       <c r="C402" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -8867,7 +8867,7 @@
         <v>50</v>
       </c>
       <c r="C403" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         <v>105</v>
       </c>
       <c r="C404" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -8909,7 +8909,7 @@
         <v>56</v>
       </c>
       <c r="C405" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -8928,7 +8928,7 @@
       </c>
       <c r="B406" t="inlineStr"/>
       <c r="C406" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -8949,7 +8949,7 @@
         <v>59</v>
       </c>
       <c r="C407" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -8970,7 +8970,7 @@
         <v>55</v>
       </c>
       <c r="C408" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -8991,7 +8991,7 @@
         <v>58</v>
       </c>
       <c r="C409" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -9012,7 +9012,7 @@
         <v>45</v>
       </c>
       <c r="C410" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -9054,7 +9054,7 @@
         <v>54</v>
       </c>
       <c r="C412" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -9075,7 +9075,7 @@
         <v>57</v>
       </c>
       <c r="C413" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -9096,7 +9096,7 @@
         <v>67</v>
       </c>
       <c r="C414" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         <v>54</v>
       </c>
       <c r="C415" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>35</v>
       </c>
       <c r="C416" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -9159,7 +9159,7 @@
         <v>45</v>
       </c>
       <c r="C417" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -9180,7 +9180,7 @@
         <v>40</v>
       </c>
       <c r="C418" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -9201,7 +9201,7 @@
         <v>58</v>
       </c>
       <c r="C419" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -9222,7 +9222,7 @@
         <v>50</v>
       </c>
       <c r="C420" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -9243,7 +9243,7 @@
         <v>50</v>
       </c>
       <c r="C421" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -9264,7 +9264,7 @@
         <v>60</v>
       </c>
       <c r="C422" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -9285,7 +9285,7 @@
         <v>43</v>
       </c>
       <c r="C423" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -9306,7 +9306,7 @@
         <v>43</v>
       </c>
       <c r="C424" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -9327,7 +9327,7 @@
         <v>48</v>
       </c>
       <c r="C425" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -9348,7 +9348,7 @@
         <v>30</v>
       </c>
       <c r="C426" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -9369,7 +9369,7 @@
         <v>71.14</v>
       </c>
       <c r="C427" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -9390,7 +9390,7 @@
         <v>75</v>
       </c>
       <c r="C428" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>160</v>
       </c>
       <c r="C429" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -9432,7 +9432,7 @@
         <v>60</v>
       </c>
       <c r="C430" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -9453,7 +9453,7 @@
         <v>60</v>
       </c>
       <c r="C431" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -9495,7 +9495,7 @@
         <v>25</v>
       </c>
       <c r="C433" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -9516,7 +9516,7 @@
         <v>61</v>
       </c>
       <c r="C434" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -9537,7 +9537,7 @@
         <v>55</v>
       </c>
       <c r="C435" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>60</v>
       </c>
       <c r="C436" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -9579,7 +9579,7 @@
         <v>37</v>
       </c>
       <c r="C437" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -9600,7 +9600,7 @@
         <v>35</v>
       </c>
       <c r="C438" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>80</v>
       </c>
       <c r="C439" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -9642,7 +9642,7 @@
         <v>120</v>
       </c>
       <c r="C440" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -9663,7 +9663,7 @@
         <v>46</v>
       </c>
       <c r="C441" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -9684,7 +9684,7 @@
         <v>60</v>
       </c>
       <c r="C442" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -9705,7 +9705,7 @@
         <v>51</v>
       </c>
       <c r="C443" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -9726,7 +9726,7 @@
         <v>70</v>
       </c>
       <c r="C444" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -9747,7 +9747,7 @@
         <v>29</v>
       </c>
       <c r="C445" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -9768,7 +9768,7 @@
         <v>35</v>
       </c>
       <c r="C446" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -9789,7 +9789,7 @@
         <v>51</v>
       </c>
       <c r="C447" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -9808,7 +9808,7 @@
       </c>
       <c r="B448" t="inlineStr"/>
       <c r="C448" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>42</v>
       </c>
       <c r="C449" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -9850,7 +9850,7 @@
         <v>38</v>
       </c>
       <c r="C450" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -9871,7 +9871,7 @@
         <v>33</v>
       </c>
       <c r="C451" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -9890,7 +9890,7 @@
       </c>
       <c r="B452" t="inlineStr"/>
       <c r="C452" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>50</v>
       </c>
       <c r="C453" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -9932,7 +9932,7 @@
         <v>75</v>
       </c>
       <c r="C454" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -9951,7 +9951,7 @@
       </c>
       <c r="B455" t="inlineStr"/>
       <c r="C455" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -9972,7 +9972,7 @@
         <v>43</v>
       </c>
       <c r="C456" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -9993,7 +9993,7 @@
         <v>56</v>
       </c>
       <c r="C457" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>43</v>
       </c>
       <c r="C458" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>58</v>
       </c>
       <c r="C459" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -10056,7 +10056,7 @@
         <v>41</v>
       </c>
       <c r="C460" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -10077,7 +10077,7 @@
         <v>56</v>
       </c>
       <c r="C461" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -10098,7 +10098,7 @@
         <v>55</v>
       </c>
       <c r="C462" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -10119,7 +10119,7 @@
         <v>62</v>
       </c>
       <c r="C463" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -10140,7 +10140,7 @@
         <v>45</v>
       </c>
       <c r="C464" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -10161,7 +10161,7 @@
         <v>40</v>
       </c>
       <c r="C465" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -10182,7 +10182,7 @@
         <v>43</v>
       </c>
       <c r="C466" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -10203,7 +10203,7 @@
         <v>54</v>
       </c>
       <c r="C467" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -10224,7 +10224,7 @@
         <v>57</v>
       </c>
       <c r="C468" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -10245,7 +10245,7 @@
         <v>65</v>
       </c>
       <c r="C469" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>55</v>
       </c>
       <c r="C470" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -10287,7 +10287,7 @@
         <v>48</v>
       </c>
       <c r="C471" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>45</v>
       </c>
       <c r="C472" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>105</v>
       </c>
       <c r="C473" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         <v>59</v>
       </c>
       <c r="C474" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -10371,7 +10371,7 @@
         <v>65</v>
       </c>
       <c r="C475" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -10392,7 +10392,7 @@
         <v>40</v>
       </c>
       <c r="C476" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -10413,7 +10413,7 @@
         <v>48</v>
       </c>
       <c r="C477" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -10434,7 +10434,7 @@
         <v>60</v>
       </c>
       <c r="C478" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -10455,7 +10455,7 @@
         <v>65</v>
       </c>
       <c r="C479" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -10474,7 +10474,7 @@
       </c>
       <c r="B480" t="inlineStr"/>
       <c r="C480" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -10495,7 +10495,7 @@
         <v>52</v>
       </c>
       <c r="C481" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -10516,7 +10516,7 @@
         <v>70</v>
       </c>
       <c r="C482" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -10537,7 +10537,7 @@
         <v>70</v>
       </c>
       <c r="C483" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>54</v>
       </c>
       <c r="C484" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -10579,7 +10579,7 @@
         <v>55</v>
       </c>
       <c r="C485" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -10600,7 +10600,7 @@
         <v>55</v>
       </c>
       <c r="C486" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -10621,7 +10621,7 @@
         <v>60</v>
       </c>
       <c r="C487" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -10642,7 +10642,7 @@
         <v>65</v>
       </c>
       <c r="C488" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -10663,7 +10663,7 @@
         <v>73</v>
       </c>
       <c r="C489" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -10684,7 +10684,7 @@
         <v>38</v>
       </c>
       <c r="C490" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -10705,7 +10705,7 @@
         <v>50</v>
       </c>
       <c r="C491" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -10726,7 +10726,7 @@
         <v>38</v>
       </c>
       <c r="C492" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         <v>45</v>
       </c>
       <c r="C493" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -10768,7 +10768,7 @@
         <v>58</v>
       </c>
       <c r="C494" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -10789,7 +10789,7 @@
         <v>60</v>
       </c>
       <c r="C495" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -10810,7 +10810,7 @@
         <v>40</v>
       </c>
       <c r="C496" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -10831,7 +10831,7 @@
         <v>55</v>
       </c>
       <c r="C497" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -10852,7 +10852,7 @@
         <v>53</v>
       </c>
       <c r="C498" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
         <v>54</v>
       </c>
       <c r="C499" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -10894,7 +10894,7 @@
         <v>68</v>
       </c>
       <c r="C500" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -10915,7 +10915,7 @@
         <v>100</v>
       </c>
       <c r="C501" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -10936,7 +10936,7 @@
         <v>50</v>
       </c>
       <c r="C502" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -10957,7 +10957,7 @@
         <v>110</v>
       </c>
       <c r="C503" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -10978,7 +10978,7 @@
         <v>50</v>
       </c>
       <c r="C504" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -10999,7 +10999,7 @@
         <v>60</v>
       </c>
       <c r="C505" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -11020,7 +11020,7 @@
         <v>80</v>
       </c>
       <c r="C506" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>77</v>
       </c>
       <c r="C507" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -11062,7 +11062,7 @@
         <v>70</v>
       </c>
       <c r="C508" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -11083,7 +11083,7 @@
         <v>50</v>
       </c>
       <c r="C509" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -11104,7 +11104,7 @@
         <v>60</v>
       </c>
       <c r="C510" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -11125,7 +11125,7 @@
         <v>42</v>
       </c>
       <c r="C511" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>32</v>
       </c>
       <c r="C512" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -11167,7 +11167,7 @@
         <v>160</v>
       </c>
       <c r="C513" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -11188,7 +11188,7 @@
         <v>47</v>
       </c>
       <c r="C514" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
         <v>60</v>
       </c>
       <c r="C515" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -11228,7 +11228,7 @@
       </c>
       <c r="B516" t="inlineStr"/>
       <c r="C516" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -11249,7 +11249,7 @@
         <v>50</v>
       </c>
       <c r="C517" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -11270,7 +11270,7 @@
         <v>58</v>
       </c>
       <c r="C518" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -11291,7 +11291,7 @@
         <v>60</v>
       </c>
       <c r="C519" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -11310,7 +11310,7 @@
       </c>
       <c r="B520" t="inlineStr"/>
       <c r="C520" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -11331,7 +11331,7 @@
         <v>47</v>
       </c>
       <c r="C521" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -11352,7 +11352,7 @@
         <v>55</v>
       </c>
       <c r="C522" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -11373,7 +11373,7 @@
         <v>54</v>
       </c>
       <c r="C523" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -11394,7 +11394,7 @@
         <v>46</v>
       </c>
       <c r="C524" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -11415,7 +11415,7 @@
         <v>56</v>
       </c>
       <c r="C525" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -11436,7 +11436,7 @@
         <v>61</v>
       </c>
       <c r="C526" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>37</v>
       </c>
       <c r="C527" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -11478,7 +11478,7 @@
         <v>67</v>
       </c>
       <c r="C528" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -11499,7 +11499,7 @@
         <v>60</v>
       </c>
       <c r="C529" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -11520,7 +11520,7 @@
         <v>58</v>
       </c>
       <c r="C530" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
       </c>
       <c r="B531" t="inlineStr"/>
       <c r="C531" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -11560,7 +11560,7 @@
         <v>45</v>
       </c>
       <c r="C532" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -11581,7 +11581,7 @@
         <v>54</v>
       </c>
       <c r="C533" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>84</v>
       </c>
       <c r="C534" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -11623,7 +11623,7 @@
         <v>50</v>
       </c>
       <c r="C535" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>53</v>
       </c>
       <c r="C536" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -11663,7 +11663,7 @@
       </c>
       <c r="B537" t="inlineStr"/>
       <c r="C537" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -11684,7 +11684,7 @@
         <v>54</v>
       </c>
       <c r="C538" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>48</v>
       </c>
       <c r="C539" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -11726,7 +11726,7 @@
         <v>60</v>
       </c>
       <c r="C540" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -11747,7 +11747,7 @@
         <v>74</v>
       </c>
       <c r="C541" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -11768,7 +11768,7 @@
         <v>75</v>
       </c>
       <c r="C542" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -11789,7 +11789,7 @@
         <v>68</v>
       </c>
       <c r="C543" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>70</v>
       </c>
       <c r="C544" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -11831,7 +11831,7 @@
         <v>85.5</v>
       </c>
       <c r="C545" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -11852,7 +11852,7 @@
         <v>56</v>
       </c>
       <c r="C546" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -11873,7 +11873,7 @@
         <v>74</v>
       </c>
       <c r="C547" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -11894,7 +11894,7 @@
         <v>56</v>
       </c>
       <c r="C548" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -11915,7 +11915,7 @@
         <v>54</v>
       </c>
       <c r="C549" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -11936,7 +11936,7 @@
         <v>51</v>
       </c>
       <c r="C550" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -11957,7 +11957,7 @@
         <v>55</v>
       </c>
       <c r="C551" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -11978,7 +11978,7 @@
         <v>44</v>
       </c>
       <c r="C552" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -11999,7 +11999,7 @@
         <v>40</v>
       </c>
       <c r="C553" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -12020,7 +12020,7 @@
         <v>50</v>
       </c>
       <c r="C554" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -12041,7 +12041,7 @@
         <v>56</v>
       </c>
       <c r="C555" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>57</v>
       </c>
       <c r="C556" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -12083,7 +12083,7 @@
         <v>100</v>
       </c>
       <c r="C557" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -12104,7 +12104,7 @@
         <v>47</v>
       </c>
       <c r="C558" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -12125,7 +12125,7 @@
         <v>51</v>
       </c>
       <c r="C559" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         <v>52</v>
       </c>
       <c r="C560" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -12167,7 +12167,7 @@
         <v>50</v>
       </c>
       <c r="C561" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         <v>30</v>
       </c>
       <c r="C562" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -12209,7 +12209,7 @@
         <v>45</v>
       </c>
       <c r="C563" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -12230,7 +12230,7 @@
         <v>53</v>
       </c>
       <c r="C564" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -12251,7 +12251,7 @@
         <v>68</v>
       </c>
       <c r="C565" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -12272,7 +12272,7 @@
         <v>44</v>
       </c>
       <c r="C566" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>55</v>
       </c>
       <c r="C567" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -12314,7 +12314,7 @@
         <v>47</v>
       </c>
       <c r="C568" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -12335,7 +12335,7 @@
         <v>73</v>
       </c>
       <c r="C569" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -12356,7 +12356,7 @@
         <v>52</v>
       </c>
       <c r="C570" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -12377,7 +12377,7 @@
         <v>96</v>
       </c>
       <c r="C571" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -12398,7 +12398,7 @@
         <v>55</v>
       </c>
       <c r="C572" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>37</v>
       </c>
       <c r="C573" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -12440,7 +12440,7 @@
         <v>49</v>
       </c>
       <c r="C574" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -12461,7 +12461,7 @@
         <v>53</v>
       </c>
       <c r="C575" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>43</v>
       </c>
       <c r="C576" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>45</v>
       </c>
       <c r="C577" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -12524,7 +12524,7 @@
         <v>56</v>
       </c>
       <c r="C578" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -12545,7 +12545,7 @@
         <v>43</v>
       </c>
       <c r="C579" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -12566,7 +12566,7 @@
         <v>44</v>
       </c>
       <c r="C580" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -12587,7 +12587,7 @@
         <v>71</v>
       </c>
       <c r="C581" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -12608,7 +12608,7 @@
         <v>76</v>
       </c>
       <c r="C582" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -12629,7 +12629,7 @@
         <v>72</v>
       </c>
       <c r="C583" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -12650,7 +12650,7 @@
         <v>37</v>
       </c>
       <c r="C584" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -12671,7 +12671,7 @@
         <v>69</v>
       </c>
       <c r="C585" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
         <v>58</v>
       </c>
       <c r="C586" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -12711,7 +12711,7 @@
       </c>
       <c r="B587" t="inlineStr"/>
       <c r="C587" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -12732,7 +12732,7 @@
         <v>45</v>
       </c>
       <c r="C588" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -12753,7 +12753,7 @@
         <v>50</v>
       </c>
       <c r="C589" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -12774,7 +12774,7 @@
         <v>45</v>
       </c>
       <c r="C590" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -12795,7 +12795,7 @@
         <v>55</v>
       </c>
       <c r="C591" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
         <v>55</v>
       </c>
       <c r="C593" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -12858,7 +12858,7 @@
         <v>49</v>
       </c>
       <c r="C594" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -12879,7 +12879,7 @@
         <v>64</v>
       </c>
       <c r="C595" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -12900,7 +12900,7 @@
         <v>54</v>
       </c>
       <c r="C596" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -12921,7 +12921,7 @@
         <v>85</v>
       </c>
       <c r="C597" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -12942,7 +12942,7 @@
         <v>81</v>
       </c>
       <c r="C598" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -12963,7 +12963,7 @@
         <v>37</v>
       </c>
       <c r="C599" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -12984,7 +12984,7 @@
         <v>95</v>
       </c>
       <c r="C600" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -13005,7 +13005,7 @@
         <v>47</v>
       </c>
       <c r="C601" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         <v>76</v>
       </c>
       <c r="C602" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -13047,7 +13047,7 @@
         <v>74</v>
       </c>
       <c r="C603" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -13068,7 +13068,7 @@
         <v>64</v>
       </c>
       <c r="C604" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -13089,7 +13089,7 @@
         <v>72</v>
       </c>
       <c r="C605" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -13110,7 +13110,7 @@
         <v>60</v>
       </c>
       <c r="C606" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -13131,7 +13131,7 @@
         <v>56</v>
       </c>
       <c r="C607" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -13152,7 +13152,7 @@
         <v>54</v>
       </c>
       <c r="C608" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -13173,7 +13173,7 @@
         <v>56</v>
       </c>
       <c r="C609" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -13194,7 +13194,7 @@
         <v>50</v>
       </c>
       <c r="C610" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -13215,7 +13215,7 @@
         <v>55</v>
       </c>
       <c r="C611" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -13236,7 +13236,7 @@
         <v>37</v>
       </c>
       <c r="C612" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -13257,7 +13257,7 @@
         <v>45</v>
       </c>
       <c r="C613" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -13278,7 +13278,7 @@
         <v>46</v>
       </c>
       <c r="C614" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>65</v>
       </c>
       <c r="C615" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -13320,7 +13320,7 @@
         <v>43</v>
       </c>
       <c r="C616" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -13341,7 +13341,7 @@
         <v>75</v>
       </c>
       <c r="C617" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -13362,7 +13362,7 @@
         <v>60</v>
       </c>
       <c r="C618" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -13404,7 +13404,7 @@
         <v>38</v>
       </c>
       <c r="C620" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -13425,7 +13425,7 @@
         <v>56</v>
       </c>
       <c r="C621" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -13446,7 +13446,7 @@
         <v>42</v>
       </c>
       <c r="C622" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>120</v>
       </c>
       <c r="C623" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -13488,7 +13488,7 @@
         <v>55</v>
       </c>
       <c r="C624" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -13509,7 +13509,7 @@
         <v>55</v>
       </c>
       <c r="C625" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -13530,7 +13530,7 @@
         <v>58</v>
       </c>
       <c r="C626" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -13551,7 +13551,7 @@
         <v>60</v>
       </c>
       <c r="C627" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -13572,7 +13572,7 @@
         <v>67</v>
       </c>
       <c r="C628" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -13593,7 +13593,7 @@
         <v>53</v>
       </c>
       <c r="C629" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -13614,7 +13614,7 @@
         <v>61</v>
       </c>
       <c r="C630" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -13635,7 +13635,7 @@
         <v>55</v>
       </c>
       <c r="C631" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -13656,7 +13656,7 @@
         <v>105</v>
       </c>
       <c r="C632" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -13677,7 +13677,7 @@
         <v>55</v>
       </c>
       <c r="C633" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -13698,7 +13698,7 @@
         <v>46</v>
       </c>
       <c r="C634" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -13719,7 +13719,7 @@
         <v>73</v>
       </c>
       <c r="C635" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
         <v>75</v>
       </c>
       <c r="C636" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -13761,7 +13761,7 @@
         <v>55</v>
       </c>
       <c r="C637" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -13782,7 +13782,7 @@
         <v>55</v>
       </c>
       <c r="C638" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -13803,7 +13803,7 @@
         <v>80</v>
       </c>
       <c r="C639" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -13824,7 +13824,7 @@
         <v>54</v>
       </c>
       <c r="C640" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -13845,7 +13845,7 @@
         <v>43</v>
       </c>
       <c r="C641" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>

--- a/streamlit/Houses_Cleaned.xlsx
+++ b/streamlit/Houses_Cleaned.xlsx
@@ -491,7 +491,9 @@
       <c r="A3" t="n">
         <v>185000</v>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>73</v>
+      </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
@@ -513,7 +515,9 @@
       <c r="A4" t="n">
         <v>250000</v>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
       <c r="C4" t="n">
         <v>5</v>
       </c>
@@ -535,7 +539,9 @@
       <c r="A5" t="n">
         <v>150000</v>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="n">
+        <v>60</v>
+      </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
@@ -557,7 +563,9 @@
       <c r="A6" t="n">
         <v>150000</v>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>75</v>
+      </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
@@ -579,7 +587,9 @@
       <c r="A7" t="n">
         <v>165000</v>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="n">
+        <v>50</v>
+      </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
@@ -601,7 +611,9 @@
       <c r="A8" t="n">
         <v>175000</v>
       </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="n">
+        <v>50</v>
+      </c>
       <c r="C8" t="n">
         <v>2</v>
       </c>
@@ -623,7 +635,9 @@
       <c r="A9" t="n">
         <v>170000</v>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="n">
+        <v>64</v>
+      </c>
       <c r="C9" t="n">
         <v>3</v>
       </c>
@@ -645,7 +659,9 @@
       <c r="A10" t="n">
         <v>200000</v>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="n">
+        <v>80</v>
+      </c>
       <c r="C10" t="n">
         <v>4</v>
       </c>
@@ -667,7 +683,9 @@
       <c r="A11" t="n">
         <v>150000</v>
       </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="n">
+        <v>55</v>
+      </c>
       <c r="C11" t="n">
         <v>2</v>
       </c>
@@ -711,7 +729,9 @@
       <c r="A13" t="n">
         <v>110000</v>
       </c>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" t="n">
+        <v>60</v>
+      </c>
       <c r="C13" t="n">
         <v>2</v>
       </c>
@@ -733,7 +753,9 @@
       <c r="A14" t="n">
         <v>450000</v>
       </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="n">
+        <v>175</v>
+      </c>
       <c r="C14" t="n">
         <v>4</v>
       </c>
@@ -755,7 +777,9 @@
       <c r="A15" t="n">
         <v>300000</v>
       </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="n">
+        <v>70</v>
+      </c>
       <c r="C15" t="n">
         <v>3</v>
       </c>
@@ -777,7 +801,9 @@
       <c r="A16" t="n">
         <v>200000</v>
       </c>
-      <c r="B16" t="inlineStr"/>
+      <c r="B16" t="n">
+        <v>78</v>
+      </c>
       <c r="C16" t="n">
         <v>3</v>
       </c>
@@ -799,7 +825,9 @@
       <c r="A17" t="n">
         <v>150000</v>
       </c>
-      <c r="B17" t="inlineStr"/>
+      <c r="B17" t="n">
+        <v>55</v>
+      </c>
       <c r="C17" t="n">
         <v>2</v>
       </c>
@@ -821,7 +849,9 @@
       <c r="A18" t="n">
         <v>125000</v>
       </c>
-      <c r="B18" t="inlineStr"/>
+      <c r="B18" t="n">
+        <v>60</v>
+      </c>
       <c r="C18" t="n">
         <v>1</v>
       </c>
@@ -843,7 +873,9 @@
       <c r="A19" t="n">
         <v>235000</v>
       </c>
-      <c r="B19" t="inlineStr"/>
+      <c r="B19" t="n">
+        <v>43</v>
+      </c>
       <c r="C19" t="n">
         <v>2</v>
       </c>
@@ -865,7 +897,9 @@
       <c r="A20" t="n">
         <v>250000</v>
       </c>
-      <c r="B20" t="inlineStr"/>
+      <c r="B20" t="n">
+        <v>72</v>
+      </c>
       <c r="C20" t="n">
         <v>3</v>
       </c>
@@ -887,7 +921,9 @@
       <c r="A21" t="n">
         <v>130000</v>
       </c>
-      <c r="B21" t="inlineStr"/>
+      <c r="B21" t="n">
+        <v>44</v>
+      </c>
       <c r="C21" t="n">
         <v>2</v>
       </c>
@@ -909,7 +945,9 @@
       <c r="A22" t="n">
         <v>170000</v>
       </c>
-      <c r="B22" t="inlineStr"/>
+      <c r="B22" t="n">
+        <v>61</v>
+      </c>
       <c r="C22" t="n">
         <v>3</v>
       </c>
@@ -931,7 +969,9 @@
       <c r="A23" t="n">
         <v>280000</v>
       </c>
-      <c r="B23" t="inlineStr"/>
+      <c r="B23" t="n">
+        <v>68</v>
+      </c>
       <c r="C23" t="n">
         <v>3</v>
       </c>
@@ -953,7 +993,9 @@
       <c r="A24" t="n">
         <v>410000</v>
       </c>
-      <c r="B24" t="inlineStr"/>
+      <c r="B24" t="n">
+        <v>106</v>
+      </c>
       <c r="C24" t="n">
         <v>3</v>
       </c>
@@ -975,7 +1017,9 @@
       <c r="A25" t="n">
         <v>180000</v>
       </c>
-      <c r="B25" t="inlineStr"/>
+      <c r="B25" t="n">
+        <v>45</v>
+      </c>
       <c r="C25" t="n">
         <v>2</v>
       </c>
@@ -997,7 +1041,9 @@
       <c r="A26" t="n">
         <v>265000</v>
       </c>
-      <c r="B26" t="inlineStr"/>
+      <c r="B26" t="n">
+        <v>58</v>
+      </c>
       <c r="C26" t="n">
         <v>2</v>
       </c>
@@ -1019,7 +1065,9 @@
       <c r="A27" t="n">
         <v>55000</v>
       </c>
-      <c r="B27" t="inlineStr"/>
+      <c r="B27" t="n">
+        <v>20</v>
+      </c>
       <c r="C27" t="n">
         <v>1</v>
       </c>
@@ -1041,7 +1089,9 @@
       <c r="A28" t="n">
         <v>130000</v>
       </c>
-      <c r="B28" t="inlineStr"/>
+      <c r="B28" t="n">
+        <v>54</v>
+      </c>
       <c r="C28" t="n">
         <v>2</v>
       </c>
@@ -1063,7 +1113,9 @@
       <c r="A29" t="n">
         <v>145000</v>
       </c>
-      <c r="B29" t="inlineStr"/>
+      <c r="B29" t="n">
+        <v>39</v>
+      </c>
       <c r="C29" t="n">
         <v>2</v>
       </c>
@@ -1085,7 +1137,9 @@
       <c r="A30" t="n">
         <v>140000</v>
       </c>
-      <c r="B30" t="inlineStr"/>
+      <c r="B30" t="n">
+        <v>56</v>
+      </c>
       <c r="C30" t="n">
         <v>2</v>
       </c>
@@ -1107,7 +1161,9 @@
       <c r="A31" t="n">
         <v>175000</v>
       </c>
-      <c r="B31" t="inlineStr"/>
+      <c r="B31" t="n">
+        <v>70</v>
+      </c>
       <c r="C31" t="n">
         <v>1</v>
       </c>
@@ -1129,7 +1185,9 @@
       <c r="A32" t="n">
         <v>160000</v>
       </c>
-      <c r="B32" t="inlineStr"/>
+      <c r="B32" t="n">
+        <v>57</v>
+      </c>
       <c r="C32" t="n">
         <v>2</v>
       </c>
@@ -1151,7 +1209,9 @@
       <c r="A33" t="n">
         <v>150000</v>
       </c>
-      <c r="B33" t="inlineStr"/>
+      <c r="B33" t="n">
+        <v>50</v>
+      </c>
       <c r="C33" t="n">
         <v>2</v>
       </c>
@@ -1173,7 +1233,9 @@
       <c r="A34" t="n">
         <v>275000</v>
       </c>
-      <c r="B34" t="inlineStr"/>
+      <c r="B34" t="n">
+        <v>80</v>
+      </c>
       <c r="C34" t="n">
         <v>2</v>
       </c>
@@ -1195,7 +1257,9 @@
       <c r="A35" t="n">
         <v>150000</v>
       </c>
-      <c r="B35" t="inlineStr"/>
+      <c r="B35" t="n">
+        <v>62</v>
+      </c>
       <c r="C35" t="n">
         <v>2</v>
       </c>
@@ -1217,7 +1281,9 @@
       <c r="A36" t="n">
         <v>120000</v>
       </c>
-      <c r="B36" t="inlineStr"/>
+      <c r="B36" t="n">
+        <v>53</v>
+      </c>
       <c r="C36" t="n">
         <v>2</v>
       </c>
@@ -1239,7 +1305,9 @@
       <c r="A37" t="n">
         <v>160000</v>
       </c>
-      <c r="B37" t="inlineStr"/>
+      <c r="B37" t="n">
+        <v>53</v>
+      </c>
       <c r="C37" t="n">
         <v>2</v>
       </c>
@@ -1261,7 +1329,9 @@
       <c r="A38" t="n">
         <v>220000</v>
       </c>
-      <c r="B38" t="inlineStr"/>
+      <c r="B38" t="n">
+        <v>55</v>
+      </c>
       <c r="C38" t="n">
         <v>2</v>
       </c>
@@ -1283,7 +1353,9 @@
       <c r="A39" t="n">
         <v>145000</v>
       </c>
-      <c r="B39" t="inlineStr"/>
+      <c r="B39" t="n">
+        <v>58</v>
+      </c>
       <c r="C39" t="n">
         <v>3</v>
       </c>
@@ -1305,7 +1377,9 @@
       <c r="A40" t="n">
         <v>185000</v>
       </c>
-      <c r="B40" t="inlineStr"/>
+      <c r="B40" t="n">
+        <v>42</v>
+      </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
@@ -1327,7 +1401,9 @@
       <c r="A41" t="n">
         <v>140000</v>
       </c>
-      <c r="B41" t="inlineStr"/>
+      <c r="B41" t="n">
+        <v>44</v>
+      </c>
       <c r="C41" t="n">
         <v>3</v>
       </c>
@@ -1349,7 +1425,9 @@
       <c r="A42" t="n">
         <v>250000</v>
       </c>
-      <c r="B42" t="inlineStr"/>
+      <c r="B42" t="n">
+        <v>114</v>
+      </c>
       <c r="C42" t="n">
         <v>4</v>
       </c>
@@ -1371,7 +1449,9 @@
       <c r="A43" t="n">
         <v>600000</v>
       </c>
-      <c r="B43" t="inlineStr"/>
+      <c r="B43" t="n">
+        <v>93</v>
+      </c>
       <c r="C43" t="n">
         <v>4</v>
       </c>
@@ -1393,7 +1473,9 @@
       <c r="A44" t="n">
         <v>150000</v>
       </c>
-      <c r="B44" t="inlineStr"/>
+      <c r="B44" t="n">
+        <v>75</v>
+      </c>
       <c r="C44" t="n">
         <v>2</v>
       </c>
@@ -1415,7 +1497,9 @@
       <c r="A45" t="n">
         <v>150000</v>
       </c>
-      <c r="B45" t="inlineStr"/>
+      <c r="B45" t="n">
+        <v>63</v>
+      </c>
       <c r="C45" t="n">
         <v>3</v>
       </c>
@@ -1437,7 +1521,9 @@
       <c r="A46" t="n">
         <v>160000</v>
       </c>
-      <c r="B46" t="inlineStr"/>
+      <c r="B46" t="n">
+        <v>73</v>
+      </c>
       <c r="C46" t="n">
         <v>3</v>
       </c>
@@ -1459,7 +1545,9 @@
       <c r="A47" t="n">
         <v>110000</v>
       </c>
-      <c r="B47" t="inlineStr"/>
+      <c r="B47" t="n">
+        <v>56</v>
+      </c>
       <c r="C47" t="n">
         <v>2</v>
       </c>
@@ -1481,7 +1569,9 @@
       <c r="A48" t="n">
         <v>120000</v>
       </c>
-      <c r="B48" t="inlineStr"/>
+      <c r="B48" t="n">
+        <v>52</v>
+      </c>
       <c r="C48" t="n">
         <v>2</v>
       </c>
@@ -1503,7 +1593,9 @@
       <c r="A49" t="n">
         <v>130000</v>
       </c>
-      <c r="B49" t="inlineStr"/>
+      <c r="B49" t="n">
+        <v>31</v>
+      </c>
       <c r="C49" t="n">
         <v>1</v>
       </c>
@@ -1525,7 +1617,9 @@
       <c r="A50" t="n">
         <v>130000</v>
       </c>
-      <c r="B50" t="inlineStr"/>
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
       <c r="C50" t="n">
         <v>2</v>
       </c>
@@ -1547,7 +1641,9 @@
       <c r="A51" t="n">
         <v>140000</v>
       </c>
-      <c r="B51" t="inlineStr"/>
+      <c r="B51" t="n">
+        <v>40</v>
+      </c>
       <c r="C51" t="n">
         <v>2</v>
       </c>
@@ -1569,7 +1665,9 @@
       <c r="A52" t="n">
         <v>165000</v>
       </c>
-      <c r="B52" t="inlineStr"/>
+      <c r="B52" t="n">
+        <v>56</v>
+      </c>
       <c r="C52" t="n">
         <v>2</v>
       </c>
@@ -1591,7 +1689,9 @@
       <c r="A53" t="n">
         <v>180000</v>
       </c>
-      <c r="B53" t="inlineStr"/>
+      <c r="B53" t="n">
+        <v>56</v>
+      </c>
       <c r="C53" t="n">
         <v>2</v>
       </c>
@@ -1613,7 +1713,9 @@
       <c r="A54" t="n">
         <v>130000</v>
       </c>
-      <c r="B54" t="inlineStr"/>
+      <c r="B54" t="n">
+        <v>35</v>
+      </c>
       <c r="C54" t="n">
         <v>2</v>
       </c>
@@ -1635,7 +1737,9 @@
       <c r="A55" t="n">
         <v>170000</v>
       </c>
-      <c r="B55" t="inlineStr"/>
+      <c r="B55" t="n">
+        <v>61</v>
+      </c>
       <c r="C55" t="n">
         <v>2</v>
       </c>
@@ -1657,7 +1761,9 @@
       <c r="A56" t="n">
         <v>140000</v>
       </c>
-      <c r="B56" t="inlineStr"/>
+      <c r="B56" t="n">
+        <v>51</v>
+      </c>
       <c r="C56" t="n">
         <v>1</v>
       </c>
@@ -1701,7 +1807,9 @@
       <c r="A58" t="n">
         <v>350000</v>
       </c>
-      <c r="B58" t="inlineStr"/>
+      <c r="B58" t="n">
+        <v>112</v>
+      </c>
       <c r="C58" t="n">
         <v>4</v>
       </c>
@@ -1723,7 +1831,9 @@
       <c r="A59" t="n">
         <v>130000</v>
       </c>
-      <c r="B59" t="inlineStr"/>
+      <c r="B59" t="n">
+        <v>42</v>
+      </c>
       <c r="C59" t="n">
         <v>2</v>
       </c>
@@ -1745,7 +1855,9 @@
       <c r="A60" t="n">
         <v>150000</v>
       </c>
-      <c r="B60" t="inlineStr"/>
+      <c r="B60" t="n">
+        <v>65</v>
+      </c>
       <c r="C60" t="n">
         <v>3</v>
       </c>
@@ -1767,7 +1879,9 @@
       <c r="A61" t="n">
         <v>230000</v>
       </c>
-      <c r="B61" t="inlineStr"/>
+      <c r="B61" t="n">
+        <v>58</v>
+      </c>
       <c r="C61" t="n">
         <v>2</v>
       </c>
@@ -1789,7 +1903,9 @@
       <c r="A62" t="n">
         <v>150000</v>
       </c>
-      <c r="B62" t="inlineStr"/>
+      <c r="B62" t="n">
+        <v>40</v>
+      </c>
       <c r="C62" t="n">
         <v>2</v>
       </c>
@@ -1811,7 +1927,9 @@
       <c r="A63" t="n">
         <v>130000</v>
       </c>
-      <c r="B63" t="inlineStr"/>
+      <c r="B63" t="n">
+        <v>45</v>
+      </c>
       <c r="C63" t="n">
         <v>2</v>
       </c>
@@ -1833,7 +1951,9 @@
       <c r="A64" t="n">
         <v>160000</v>
       </c>
-      <c r="B64" t="inlineStr"/>
+      <c r="B64" t="n">
+        <v>45</v>
+      </c>
       <c r="C64" t="n">
         <v>1</v>
       </c>
@@ -1855,7 +1975,9 @@
       <c r="A65" t="n">
         <v>200000</v>
       </c>
-      <c r="B65" t="inlineStr"/>
+      <c r="B65" t="n">
+        <v>45</v>
+      </c>
       <c r="C65" t="n">
         <v>2</v>
       </c>
@@ -1877,7 +1999,9 @@
       <c r="A66" t="n">
         <v>230000</v>
       </c>
-      <c r="B66" t="inlineStr"/>
+      <c r="B66" t="n">
+        <v>71</v>
+      </c>
       <c r="C66" t="n">
         <v>3</v>
       </c>
@@ -1899,7 +2023,9 @@
       <c r="A67" t="n">
         <v>230000</v>
       </c>
-      <c r="B67" t="inlineStr"/>
+      <c r="B67" t="n">
+        <v>55</v>
+      </c>
       <c r="C67" t="n">
         <v>3</v>
       </c>
@@ -1921,7 +2047,9 @@
       <c r="A68" t="n">
         <v>140000</v>
       </c>
-      <c r="B68" t="inlineStr"/>
+      <c r="B68" t="n">
+        <v>65</v>
+      </c>
       <c r="C68" t="n">
         <v>3</v>
       </c>
@@ -1943,7 +2071,9 @@
       <c r="A69" t="n">
         <v>200000</v>
       </c>
-      <c r="B69" t="inlineStr"/>
+      <c r="B69" t="n">
+        <v>69</v>
+      </c>
       <c r="C69" t="n">
         <v>4</v>
       </c>
@@ -1965,7 +2095,9 @@
       <c r="A70" t="n">
         <v>180000</v>
       </c>
-      <c r="B70" t="inlineStr"/>
+      <c r="B70" t="n">
+        <v>47</v>
+      </c>
       <c r="C70" t="n">
         <v>2</v>
       </c>
@@ -1987,7 +2119,9 @@
       <c r="A71" t="n">
         <v>170000</v>
       </c>
-      <c r="B71" t="inlineStr"/>
+      <c r="B71" t="n">
+        <v>60</v>
+      </c>
       <c r="C71" t="n">
         <v>2</v>
       </c>
@@ -2009,7 +2143,9 @@
       <c r="A72" t="n">
         <v>105000</v>
       </c>
-      <c r="B72" t="inlineStr"/>
+      <c r="B72" t="n">
+        <v>33</v>
+      </c>
       <c r="C72" t="n">
         <v>1</v>
       </c>
@@ -2031,7 +2167,9 @@
       <c r="A73" t="n">
         <v>170000</v>
       </c>
-      <c r="B73" t="inlineStr"/>
+      <c r="B73" t="n">
+        <v>51</v>
+      </c>
       <c r="C73" t="n">
         <v>2</v>
       </c>
@@ -2053,7 +2191,9 @@
       <c r="A74" t="n">
         <v>170000</v>
       </c>
-      <c r="B74" t="inlineStr"/>
+      <c r="B74" t="n">
+        <v>46</v>
+      </c>
       <c r="C74" t="n">
         <v>2</v>
       </c>
@@ -2075,7 +2215,9 @@
       <c r="A75" t="n">
         <v>250000</v>
       </c>
-      <c r="B75" t="inlineStr"/>
+      <c r="B75" t="n">
+        <v>75</v>
+      </c>
       <c r="C75" t="n">
         <v>4</v>
       </c>
@@ -2097,7 +2239,9 @@
       <c r="A76" t="n">
         <v>200000</v>
       </c>
-      <c r="B76" t="inlineStr"/>
+      <c r="B76" t="n">
+        <v>44</v>
+      </c>
       <c r="C76" t="n">
         <v>2</v>
       </c>
@@ -2119,7 +2263,9 @@
       <c r="A77" t="n">
         <v>190000</v>
       </c>
-      <c r="B77" t="inlineStr"/>
+      <c r="B77" t="n">
+        <v>61</v>
+      </c>
       <c r="C77" t="n">
         <v>3</v>
       </c>
@@ -2141,7 +2287,9 @@
       <c r="A78" t="n">
         <v>200000</v>
       </c>
-      <c r="B78" t="inlineStr"/>
+      <c r="B78" t="n">
+        <v>70</v>
+      </c>
       <c r="C78" t="n">
         <v>3</v>
       </c>
@@ -2163,7 +2311,9 @@
       <c r="A79" t="n">
         <v>210000</v>
       </c>
-      <c r="B79" t="inlineStr"/>
+      <c r="B79" t="n">
+        <v>68</v>
+      </c>
       <c r="C79" t="n">
         <v>3</v>
       </c>
@@ -2185,7 +2335,9 @@
       <c r="A80" t="n">
         <v>220000</v>
       </c>
-      <c r="B80" t="inlineStr"/>
+      <c r="B80" t="n">
+        <v>65</v>
+      </c>
       <c r="C80" t="n">
         <v>3</v>
       </c>
@@ -2207,7 +2359,9 @@
       <c r="A81" t="n">
         <v>140000</v>
       </c>
-      <c r="B81" t="inlineStr"/>
+      <c r="B81" t="n">
+        <v>98</v>
+      </c>
       <c r="C81" t="n">
         <v>3</v>
       </c>
@@ -2229,7 +2383,9 @@
       <c r="A82" t="n">
         <v>150000</v>
       </c>
-      <c r="B82" t="inlineStr"/>
+      <c r="B82" t="n">
+        <v>61</v>
+      </c>
       <c r="C82" t="n">
         <v>3</v>
       </c>
@@ -2251,7 +2407,9 @@
       <c r="A83" t="n">
         <v>170000</v>
       </c>
-      <c r="B83" t="inlineStr"/>
+      <c r="B83" t="n">
+        <v>75</v>
+      </c>
       <c r="C83" t="n">
         <v>2</v>
       </c>
@@ -2273,7 +2431,9 @@
       <c r="A84" t="n">
         <v>125000</v>
       </c>
-      <c r="B84" t="inlineStr"/>
+      <c r="B84" t="n">
+        <v>25</v>
+      </c>
       <c r="C84" t="n">
         <v>1</v>
       </c>
@@ -2295,7 +2455,9 @@
       <c r="A85" t="n">
         <v>180000</v>
       </c>
-      <c r="B85" t="inlineStr"/>
+      <c r="B85" t="n">
+        <v>51</v>
+      </c>
       <c r="C85" t="n">
         <v>3</v>
       </c>
@@ -2317,7 +2479,9 @@
       <c r="A86" t="n">
         <v>125000</v>
       </c>
-      <c r="B86" t="inlineStr"/>
+      <c r="B86" t="n">
+        <v>25</v>
+      </c>
       <c r="C86" t="n">
         <v>1</v>
       </c>
@@ -2339,7 +2503,9 @@
       <c r="A87" t="n">
         <v>150000</v>
       </c>
-      <c r="B87" t="inlineStr"/>
+      <c r="B87" t="n">
+        <v>55</v>
+      </c>
       <c r="C87" t="n">
         <v>2</v>
       </c>
@@ -2361,7 +2527,9 @@
       <c r="A88" t="n">
         <v>130000</v>
       </c>
-      <c r="B88" t="inlineStr"/>
+      <c r="B88" t="n">
+        <v>55</v>
+      </c>
       <c r="C88" t="n">
         <v>2</v>
       </c>
@@ -2383,7 +2551,9 @@
       <c r="A89" t="n">
         <v>350000</v>
       </c>
-      <c r="B89" t="inlineStr"/>
+      <c r="B89" t="n">
+        <v>65</v>
+      </c>
       <c r="C89" t="n">
         <v>3</v>
       </c>
@@ -2405,7 +2575,9 @@
       <c r="A90" t="n">
         <v>220000</v>
       </c>
-      <c r="B90" t="inlineStr"/>
+      <c r="B90" t="n">
+        <v>75</v>
+      </c>
       <c r="C90" t="n">
         <v>3</v>
       </c>
@@ -2427,7 +2599,9 @@
       <c r="A91" t="n">
         <v>130000</v>
       </c>
-      <c r="B91" t="inlineStr"/>
+      <c r="B91" t="n">
+        <v>54</v>
+      </c>
       <c r="C91" t="n">
         <v>2</v>
       </c>
@@ -2449,7 +2623,9 @@
       <c r="A92" t="n">
         <v>120000</v>
       </c>
-      <c r="B92" t="inlineStr"/>
+      <c r="B92" t="n">
+        <v>55</v>
+      </c>
       <c r="C92" t="n">
         <v>2</v>
       </c>
@@ -2471,7 +2647,9 @@
       <c r="A93" t="n">
         <v>130000</v>
       </c>
-      <c r="B93" t="inlineStr"/>
+      <c r="B93" t="n">
+        <v>47</v>
+      </c>
       <c r="C93" t="n">
         <v>2</v>
       </c>
@@ -2493,7 +2671,9 @@
       <c r="A94" t="n">
         <v>200000</v>
       </c>
-      <c r="B94" t="inlineStr"/>
+      <c r="B94" t="n">
+        <v>49</v>
+      </c>
       <c r="C94" t="n">
         <v>3</v>
       </c>
@@ -2515,7 +2695,9 @@
       <c r="A95" t="n">
         <v>230000</v>
       </c>
-      <c r="B95" t="inlineStr"/>
+      <c r="B95" t="n">
+        <v>60</v>
+      </c>
       <c r="C95" t="n">
         <v>2</v>
       </c>
@@ -2537,7 +2719,9 @@
       <c r="A96" t="n">
         <v>330000</v>
       </c>
-      <c r="B96" t="inlineStr"/>
+      <c r="B96" t="n">
+        <v>80</v>
+      </c>
       <c r="C96" t="n">
         <v>3</v>
       </c>
@@ -2559,7 +2743,9 @@
       <c r="A97" t="n">
         <v>300000</v>
       </c>
-      <c r="B97" t="inlineStr"/>
+      <c r="B97" t="n">
+        <v>78</v>
+      </c>
       <c r="C97" t="n">
         <v>3</v>
       </c>
@@ -2581,7 +2767,9 @@
       <c r="A98" t="n">
         <v>110000</v>
       </c>
-      <c r="B98" t="inlineStr"/>
+      <c r="B98" t="n">
+        <v>70</v>
+      </c>
       <c r="C98" t="n">
         <v>3</v>
       </c>
@@ -2603,7 +2791,9 @@
       <c r="A99" t="n">
         <v>420000</v>
       </c>
-      <c r="B99" t="inlineStr"/>
+      <c r="B99" t="n">
+        <v>228</v>
+      </c>
       <c r="C99" t="n">
         <v>4</v>
       </c>
@@ -2625,7 +2815,9 @@
       <c r="A100" t="n">
         <v>220000</v>
       </c>
-      <c r="B100" t="inlineStr"/>
+      <c r="B100" t="n">
+        <v>52</v>
+      </c>
       <c r="C100" t="n">
         <v>2</v>
       </c>
@@ -2647,7 +2839,9 @@
       <c r="A101" t="n">
         <v>250000</v>
       </c>
-      <c r="B101" t="inlineStr"/>
+      <c r="B101" t="n">
+        <v>65</v>
+      </c>
       <c r="C101" t="n">
         <v>3</v>
       </c>
@@ -2691,7 +2885,9 @@
       <c r="A103" t="n">
         <v>135000</v>
       </c>
-      <c r="B103" t="inlineStr"/>
+      <c r="B103" t="n">
+        <v>60</v>
+      </c>
       <c r="C103" t="n">
         <v>2</v>
       </c>
@@ -2713,7 +2909,9 @@
       <c r="A104" t="n">
         <v>100000</v>
       </c>
-      <c r="B104" t="inlineStr"/>
+      <c r="B104" t="n">
+        <v>35</v>
+      </c>
       <c r="C104" t="n">
         <v>2</v>
       </c>
@@ -2735,7 +2933,9 @@
       <c r="A105" t="n">
         <v>162000</v>
       </c>
-      <c r="B105" t="inlineStr"/>
+      <c r="B105" t="n">
+        <v>50</v>
+      </c>
       <c r="C105" t="n">
         <v>2</v>
       </c>
@@ -2757,7 +2957,9 @@
       <c r="A106" t="n">
         <v>145000</v>
       </c>
-      <c r="B106" t="inlineStr"/>
+      <c r="B106" t="n">
+        <v>56</v>
+      </c>
       <c r="C106" t="n">
         <v>2</v>
       </c>
@@ -2779,7 +2981,9 @@
       <c r="A107" t="n">
         <v>230000</v>
       </c>
-      <c r="B107" t="inlineStr"/>
+      <c r="B107" t="n">
+        <v>61</v>
+      </c>
       <c r="C107" t="n">
         <v>3</v>
       </c>
@@ -2801,7 +3005,9 @@
       <c r="A108" t="n">
         <v>140000</v>
       </c>
-      <c r="B108" t="inlineStr"/>
+      <c r="B108" t="n">
+        <v>54</v>
+      </c>
       <c r="C108" t="n">
         <v>2</v>
       </c>
@@ -2823,7 +3029,9 @@
       <c r="A109" t="n">
         <v>220000</v>
       </c>
-      <c r="B109" t="inlineStr"/>
+      <c r="B109" t="n">
+        <v>57</v>
+      </c>
       <c r="C109" t="n">
         <v>3</v>
       </c>
@@ -2845,7 +3053,9 @@
       <c r="A110" t="n">
         <v>165000</v>
       </c>
-      <c r="B110" t="inlineStr"/>
+      <c r="B110" t="n">
+        <v>54</v>
+      </c>
       <c r="C110" t="n">
         <v>2</v>
       </c>
@@ -2867,7 +3077,9 @@
       <c r="A111" t="n">
         <v>130000</v>
       </c>
-      <c r="B111" t="inlineStr"/>
+      <c r="B111" t="n">
+        <v>40</v>
+      </c>
       <c r="C111" t="n">
         <v>2</v>
       </c>
@@ -2889,7 +3101,9 @@
       <c r="A112" t="n">
         <v>200000</v>
       </c>
-      <c r="B112" t="inlineStr"/>
+      <c r="B112" t="n">
+        <v>50</v>
+      </c>
       <c r="C112" t="n">
         <v>2</v>
       </c>
@@ -2911,7 +3125,9 @@
       <c r="A113" t="n">
         <v>155000</v>
       </c>
-      <c r="B113" t="inlineStr"/>
+      <c r="B113" t="n">
+        <v>54</v>
+      </c>
       <c r="C113" t="n">
         <v>2</v>
       </c>
@@ -2933,7 +3149,9 @@
       <c r="A114" t="n">
         <v>300000</v>
       </c>
-      <c r="B114" t="inlineStr"/>
+      <c r="B114" t="n">
+        <v>76</v>
+      </c>
       <c r="C114" t="n">
         <v>3</v>
       </c>
@@ -2955,7 +3173,9 @@
       <c r="A115" t="n">
         <v>180000</v>
       </c>
-      <c r="B115" t="inlineStr"/>
+      <c r="B115" t="n">
+        <v>55</v>
+      </c>
       <c r="C115" t="n">
         <v>2</v>
       </c>
@@ -2999,7 +3219,9 @@
       <c r="A117" t="n">
         <v>140000</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>72</v>
+      </c>
       <c r="C117" t="n">
         <v>3</v>
       </c>
@@ -3021,7 +3243,9 @@
       <c r="A118" t="n">
         <v>100000</v>
       </c>
-      <c r="B118" t="inlineStr"/>
+      <c r="B118" t="n">
+        <v>40</v>
+      </c>
       <c r="C118" t="n">
         <v>1</v>
       </c>
@@ -3043,7 +3267,9 @@
       <c r="A119" t="n">
         <v>200000</v>
       </c>
-      <c r="B119" t="inlineStr"/>
+      <c r="B119" t="n">
+        <v>77</v>
+      </c>
       <c r="C119" t="n">
         <v>3</v>
       </c>
@@ -3065,7 +3291,9 @@
       <c r="A120" t="n">
         <v>220000</v>
       </c>
-      <c r="B120" t="inlineStr"/>
+      <c r="B120" t="n">
+        <v>56</v>
+      </c>
       <c r="C120" t="n">
         <v>3</v>
       </c>
@@ -3087,7 +3315,9 @@
       <c r="A121" t="n">
         <v>170000</v>
       </c>
-      <c r="B121" t="inlineStr"/>
+      <c r="B121" t="n">
+        <v>45</v>
+      </c>
       <c r="C121" t="n">
         <v>2</v>
       </c>
@@ -3109,7 +3339,9 @@
       <c r="A122" t="n">
         <v>108000</v>
       </c>
-      <c r="B122" t="inlineStr"/>
+      <c r="B122" t="n">
+        <v>61</v>
+      </c>
       <c r="C122" t="n">
         <v>2</v>
       </c>
@@ -3131,7 +3363,9 @@
       <c r="A123" t="n">
         <v>150000</v>
       </c>
-      <c r="B123" t="inlineStr"/>
+      <c r="B123" t="n">
+        <v>54</v>
+      </c>
       <c r="C123" t="n">
         <v>3</v>
       </c>
@@ -3153,7 +3387,9 @@
       <c r="A124" t="n">
         <v>170000</v>
       </c>
-      <c r="B124" t="inlineStr"/>
+      <c r="B124" t="n">
+        <v>50</v>
+      </c>
       <c r="C124" t="n">
         <v>2</v>
       </c>
@@ -3175,7 +3411,9 @@
       <c r="A125" t="n">
         <v>45000</v>
       </c>
-      <c r="B125" t="inlineStr"/>
+      <c r="B125" t="n">
+        <v>55</v>
+      </c>
       <c r="C125" t="n">
         <v>3</v>
       </c>
@@ -3197,7 +3435,9 @@
       <c r="A126" t="n">
         <v>155000</v>
       </c>
-      <c r="B126" t="inlineStr"/>
+      <c r="B126" t="n">
+        <v>68</v>
+      </c>
       <c r="C126" t="n">
         <v>3</v>
       </c>
@@ -3219,7 +3459,9 @@
       <c r="A127" t="n">
         <v>150000</v>
       </c>
-      <c r="B127" t="inlineStr"/>
+      <c r="B127" t="n">
+        <v>47</v>
+      </c>
       <c r="C127" t="n">
         <v>3</v>
       </c>
@@ -3241,7 +3483,9 @@
       <c r="A128" t="n">
         <v>110000</v>
       </c>
-      <c r="B128" t="inlineStr"/>
+      <c r="B128" t="n">
+        <v>34</v>
+      </c>
       <c r="C128" t="n">
         <v>1</v>
       </c>
@@ -3263,7 +3507,9 @@
       <c r="A129" t="n">
         <v>150000</v>
       </c>
-      <c r="B129" t="inlineStr"/>
+      <c r="B129" t="n">
+        <v>50</v>
+      </c>
       <c r="C129" t="n">
         <v>2</v>
       </c>
@@ -3285,7 +3531,9 @@
       <c r="A130" t="n">
         <v>140000</v>
       </c>
-      <c r="B130" t="inlineStr"/>
+      <c r="B130" t="n">
+        <v>54</v>
+      </c>
       <c r="C130" t="n">
         <v>2</v>
       </c>
@@ -3307,7 +3555,9 @@
       <c r="A131" t="n">
         <v>170000</v>
       </c>
-      <c r="B131" t="inlineStr"/>
+      <c r="B131" t="n">
+        <v>40</v>
+      </c>
       <c r="C131" t="n">
         <v>2</v>
       </c>
@@ -3329,7 +3579,9 @@
       <c r="A132" t="n">
         <v>220000</v>
       </c>
-      <c r="B132" t="inlineStr"/>
+      <c r="B132" t="n">
+        <v>54</v>
+      </c>
       <c r="C132" t="n">
         <v>2</v>
       </c>
@@ -3351,7 +3603,9 @@
       <c r="A133" t="n">
         <v>180000</v>
       </c>
-      <c r="B133" t="inlineStr"/>
+      <c r="B133" t="n">
+        <v>64</v>
+      </c>
       <c r="C133" t="n">
         <v>3</v>
       </c>
@@ -3373,7 +3627,9 @@
       <c r="A134" t="n">
         <v>200000</v>
       </c>
-      <c r="B134" t="inlineStr"/>
+      <c r="B134" t="n">
+        <v>71</v>
+      </c>
       <c r="C134" t="n">
         <v>3</v>
       </c>
@@ -3395,7 +3651,9 @@
       <c r="A135" t="n">
         <v>125000</v>
       </c>
-      <c r="B135" t="inlineStr"/>
+      <c r="B135" t="n">
+        <v>54</v>
+      </c>
       <c r="C135" t="n">
         <v>2</v>
       </c>
@@ -3417,7 +3675,9 @@
       <c r="A136" t="n">
         <v>180000</v>
       </c>
-      <c r="B136" t="inlineStr"/>
+      <c r="B136" t="n">
+        <v>71</v>
+      </c>
       <c r="C136" t="n">
         <v>3</v>
       </c>
@@ -3439,7 +3699,9 @@
       <c r="A137" t="n">
         <v>95000</v>
       </c>
-      <c r="B137" t="inlineStr"/>
+      <c r="B137" t="n">
+        <v>55</v>
+      </c>
       <c r="C137" t="n">
         <v>2</v>
       </c>
@@ -3461,7 +3723,9 @@
       <c r="A138" t="n">
         <v>135000</v>
       </c>
-      <c r="B138" t="inlineStr"/>
+      <c r="B138" t="n">
+        <v>53</v>
+      </c>
       <c r="C138" t="n">
         <v>2</v>
       </c>
@@ -3483,7 +3747,9 @@
       <c r="A139" t="n">
         <v>220000</v>
       </c>
-      <c r="B139" t="inlineStr"/>
+      <c r="B139" t="n">
+        <v>90</v>
+      </c>
       <c r="C139" t="n">
         <v>4</v>
       </c>
@@ -3505,7 +3771,9 @@
       <c r="A140" t="n">
         <v>145000</v>
       </c>
-      <c r="B140" t="inlineStr"/>
+      <c r="B140" t="n">
+        <v>42</v>
+      </c>
       <c r="C140" t="n">
         <v>1</v>
       </c>
@@ -3527,7 +3795,9 @@
       <c r="A141" t="n">
         <v>150000</v>
       </c>
-      <c r="B141" t="inlineStr"/>
+      <c r="B141" t="n">
+        <v>50</v>
+      </c>
       <c r="C141" t="n">
         <v>2</v>
       </c>
@@ -3549,7 +3819,9 @@
       <c r="A142" t="n">
         <v>280000</v>
       </c>
-      <c r="B142" t="inlineStr"/>
+      <c r="B142" t="n">
+        <v>54</v>
+      </c>
       <c r="C142" t="n">
         <v>2</v>
       </c>
@@ -3571,7 +3843,9 @@
       <c r="A143" t="n">
         <v>180000</v>
       </c>
-      <c r="B143" t="inlineStr"/>
+      <c r="B143" t="n">
+        <v>92</v>
+      </c>
       <c r="C143" t="n">
         <v>3</v>
       </c>
@@ -3593,7 +3867,9 @@
       <c r="A144" t="n">
         <v>160000</v>
       </c>
-      <c r="B144" t="inlineStr"/>
+      <c r="B144" t="n">
+        <v>70</v>
+      </c>
       <c r="C144" t="n">
         <v>3</v>
       </c>
@@ -3615,7 +3891,9 @@
       <c r="A145" t="n">
         <v>195000</v>
       </c>
-      <c r="B145" t="inlineStr"/>
+      <c r="B145" t="n">
+        <v>60</v>
+      </c>
       <c r="C145" t="n">
         <v>3</v>
       </c>
@@ -3637,7 +3915,9 @@
       <c r="A146" t="n">
         <v>120000</v>
       </c>
-      <c r="B146" t="inlineStr"/>
+      <c r="B146" t="n">
+        <v>50</v>
+      </c>
       <c r="C146" t="n">
         <v>2</v>
       </c>
@@ -3659,7 +3939,9 @@
       <c r="A147" t="n">
         <v>100000</v>
       </c>
-      <c r="B147" t="inlineStr"/>
+      <c r="B147" t="n">
+        <v>54</v>
+      </c>
       <c r="C147" t="n">
         <v>2</v>
       </c>
@@ -3681,7 +3963,9 @@
       <c r="A148" t="n">
         <v>90000</v>
       </c>
-      <c r="B148" t="inlineStr"/>
+      <c r="B148" t="n">
+        <v>73</v>
+      </c>
       <c r="C148" t="n">
         <v>2</v>
       </c>
@@ -3703,7 +3987,9 @@
       <c r="A149" t="n">
         <v>175000</v>
       </c>
-      <c r="B149" t="inlineStr"/>
+      <c r="B149" t="n">
+        <v>80</v>
+      </c>
       <c r="C149" t="n">
         <v>3</v>
       </c>
@@ -3725,7 +4011,9 @@
       <c r="A150" t="n">
         <v>1</v>
       </c>
-      <c r="B150" t="inlineStr"/>
+      <c r="B150" t="n">
+        <v>138</v>
+      </c>
       <c r="C150" t="n">
         <v>5</v>
       </c>
@@ -3747,7 +4035,9 @@
       <c r="A151" t="n">
         <v>170000</v>
       </c>
-      <c r="B151" t="inlineStr"/>
+      <c r="B151" t="n">
+        <v>42</v>
+      </c>
       <c r="C151" t="n">
         <v>1</v>
       </c>
@@ -3769,7 +4059,9 @@
       <c r="A152" t="n">
         <v>120000</v>
       </c>
-      <c r="B152" t="inlineStr"/>
+      <c r="B152" t="n">
+        <v>60</v>
+      </c>
       <c r="C152" t="n">
         <v>3</v>
       </c>
@@ -3791,7 +4083,9 @@
       <c r="A153" t="n">
         <v>200000</v>
       </c>
-      <c r="B153" t="inlineStr"/>
+      <c r="B153" t="n">
+        <v>67</v>
+      </c>
       <c r="C153" t="n">
         <v>3</v>
       </c>
@@ -3813,7 +4107,9 @@
       <c r="A154" t="n">
         <v>120000</v>
       </c>
-      <c r="B154" t="inlineStr"/>
+      <c r="B154" t="n">
+        <v>68</v>
+      </c>
       <c r="C154" t="n">
         <v>3</v>
       </c>
@@ -3835,7 +4131,9 @@
       <c r="A155" t="n">
         <v>45000</v>
       </c>
-      <c r="B155" t="inlineStr"/>
+      <c r="B155" t="n">
+        <v>55</v>
+      </c>
       <c r="C155" t="n">
         <v>2</v>
       </c>
@@ -3857,7 +4155,9 @@
       <c r="A156" t="n">
         <v>200000</v>
       </c>
-      <c r="B156" t="inlineStr"/>
+      <c r="B156" t="n">
+        <v>76</v>
+      </c>
       <c r="C156" t="n">
         <v>3</v>
       </c>
@@ -3879,7 +4179,9 @@
       <c r="A157" t="n">
         <v>130000</v>
       </c>
-      <c r="B157" t="inlineStr"/>
+      <c r="B157" t="n">
+        <v>54</v>
+      </c>
       <c r="C157" t="n">
         <v>2</v>
       </c>
@@ -3901,7 +4203,9 @@
       <c r="A158" t="n">
         <v>140000</v>
       </c>
-      <c r="B158" t="inlineStr"/>
+      <c r="B158" t="n">
+        <v>57</v>
+      </c>
       <c r="C158" t="n">
         <v>2</v>
       </c>
@@ -3923,7 +4227,9 @@
       <c r="A159" t="n">
         <v>160000</v>
       </c>
-      <c r="B159" t="inlineStr"/>
+      <c r="B159" t="n">
+        <v>72</v>
+      </c>
       <c r="C159" t="n">
         <v>3</v>
       </c>
@@ -3945,7 +4251,9 @@
       <c r="A160" t="n">
         <v>250000</v>
       </c>
-      <c r="B160" t="inlineStr"/>
+      <c r="B160" t="n">
+        <v>95</v>
+      </c>
       <c r="C160" t="n">
         <v>4</v>
       </c>
@@ -3967,7 +4275,9 @@
       <c r="A161" t="n">
         <v>130000</v>
       </c>
-      <c r="B161" t="inlineStr"/>
+      <c r="B161" t="n">
+        <v>56</v>
+      </c>
       <c r="C161" t="n">
         <v>2</v>
       </c>
@@ -3989,7 +4299,9 @@
       <c r="A162" t="n">
         <v>110000</v>
       </c>
-      <c r="B162" t="inlineStr"/>
+      <c r="B162" t="n">
+        <v>62</v>
+      </c>
       <c r="C162" t="n">
         <v>2</v>
       </c>
@@ -4011,7 +4323,9 @@
       <c r="A163" t="n">
         <v>180000</v>
       </c>
-      <c r="B163" t="inlineStr"/>
+      <c r="B163" t="n">
+        <v>51</v>
+      </c>
       <c r="C163" t="n">
         <v>3</v>
       </c>
@@ -4033,7 +4347,9 @@
       <c r="A164" t="n">
         <v>110000</v>
       </c>
-      <c r="B164" t="inlineStr"/>
+      <c r="B164" t="n">
+        <v>41</v>
+      </c>
       <c r="C164" t="n">
         <v>2</v>
       </c>
@@ -4055,7 +4371,9 @@
       <c r="A165" t="n">
         <v>115000</v>
       </c>
-      <c r="B165" t="inlineStr"/>
+      <c r="B165" t="n">
+        <v>52</v>
+      </c>
       <c r="C165" t="n">
         <v>2</v>
       </c>
@@ -4077,7 +4395,9 @@
       <c r="A166" t="n">
         <v>190000</v>
       </c>
-      <c r="B166" t="inlineStr"/>
+      <c r="B166" t="n">
+        <v>61</v>
+      </c>
       <c r="C166" t="n">
         <v>3</v>
       </c>
@@ -4099,7 +4419,9 @@
       <c r="A167" t="n">
         <v>160000</v>
       </c>
-      <c r="B167" t="inlineStr"/>
+      <c r="B167" t="n">
+        <v>68</v>
+      </c>
       <c r="C167" t="n">
         <v>3</v>
       </c>
@@ -4121,7 +4443,9 @@
       <c r="A168" t="n">
         <v>135000</v>
       </c>
-      <c r="B168" t="inlineStr"/>
+      <c r="B168" t="n">
+        <v>51</v>
+      </c>
       <c r="C168" t="n">
         <v>2</v>
       </c>
@@ -4143,7 +4467,9 @@
       <c r="A169" t="n">
         <v>55000</v>
       </c>
-      <c r="B169" t="inlineStr"/>
+      <c r="B169" t="n">
+        <v>70</v>
+      </c>
       <c r="C169" t="n">
         <v>3</v>
       </c>
@@ -4165,7 +4491,9 @@
       <c r="A170" t="n">
         <v>120000</v>
       </c>
-      <c r="B170" t="inlineStr"/>
+      <c r="B170" t="n">
+        <v>45</v>
+      </c>
       <c r="C170" t="n">
         <v>2</v>
       </c>
@@ -4187,7 +4515,9 @@
       <c r="A171" t="n">
         <v>160000</v>
       </c>
-      <c r="B171" t="inlineStr"/>
+      <c r="B171" t="n">
+        <v>70</v>
+      </c>
       <c r="C171" t="n">
         <v>3</v>
       </c>
@@ -4209,7 +4539,9 @@
       <c r="A172" t="n">
         <v>170000</v>
       </c>
-      <c r="B172" t="inlineStr"/>
+      <c r="B172" t="n">
+        <v>65</v>
+      </c>
       <c r="C172" t="n">
         <v>3</v>
       </c>
@@ -4231,7 +4563,9 @@
       <c r="A173" t="n">
         <v>150000</v>
       </c>
-      <c r="B173" t="inlineStr"/>
+      <c r="B173" t="n">
+        <v>44</v>
+      </c>
       <c r="C173" t="n">
         <v>2</v>
       </c>
@@ -4253,7 +4587,9 @@
       <c r="A174" t="n">
         <v>160000</v>
       </c>
-      <c r="B174" t="inlineStr"/>
+      <c r="B174" t="n">
+        <v>57</v>
+      </c>
       <c r="C174" t="n">
         <v>2</v>
       </c>
@@ -4275,7 +4611,9 @@
       <c r="A175" t="n">
         <v>110000</v>
       </c>
-      <c r="B175" t="inlineStr"/>
+      <c r="B175" t="n">
+        <v>51</v>
+      </c>
       <c r="C175" t="n">
         <v>2</v>
       </c>
@@ -4297,7 +4635,9 @@
       <c r="A176" t="n">
         <v>130000</v>
       </c>
-      <c r="B176" t="inlineStr"/>
+      <c r="B176" t="n">
+        <v>32</v>
+      </c>
       <c r="C176" t="n">
         <v>2</v>
       </c>
@@ -4319,7 +4659,9 @@
       <c r="A177" t="n">
         <v>190000</v>
       </c>
-      <c r="B177" t="inlineStr"/>
+      <c r="B177" t="n">
+        <v>67</v>
+      </c>
       <c r="C177" t="n">
         <v>3</v>
       </c>
@@ -4341,7 +4683,9 @@
       <c r="A178" t="n">
         <v>120000</v>
       </c>
-      <c r="B178" t="inlineStr"/>
+      <c r="B178" t="n">
+        <v>57</v>
+      </c>
       <c r="C178" t="n">
         <v>2</v>
       </c>
@@ -4363,7 +4707,9 @@
       <c r="A179" t="n">
         <v>150000</v>
       </c>
-      <c r="B179" t="inlineStr"/>
+      <c r="B179" t="n">
+        <v>55</v>
+      </c>
       <c r="C179" t="n">
         <v>2</v>
       </c>
@@ -4385,7 +4731,9 @@
       <c r="A180" t="n">
         <v>180000</v>
       </c>
-      <c r="B180" t="inlineStr"/>
+      <c r="B180" t="n">
+        <v>61</v>
+      </c>
       <c r="C180" t="n">
         <v>3</v>
       </c>
@@ -4407,7 +4755,9 @@
       <c r="A181" t="n">
         <v>200000</v>
       </c>
-      <c r="B181" t="inlineStr"/>
+      <c r="B181" t="n">
+        <v>61</v>
+      </c>
       <c r="C181" t="n">
         <v>3</v>
       </c>
@@ -4429,7 +4779,9 @@
       <c r="A182" t="n">
         <v>200000</v>
       </c>
-      <c r="B182" t="inlineStr"/>
+      <c r="B182" t="n">
+        <v>61</v>
+      </c>
       <c r="C182" t="n">
         <v>3</v>
       </c>
@@ -4451,7 +4803,9 @@
       <c r="A183" t="n">
         <v>130000</v>
       </c>
-      <c r="B183" t="inlineStr"/>
+      <c r="B183" t="n">
+        <v>50</v>
+      </c>
       <c r="C183" t="n">
         <v>2</v>
       </c>
@@ -4473,7 +4827,9 @@
       <c r="A184" t="n">
         <v>110000</v>
       </c>
-      <c r="B184" t="inlineStr"/>
+      <c r="B184" t="n">
+        <v>56</v>
+      </c>
       <c r="C184" t="n">
         <v>2</v>
       </c>
@@ -4495,7 +4851,9 @@
       <c r="A185" t="n">
         <v>160000</v>
       </c>
-      <c r="B185" t="inlineStr"/>
+      <c r="B185" t="n">
+        <v>46</v>
+      </c>
       <c r="C185" t="n">
         <v>2</v>
       </c>
@@ -4517,7 +4875,9 @@
       <c r="A186" t="n">
         <v>150000</v>
       </c>
-      <c r="B186" t="inlineStr"/>
+      <c r="B186" t="n">
+        <v>55</v>
+      </c>
       <c r="C186" t="n">
         <v>2</v>
       </c>
@@ -4539,7 +4899,9 @@
       <c r="A187" t="n">
         <v>160000</v>
       </c>
-      <c r="B187" t="inlineStr"/>
+      <c r="B187" t="n">
+        <v>61</v>
+      </c>
       <c r="C187" t="n">
         <v>3</v>
       </c>
@@ -4561,7 +4923,9 @@
       <c r="A188" t="n">
         <v>125000</v>
       </c>
-      <c r="B188" t="inlineStr"/>
+      <c r="B188" t="n">
+        <v>60</v>
+      </c>
       <c r="C188" t="n">
         <v>2</v>
       </c>
@@ -4583,7 +4947,9 @@
       <c r="A189" t="n">
         <v>160000</v>
       </c>
-      <c r="B189" t="inlineStr"/>
+      <c r="B189" t="n">
+        <v>72</v>
+      </c>
       <c r="C189" t="n">
         <v>3</v>
       </c>
@@ -4605,7 +4971,9 @@
       <c r="A190" t="n">
         <v>150000</v>
       </c>
-      <c r="B190" t="inlineStr"/>
+      <c r="B190" t="n">
+        <v>45</v>
+      </c>
       <c r="C190" t="n">
         <v>2</v>
       </c>
@@ -4627,7 +4995,9 @@
       <c r="A191" t="n">
         <v>160000</v>
       </c>
-      <c r="B191" t="inlineStr"/>
+      <c r="B191" t="n">
+        <v>54</v>
+      </c>
       <c r="C191" t="n">
         <v>2</v>
       </c>
@@ -4649,7 +5019,9 @@
       <c r="A192" t="n">
         <v>140000</v>
       </c>
-      <c r="B192" t="inlineStr"/>
+      <c r="B192" t="n">
+        <v>63</v>
+      </c>
       <c r="C192" t="n">
         <v>2</v>
       </c>
@@ -4671,7 +5043,9 @@
       <c r="A193" t="n">
         <v>120000</v>
       </c>
-      <c r="B193" t="inlineStr"/>
+      <c r="B193" t="n">
+        <v>68</v>
+      </c>
       <c r="C193" t="n">
         <v>3</v>
       </c>
@@ -4693,7 +5067,9 @@
       <c r="A194" t="n">
         <v>199000</v>
       </c>
-      <c r="B194" t="inlineStr"/>
+      <c r="B194" t="n">
+        <v>122</v>
+      </c>
       <c r="C194" t="n">
         <v>3</v>
       </c>
@@ -4715,7 +5091,9 @@
       <c r="A195" t="n">
         <v>150000</v>
       </c>
-      <c r="B195" t="inlineStr"/>
+      <c r="B195" t="n">
+        <v>71</v>
+      </c>
       <c r="C195" t="n">
         <v>3</v>
       </c>
@@ -4737,7 +5115,9 @@
       <c r="A196" t="n">
         <v>260000</v>
       </c>
-      <c r="B196" t="inlineStr"/>
+      <c r="B196" t="n">
+        <v>100</v>
+      </c>
       <c r="C196" t="n">
         <v>4</v>
       </c>
@@ -4759,7 +5139,9 @@
       <c r="A197" t="n">
         <v>120000</v>
       </c>
-      <c r="B197" t="inlineStr"/>
+      <c r="B197" t="n">
+        <v>65</v>
+      </c>
       <c r="C197" t="n">
         <v>3</v>
       </c>
@@ -4781,7 +5163,9 @@
       <c r="A198" t="n">
         <v>100000</v>
       </c>
-      <c r="B198" t="inlineStr"/>
+      <c r="B198" t="n">
+        <v>57</v>
+      </c>
       <c r="C198" t="n">
         <v>2</v>
       </c>
@@ -4803,7 +5187,9 @@
       <c r="A199" t="n">
         <v>100000</v>
       </c>
-      <c r="B199" t="inlineStr"/>
+      <c r="B199" t="n">
+        <v>98</v>
+      </c>
       <c r="C199" t="n">
         <v>2</v>
       </c>
@@ -4825,7 +5211,9 @@
       <c r="A200" t="n">
         <v>150000</v>
       </c>
-      <c r="B200" t="inlineStr"/>
+      <c r="B200" t="n">
+        <v>56</v>
+      </c>
       <c r="C200" t="n">
         <v>2</v>
       </c>
@@ -4847,7 +5235,9 @@
       <c r="A201" t="n">
         <v>200000</v>
       </c>
-      <c r="B201" t="inlineStr"/>
+      <c r="B201" t="n">
+        <v>60</v>
+      </c>
       <c r="C201" t="n">
         <v>3</v>
       </c>
@@ -4869,7 +5259,9 @@
       <c r="A202" t="n">
         <v>160000</v>
       </c>
-      <c r="B202" t="inlineStr"/>
+      <c r="B202" t="n">
+        <v>43</v>
+      </c>
       <c r="C202" t="n">
         <v>2</v>
       </c>
@@ -4891,7 +5283,9 @@
       <c r="A203" t="n">
         <v>110000</v>
       </c>
-      <c r="B203" t="inlineStr"/>
+      <c r="B203" t="n">
+        <v>36</v>
+      </c>
       <c r="C203" t="n">
         <v>2</v>
       </c>
@@ -4913,7 +5307,9 @@
       <c r="A204" t="n">
         <v>110000</v>
       </c>
-      <c r="B204" t="inlineStr"/>
+      <c r="B204" t="n">
+        <v>63</v>
+      </c>
       <c r="C204" t="n">
         <v>3</v>
       </c>
@@ -4935,7 +5331,9 @@
       <c r="A205" t="n">
         <v>160000</v>
       </c>
-      <c r="B205" t="inlineStr"/>
+      <c r="B205" t="n">
+        <v>58</v>
+      </c>
       <c r="C205" t="n">
         <v>2</v>
       </c>
@@ -4957,7 +5355,9 @@
       <c r="A206" t="n">
         <v>250000</v>
       </c>
-      <c r="B206" t="inlineStr"/>
+      <c r="B206" t="n">
+        <v>90</v>
+      </c>
       <c r="C206" t="n">
         <v>4</v>
       </c>
@@ -4979,7 +5379,9 @@
       <c r="A207" t="n">
         <v>220000</v>
       </c>
-      <c r="B207" t="inlineStr"/>
+      <c r="B207" t="n">
+        <v>112</v>
+      </c>
       <c r="C207" t="n">
         <v>5</v>
       </c>
@@ -5001,7 +5403,9 @@
       <c r="A208" t="n">
         <v>160000</v>
       </c>
-      <c r="B208" t="inlineStr"/>
+      <c r="B208" t="n">
+        <v>54</v>
+      </c>
       <c r="C208" t="n">
         <v>2</v>
       </c>
@@ -5023,7 +5427,9 @@
       <c r="A209" t="n">
         <v>200000</v>
       </c>
-      <c r="B209" t="inlineStr"/>
+      <c r="B209" t="n">
+        <v>54</v>
+      </c>
       <c r="C209" t="n">
         <v>3</v>
       </c>
@@ -5045,7 +5451,9 @@
       <c r="A210" t="n">
         <v>100000</v>
       </c>
-      <c r="B210" t="inlineStr"/>
+      <c r="B210" t="n">
+        <v>54</v>
+      </c>
       <c r="C210" t="n">
         <v>2</v>
       </c>
@@ -5067,7 +5475,9 @@
       <c r="A211" t="n">
         <v>120000</v>
       </c>
-      <c r="B211" t="inlineStr"/>
+      <c r="B211" t="n">
+        <v>56</v>
+      </c>
       <c r="C211" t="n">
         <v>2</v>
       </c>
@@ -5089,7 +5499,9 @@
       <c r="A212" t="n">
         <v>165000</v>
       </c>
-      <c r="B212" t="inlineStr"/>
+      <c r="B212" t="n">
+        <v>80</v>
+      </c>
       <c r="C212" t="n">
         <v>3</v>
       </c>
@@ -5111,7 +5523,9 @@
       <c r="A213" t="n">
         <v>160000</v>
       </c>
-      <c r="B213" t="inlineStr"/>
+      <c r="B213" t="n">
+        <v>60</v>
+      </c>
       <c r="C213" t="n">
         <v>3</v>
       </c>
@@ -5155,7 +5569,9 @@
       <c r="A215" t="n">
         <v>180000</v>
       </c>
-      <c r="B215" t="inlineStr"/>
+      <c r="B215" t="n">
+        <v>64</v>
+      </c>
       <c r="C215" t="n">
         <v>3</v>
       </c>
@@ -5177,7 +5593,9 @@
       <c r="A216" t="n">
         <v>180000</v>
       </c>
-      <c r="B216" t="inlineStr"/>
+      <c r="B216" t="n">
+        <v>65</v>
+      </c>
       <c r="C216" t="n">
         <v>3</v>
       </c>
@@ -5199,7 +5617,9 @@
       <c r="A217" t="n">
         <v>140000</v>
       </c>
-      <c r="B217" t="inlineStr"/>
+      <c r="B217" t="n">
+        <v>56</v>
+      </c>
       <c r="C217" t="n">
         <v>2</v>
       </c>
@@ -5221,7 +5641,9 @@
       <c r="A218" t="n">
         <v>220000</v>
       </c>
-      <c r="B218" t="inlineStr"/>
+      <c r="B218" t="n">
+        <v>55</v>
+      </c>
       <c r="C218" t="n">
         <v>2</v>
       </c>
@@ -5243,7 +5665,9 @@
       <c r="A219" t="n">
         <v>100000</v>
       </c>
-      <c r="B219" t="inlineStr"/>
+      <c r="B219" t="n">
+        <v>45</v>
+      </c>
       <c r="C219" t="n">
         <v>1</v>
       </c>
@@ -5265,7 +5689,9 @@
       <c r="A220" t="n">
         <v>150000</v>
       </c>
-      <c r="B220" t="inlineStr"/>
+      <c r="B220" t="n">
+        <v>76</v>
+      </c>
       <c r="C220" t="n">
         <v>2</v>
       </c>
@@ -5287,7 +5713,9 @@
       <c r="A221" t="n">
         <v>125000</v>
       </c>
-      <c r="B221" t="inlineStr"/>
+      <c r="B221" t="n">
+        <v>67</v>
+      </c>
       <c r="C221" t="n">
         <v>2</v>
       </c>
@@ -5309,7 +5737,9 @@
       <c r="A222" t="n">
         <v>110000</v>
       </c>
-      <c r="B222" t="inlineStr"/>
+      <c r="B222" t="n">
+        <v>55</v>
+      </c>
       <c r="C222" t="n">
         <v>2</v>
       </c>
@@ -5331,7 +5761,9 @@
       <c r="A223" t="n">
         <v>150000</v>
       </c>
-      <c r="B223" t="inlineStr"/>
+      <c r="B223" t="n">
+        <v>63</v>
+      </c>
       <c r="C223" t="n">
         <v>3</v>
       </c>
@@ -5353,7 +5785,9 @@
       <c r="A224" t="n">
         <v>180000</v>
       </c>
-      <c r="B224" t="inlineStr"/>
+      <c r="B224" t="n">
+        <v>60</v>
+      </c>
       <c r="C224" t="n">
         <v>3</v>
       </c>
@@ -5375,7 +5809,9 @@
       <c r="A225" t="n">
         <v>180000</v>
       </c>
-      <c r="B225" t="inlineStr"/>
+      <c r="B225" t="n">
+        <v>50</v>
+      </c>
       <c r="C225" t="n">
         <v>2</v>
       </c>
@@ -5397,7 +5833,9 @@
       <c r="A226" t="n">
         <v>110000</v>
       </c>
-      <c r="B226" t="inlineStr"/>
+      <c r="B226" t="n">
+        <v>53</v>
+      </c>
       <c r="C226" t="n">
         <v>2</v>
       </c>
@@ -5419,7 +5857,9 @@
       <c r="A227" t="n">
         <v>120000</v>
       </c>
-      <c r="B227" t="inlineStr"/>
+      <c r="B227" t="n">
+        <v>51</v>
+      </c>
       <c r="C227" t="n">
         <v>2</v>
       </c>
@@ -5441,7 +5881,9 @@
       <c r="A228" t="n">
         <v>120000</v>
       </c>
-      <c r="B228" t="inlineStr"/>
+      <c r="B228" t="n">
+        <v>68</v>
+      </c>
       <c r="C228" t="n">
         <v>3</v>
       </c>
@@ -5463,7 +5905,9 @@
       <c r="A229" t="n">
         <v>170000</v>
       </c>
-      <c r="B229" t="inlineStr"/>
+      <c r="B229" t="n">
+        <v>57</v>
+      </c>
       <c r="C229" t="n">
         <v>2</v>
       </c>
@@ -5485,7 +5929,9 @@
       <c r="A230" t="n">
         <v>220000</v>
       </c>
-      <c r="B230" t="inlineStr"/>
+      <c r="B230" t="n">
+        <v>108</v>
+      </c>
       <c r="C230" t="n">
         <v>4</v>
       </c>
@@ -5507,7 +5953,9 @@
       <c r="A231" t="n">
         <v>200000</v>
       </c>
-      <c r="B231" t="inlineStr"/>
+      <c r="B231" t="n">
+        <v>70</v>
+      </c>
       <c r="C231" t="n">
         <v>3</v>
       </c>
@@ -5529,7 +5977,9 @@
       <c r="A232" t="n">
         <v>240000</v>
       </c>
-      <c r="B232" t="inlineStr"/>
+      <c r="B232" t="n">
+        <v>90</v>
+      </c>
       <c r="C232" t="n">
         <v>3</v>
       </c>
@@ -5551,7 +6001,9 @@
       <c r="A233" t="n">
         <v>150000</v>
       </c>
-      <c r="B233" t="inlineStr"/>
+      <c r="B233" t="n">
+        <v>45</v>
+      </c>
       <c r="C233" t="n">
         <v>2</v>
       </c>
@@ -5573,7 +6025,9 @@
       <c r="A234" t="n">
         <v>95000</v>
       </c>
-      <c r="B234" t="inlineStr"/>
+      <c r="B234" t="n">
+        <v>57</v>
+      </c>
       <c r="C234" t="n">
         <v>2</v>
       </c>
@@ -5595,7 +6049,9 @@
       <c r="A235" t="n">
         <v>140000</v>
       </c>
-      <c r="B235" t="inlineStr"/>
+      <c r="B235" t="n">
+        <v>60</v>
+      </c>
       <c r="C235" t="n">
         <v>3</v>
       </c>
@@ -5617,7 +6073,9 @@
       <c r="A236" t="n">
         <v>120000</v>
       </c>
-      <c r="B236" t="inlineStr"/>
+      <c r="B236" t="n">
+        <v>55</v>
+      </c>
       <c r="C236" t="n">
         <v>2</v>
       </c>
@@ -5639,7 +6097,9 @@
       <c r="A237" t="n">
         <v>140000</v>
       </c>
-      <c r="B237" t="inlineStr"/>
+      <c r="B237" t="n">
+        <v>70</v>
+      </c>
       <c r="C237" t="n">
         <v>3</v>
       </c>
@@ -5661,7 +6121,9 @@
       <c r="A238" t="n">
         <v>130000</v>
       </c>
-      <c r="B238" t="inlineStr"/>
+      <c r="B238" t="n">
+        <v>80</v>
+      </c>
       <c r="C238" t="n">
         <v>3</v>
       </c>
@@ -5683,7 +6145,9 @@
       <c r="A239" t="n">
         <v>230000</v>
       </c>
-      <c r="B239" t="inlineStr"/>
+      <c r="B239" t="n">
+        <v>60</v>
+      </c>
       <c r="C239" t="n">
         <v>3</v>
       </c>
@@ -5705,7 +6169,9 @@
       <c r="A240" t="n">
         <v>110000</v>
       </c>
-      <c r="B240" t="inlineStr"/>
+      <c r="B240" t="n">
+        <v>45</v>
+      </c>
       <c r="C240" t="n">
         <v>2</v>
       </c>
@@ -5727,7 +6193,9 @@
       <c r="A241" t="n">
         <v>140000</v>
       </c>
-      <c r="B241" t="inlineStr"/>
+      <c r="B241" t="n">
+        <v>59</v>
+      </c>
       <c r="C241" t="n">
         <v>2</v>
       </c>
@@ -5749,7 +6217,9 @@
       <c r="A242" t="n">
         <v>150000</v>
       </c>
-      <c r="B242" t="inlineStr"/>
+      <c r="B242" t="n">
+        <v>60</v>
+      </c>
       <c r="C242" t="n">
         <v>3</v>
       </c>
@@ -5771,7 +6241,9 @@
       <c r="A243" t="n">
         <v>195000</v>
       </c>
-      <c r="B243" t="inlineStr"/>
+      <c r="B243" t="n">
+        <v>84</v>
+      </c>
       <c r="C243" t="n">
         <v>3</v>
       </c>
@@ -5793,7 +6265,9 @@
       <c r="A244" t="n">
         <v>130000</v>
       </c>
-      <c r="B244" t="inlineStr"/>
+      <c r="B244" t="n">
+        <v>60</v>
+      </c>
       <c r="C244" t="n">
         <v>2</v>
       </c>
@@ -5815,7 +6289,9 @@
       <c r="A245" t="n">
         <v>130000</v>
       </c>
-      <c r="B245" t="inlineStr"/>
+      <c r="B245" t="n">
+        <v>54</v>
+      </c>
       <c r="C245" t="n">
         <v>2</v>
       </c>
@@ -5837,7 +6313,9 @@
       <c r="A246" t="n">
         <v>180000</v>
       </c>
-      <c r="B246" t="inlineStr"/>
+      <c r="B246" t="n">
+        <v>65</v>
+      </c>
       <c r="C246" t="n">
         <v>3</v>
       </c>
@@ -5859,7 +6337,9 @@
       <c r="A247" t="n">
         <v>200000</v>
       </c>
-      <c r="B247" t="inlineStr"/>
+      <c r="B247" t="n">
+        <v>70</v>
+      </c>
       <c r="C247" t="n">
         <v>2</v>
       </c>
@@ -5881,7 +6361,9 @@
       <c r="A248" t="n">
         <v>135000</v>
       </c>
-      <c r="B248" t="inlineStr"/>
+      <c r="B248" t="n">
+        <v>64</v>
+      </c>
       <c r="C248" t="n">
         <v>2</v>
       </c>
@@ -5903,7 +6385,9 @@
       <c r="A249" t="n">
         <v>115000</v>
       </c>
-      <c r="B249" t="inlineStr"/>
+      <c r="B249" t="n">
+        <v>55</v>
+      </c>
       <c r="C249" t="n">
         <v>2</v>
       </c>
@@ -5925,7 +6409,9 @@
       <c r="A250" t="n">
         <v>95000</v>
       </c>
-      <c r="B250" t="inlineStr"/>
+      <c r="B250" t="n">
+        <v>33</v>
+      </c>
       <c r="C250" t="n">
         <v>2</v>
       </c>
@@ -5947,7 +6433,9 @@
       <c r="A251" t="n">
         <v>200000</v>
       </c>
-      <c r="B251" t="inlineStr"/>
+      <c r="B251" t="n">
+        <v>57</v>
+      </c>
       <c r="C251" t="n">
         <v>3</v>
       </c>
@@ -5969,7 +6457,9 @@
       <c r="A252" t="n">
         <v>130000</v>
       </c>
-      <c r="B252" t="inlineStr"/>
+      <c r="B252" t="n">
+        <v>38</v>
+      </c>
       <c r="C252" t="n">
         <v>2</v>
       </c>
@@ -5991,7 +6481,9 @@
       <c r="A253" t="n">
         <v>120000</v>
       </c>
-      <c r="B253" t="inlineStr"/>
+      <c r="B253" t="n">
+        <v>71</v>
+      </c>
       <c r="C253" t="n">
         <v>3</v>
       </c>
@@ -6013,7 +6505,9 @@
       <c r="A254" t="n">
         <v>230000</v>
       </c>
-      <c r="B254" t="inlineStr"/>
+      <c r="B254" t="n">
+        <v>96</v>
+      </c>
       <c r="C254" t="n">
         <v>4</v>
       </c>
@@ -6035,7 +6529,9 @@
       <c r="A255" t="n">
         <v>140000</v>
       </c>
-      <c r="B255" t="inlineStr"/>
+      <c r="B255" t="n">
+        <v>59</v>
+      </c>
       <c r="C255" t="n">
         <v>2</v>
       </c>
@@ -6057,7 +6553,9 @@
       <c r="A256" t="n">
         <v>180000</v>
       </c>
-      <c r="B256" t="inlineStr"/>
+      <c r="B256" t="n">
+        <v>50</v>
+      </c>
       <c r="C256" t="n">
         <v>2</v>
       </c>
@@ -6079,7 +6577,9 @@
       <c r="A257" t="n">
         <v>120000</v>
       </c>
-      <c r="B257" t="inlineStr"/>
+      <c r="B257" t="n">
+        <v>56</v>
+      </c>
       <c r="C257" t="n">
         <v>2</v>
       </c>
@@ -6123,7 +6623,9 @@
       <c r="A259" t="n">
         <v>250000</v>
       </c>
-      <c r="B259" t="inlineStr"/>
+      <c r="B259" t="n">
+        <v>87</v>
+      </c>
       <c r="C259" t="n">
         <v>2</v>
       </c>
@@ -6145,7 +6647,9 @@
       <c r="A260" t="n">
         <v>110000</v>
       </c>
-      <c r="B260" t="inlineStr"/>
+      <c r="B260" t="n">
+        <v>57</v>
+      </c>
       <c r="C260" t="n">
         <v>2</v>
       </c>
@@ -6167,7 +6671,9 @@
       <c r="A261" t="n">
         <v>115000</v>
       </c>
-      <c r="B261" t="inlineStr"/>
+      <c r="B261" t="n">
+        <v>33</v>
+      </c>
       <c r="C261" t="n">
         <v>1</v>
       </c>
@@ -6189,7 +6695,9 @@
       <c r="A262" t="n">
         <v>210000</v>
       </c>
-      <c r="B262" t="inlineStr"/>
+      <c r="B262" t="n">
+        <v>100</v>
+      </c>
       <c r="C262" t="n">
         <v>4</v>
       </c>
@@ -6211,7 +6719,9 @@
       <c r="A263" t="n">
         <v>130000</v>
       </c>
-      <c r="B263" t="inlineStr"/>
+      <c r="B263" t="n">
+        <v>50</v>
+      </c>
       <c r="C263" t="n">
         <v>2</v>
       </c>
@@ -6233,7 +6743,9 @@
       <c r="A264" t="n">
         <v>110000</v>
       </c>
-      <c r="B264" t="inlineStr"/>
+      <c r="B264" t="n">
+        <v>54</v>
+      </c>
       <c r="C264" t="n">
         <v>2</v>
       </c>
@@ -6255,7 +6767,9 @@
       <c r="A265" t="n">
         <v>135000</v>
       </c>
-      <c r="B265" t="inlineStr"/>
+      <c r="B265" t="n">
+        <v>70</v>
+      </c>
       <c r="C265" t="n">
         <v>3</v>
       </c>
@@ -6277,7 +6791,9 @@
       <c r="A266" t="n">
         <v>200000</v>
       </c>
-      <c r="B266" t="inlineStr"/>
+      <c r="B266" t="n">
+        <v>77</v>
+      </c>
       <c r="C266" t="n">
         <v>3</v>
       </c>
@@ -6299,7 +6815,9 @@
       <c r="A267" t="n">
         <v>120000</v>
       </c>
-      <c r="B267" t="inlineStr"/>
+      <c r="B267" t="n">
+        <v>57</v>
+      </c>
       <c r="C267" t="n">
         <v>3</v>
       </c>
@@ -6321,7 +6839,9 @@
       <c r="A268" t="n">
         <v>195000</v>
       </c>
-      <c r="B268" t="inlineStr"/>
+      <c r="B268" t="n">
+        <v>70</v>
+      </c>
       <c r="C268" t="n">
         <v>3</v>
       </c>
@@ -6343,7 +6863,9 @@
       <c r="A269" t="n">
         <v>120000</v>
       </c>
-      <c r="B269" t="inlineStr"/>
+      <c r="B269" t="n">
+        <v>43</v>
+      </c>
       <c r="C269" t="n">
         <v>2</v>
       </c>
@@ -6365,7 +6887,9 @@
       <c r="A270" t="n">
         <v>130000</v>
       </c>
-      <c r="B270" t="inlineStr"/>
+      <c r="B270" t="n">
+        <v>53</v>
+      </c>
       <c r="C270" t="n">
         <v>2</v>
       </c>
@@ -6387,7 +6911,9 @@
       <c r="A271" t="n">
         <v>220000</v>
       </c>
-      <c r="B271" t="inlineStr"/>
+      <c r="B271" t="n">
+        <v>50</v>
+      </c>
       <c r="C271" t="n">
         <v>3</v>
       </c>
@@ -6409,7 +6935,9 @@
       <c r="A272" t="n">
         <v>100000</v>
       </c>
-      <c r="B272" t="inlineStr"/>
+      <c r="B272" t="n">
+        <v>55</v>
+      </c>
       <c r="C272" t="n">
         <v>2</v>
       </c>
@@ -6431,7 +6959,9 @@
       <c r="A273" t="n">
         <v>125000</v>
       </c>
-      <c r="B273" t="inlineStr"/>
+      <c r="B273" t="n">
+        <v>76</v>
+      </c>
       <c r="C273" t="n">
         <v>3</v>
       </c>
@@ -6453,7 +6983,9 @@
       <c r="A274" t="n">
         <v>130000</v>
       </c>
-      <c r="B274" t="inlineStr"/>
+      <c r="B274" t="n">
+        <v>90</v>
+      </c>
       <c r="C274" t="n">
         <v>3</v>
       </c>
@@ -6475,7 +7007,9 @@
       <c r="A275" t="n">
         <v>95000</v>
       </c>
-      <c r="B275" t="inlineStr"/>
+      <c r="B275" t="n">
+        <v>37</v>
+      </c>
       <c r="C275" t="n">
         <v>1</v>
       </c>
@@ -6497,7 +7031,9 @@
       <c r="A276" t="n">
         <v>150000</v>
       </c>
-      <c r="B276" t="inlineStr"/>
+      <c r="B276" t="n">
+        <v>55</v>
+      </c>
       <c r="C276" t="n">
         <v>2</v>
       </c>
@@ -6519,7 +7055,9 @@
       <c r="A277" t="n">
         <v>135000</v>
       </c>
-      <c r="B277" t="inlineStr"/>
+      <c r="B277" t="n">
+        <v>70</v>
+      </c>
       <c r="C277" t="n">
         <v>2</v>
       </c>
@@ -6541,7 +7079,9 @@
       <c r="A278" t="n">
         <v>80000</v>
       </c>
-      <c r="B278" t="inlineStr"/>
+      <c r="B278" t="n">
+        <v>37</v>
+      </c>
       <c r="C278" t="n">
         <v>1</v>
       </c>
@@ -6563,7 +7103,9 @@
       <c r="A279" t="n">
         <v>130000</v>
       </c>
-      <c r="B279" t="inlineStr"/>
+      <c r="B279" t="n">
+        <v>50</v>
+      </c>
       <c r="C279" t="n">
         <v>2</v>
       </c>
@@ -6585,7 +7127,9 @@
       <c r="A280" t="n">
         <v>150000</v>
       </c>
-      <c r="B280" t="inlineStr"/>
+      <c r="B280" t="n">
+        <v>71</v>
+      </c>
       <c r="C280" t="n">
         <v>3</v>
       </c>
@@ -6607,7 +7151,9 @@
       <c r="A281" t="n">
         <v>120000</v>
       </c>
-      <c r="B281" t="inlineStr"/>
+      <c r="B281" t="n">
+        <v>86</v>
+      </c>
       <c r="C281" t="n">
         <v>3</v>
       </c>
@@ -6629,7 +7175,9 @@
       <c r="A282" t="n">
         <v>130000</v>
       </c>
-      <c r="B282" t="inlineStr"/>
+      <c r="B282" t="n">
+        <v>55</v>
+      </c>
       <c r="C282" t="n">
         <v>2</v>
       </c>
@@ -6651,7 +7199,9 @@
       <c r="A283" t="n">
         <v>140000</v>
       </c>
-      <c r="B283" t="inlineStr"/>
+      <c r="B283" t="n">
+        <v>64</v>
+      </c>
       <c r="C283" t="n">
         <v>3</v>
       </c>
@@ -6673,7 +7223,9 @@
       <c r="A284" t="n">
         <v>300000</v>
       </c>
-      <c r="B284" t="inlineStr"/>
+      <c r="B284" t="n">
+        <v>176</v>
+      </c>
       <c r="C284" t="n">
         <v>5</v>
       </c>
@@ -6695,7 +7247,9 @@
       <c r="A285" t="n">
         <v>120000</v>
       </c>
-      <c r="B285" t="inlineStr"/>
+      <c r="B285" t="n">
+        <v>55</v>
+      </c>
       <c r="C285" t="n">
         <v>2</v>
       </c>
@@ -6717,7 +7271,9 @@
       <c r="A286" t="n">
         <v>140000</v>
       </c>
-      <c r="B286" t="inlineStr"/>
+      <c r="B286" t="n">
+        <v>61</v>
+      </c>
       <c r="C286" t="n">
         <v>3</v>
       </c>
@@ -6739,7 +7295,9 @@
       <c r="A287" t="n">
         <v>90000</v>
       </c>
-      <c r="B287" t="inlineStr"/>
+      <c r="B287" t="n">
+        <v>33</v>
+      </c>
       <c r="C287" t="n">
         <v>2</v>
       </c>
@@ -6761,7 +7319,9 @@
       <c r="A288" t="n">
         <v>110000</v>
       </c>
-      <c r="B288" t="inlineStr"/>
+      <c r="B288" t="n">
+        <v>44</v>
+      </c>
       <c r="C288" t="n">
         <v>2</v>
       </c>
@@ -6783,7 +7343,9 @@
       <c r="A289" t="n">
         <v>160000</v>
       </c>
-      <c r="B289" t="inlineStr"/>
+      <c r="B289" t="n">
+        <v>50</v>
+      </c>
       <c r="C289" t="n">
         <v>3</v>
       </c>
@@ -6805,7 +7367,9 @@
       <c r="A290" t="n">
         <v>95000</v>
       </c>
-      <c r="B290" t="inlineStr"/>
+      <c r="B290" t="n">
+        <v>45</v>
+      </c>
       <c r="C290" t="n">
         <v>2</v>
       </c>
@@ -6827,7 +7391,9 @@
       <c r="A291" t="n">
         <v>130000</v>
       </c>
-      <c r="B291" t="inlineStr"/>
+      <c r="B291" t="n">
+        <v>58</v>
+      </c>
       <c r="C291" t="n">
         <v>2</v>
       </c>
@@ -6849,7 +7415,9 @@
       <c r="A292" t="n">
         <v>120000</v>
       </c>
-      <c r="B292" t="inlineStr"/>
+      <c r="B292" t="n">
+        <v>42</v>
+      </c>
       <c r="C292" t="n">
         <v>2</v>
       </c>
@@ -6871,7 +7439,9 @@
       <c r="A293" t="n">
         <v>140000</v>
       </c>
-      <c r="B293" t="inlineStr"/>
+      <c r="B293" t="n">
+        <v>53</v>
+      </c>
       <c r="C293" t="n">
         <v>2</v>
       </c>
@@ -6893,7 +7463,9 @@
       <c r="A294" t="n">
         <v>150000</v>
       </c>
-      <c r="B294" t="inlineStr"/>
+      <c r="B294" t="n">
+        <v>66</v>
+      </c>
       <c r="C294" t="n">
         <v>3</v>
       </c>
@@ -6915,7 +7487,9 @@
       <c r="A295" t="n">
         <v>100000</v>
       </c>
-      <c r="B295" t="inlineStr"/>
+      <c r="B295" t="n">
+        <v>54</v>
+      </c>
       <c r="C295" t="n">
         <v>2</v>
       </c>
@@ -6937,7 +7511,9 @@
       <c r="A296" t="n">
         <v>80000</v>
       </c>
-      <c r="B296" t="inlineStr"/>
+      <c r="B296" t="n">
+        <v>35</v>
+      </c>
       <c r="C296" t="n">
         <v>2</v>
       </c>
@@ -6959,7 +7535,9 @@
       <c r="A297" t="n">
         <v>100000</v>
       </c>
-      <c r="B297" t="inlineStr"/>
+      <c r="B297" t="n">
+        <v>47</v>
+      </c>
       <c r="C297" t="n">
         <v>2</v>
       </c>
@@ -7003,7 +7581,9 @@
       <c r="A299" t="n">
         <v>120000</v>
       </c>
-      <c r="B299" t="inlineStr"/>
+      <c r="B299" t="n">
+        <v>45</v>
+      </c>
       <c r="C299" t="n">
         <v>2</v>
       </c>
@@ -7025,7 +7605,9 @@
       <c r="A300" t="n">
         <v>165000</v>
       </c>
-      <c r="B300" t="inlineStr"/>
+      <c r="B300" t="n">
+        <v>62</v>
+      </c>
       <c r="C300" t="n">
         <v>2</v>
       </c>
@@ -7047,7 +7629,9 @@
       <c r="A301" t="n">
         <v>110000</v>
       </c>
-      <c r="B301" t="inlineStr"/>
+      <c r="B301" t="n">
+        <v>44</v>
+      </c>
       <c r="C301" t="n">
         <v>2</v>
       </c>
@@ -7069,7 +7653,9 @@
       <c r="A302" t="n">
         <v>150000</v>
       </c>
-      <c r="B302" t="inlineStr"/>
+      <c r="B302" t="n">
+        <v>67</v>
+      </c>
       <c r="C302" t="n">
         <v>3</v>
       </c>
@@ -7091,7 +7677,9 @@
       <c r="A303" t="n">
         <v>120000</v>
       </c>
-      <c r="B303" t="inlineStr"/>
+      <c r="B303" t="n">
+        <v>57</v>
+      </c>
       <c r="C303" t="n">
         <v>2</v>
       </c>
@@ -7113,7 +7701,9 @@
       <c r="A304" t="n">
         <v>100000</v>
       </c>
-      <c r="B304" t="inlineStr"/>
+      <c r="B304" t="n">
+        <v>55</v>
+      </c>
       <c r="C304" t="n">
         <v>2</v>
       </c>
@@ -7135,7 +7725,9 @@
       <c r="A305" t="n">
         <v>120000</v>
       </c>
-      <c r="B305" t="inlineStr"/>
+      <c r="B305" t="n">
+        <v>52</v>
+      </c>
       <c r="C305" t="n">
         <v>2</v>
       </c>
@@ -7157,7 +7749,9 @@
       <c r="A306" t="n">
         <v>130000</v>
       </c>
-      <c r="B306" t="inlineStr"/>
+      <c r="B306" t="n">
+        <v>47</v>
+      </c>
       <c r="C306" t="n">
         <v>2</v>
       </c>
@@ -7179,7 +7773,9 @@
       <c r="A307" t="n">
         <v>100000</v>
       </c>
-      <c r="B307" t="inlineStr"/>
+      <c r="B307" t="n">
+        <v>61</v>
+      </c>
       <c r="C307" t="n">
         <v>3</v>
       </c>
@@ -7201,7 +7797,9 @@
       <c r="A308" t="n">
         <v>120000</v>
       </c>
-      <c r="B308" t="inlineStr"/>
+      <c r="B308" t="n">
+        <v>60</v>
+      </c>
       <c r="C308" t="n">
         <v>2</v>
       </c>
@@ -7223,7 +7821,9 @@
       <c r="A309" t="n">
         <v>100000</v>
       </c>
-      <c r="B309" t="inlineStr"/>
+      <c r="B309" t="n">
+        <v>32</v>
+      </c>
       <c r="C309" t="n">
         <v>1</v>
       </c>
@@ -7245,7 +7845,9 @@
       <c r="A310" t="n">
         <v>130000</v>
       </c>
-      <c r="B310" t="inlineStr"/>
+      <c r="B310" t="n">
+        <v>57</v>
+      </c>
       <c r="C310" t="n">
         <v>2</v>
       </c>
@@ -7267,7 +7869,9 @@
       <c r="A311" t="n">
         <v>95000</v>
       </c>
-      <c r="B311" t="inlineStr"/>
+      <c r="B311" t="n">
+        <v>37</v>
+      </c>
       <c r="C311" t="n">
         <v>3</v>
       </c>
@@ -7289,7 +7893,9 @@
       <c r="A312" t="n">
         <v>120000</v>
       </c>
-      <c r="B312" t="inlineStr"/>
+      <c r="B312" t="n">
+        <v>50</v>
+      </c>
       <c r="C312" t="n">
         <v>2</v>
       </c>
@@ -7311,7 +7917,9 @@
       <c r="A313" t="n">
         <v>160000</v>
       </c>
-      <c r="B313" t="inlineStr"/>
+      <c r="B313" t="n">
+        <v>120</v>
+      </c>
       <c r="C313" t="n">
         <v>5</v>
       </c>
@@ -7333,7 +7941,9 @@
       <c r="A314" t="n">
         <v>140000</v>
       </c>
-      <c r="B314" t="inlineStr"/>
+      <c r="B314" t="n">
+        <v>90</v>
+      </c>
       <c r="C314" t="n">
         <v>4</v>
       </c>
@@ -7355,7 +7965,9 @@
       <c r="A315" t="n">
         <v>90000</v>
       </c>
-      <c r="B315" t="inlineStr"/>
+      <c r="B315" t="n">
+        <v>40</v>
+      </c>
       <c r="C315" t="n">
         <v>2</v>
       </c>
@@ -7377,7 +7989,9 @@
       <c r="A316" t="n">
         <v>120000</v>
       </c>
-      <c r="B316" t="inlineStr"/>
+      <c r="B316" t="n">
+        <v>58</v>
+      </c>
       <c r="C316" t="n">
         <v>2</v>
       </c>
@@ -7399,7 +8013,9 @@
       <c r="A317" t="n">
         <v>200000</v>
       </c>
-      <c r="B317" t="inlineStr"/>
+      <c r="B317" t="n">
+        <v>54</v>
+      </c>
       <c r="C317" t="n">
         <v>2</v>
       </c>
@@ -7421,7 +8037,9 @@
       <c r="A318" t="n">
         <v>200000</v>
       </c>
-      <c r="B318" t="inlineStr"/>
+      <c r="B318" t="n">
+        <v>73</v>
+      </c>
       <c r="C318" t="n">
         <v>3</v>
       </c>
@@ -7443,7 +8061,9 @@
       <c r="A319" t="n">
         <v>190000</v>
       </c>
-      <c r="B319" t="inlineStr"/>
+      <c r="B319" t="n">
+        <v>65</v>
+      </c>
       <c r="C319" t="n">
         <v>3</v>
       </c>
@@ -7487,7 +8107,9 @@
       <c r="A321" t="n">
         <v>130000</v>
       </c>
-      <c r="B321" t="inlineStr"/>
+      <c r="B321" t="n">
+        <v>56</v>
+      </c>
       <c r="C321" t="n">
         <v>2</v>
       </c>
@@ -7509,7 +8131,9 @@
       <c r="A322" t="n">
         <v>295000</v>
       </c>
-      <c r="B322" t="inlineStr"/>
+      <c r="B322" t="n">
+        <v>143</v>
+      </c>
       <c r="C322" t="n">
         <v>4</v>
       </c>
@@ -7531,7 +8155,9 @@
       <c r="A323" t="n">
         <v>140000</v>
       </c>
-      <c r="B323" t="inlineStr"/>
+      <c r="B323" t="n">
+        <v>54</v>
+      </c>
       <c r="C323" t="n">
         <v>3</v>
       </c>
@@ -7553,7 +8179,9 @@
       <c r="A324" t="n">
         <v>100000</v>
       </c>
-      <c r="B324" t="inlineStr"/>
+      <c r="B324" t="n">
+        <v>30</v>
+      </c>
       <c r="C324" t="n">
         <v>1</v>
       </c>
@@ -7575,7 +8203,9 @@
       <c r="A325" t="n">
         <v>120000</v>
       </c>
-      <c r="B325" t="inlineStr"/>
+      <c r="B325" t="n">
+        <v>40</v>
+      </c>
       <c r="C325" t="n">
         <v>2</v>
       </c>
@@ -7597,7 +8227,9 @@
       <c r="A326" t="n">
         <v>170000</v>
       </c>
-      <c r="B326" t="inlineStr"/>
+      <c r="B326" t="n">
+        <v>65</v>
+      </c>
       <c r="C326" t="n">
         <v>3</v>
       </c>
@@ -7619,7 +8251,9 @@
       <c r="A327" t="n">
         <v>160000</v>
       </c>
-      <c r="B327" t="inlineStr"/>
+      <c r="B327" t="n">
+        <v>60</v>
+      </c>
       <c r="C327" t="n">
         <v>2</v>
       </c>
@@ -7641,7 +8275,9 @@
       <c r="A328" t="n">
         <v>250000</v>
       </c>
-      <c r="B328" t="inlineStr"/>
+      <c r="B328" t="n">
+        <v>85</v>
+      </c>
       <c r="C328" t="n">
         <v>3</v>
       </c>
@@ -7663,7 +8299,9 @@
       <c r="A329" t="n">
         <v>85000</v>
       </c>
-      <c r="B329" t="inlineStr"/>
+      <c r="B329" t="n">
+        <v>50</v>
+      </c>
       <c r="C329" t="n">
         <v>2</v>
       </c>
@@ -7685,7 +8323,9 @@
       <c r="A330" t="n">
         <v>200000</v>
       </c>
-      <c r="B330" t="inlineStr"/>
+      <c r="B330" t="n">
+        <v>73</v>
+      </c>
       <c r="C330" t="n">
         <v>3</v>
       </c>
@@ -7707,7 +8347,9 @@
       <c r="A331" t="n">
         <v>150000</v>
       </c>
-      <c r="B331" t="inlineStr"/>
+      <c r="B331" t="n">
+        <v>76</v>
+      </c>
       <c r="C331" t="n">
         <v>2</v>
       </c>
@@ -7729,7 +8371,9 @@
       <c r="A332" t="n">
         <v>110000</v>
       </c>
-      <c r="B332" t="inlineStr"/>
+      <c r="B332" t="n">
+        <v>55</v>
+      </c>
       <c r="C332" t="n">
         <v>2</v>
       </c>
@@ -7751,7 +8395,9 @@
       <c r="A333" t="n">
         <v>140000</v>
       </c>
-      <c r="B333" t="inlineStr"/>
+      <c r="B333" t="n">
+        <v>71</v>
+      </c>
       <c r="C333" t="n">
         <v>3</v>
       </c>
@@ -7773,7 +8419,9 @@
       <c r="A334" t="n">
         <v>130000</v>
       </c>
-      <c r="B334" t="inlineStr"/>
+      <c r="B334" t="n">
+        <v>48</v>
+      </c>
       <c r="C334" t="n">
         <v>2</v>
       </c>
@@ -7795,7 +8443,9 @@
       <c r="A335" t="n">
         <v>100000</v>
       </c>
-      <c r="B335" t="inlineStr"/>
+      <c r="B335" t="n">
+        <v>58</v>
+      </c>
       <c r="C335" t="n">
         <v>2</v>
       </c>
@@ -7817,7 +8467,9 @@
       <c r="A336" t="n">
         <v>120000</v>
       </c>
-      <c r="B336" t="inlineStr"/>
+      <c r="B336" t="n">
+        <v>43</v>
+      </c>
       <c r="C336" t="n">
         <v>2</v>
       </c>
@@ -7839,7 +8491,9 @@
       <c r="A337" t="n">
         <v>100000</v>
       </c>
-      <c r="B337" t="inlineStr"/>
+      <c r="B337" t="n">
+        <v>62</v>
+      </c>
       <c r="C337" t="n">
         <v>2</v>
       </c>
@@ -7861,7 +8515,9 @@
       <c r="A338" t="n">
         <v>100000</v>
       </c>
-      <c r="B338" t="inlineStr"/>
+      <c r="B338" t="n">
+        <v>48</v>
+      </c>
       <c r="C338" t="n">
         <v>1</v>
       </c>
@@ -7883,7 +8539,9 @@
       <c r="A339" t="n">
         <v>80000</v>
       </c>
-      <c r="B339" t="inlineStr"/>
+      <c r="B339" t="n">
+        <v>25</v>
+      </c>
       <c r="C339" t="n">
         <v>1</v>
       </c>
@@ -7905,7 +8563,9 @@
       <c r="A340" t="n">
         <v>160000</v>
       </c>
-      <c r="B340" t="inlineStr"/>
+      <c r="B340" t="n">
+        <v>60</v>
+      </c>
       <c r="C340" t="n">
         <v>3</v>
       </c>
@@ -7927,7 +8587,9 @@
       <c r="A341" t="n">
         <v>90000</v>
       </c>
-      <c r="B341" t="inlineStr"/>
+      <c r="B341" t="n">
+        <v>43</v>
+      </c>
       <c r="C341" t="n">
         <v>2</v>
       </c>
@@ -7949,7 +8611,9 @@
       <c r="A342" t="n">
         <v>120000</v>
       </c>
-      <c r="B342" t="inlineStr"/>
+      <c r="B342" t="n">
+        <v>70</v>
+      </c>
       <c r="C342" t="n">
         <v>3</v>
       </c>
@@ -7971,7 +8635,9 @@
       <c r="A343" t="n">
         <v>120000</v>
       </c>
-      <c r="B343" t="inlineStr"/>
+      <c r="B343" t="n">
+        <v>70</v>
+      </c>
       <c r="C343" t="n">
         <v>2</v>
       </c>
@@ -8015,7 +8681,9 @@
       <c r="A345" t="n">
         <v>100000</v>
       </c>
-      <c r="B345" t="inlineStr"/>
+      <c r="B345" t="n">
+        <v>61</v>
+      </c>
       <c r="C345" t="n">
         <v>3</v>
       </c>
@@ -8037,7 +8705,9 @@
       <c r="A346" t="n">
         <v>110000</v>
       </c>
-      <c r="B346" t="inlineStr"/>
+      <c r="B346" t="n">
+        <v>39</v>
+      </c>
       <c r="C346" t="n">
         <v>1</v>
       </c>
@@ -8059,7 +8729,9 @@
       <c r="A347" t="n">
         <v>150000</v>
       </c>
-      <c r="B347" t="inlineStr"/>
+      <c r="B347" t="n">
+        <v>60</v>
+      </c>
       <c r="C347" t="n">
         <v>3</v>
       </c>
@@ -8081,7 +8753,9 @@
       <c r="A348" t="n">
         <v>120000</v>
       </c>
-      <c r="B348" t="inlineStr"/>
+      <c r="B348" t="n">
+        <v>30</v>
+      </c>
       <c r="C348" t="n">
         <v>1</v>
       </c>
@@ -8103,7 +8777,9 @@
       <c r="A349" t="n">
         <v>170000</v>
       </c>
-      <c r="B349" t="inlineStr"/>
+      <c r="B349" t="n">
+        <v>88</v>
+      </c>
       <c r="C349" t="n">
         <v>4</v>
       </c>
@@ -8125,7 +8801,9 @@
       <c r="A350" t="n">
         <v>120000</v>
       </c>
-      <c r="B350" t="inlineStr"/>
+      <c r="B350" t="n">
+        <v>51</v>
+      </c>
       <c r="C350" t="n">
         <v>3</v>
       </c>
@@ -8147,7 +8825,9 @@
       <c r="A351" t="n">
         <v>95000</v>
       </c>
-      <c r="B351" t="inlineStr"/>
+      <c r="B351" t="n">
+        <v>55</v>
+      </c>
       <c r="C351" t="n">
         <v>2</v>
       </c>
@@ -8169,7 +8849,9 @@
       <c r="A352" t="n">
         <v>90000</v>
       </c>
-      <c r="B352" t="inlineStr"/>
+      <c r="B352" t="n">
+        <v>35</v>
+      </c>
       <c r="C352" t="n">
         <v>1</v>
       </c>
@@ -8191,7 +8873,9 @@
       <c r="A353" t="n">
         <v>160000</v>
       </c>
-      <c r="B353" t="inlineStr"/>
+      <c r="B353" t="n">
+        <v>47</v>
+      </c>
       <c r="C353" t="n">
         <v>2</v>
       </c>
@@ -8213,7 +8897,9 @@
       <c r="A354" t="n">
         <v>95000</v>
       </c>
-      <c r="B354" t="inlineStr"/>
+      <c r="B354" t="n">
+        <v>55</v>
+      </c>
       <c r="C354" t="n">
         <v>2</v>
       </c>
@@ -8235,7 +8921,9 @@
       <c r="A355" t="n">
         <v>165000</v>
       </c>
-      <c r="B355" t="inlineStr"/>
+      <c r="B355" t="n">
+        <v>65</v>
+      </c>
       <c r="C355" t="n">
         <v>3</v>
       </c>
@@ -8257,7 +8945,9 @@
       <c r="A356" t="n">
         <v>200000</v>
       </c>
-      <c r="B356" t="inlineStr"/>
+      <c r="B356" t="n">
+        <v>118</v>
+      </c>
       <c r="C356" t="n">
         <v>4</v>
       </c>
@@ -8279,7 +8969,9 @@
       <c r="A357" t="n">
         <v>140000</v>
       </c>
-      <c r="B357" t="inlineStr"/>
+      <c r="B357" t="n">
+        <v>53</v>
+      </c>
       <c r="C357" t="n">
         <v>2</v>
       </c>
@@ -8301,7 +8993,9 @@
       <c r="A358" t="n">
         <v>380000</v>
       </c>
-      <c r="B358" t="inlineStr"/>
+      <c r="B358" t="n">
+        <v>100</v>
+      </c>
       <c r="C358" t="n">
         <v>4</v>
       </c>
@@ -8323,7 +9017,9 @@
       <c r="A359" t="n">
         <v>130000</v>
       </c>
-      <c r="B359" t="inlineStr"/>
+      <c r="B359" t="n">
+        <v>52</v>
+      </c>
       <c r="C359" t="n">
         <v>2</v>
       </c>
@@ -8345,7 +9041,9 @@
       <c r="A360" t="n">
         <v>140000</v>
       </c>
-      <c r="B360" t="inlineStr"/>
+      <c r="B360" t="n">
+        <v>70</v>
+      </c>
       <c r="C360" t="n">
         <v>3</v>
       </c>
@@ -8367,7 +9065,9 @@
       <c r="A361" t="n">
         <v>100000</v>
       </c>
-      <c r="B361" t="inlineStr"/>
+      <c r="B361" t="n">
+        <v>43</v>
+      </c>
       <c r="C361" t="n">
         <v>2</v>
       </c>
@@ -8389,7 +9089,9 @@
       <c r="A362" t="n">
         <v>100000</v>
       </c>
-      <c r="B362" t="inlineStr"/>
+      <c r="B362" t="n">
+        <v>45</v>
+      </c>
       <c r="C362" t="n">
         <v>2</v>
       </c>
@@ -8411,7 +9113,9 @@
       <c r="A363" t="n">
         <v>270000</v>
       </c>
-      <c r="B363" t="inlineStr"/>
+      <c r="B363" t="n">
+        <v>190</v>
+      </c>
       <c r="C363" t="n">
         <v>5</v>
       </c>
@@ -8433,7 +9137,9 @@
       <c r="A364" t="n">
         <v>200000</v>
       </c>
-      <c r="B364" t="inlineStr"/>
+      <c r="B364" t="n">
+        <v>100</v>
+      </c>
       <c r="C364" t="n">
         <v>3</v>
       </c>
@@ -8455,7 +9161,9 @@
       <c r="A365" t="n">
         <v>100000</v>
       </c>
-      <c r="B365" t="inlineStr"/>
+      <c r="B365" t="n">
+        <v>44</v>
+      </c>
       <c r="C365" t="n">
         <v>2</v>
       </c>
@@ -8477,7 +9185,9 @@
       <c r="A366" t="n">
         <v>180000</v>
       </c>
-      <c r="B366" t="inlineStr"/>
+      <c r="B366" t="n">
+        <v>90</v>
+      </c>
       <c r="C366" t="n">
         <v>3</v>
       </c>
@@ -8499,7 +9209,9 @@
       <c r="A367" t="n">
         <v>220000</v>
       </c>
-      <c r="B367" t="inlineStr"/>
+      <c r="B367" t="n">
+        <v>93</v>
+      </c>
       <c r="C367" t="n">
         <v>3</v>
       </c>
@@ -8521,7 +9233,9 @@
       <c r="A368" t="n">
         <v>160000</v>
       </c>
-      <c r="B368" t="inlineStr"/>
+      <c r="B368" t="n">
+        <v>55</v>
+      </c>
       <c r="C368" t="n">
         <v>2</v>
       </c>
@@ -8543,7 +9257,9 @@
       <c r="A369" t="n">
         <v>80000</v>
       </c>
-      <c r="B369" t="inlineStr"/>
+      <c r="B369" t="n">
+        <v>38</v>
+      </c>
       <c r="C369" t="n">
         <v>1</v>
       </c>
@@ -8565,7 +9281,9 @@
       <c r="A370" t="n">
         <v>110000</v>
       </c>
-      <c r="B370" t="inlineStr"/>
+      <c r="B370" t="n">
+        <v>49</v>
+      </c>
       <c r="C370" t="n">
         <v>2</v>
       </c>
@@ -8587,7 +9305,9 @@
       <c r="A371" t="n">
         <v>240000</v>
       </c>
-      <c r="B371" t="inlineStr"/>
+      <c r="B371" t="n">
+        <v>105</v>
+      </c>
       <c r="C371" t="n">
         <v>3</v>
       </c>
@@ -8609,7 +9329,9 @@
       <c r="A372" t="n">
         <v>70000</v>
       </c>
-      <c r="B372" t="inlineStr"/>
+      <c r="B372" t="n">
+        <v>42</v>
+      </c>
       <c r="C372" t="n">
         <v>1</v>
       </c>
@@ -8631,7 +9353,9 @@
       <c r="A373" t="n">
         <v>180000</v>
       </c>
-      <c r="B373" t="inlineStr"/>
+      <c r="B373" t="n">
+        <v>73</v>
+      </c>
       <c r="C373" t="n">
         <v>3</v>
       </c>
@@ -8653,7 +9377,9 @@
       <c r="A374" t="n">
         <v>95000</v>
       </c>
-      <c r="B374" t="inlineStr"/>
+      <c r="B374" t="n">
+        <v>37</v>
+      </c>
       <c r="C374" t="n">
         <v>2</v>
       </c>
@@ -8675,7 +9401,9 @@
       <c r="A375" t="n">
         <v>130000</v>
       </c>
-      <c r="B375" t="inlineStr"/>
+      <c r="B375" t="n">
+        <v>55</v>
+      </c>
       <c r="C375" t="n">
         <v>2</v>
       </c>
@@ -8697,7 +9425,9 @@
       <c r="A376" t="n">
         <v>150000</v>
       </c>
-      <c r="B376" t="inlineStr"/>
+      <c r="B376" t="n">
+        <v>71</v>
+      </c>
       <c r="C376" t="n">
         <v>2</v>
       </c>
@@ -8719,7 +9449,9 @@
       <c r="A377" t="n">
         <v>150000</v>
       </c>
-      <c r="B377" t="inlineStr"/>
+      <c r="B377" t="n">
+        <v>63</v>
+      </c>
       <c r="C377" t="n">
         <v>3</v>
       </c>
@@ -8741,7 +9473,9 @@
       <c r="A378" t="n">
         <v>170000</v>
       </c>
-      <c r="B378" t="inlineStr"/>
+      <c r="B378" t="n">
+        <v>58</v>
+      </c>
       <c r="C378" t="n">
         <v>3</v>
       </c>
@@ -8763,7 +9497,9 @@
       <c r="A379" t="n">
         <v>130000</v>
       </c>
-      <c r="B379" t="inlineStr"/>
+      <c r="B379" t="n">
+        <v>35</v>
+      </c>
       <c r="C379" t="n">
         <v>1</v>
       </c>
@@ -8785,7 +9521,9 @@
       <c r="A380" t="n">
         <v>190000</v>
       </c>
-      <c r="B380" t="inlineStr"/>
+      <c r="B380" t="n">
+        <v>57</v>
+      </c>
       <c r="C380" t="n">
         <v>3</v>
       </c>
@@ -8829,7 +9567,9 @@
       <c r="A382" t="n">
         <v>140000</v>
       </c>
-      <c r="B382" t="inlineStr"/>
+      <c r="B382" t="n">
+        <v>61</v>
+      </c>
       <c r="C382" t="n">
         <v>3</v>
       </c>
@@ -8851,7 +9591,9 @@
       <c r="A383" t="n">
         <v>130000</v>
       </c>
-      <c r="B383" t="inlineStr"/>
+      <c r="B383" t="n">
+        <v>63</v>
+      </c>
       <c r="C383" t="n">
         <v>3</v>
       </c>
@@ -8873,7 +9615,9 @@
       <c r="A384" t="n">
         <v>85000</v>
       </c>
-      <c r="B384" t="inlineStr"/>
+      <c r="B384" t="n">
+        <v>42</v>
+      </c>
       <c r="C384" t="n">
         <v>2</v>
       </c>
@@ -8895,7 +9639,9 @@
       <c r="A385" t="n">
         <v>140000</v>
       </c>
-      <c r="B385" t="inlineStr"/>
+      <c r="B385" t="n">
+        <v>56</v>
+      </c>
       <c r="C385" t="n">
         <v>2</v>
       </c>
@@ -8917,7 +9663,9 @@
       <c r="A386" t="n">
         <v>140000</v>
       </c>
-      <c r="B386" t="inlineStr"/>
+      <c r="B386" t="n">
+        <v>56</v>
+      </c>
       <c r="C386" t="n">
         <v>2</v>
       </c>
@@ -8939,7 +9687,9 @@
       <c r="A387" t="n">
         <v>130000</v>
       </c>
-      <c r="B387" t="inlineStr"/>
+      <c r="B387" t="n">
+        <v>45</v>
+      </c>
       <c r="C387" t="n">
         <v>2</v>
       </c>
@@ -8961,7 +9711,9 @@
       <c r="A388" t="n">
         <v>110000</v>
       </c>
-      <c r="B388" t="inlineStr"/>
+      <c r="B388" t="n">
+        <v>58</v>
+      </c>
       <c r="C388" t="n">
         <v>2</v>
       </c>
@@ -8983,7 +9735,9 @@
       <c r="A389" t="n">
         <v>165000</v>
       </c>
-      <c r="B389" t="inlineStr"/>
+      <c r="B389" t="n">
+        <v>65</v>
+      </c>
       <c r="C389" t="n">
         <v>3</v>
       </c>
@@ -9005,7 +9759,9 @@
       <c r="A390" t="n">
         <v>80000</v>
       </c>
-      <c r="B390" t="inlineStr"/>
+      <c r="B390" t="n">
+        <v>38</v>
+      </c>
       <c r="C390" t="n">
         <v>1</v>
       </c>
@@ -9027,7 +9783,9 @@
       <c r="A391" t="n">
         <v>100000</v>
       </c>
-      <c r="B391" t="inlineStr"/>
+      <c r="B391" t="n">
+        <v>27</v>
+      </c>
       <c r="C391" t="n">
         <v>1</v>
       </c>
@@ -9049,7 +9807,9 @@
       <c r="A392" t="n">
         <v>120000</v>
       </c>
-      <c r="B392" t="inlineStr"/>
+      <c r="B392" t="n">
+        <v>43</v>
+      </c>
       <c r="C392" t="n">
         <v>2</v>
       </c>
@@ -9071,7 +9831,9 @@
       <c r="A393" t="n">
         <v>80000</v>
       </c>
-      <c r="B393" t="inlineStr"/>
+      <c r="B393" t="n">
+        <v>40</v>
+      </c>
       <c r="C393" t="n">
         <v>2</v>
       </c>
@@ -9093,7 +9855,9 @@
       <c r="A394" t="n">
         <v>130000</v>
       </c>
-      <c r="B394" t="inlineStr"/>
+      <c r="B394" t="n">
+        <v>60</v>
+      </c>
       <c r="C394" t="n">
         <v>2</v>
       </c>
@@ -9115,7 +9879,9 @@
       <c r="A395" t="n">
         <v>90000</v>
       </c>
-      <c r="B395" t="inlineStr"/>
+      <c r="B395" t="n">
+        <v>35</v>
+      </c>
       <c r="C395" t="n">
         <v>2</v>
       </c>
@@ -9137,7 +9903,9 @@
       <c r="A396" t="n">
         <v>140000</v>
       </c>
-      <c r="B396" t="inlineStr"/>
+      <c r="B396" t="n">
+        <v>80</v>
+      </c>
       <c r="C396" t="n">
         <v>3</v>
       </c>
@@ -9159,7 +9927,9 @@
       <c r="A397" t="n">
         <v>90000</v>
       </c>
-      <c r="B397" t="inlineStr"/>
+      <c r="B397" t="n">
+        <v>38</v>
+      </c>
       <c r="C397" t="n">
         <v>1</v>
       </c>
@@ -9181,7 +9951,9 @@
       <c r="A398" t="n">
         <v>200000</v>
       </c>
-      <c r="B398" t="inlineStr"/>
+      <c r="B398" t="n">
+        <v>74</v>
+      </c>
       <c r="C398" t="n">
         <v>2</v>
       </c>
@@ -9203,7 +9975,9 @@
       <c r="A399" t="n">
         <v>200000</v>
       </c>
-      <c r="B399" t="inlineStr"/>
+      <c r="B399" t="n">
+        <v>59</v>
+      </c>
       <c r="C399" t="n">
         <v>2</v>
       </c>
@@ -9225,7 +9999,9 @@
       <c r="A400" t="n">
         <v>120000</v>
       </c>
-      <c r="B400" t="inlineStr"/>
+      <c r="B400" t="n">
+        <v>50</v>
+      </c>
       <c r="C400" t="n">
         <v>2</v>
       </c>
@@ -9247,7 +10023,9 @@
       <c r="A401" t="n">
         <v>165000</v>
       </c>
-      <c r="B401" t="inlineStr"/>
+      <c r="B401" t="n">
+        <v>70</v>
+      </c>
       <c r="C401" t="n">
         <v>3</v>
       </c>
@@ -9269,7 +10047,9 @@
       <c r="A402" t="n">
         <v>110000</v>
       </c>
-      <c r="B402" t="inlineStr"/>
+      <c r="B402" t="n">
+        <v>53</v>
+      </c>
       <c r="C402" t="n">
         <v>3</v>
       </c>
@@ -9291,7 +10071,9 @@
       <c r="A403" t="n">
         <v>130000</v>
       </c>
-      <c r="B403" t="inlineStr"/>
+      <c r="B403" t="n">
+        <v>50</v>
+      </c>
       <c r="C403" t="n">
         <v>2</v>
       </c>
@@ -9313,7 +10095,9 @@
       <c r="A404" t="n">
         <v>250000</v>
       </c>
-      <c r="B404" t="inlineStr"/>
+      <c r="B404" t="n">
+        <v>105</v>
+      </c>
       <c r="C404" t="n">
         <v>5</v>
       </c>
@@ -9335,7 +10119,9 @@
       <c r="A405" t="n">
         <v>110000</v>
       </c>
-      <c r="B405" t="inlineStr"/>
+      <c r="B405" t="n">
+        <v>56</v>
+      </c>
       <c r="C405" t="n">
         <v>2</v>
       </c>
@@ -9379,7 +10165,9 @@
       <c r="A407" t="n">
         <v>140000</v>
       </c>
-      <c r="B407" t="inlineStr"/>
+      <c r="B407" t="n">
+        <v>59</v>
+      </c>
       <c r="C407" t="n">
         <v>2</v>
       </c>
@@ -9401,7 +10189,9 @@
       <c r="A408" t="n">
         <v>135000</v>
       </c>
-      <c r="B408" t="inlineStr"/>
+      <c r="B408" t="n">
+        <v>55</v>
+      </c>
       <c r="C408" t="n">
         <v>2</v>
       </c>
@@ -9423,7 +10213,9 @@
       <c r="A409" t="n">
         <v>135000</v>
       </c>
-      <c r="B409" t="inlineStr"/>
+      <c r="B409" t="n">
+        <v>58</v>
+      </c>
       <c r="C409" t="n">
         <v>2</v>
       </c>
@@ -9445,7 +10237,9 @@
       <c r="A410" t="n">
         <v>90000</v>
       </c>
-      <c r="B410" t="inlineStr"/>
+      <c r="B410" t="n">
+        <v>45</v>
+      </c>
       <c r="C410" t="n">
         <v>2</v>
       </c>
@@ -9468,7 +10262,7 @@
         <v>75000</v>
       </c>
       <c r="B411" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C411" t="n">
         <v>1</v>
@@ -9491,7 +10285,9 @@
       <c r="A412" t="n">
         <v>47500</v>
       </c>
-      <c r="B412" t="inlineStr"/>
+      <c r="B412" t="n">
+        <v>54</v>
+      </c>
       <c r="C412" t="n">
         <v>2</v>
       </c>
@@ -9513,7 +10309,9 @@
       <c r="A413" t="n">
         <v>150000</v>
       </c>
-      <c r="B413" t="inlineStr"/>
+      <c r="B413" t="n">
+        <v>57</v>
+      </c>
       <c r="C413" t="n">
         <v>2</v>
       </c>
@@ -9535,7 +10333,9 @@
       <c r="A414" t="n">
         <v>100000</v>
       </c>
-      <c r="B414" t="inlineStr"/>
+      <c r="B414" t="n">
+        <v>67</v>
+      </c>
       <c r="C414" t="n">
         <v>3</v>
       </c>
@@ -9557,7 +10357,9 @@
       <c r="A415" t="n">
         <v>100000</v>
       </c>
-      <c r="B415" t="inlineStr"/>
+      <c r="B415" t="n">
+        <v>54</v>
+      </c>
       <c r="C415" t="n">
         <v>2</v>
       </c>
@@ -9579,7 +10381,9 @@
       <c r="A416" t="n">
         <v>90000</v>
       </c>
-      <c r="B416" t="inlineStr"/>
+      <c r="B416" t="n">
+        <v>35</v>
+      </c>
       <c r="C416" t="n">
         <v>1</v>
       </c>
@@ -9601,7 +10405,9 @@
       <c r="A417" t="n">
         <v>150000</v>
       </c>
-      <c r="B417" t="inlineStr"/>
+      <c r="B417" t="n">
+        <v>45</v>
+      </c>
       <c r="C417" t="n">
         <v>2</v>
       </c>
@@ -9623,7 +10429,9 @@
       <c r="A418" t="n">
         <v>90000</v>
       </c>
-      <c r="B418" t="inlineStr"/>
+      <c r="B418" t="n">
+        <v>40</v>
+      </c>
       <c r="C418" t="n">
         <v>2</v>
       </c>
@@ -9645,7 +10453,9 @@
       <c r="A419" t="n">
         <v>120000</v>
       </c>
-      <c r="B419" t="inlineStr"/>
+      <c r="B419" t="n">
+        <v>58</v>
+      </c>
       <c r="C419" t="n">
         <v>2</v>
       </c>
@@ -9667,7 +10477,9 @@
       <c r="A420" t="n">
         <v>110000</v>
       </c>
-      <c r="B420" t="inlineStr"/>
+      <c r="B420" t="n">
+        <v>50</v>
+      </c>
       <c r="C420" t="n">
         <v>2</v>
       </c>
@@ -9689,7 +10501,9 @@
       <c r="A421" t="n">
         <v>100000</v>
       </c>
-      <c r="B421" t="inlineStr"/>
+      <c r="B421" t="n">
+        <v>50</v>
+      </c>
       <c r="C421" t="n">
         <v>2</v>
       </c>
@@ -9711,7 +10525,9 @@
       <c r="A422" t="n">
         <v>90000</v>
       </c>
-      <c r="B422" t="inlineStr"/>
+      <c r="B422" t="n">
+        <v>60</v>
+      </c>
       <c r="C422" t="n">
         <v>2</v>
       </c>
@@ -9733,7 +10549,9 @@
       <c r="A423" t="n">
         <v>90000</v>
       </c>
-      <c r="B423" t="inlineStr"/>
+      <c r="B423" t="n">
+        <v>43</v>
+      </c>
       <c r="C423" t="n">
         <v>1</v>
       </c>
@@ -9755,7 +10573,9 @@
       <c r="A424" t="n">
         <v>85000</v>
       </c>
-      <c r="B424" t="inlineStr"/>
+      <c r="B424" t="n">
+        <v>43</v>
+      </c>
       <c r="C424" t="n">
         <v>2</v>
       </c>
@@ -9777,7 +10597,9 @@
       <c r="A425" t="n">
         <v>150000</v>
       </c>
-      <c r="B425" t="inlineStr"/>
+      <c r="B425" t="n">
+        <v>48</v>
+      </c>
       <c r="C425" t="n">
         <v>2</v>
       </c>
@@ -9799,7 +10621,9 @@
       <c r="A426" t="n">
         <v>80000</v>
       </c>
-      <c r="B426" t="inlineStr"/>
+      <c r="B426" t="n">
+        <v>30</v>
+      </c>
       <c r="C426" t="n">
         <v>1</v>
       </c>
@@ -9822,7 +10646,7 @@
         <v>160000</v>
       </c>
       <c r="B427" t="n">
-        <v>71</v>
+        <v>71.14</v>
       </c>
       <c r="C427" t="n">
         <v>3</v>
@@ -9845,7 +10669,9 @@
       <c r="A428" t="n">
         <v>170000</v>
       </c>
-      <c r="B428" t="inlineStr"/>
+      <c r="B428" t="n">
+        <v>75</v>
+      </c>
       <c r="C428" t="n">
         <v>2</v>
       </c>
@@ -9867,7 +10693,9 @@
       <c r="A429" t="n">
         <v>250000</v>
       </c>
-      <c r="B429" t="inlineStr"/>
+      <c r="B429" t="n">
+        <v>160</v>
+      </c>
       <c r="C429" t="n">
         <v>5</v>
       </c>
@@ -9889,7 +10717,9 @@
       <c r="A430" t="n">
         <v>85000</v>
       </c>
-      <c r="B430" t="inlineStr"/>
+      <c r="B430" t="n">
+        <v>60</v>
+      </c>
       <c r="C430" t="n">
         <v>2</v>
       </c>
@@ -9911,7 +10741,9 @@
       <c r="A431" t="n">
         <v>140000</v>
       </c>
-      <c r="B431" t="inlineStr"/>
+      <c r="B431" t="n">
+        <v>60</v>
+      </c>
       <c r="C431" t="n">
         <v>2</v>
       </c>
@@ -9933,7 +10765,9 @@
       <c r="A432" t="n">
         <v>110000</v>
       </c>
-      <c r="B432" t="inlineStr"/>
+      <c r="B432" t="n">
+        <v>55</v>
+      </c>
       <c r="C432" t="n">
         <v>2</v>
       </c>
@@ -9955,7 +10789,9 @@
       <c r="A433" t="n">
         <v>50000</v>
       </c>
-      <c r="B433" t="inlineStr"/>
+      <c r="B433" t="n">
+        <v>25</v>
+      </c>
       <c r="C433" t="n">
         <v>1</v>
       </c>
@@ -9977,7 +10813,9 @@
       <c r="A434" t="n">
         <v>90000</v>
       </c>
-      <c r="B434" t="inlineStr"/>
+      <c r="B434" t="n">
+        <v>61</v>
+      </c>
       <c r="C434" t="n">
         <v>2</v>
       </c>
@@ -9999,7 +10837,9 @@
       <c r="A435" t="n">
         <v>90000</v>
       </c>
-      <c r="B435" t="inlineStr"/>
+      <c r="B435" t="n">
+        <v>55</v>
+      </c>
       <c r="C435" t="n">
         <v>2</v>
       </c>
@@ -10021,7 +10861,9 @@
       <c r="A436" t="n">
         <v>150000</v>
       </c>
-      <c r="B436" t="inlineStr"/>
+      <c r="B436" t="n">
+        <v>60</v>
+      </c>
       <c r="C436" t="n">
         <v>2</v>
       </c>
@@ -10043,7 +10885,9 @@
       <c r="A437" t="n">
         <v>100000</v>
       </c>
-      <c r="B437" t="inlineStr"/>
+      <c r="B437" t="n">
+        <v>37</v>
+      </c>
       <c r="C437" t="n">
         <v>1</v>
       </c>
@@ -10065,7 +10909,9 @@
       <c r="A438" t="n">
         <v>140000</v>
       </c>
-      <c r="B438" t="inlineStr"/>
+      <c r="B438" t="n">
+        <v>35</v>
+      </c>
       <c r="C438" t="n">
         <v>1</v>
       </c>
@@ -10087,7 +10933,9 @@
       <c r="A439" t="n">
         <v>200000</v>
       </c>
-      <c r="B439" t="inlineStr"/>
+      <c r="B439" t="n">
+        <v>80</v>
+      </c>
       <c r="C439" t="n">
         <v>3</v>
       </c>
@@ -10109,7 +10957,9 @@
       <c r="A440" t="n">
         <v>250000</v>
       </c>
-      <c r="B440" t="inlineStr"/>
+      <c r="B440" t="n">
+        <v>120</v>
+      </c>
       <c r="C440" t="n">
         <v>5</v>
       </c>
@@ -10131,7 +10981,9 @@
       <c r="A441" t="n">
         <v>110000</v>
       </c>
-      <c r="B441" t="inlineStr"/>
+      <c r="B441" t="n">
+        <v>46</v>
+      </c>
       <c r="C441" t="n">
         <v>2</v>
       </c>
@@ -10153,7 +11005,9 @@
       <c r="A442" t="n">
         <v>95000</v>
       </c>
-      <c r="B442" t="inlineStr"/>
+      <c r="B442" t="n">
+        <v>60</v>
+      </c>
       <c r="C442" t="n">
         <v>2</v>
       </c>
@@ -10175,7 +11029,9 @@
       <c r="A443" t="n">
         <v>115000</v>
       </c>
-      <c r="B443" t="inlineStr"/>
+      <c r="B443" t="n">
+        <v>51</v>
+      </c>
       <c r="C443" t="n">
         <v>2</v>
       </c>
@@ -10197,7 +11053,9 @@
       <c r="A444" t="n">
         <v>120000</v>
       </c>
-      <c r="B444" t="inlineStr"/>
+      <c r="B444" t="n">
+        <v>70</v>
+      </c>
       <c r="C444" t="n">
         <v>3</v>
       </c>
@@ -10219,7 +11077,9 @@
       <c r="A445" t="n">
         <v>80000</v>
       </c>
-      <c r="B445" t="inlineStr"/>
+      <c r="B445" t="n">
+        <v>29</v>
+      </c>
       <c r="C445" t="n">
         <v>1</v>
       </c>
@@ -10241,7 +11101,9 @@
       <c r="A446" t="n">
         <v>120000</v>
       </c>
-      <c r="B446" t="inlineStr"/>
+      <c r="B446" t="n">
+        <v>35</v>
+      </c>
       <c r="C446" t="n">
         <v>2</v>
       </c>
@@ -10263,7 +11125,9 @@
       <c r="A447" t="n">
         <v>120000</v>
       </c>
-      <c r="B447" t="inlineStr"/>
+      <c r="B447" t="n">
+        <v>51</v>
+      </c>
       <c r="C447" t="n">
         <v>2</v>
       </c>
@@ -10307,7 +11171,9 @@
       <c r="A449" t="n">
         <v>120000</v>
       </c>
-      <c r="B449" t="inlineStr"/>
+      <c r="B449" t="n">
+        <v>42</v>
+      </c>
       <c r="C449" t="n">
         <v>2</v>
       </c>
@@ -10329,7 +11195,9 @@
       <c r="A450" t="n">
         <v>120000</v>
       </c>
-      <c r="B450" t="inlineStr"/>
+      <c r="B450" t="n">
+        <v>38</v>
+      </c>
       <c r="C450" t="n">
         <v>2</v>
       </c>
@@ -10351,7 +11219,9 @@
       <c r="A451" t="n">
         <v>85000</v>
       </c>
-      <c r="B451" t="inlineStr"/>
+      <c r="B451" t="n">
+        <v>33</v>
+      </c>
       <c r="C451" t="n">
         <v>1</v>
       </c>
@@ -10395,7 +11265,9 @@
       <c r="A453" t="n">
         <v>100000</v>
       </c>
-      <c r="B453" t="inlineStr"/>
+      <c r="B453" t="n">
+        <v>50</v>
+      </c>
       <c r="C453" t="n">
         <v>2</v>
       </c>
@@ -10417,7 +11289,9 @@
       <c r="A454" t="n">
         <v>130000</v>
       </c>
-      <c r="B454" t="inlineStr"/>
+      <c r="B454" t="n">
+        <v>75</v>
+      </c>
       <c r="C454" t="n">
         <v>3</v>
       </c>
@@ -10461,7 +11335,9 @@
       <c r="A456" t="n">
         <v>85000</v>
       </c>
-      <c r="B456" t="inlineStr"/>
+      <c r="B456" t="n">
+        <v>43</v>
+      </c>
       <c r="C456" t="n">
         <v>2</v>
       </c>
@@ -10483,7 +11359,9 @@
       <c r="A457" t="n">
         <v>115000</v>
       </c>
-      <c r="B457" t="inlineStr"/>
+      <c r="B457" t="n">
+        <v>56</v>
+      </c>
       <c r="C457" t="n">
         <v>2</v>
       </c>
@@ -10505,7 +11383,9 @@
       <c r="A458" t="n">
         <v>120000</v>
       </c>
-      <c r="B458" t="inlineStr"/>
+      <c r="B458" t="n">
+        <v>43</v>
+      </c>
       <c r="C458" t="n">
         <v>2</v>
       </c>
@@ -10527,7 +11407,9 @@
       <c r="A459" t="n">
         <v>95000</v>
       </c>
-      <c r="B459" t="inlineStr"/>
+      <c r="B459" t="n">
+        <v>58</v>
+      </c>
       <c r="C459" t="n">
         <v>3</v>
       </c>
@@ -10549,7 +11431,9 @@
       <c r="A460" t="n">
         <v>105000</v>
       </c>
-      <c r="B460" t="inlineStr"/>
+      <c r="B460" t="n">
+        <v>41</v>
+      </c>
       <c r="C460" t="n">
         <v>1</v>
       </c>
@@ -10571,7 +11455,9 @@
       <c r="A461" t="n">
         <v>120000</v>
       </c>
-      <c r="B461" t="inlineStr"/>
+      <c r="B461" t="n">
+        <v>56</v>
+      </c>
       <c r="C461" t="n">
         <v>2</v>
       </c>
@@ -10593,7 +11479,9 @@
       <c r="A462" t="n">
         <v>140000</v>
       </c>
-      <c r="B462" t="inlineStr"/>
+      <c r="B462" t="n">
+        <v>55</v>
+      </c>
       <c r="C462" t="n">
         <v>2</v>
       </c>
@@ -10615,7 +11503,9 @@
       <c r="A463" t="n">
         <v>120000</v>
       </c>
-      <c r="B463" t="inlineStr"/>
+      <c r="B463" t="n">
+        <v>62</v>
+      </c>
       <c r="C463" t="n">
         <v>3</v>
       </c>
@@ -10637,7 +11527,9 @@
       <c r="A464" t="n">
         <v>90000</v>
       </c>
-      <c r="B464" t="inlineStr"/>
+      <c r="B464" t="n">
+        <v>45</v>
+      </c>
       <c r="C464" t="n">
         <v>2</v>
       </c>
@@ -10659,7 +11551,9 @@
       <c r="A465" t="n">
         <v>75000</v>
       </c>
-      <c r="B465" t="inlineStr"/>
+      <c r="B465" t="n">
+        <v>40</v>
+      </c>
       <c r="C465" t="n">
         <v>1</v>
       </c>
@@ -10681,7 +11575,9 @@
       <c r="A466" t="n">
         <v>65000</v>
       </c>
-      <c r="B466" t="inlineStr"/>
+      <c r="B466" t="n">
+        <v>43</v>
+      </c>
       <c r="C466" t="n">
         <v>2</v>
       </c>
@@ -10703,7 +11599,9 @@
       <c r="A467" t="n">
         <v>165000</v>
       </c>
-      <c r="B467" t="inlineStr"/>
+      <c r="B467" t="n">
+        <v>54</v>
+      </c>
       <c r="C467" t="n">
         <v>2</v>
       </c>
@@ -10725,7 +11623,9 @@
       <c r="A468" t="n">
         <v>165000</v>
       </c>
-      <c r="B468" t="inlineStr"/>
+      <c r="B468" t="n">
+        <v>57</v>
+      </c>
       <c r="C468" t="n">
         <v>3</v>
       </c>
@@ -10747,7 +11647,9 @@
       <c r="A469" t="n">
         <v>170000</v>
       </c>
-      <c r="B469" t="inlineStr"/>
+      <c r="B469" t="n">
+        <v>65</v>
+      </c>
       <c r="C469" t="n">
         <v>3</v>
       </c>
@@ -10769,7 +11671,9 @@
       <c r="A470" t="n">
         <v>110000</v>
       </c>
-      <c r="B470" t="inlineStr"/>
+      <c r="B470" t="n">
+        <v>55</v>
+      </c>
       <c r="C470" t="n">
         <v>3</v>
       </c>
@@ -10791,7 +11695,9 @@
       <c r="A471" t="n">
         <v>130000</v>
       </c>
-      <c r="B471" t="inlineStr"/>
+      <c r="B471" t="n">
+        <v>48</v>
+      </c>
       <c r="C471" t="n">
         <v>2</v>
       </c>
@@ -10813,7 +11719,9 @@
       <c r="A472" t="n">
         <v>140000</v>
       </c>
-      <c r="B472" t="inlineStr"/>
+      <c r="B472" t="n">
+        <v>45</v>
+      </c>
       <c r="C472" t="n">
         <v>2</v>
       </c>
@@ -10835,7 +11743,9 @@
       <c r="A473" t="n">
         <v>140000</v>
       </c>
-      <c r="B473" t="inlineStr"/>
+      <c r="B473" t="n">
+        <v>105</v>
+      </c>
       <c r="C473" t="n">
         <v>3</v>
       </c>
@@ -10857,7 +11767,9 @@
       <c r="A474" t="n">
         <v>200000</v>
       </c>
-      <c r="B474" t="inlineStr"/>
+      <c r="B474" t="n">
+        <v>59</v>
+      </c>
       <c r="C474" t="n">
         <v>3</v>
       </c>
@@ -10879,7 +11791,9 @@
       <c r="A475" t="n">
         <v>120000</v>
       </c>
-      <c r="B475" t="inlineStr"/>
+      <c r="B475" t="n">
+        <v>65</v>
+      </c>
       <c r="C475" t="n">
         <v>2</v>
       </c>
@@ -10901,7 +11815,9 @@
       <c r="A476" t="n">
         <v>110000</v>
       </c>
-      <c r="B476" t="inlineStr"/>
+      <c r="B476" t="n">
+        <v>40</v>
+      </c>
       <c r="C476" t="n">
         <v>2</v>
       </c>
@@ -10923,7 +11839,9 @@
       <c r="A477" t="n">
         <v>130000</v>
       </c>
-      <c r="B477" t="inlineStr"/>
+      <c r="B477" t="n">
+        <v>48</v>
+      </c>
       <c r="C477" t="n">
         <v>2</v>
       </c>
@@ -10945,7 +11863,9 @@
       <c r="A478" t="n">
         <v>90000</v>
       </c>
-      <c r="B478" t="inlineStr"/>
+      <c r="B478" t="n">
+        <v>60</v>
+      </c>
       <c r="C478" t="n">
         <v>3</v>
       </c>
@@ -10967,7 +11887,9 @@
       <c r="A479" t="n">
         <v>125000</v>
       </c>
-      <c r="B479" t="inlineStr"/>
+      <c r="B479" t="n">
+        <v>65</v>
+      </c>
       <c r="C479" t="n">
         <v>2</v>
       </c>
@@ -11011,7 +11933,9 @@
       <c r="A481" t="n">
         <v>145000</v>
       </c>
-      <c r="B481" t="inlineStr"/>
+      <c r="B481" t="n">
+        <v>52</v>
+      </c>
       <c r="C481" t="n">
         <v>2</v>
       </c>
@@ -11033,7 +11957,9 @@
       <c r="A482" t="n">
         <v>170000</v>
       </c>
-      <c r="B482" t="inlineStr"/>
+      <c r="B482" t="n">
+        <v>70</v>
+      </c>
       <c r="C482" t="n">
         <v>3</v>
       </c>
@@ -11055,7 +11981,9 @@
       <c r="A483" t="n">
         <v>130000</v>
       </c>
-      <c r="B483" t="inlineStr"/>
+      <c r="B483" t="n">
+        <v>70</v>
+      </c>
       <c r="C483" t="n">
         <v>3</v>
       </c>
@@ -11077,7 +12005,9 @@
       <c r="A484" t="n">
         <v>100000</v>
       </c>
-      <c r="B484" t="inlineStr"/>
+      <c r="B484" t="n">
+        <v>54</v>
+      </c>
       <c r="C484" t="n">
         <v>2</v>
       </c>
@@ -11099,7 +12029,9 @@
       <c r="A485" t="n">
         <v>125000</v>
       </c>
-      <c r="B485" t="inlineStr"/>
+      <c r="B485" t="n">
+        <v>55</v>
+      </c>
       <c r="C485" t="n">
         <v>2</v>
       </c>
@@ -11121,7 +12053,9 @@
       <c r="A486" t="n">
         <v>100000</v>
       </c>
-      <c r="B486" t="inlineStr"/>
+      <c r="B486" t="n">
+        <v>55</v>
+      </c>
       <c r="C486" t="n">
         <v>2</v>
       </c>
@@ -11143,7 +12077,9 @@
       <c r="A487" t="n">
         <v>160000</v>
       </c>
-      <c r="B487" t="inlineStr"/>
+      <c r="B487" t="n">
+        <v>60</v>
+      </c>
       <c r="C487" t="n">
         <v>2</v>
       </c>
@@ -11165,7 +12101,9 @@
       <c r="A488" t="n">
         <v>105000</v>
       </c>
-      <c r="B488" t="inlineStr"/>
+      <c r="B488" t="n">
+        <v>65</v>
+      </c>
       <c r="C488" t="n">
         <v>3</v>
       </c>
@@ -11187,7 +12125,9 @@
       <c r="A489" t="n">
         <v>220000</v>
       </c>
-      <c r="B489" t="inlineStr"/>
+      <c r="B489" t="n">
+        <v>73</v>
+      </c>
       <c r="C489" t="n">
         <v>3</v>
       </c>
@@ -11209,7 +12149,9 @@
       <c r="A490" t="n">
         <v>120000</v>
       </c>
-      <c r="B490" t="inlineStr"/>
+      <c r="B490" t="n">
+        <v>38</v>
+      </c>
       <c r="C490" t="n">
         <v>1</v>
       </c>
@@ -11231,7 +12173,9 @@
       <c r="A491" t="n">
         <v>130000</v>
       </c>
-      <c r="B491" t="inlineStr"/>
+      <c r="B491" t="n">
+        <v>50</v>
+      </c>
       <c r="C491" t="n">
         <v>2</v>
       </c>
@@ -11253,7 +12197,9 @@
       <c r="A492" t="n">
         <v>130000</v>
       </c>
-      <c r="B492" t="inlineStr"/>
+      <c r="B492" t="n">
+        <v>38</v>
+      </c>
       <c r="C492" t="n">
         <v>2</v>
       </c>
@@ -11275,7 +12221,9 @@
       <c r="A493" t="n">
         <v>105000</v>
       </c>
-      <c r="B493" t="inlineStr"/>
+      <c r="B493" t="n">
+        <v>45</v>
+      </c>
       <c r="C493" t="n">
         <v>2</v>
       </c>
@@ -11297,7 +12245,9 @@
       <c r="A494" t="n">
         <v>145000</v>
       </c>
-      <c r="B494" t="inlineStr"/>
+      <c r="B494" t="n">
+        <v>58</v>
+      </c>
       <c r="C494" t="n">
         <v>2</v>
       </c>
@@ -11319,7 +12269,9 @@
       <c r="A495" t="n">
         <v>120000</v>
       </c>
-      <c r="B495" t="inlineStr"/>
+      <c r="B495" t="n">
+        <v>60</v>
+      </c>
       <c r="C495" t="n">
         <v>3</v>
       </c>
@@ -11341,7 +12293,9 @@
       <c r="A496" t="n">
         <v>95000</v>
       </c>
-      <c r="B496" t="inlineStr"/>
+      <c r="B496" t="n">
+        <v>40</v>
+      </c>
       <c r="C496" t="n">
         <v>2</v>
       </c>
@@ -11363,7 +12317,9 @@
       <c r="A497" t="n">
         <v>140000</v>
       </c>
-      <c r="B497" t="inlineStr"/>
+      <c r="B497" t="n">
+        <v>55</v>
+      </c>
       <c r="C497" t="n">
         <v>2</v>
       </c>
@@ -11385,7 +12341,9 @@
       <c r="A498" t="n">
         <v>120000</v>
       </c>
-      <c r="B498" t="inlineStr"/>
+      <c r="B498" t="n">
+        <v>53</v>
+      </c>
       <c r="C498" t="n">
         <v>2</v>
       </c>
@@ -11407,7 +12365,9 @@
       <c r="A499" t="n">
         <v>125000</v>
       </c>
-      <c r="B499" t="inlineStr"/>
+      <c r="B499" t="n">
+        <v>54</v>
+      </c>
       <c r="C499" t="n">
         <v>2</v>
       </c>
@@ -11429,7 +12389,9 @@
       <c r="A500" t="n">
         <v>130000</v>
       </c>
-      <c r="B500" t="inlineStr"/>
+      <c r="B500" t="n">
+        <v>68</v>
+      </c>
       <c r="C500" t="n">
         <v>3</v>
       </c>
@@ -11451,7 +12413,9 @@
       <c r="A501" t="n">
         <v>100000</v>
       </c>
-      <c r="B501" t="inlineStr"/>
+      <c r="B501" t="n">
+        <v>100</v>
+      </c>
       <c r="C501" t="n">
         <v>3</v>
       </c>
@@ -11473,7 +12437,9 @@
       <c r="A502" t="n">
         <v>160000</v>
       </c>
-      <c r="B502" t="inlineStr"/>
+      <c r="B502" t="n">
+        <v>50</v>
+      </c>
       <c r="C502" t="n">
         <v>3</v>
       </c>
@@ -11495,7 +12461,9 @@
       <c r="A503" t="n">
         <v>150000</v>
       </c>
-      <c r="B503" t="inlineStr"/>
+      <c r="B503" t="n">
+        <v>110</v>
+      </c>
       <c r="C503" t="n">
         <v>3</v>
       </c>
@@ -11517,7 +12485,9 @@
       <c r="A504" t="n">
         <v>120000</v>
       </c>
-      <c r="B504" t="inlineStr"/>
+      <c r="B504" t="n">
+        <v>50</v>
+      </c>
       <c r="C504" t="n">
         <v>2</v>
       </c>
@@ -11539,7 +12509,9 @@
       <c r="A505" t="n">
         <v>110000</v>
       </c>
-      <c r="B505" t="inlineStr"/>
+      <c r="B505" t="n">
+        <v>60</v>
+      </c>
       <c r="C505" t="n">
         <v>2</v>
       </c>
@@ -11561,7 +12533,9 @@
       <c r="A506" t="n">
         <v>150000</v>
       </c>
-      <c r="B506" t="inlineStr"/>
+      <c r="B506" t="n">
+        <v>80</v>
+      </c>
       <c r="C506" t="n">
         <v>4</v>
       </c>
@@ -11583,7 +12557,9 @@
       <c r="A507" t="n">
         <v>110000</v>
       </c>
-      <c r="B507" t="inlineStr"/>
+      <c r="B507" t="n">
+        <v>77</v>
+      </c>
       <c r="C507" t="n">
         <v>2</v>
       </c>
@@ -11605,7 +12581,9 @@
       <c r="A508" t="n">
         <v>150000</v>
       </c>
-      <c r="B508" t="inlineStr"/>
+      <c r="B508" t="n">
+        <v>70</v>
+      </c>
       <c r="C508" t="n">
         <v>2</v>
       </c>
@@ -11627,7 +12605,9 @@
       <c r="A509" t="n">
         <v>85000</v>
       </c>
-      <c r="B509" t="inlineStr"/>
+      <c r="B509" t="n">
+        <v>50</v>
+      </c>
       <c r="C509" t="n">
         <v>2</v>
       </c>
@@ -11649,7 +12629,9 @@
       <c r="A510" t="n">
         <v>120000</v>
       </c>
-      <c r="B510" t="inlineStr"/>
+      <c r="B510" t="n">
+        <v>60</v>
+      </c>
       <c r="C510" t="n">
         <v>2</v>
       </c>
@@ -11671,7 +12653,9 @@
       <c r="A511" t="n">
         <v>80000</v>
       </c>
-      <c r="B511" t="inlineStr"/>
+      <c r="B511" t="n">
+        <v>42</v>
+      </c>
       <c r="C511" t="n">
         <v>1</v>
       </c>
@@ -11693,7 +12677,9 @@
       <c r="A512" t="n">
         <v>75000</v>
       </c>
-      <c r="B512" t="inlineStr"/>
+      <c r="B512" t="n">
+        <v>32</v>
+      </c>
       <c r="C512" t="n">
         <v>1</v>
       </c>
@@ -11715,7 +12701,9 @@
       <c r="A513" t="n">
         <v>250000</v>
       </c>
-      <c r="B513" t="inlineStr"/>
+      <c r="B513" t="n">
+        <v>160</v>
+      </c>
       <c r="C513" t="n">
         <v>5</v>
       </c>
@@ -11737,7 +12725,9 @@
       <c r="A514" t="n">
         <v>160000</v>
       </c>
-      <c r="B514" t="inlineStr"/>
+      <c r="B514" t="n">
+        <v>47</v>
+      </c>
       <c r="C514" t="n">
         <v>2</v>
       </c>
@@ -11759,7 +12749,9 @@
       <c r="A515" t="n">
         <v>150000</v>
       </c>
-      <c r="B515" t="inlineStr"/>
+      <c r="B515" t="n">
+        <v>60</v>
+      </c>
       <c r="C515" t="n">
         <v>2</v>
       </c>
@@ -11803,7 +12795,9 @@
       <c r="A517" t="n">
         <v>130000</v>
       </c>
-      <c r="B517" t="inlineStr"/>
+      <c r="B517" t="n">
+        <v>50</v>
+      </c>
       <c r="C517" t="n">
         <v>2</v>
       </c>
@@ -11825,7 +12819,9 @@
       <c r="A518" t="n">
         <v>130000</v>
       </c>
-      <c r="B518" t="inlineStr"/>
+      <c r="B518" t="n">
+        <v>58</v>
+      </c>
       <c r="C518" t="n">
         <v>2</v>
       </c>
@@ -11847,7 +12843,9 @@
       <c r="A519" t="n">
         <v>100000</v>
       </c>
-      <c r="B519" t="inlineStr"/>
+      <c r="B519" t="n">
+        <v>60</v>
+      </c>
       <c r="C519" t="n">
         <v>3</v>
       </c>
@@ -11891,7 +12889,9 @@
       <c r="A521" t="n">
         <v>110000</v>
       </c>
-      <c r="B521" t="inlineStr"/>
+      <c r="B521" t="n">
+        <v>47</v>
+      </c>
       <c r="C521" t="n">
         <v>2</v>
       </c>
@@ -11913,7 +12913,9 @@
       <c r="A522" t="n">
         <v>170000</v>
       </c>
-      <c r="B522" t="inlineStr"/>
+      <c r="B522" t="n">
+        <v>55</v>
+      </c>
       <c r="C522" t="n">
         <v>2</v>
       </c>
@@ -11935,7 +12937,9 @@
       <c r="A523" t="n">
         <v>140000</v>
       </c>
-      <c r="B523" t="inlineStr"/>
+      <c r="B523" t="n">
+        <v>54</v>
+      </c>
       <c r="C523" t="n">
         <v>2</v>
       </c>
@@ -11957,7 +12961,9 @@
       <c r="A524" t="n">
         <v>120000</v>
       </c>
-      <c r="B524" t="inlineStr"/>
+      <c r="B524" t="n">
+        <v>46</v>
+      </c>
       <c r="C524" t="n">
         <v>2</v>
       </c>
@@ -11979,7 +12985,9 @@
       <c r="A525" t="n">
         <v>120000</v>
       </c>
-      <c r="B525" t="inlineStr"/>
+      <c r="B525" t="n">
+        <v>56</v>
+      </c>
       <c r="C525" t="n">
         <v>2</v>
       </c>
@@ -12001,7 +13009,9 @@
       <c r="A526" t="n">
         <v>105000</v>
       </c>
-      <c r="B526" t="inlineStr"/>
+      <c r="B526" t="n">
+        <v>61</v>
+      </c>
       <c r="C526" t="n">
         <v>3</v>
       </c>
@@ -12023,7 +13033,9 @@
       <c r="A527" t="n">
         <v>95000</v>
       </c>
-      <c r="B527" t="inlineStr"/>
+      <c r="B527" t="n">
+        <v>37</v>
+      </c>
       <c r="C527" t="n">
         <v>1</v>
       </c>
@@ -12045,7 +13057,9 @@
       <c r="A528" t="n">
         <v>165000</v>
       </c>
-      <c r="B528" t="inlineStr"/>
+      <c r="B528" t="n">
+        <v>67</v>
+      </c>
       <c r="C528" t="n">
         <v>3</v>
       </c>
@@ -12067,7 +13081,9 @@
       <c r="A529" t="n">
         <v>140000</v>
       </c>
-      <c r="B529" t="inlineStr"/>
+      <c r="B529" t="n">
+        <v>60</v>
+      </c>
       <c r="C529" t="n">
         <v>3</v>
       </c>
@@ -12089,7 +13105,9 @@
       <c r="A530" t="n">
         <v>100000</v>
       </c>
-      <c r="B530" t="inlineStr"/>
+      <c r="B530" t="n">
+        <v>58</v>
+      </c>
       <c r="C530" t="n">
         <v>3</v>
       </c>
@@ -12133,7 +13151,9 @@
       <c r="A532" t="n">
         <v>110000</v>
       </c>
-      <c r="B532" t="inlineStr"/>
+      <c r="B532" t="n">
+        <v>45</v>
+      </c>
       <c r="C532" t="n">
         <v>2</v>
       </c>
@@ -12155,7 +13175,9 @@
       <c r="A533" t="n">
         <v>100000</v>
       </c>
-      <c r="B533" t="inlineStr"/>
+      <c r="B533" t="n">
+        <v>54</v>
+      </c>
       <c r="C533" t="n">
         <v>2</v>
       </c>
@@ -12177,7 +13199,9 @@
       <c r="A534" t="n">
         <v>240000</v>
       </c>
-      <c r="B534" t="inlineStr"/>
+      <c r="B534" t="n">
+        <v>84</v>
+      </c>
       <c r="C534" t="n">
         <v>3</v>
       </c>
@@ -12199,7 +13223,9 @@
       <c r="A535" t="n">
         <v>140000</v>
       </c>
-      <c r="B535" t="inlineStr"/>
+      <c r="B535" t="n">
+        <v>50</v>
+      </c>
       <c r="C535" t="n">
         <v>3</v>
       </c>
@@ -12221,7 +13247,9 @@
       <c r="A536" t="n">
         <v>140000</v>
       </c>
-      <c r="B536" t="inlineStr"/>
+      <c r="B536" t="n">
+        <v>53</v>
+      </c>
       <c r="C536" t="n">
         <v>2</v>
       </c>
@@ -12265,7 +13293,9 @@
       <c r="A538" t="n">
         <v>110000</v>
       </c>
-      <c r="B538" t="inlineStr"/>
+      <c r="B538" t="n">
+        <v>54</v>
+      </c>
       <c r="C538" t="n">
         <v>2</v>
       </c>
@@ -12287,7 +13317,9 @@
       <c r="A539" t="n">
         <v>135000</v>
       </c>
-      <c r="B539" t="inlineStr"/>
+      <c r="B539" t="n">
+        <v>48</v>
+      </c>
       <c r="C539" t="n">
         <v>2</v>
       </c>
@@ -12309,7 +13341,9 @@
       <c r="A540" t="n">
         <v>120000</v>
       </c>
-      <c r="B540" t="inlineStr"/>
+      <c r="B540" t="n">
+        <v>60</v>
+      </c>
       <c r="C540" t="n">
         <v>2</v>
       </c>
@@ -12331,7 +13365,9 @@
       <c r="A541" t="n">
         <v>150000</v>
       </c>
-      <c r="B541" t="inlineStr"/>
+      <c r="B541" t="n">
+        <v>74</v>
+      </c>
       <c r="C541" t="n">
         <v>3</v>
       </c>
@@ -12353,7 +13389,9 @@
       <c r="A542" t="n">
         <v>175000</v>
       </c>
-      <c r="B542" t="inlineStr"/>
+      <c r="B542" t="n">
+        <v>75</v>
+      </c>
       <c r="C542" t="n">
         <v>4</v>
       </c>
@@ -12375,7 +13413,9 @@
       <c r="A543" t="n">
         <v>170000</v>
       </c>
-      <c r="B543" t="inlineStr"/>
+      <c r="B543" t="n">
+        <v>68</v>
+      </c>
       <c r="C543" t="n">
         <v>3</v>
       </c>
@@ -12397,7 +13437,9 @@
       <c r="A544" t="n">
         <v>160000</v>
       </c>
-      <c r="B544" t="inlineStr"/>
+      <c r="B544" t="n">
+        <v>70</v>
+      </c>
       <c r="C544" t="n">
         <v>3</v>
       </c>
@@ -12420,7 +13462,7 @@
         <v>140000</v>
       </c>
       <c r="B545" t="n">
-        <v>8</v>
+        <v>85.5</v>
       </c>
       <c r="C545" t="n">
         <v>4</v>
@@ -12443,7 +13485,9 @@
       <c r="A546" t="n">
         <v>110000</v>
       </c>
-      <c r="B546" t="inlineStr"/>
+      <c r="B546" t="n">
+        <v>56</v>
+      </c>
       <c r="C546" t="n">
         <v>2</v>
       </c>
@@ -12465,7 +13509,9 @@
       <c r="A547" t="n">
         <v>150000</v>
       </c>
-      <c r="B547" t="inlineStr"/>
+      <c r="B547" t="n">
+        <v>74</v>
+      </c>
       <c r="C547" t="n">
         <v>3</v>
       </c>
@@ -12487,7 +13533,9 @@
       <c r="A548" t="n">
         <v>110000</v>
       </c>
-      <c r="B548" t="inlineStr"/>
+      <c r="B548" t="n">
+        <v>56</v>
+      </c>
       <c r="C548" t="n">
         <v>2</v>
       </c>
@@ -12509,7 +13557,9 @@
       <c r="A549" t="n">
         <v>80000</v>
       </c>
-      <c r="B549" t="inlineStr"/>
+      <c r="B549" t="n">
+        <v>54</v>
+      </c>
       <c r="C549" t="n">
         <v>2</v>
       </c>
@@ -12531,7 +13581,9 @@
       <c r="A550" t="n">
         <v>95000</v>
       </c>
-      <c r="B550" t="inlineStr"/>
+      <c r="B550" t="n">
+        <v>51</v>
+      </c>
       <c r="C550" t="n">
         <v>2</v>
       </c>
@@ -12553,7 +13605,9 @@
       <c r="A551" t="n">
         <v>120000</v>
       </c>
-      <c r="B551" t="inlineStr"/>
+      <c r="B551" t="n">
+        <v>55</v>
+      </c>
       <c r="C551" t="n">
         <v>2</v>
       </c>
@@ -12575,7 +13629,9 @@
       <c r="A552" t="n">
         <v>120000</v>
       </c>
-      <c r="B552" t="inlineStr"/>
+      <c r="B552" t="n">
+        <v>44</v>
+      </c>
       <c r="C552" t="n">
         <v>2</v>
       </c>
@@ -12597,7 +13653,9 @@
       <c r="A553" t="n">
         <v>120000</v>
       </c>
-      <c r="B553" t="inlineStr"/>
+      <c r="B553" t="n">
+        <v>40</v>
+      </c>
       <c r="C553" t="n">
         <v>2</v>
       </c>
@@ -12619,7 +13677,9 @@
       <c r="A554" t="n">
         <v>140000</v>
       </c>
-      <c r="B554" t="inlineStr"/>
+      <c r="B554" t="n">
+        <v>50</v>
+      </c>
       <c r="C554" t="n">
         <v>2</v>
       </c>
@@ -12641,7 +13701,9 @@
       <c r="A555" t="n">
         <v>99000</v>
       </c>
-      <c r="B555" t="inlineStr"/>
+      <c r="B555" t="n">
+        <v>56</v>
+      </c>
       <c r="C555" t="n">
         <v>2</v>
       </c>
@@ -12663,7 +13725,9 @@
       <c r="A556" t="n">
         <v>100000</v>
       </c>
-      <c r="B556" t="inlineStr"/>
+      <c r="B556" t="n">
+        <v>57</v>
+      </c>
       <c r="C556" t="n">
         <v>2</v>
       </c>
@@ -12685,7 +13749,9 @@
       <c r="A557" t="n">
         <v>200000</v>
       </c>
-      <c r="B557" t="inlineStr"/>
+      <c r="B557" t="n">
+        <v>100</v>
+      </c>
       <c r="C557" t="n">
         <v>3</v>
       </c>
@@ -12707,7 +13773,9 @@
       <c r="A558" t="n">
         <v>105000</v>
       </c>
-      <c r="B558" t="inlineStr"/>
+      <c r="B558" t="n">
+        <v>47</v>
+      </c>
       <c r="C558" t="n">
         <v>2</v>
       </c>
@@ -12729,7 +13797,9 @@
       <c r="A559" t="n">
         <v>90000</v>
       </c>
-      <c r="B559" t="inlineStr"/>
+      <c r="B559" t="n">
+        <v>51</v>
+      </c>
       <c r="C559" t="n">
         <v>2</v>
       </c>
@@ -12751,7 +13821,9 @@
       <c r="A560" t="n">
         <v>85000</v>
       </c>
-      <c r="B560" t="inlineStr"/>
+      <c r="B560" t="n">
+        <v>52</v>
+      </c>
       <c r="C560" t="n">
         <v>2</v>
       </c>
@@ -12773,7 +13845,9 @@
       <c r="A561" t="n">
         <v>130000</v>
       </c>
-      <c r="B561" t="inlineStr"/>
+      <c r="B561" t="n">
+        <v>50</v>
+      </c>
       <c r="C561" t="n">
         <v>3</v>
       </c>
@@ -12795,7 +13869,9 @@
       <c r="A562" t="n">
         <v>80000</v>
       </c>
-      <c r="B562" t="inlineStr"/>
+      <c r="B562" t="n">
+        <v>30</v>
+      </c>
       <c r="C562" t="n">
         <v>1</v>
       </c>
@@ -12817,7 +13893,9 @@
       <c r="A563" t="n">
         <v>150000</v>
       </c>
-      <c r="B563" t="inlineStr"/>
+      <c r="B563" t="n">
+        <v>45</v>
+      </c>
       <c r="C563" t="n">
         <v>2</v>
       </c>
@@ -12839,7 +13917,9 @@
       <c r="A564" t="n">
         <v>120000</v>
       </c>
-      <c r="B564" t="inlineStr"/>
+      <c r="B564" t="n">
+        <v>53</v>
+      </c>
       <c r="C564" t="n">
         <v>2</v>
       </c>
@@ -12861,7 +13941,9 @@
       <c r="A565" t="n">
         <v>150000</v>
       </c>
-      <c r="B565" t="inlineStr"/>
+      <c r="B565" t="n">
+        <v>68</v>
+      </c>
       <c r="C565" t="n">
         <v>3</v>
       </c>
@@ -12883,7 +13965,9 @@
       <c r="A566" t="n">
         <v>110000</v>
       </c>
-      <c r="B566" t="inlineStr"/>
+      <c r="B566" t="n">
+        <v>44</v>
+      </c>
       <c r="C566" t="n">
         <v>2</v>
       </c>
@@ -12905,7 +13989,9 @@
       <c r="A567" t="n">
         <v>140000</v>
       </c>
-      <c r="B567" t="inlineStr"/>
+      <c r="B567" t="n">
+        <v>55</v>
+      </c>
       <c r="C567" t="n">
         <v>2</v>
       </c>
@@ -12927,7 +14013,9 @@
       <c r="A568" t="n">
         <v>160000</v>
       </c>
-      <c r="B568" t="inlineStr"/>
+      <c r="B568" t="n">
+        <v>47</v>
+      </c>
       <c r="C568" t="n">
         <v>2</v>
       </c>
@@ -12949,7 +14037,9 @@
       <c r="A569" t="n">
         <v>120000</v>
       </c>
-      <c r="B569" t="inlineStr"/>
+      <c r="B569" t="n">
+        <v>73</v>
+      </c>
       <c r="C569" t="n">
         <v>3</v>
       </c>
@@ -12971,7 +14061,9 @@
       <c r="A570" t="n">
         <v>80000</v>
       </c>
-      <c r="B570" t="inlineStr"/>
+      <c r="B570" t="n">
+        <v>52</v>
+      </c>
       <c r="C570" t="n">
         <v>2</v>
       </c>
@@ -12993,7 +14085,9 @@
       <c r="A571" t="n">
         <v>150000</v>
       </c>
-      <c r="B571" t="inlineStr"/>
+      <c r="B571" t="n">
+        <v>96</v>
+      </c>
       <c r="C571" t="n">
         <v>3</v>
       </c>
@@ -13015,7 +14109,9 @@
       <c r="A572" t="n">
         <v>150000</v>
       </c>
-      <c r="B572" t="inlineStr"/>
+      <c r="B572" t="n">
+        <v>55</v>
+      </c>
       <c r="C572" t="n">
         <v>2</v>
       </c>
@@ -13037,7 +14133,9 @@
       <c r="A573" t="n">
         <v>70000</v>
       </c>
-      <c r="B573" t="inlineStr"/>
+      <c r="B573" t="n">
+        <v>37</v>
+      </c>
       <c r="C573" t="n">
         <v>1</v>
       </c>
@@ -13059,7 +14157,9 @@
       <c r="A574" t="n">
         <v>115000</v>
       </c>
-      <c r="B574" t="inlineStr"/>
+      <c r="B574" t="n">
+        <v>49</v>
+      </c>
       <c r="C574" t="n">
         <v>2</v>
       </c>
@@ -13081,7 +14181,9 @@
       <c r="A575" t="n">
         <v>100000</v>
       </c>
-      <c r="B575" t="inlineStr"/>
+      <c r="B575" t="n">
+        <v>53</v>
+      </c>
       <c r="C575" t="n">
         <v>2</v>
       </c>
@@ -13103,7 +14205,9 @@
       <c r="A576" t="n">
         <v>99000</v>
       </c>
-      <c r="B576" t="inlineStr"/>
+      <c r="B576" t="n">
+        <v>43</v>
+      </c>
       <c r="C576" t="n">
         <v>2</v>
       </c>
@@ -13125,7 +14229,9 @@
       <c r="A577" t="n">
         <v>150000</v>
       </c>
-      <c r="B577" t="inlineStr"/>
+      <c r="B577" t="n">
+        <v>45</v>
+      </c>
       <c r="C577" t="n">
         <v>2</v>
       </c>
@@ -13147,7 +14253,9 @@
       <c r="A578" t="n">
         <v>100000</v>
       </c>
-      <c r="B578" t="inlineStr"/>
+      <c r="B578" t="n">
+        <v>56</v>
+      </c>
       <c r="C578" t="n">
         <v>2</v>
       </c>
@@ -13169,7 +14277,9 @@
       <c r="A579" t="n">
         <v>80000</v>
       </c>
-      <c r="B579" t="inlineStr"/>
+      <c r="B579" t="n">
+        <v>43</v>
+      </c>
       <c r="C579" t="n">
         <v>1</v>
       </c>
@@ -13191,7 +14301,9 @@
       <c r="A580" t="n">
         <v>80000</v>
       </c>
-      <c r="B580" t="inlineStr"/>
+      <c r="B580" t="n">
+        <v>44</v>
+      </c>
       <c r="C580" t="n">
         <v>2</v>
       </c>
@@ -13213,7 +14325,9 @@
       <c r="A581" t="n">
         <v>120000</v>
       </c>
-      <c r="B581" t="inlineStr"/>
+      <c r="B581" t="n">
+        <v>71</v>
+      </c>
       <c r="C581" t="n">
         <v>3</v>
       </c>
@@ -13235,7 +14349,9 @@
       <c r="A582" t="n">
         <v>150000</v>
       </c>
-      <c r="B582" t="inlineStr"/>
+      <c r="B582" t="n">
+        <v>76</v>
+      </c>
       <c r="C582" t="n">
         <v>3</v>
       </c>
@@ -13257,7 +14373,9 @@
       <c r="A583" t="n">
         <v>150000</v>
       </c>
-      <c r="B583" t="inlineStr"/>
+      <c r="B583" t="n">
+        <v>72</v>
+      </c>
       <c r="C583" t="n">
         <v>4</v>
       </c>
@@ -13279,7 +14397,9 @@
       <c r="A584" t="n">
         <v>90000</v>
       </c>
-      <c r="B584" t="inlineStr"/>
+      <c r="B584" t="n">
+        <v>37</v>
+      </c>
       <c r="C584" t="n">
         <v>1</v>
       </c>
@@ -13301,7 +14421,9 @@
       <c r="A585" t="n">
         <v>150000</v>
       </c>
-      <c r="B585" t="inlineStr"/>
+      <c r="B585" t="n">
+        <v>69</v>
+      </c>
       <c r="C585" t="n">
         <v>2</v>
       </c>
@@ -13323,7 +14445,9 @@
       <c r="A586" t="n">
         <v>110000</v>
       </c>
-      <c r="B586" t="inlineStr"/>
+      <c r="B586" t="n">
+        <v>58</v>
+      </c>
       <c r="C586" t="n">
         <v>2</v>
       </c>
@@ -13367,7 +14491,9 @@
       <c r="A588" t="n">
         <v>100000</v>
       </c>
-      <c r="B588" t="inlineStr"/>
+      <c r="B588" t="n">
+        <v>45</v>
+      </c>
       <c r="C588" t="n">
         <v>1</v>
       </c>
@@ -13389,7 +14515,9 @@
       <c r="A589" t="n">
         <v>170000</v>
       </c>
-      <c r="B589" t="inlineStr"/>
+      <c r="B589" t="n">
+        <v>50</v>
+      </c>
       <c r="C589" t="n">
         <v>2</v>
       </c>
@@ -13411,7 +14539,9 @@
       <c r="A590" t="n">
         <v>100000</v>
       </c>
-      <c r="B590" t="inlineStr"/>
+      <c r="B590" t="n">
+        <v>45</v>
+      </c>
       <c r="C590" t="n">
         <v>1</v>
       </c>
@@ -13433,7 +14563,9 @@
       <c r="A591" t="n">
         <v>100000</v>
       </c>
-      <c r="B591" t="inlineStr"/>
+      <c r="B591" t="n">
+        <v>55</v>
+      </c>
       <c r="C591" t="n">
         <v>2</v>
       </c>
@@ -13455,7 +14587,9 @@
       <c r="A592" t="n">
         <v>130000</v>
       </c>
-      <c r="B592" t="inlineStr"/>
+      <c r="B592" t="n">
+        <v>48</v>
+      </c>
       <c r="C592" t="n">
         <v>2</v>
       </c>
@@ -13477,7 +14611,9 @@
       <c r="A593" t="n">
         <v>100000</v>
       </c>
-      <c r="B593" t="inlineStr"/>
+      <c r="B593" t="n">
+        <v>55</v>
+      </c>
       <c r="C593" t="n">
         <v>2</v>
       </c>
@@ -13499,7 +14635,9 @@
       <c r="A594" t="n">
         <v>95000</v>
       </c>
-      <c r="B594" t="inlineStr"/>
+      <c r="B594" t="n">
+        <v>49</v>
+      </c>
       <c r="C594" t="n">
         <v>2</v>
       </c>
@@ -13521,7 +14659,9 @@
       <c r="A595" t="n">
         <v>150000</v>
       </c>
-      <c r="B595" t="inlineStr"/>
+      <c r="B595" t="n">
+        <v>64</v>
+      </c>
       <c r="C595" t="n">
         <v>3</v>
       </c>
@@ -13543,7 +14683,9 @@
       <c r="A596" t="n">
         <v>80000</v>
       </c>
-      <c r="B596" t="inlineStr"/>
+      <c r="B596" t="n">
+        <v>54</v>
+      </c>
       <c r="C596" t="n">
         <v>2</v>
       </c>
@@ -13565,7 +14707,9 @@
       <c r="A597" t="n">
         <v>140000</v>
       </c>
-      <c r="B597" t="inlineStr"/>
+      <c r="B597" t="n">
+        <v>85</v>
+      </c>
       <c r="C597" t="n">
         <v>4</v>
       </c>
@@ -13587,7 +14731,9 @@
       <c r="A598" t="n">
         <v>210000</v>
       </c>
-      <c r="B598" t="inlineStr"/>
+      <c r="B598" t="n">
+        <v>81</v>
+      </c>
       <c r="C598" t="n">
         <v>3</v>
       </c>
@@ -13609,7 +14755,9 @@
       <c r="A599" t="n">
         <v>140000</v>
       </c>
-      <c r="B599" t="inlineStr"/>
+      <c r="B599" t="n">
+        <v>37</v>
+      </c>
       <c r="C599" t="n">
         <v>2</v>
       </c>
@@ -13631,7 +14779,9 @@
       <c r="A600" t="n">
         <v>165000</v>
       </c>
-      <c r="B600" t="inlineStr"/>
+      <c r="B600" t="n">
+        <v>95</v>
+      </c>
       <c r="C600" t="n">
         <v>5</v>
       </c>
@@ -13653,7 +14803,9 @@
       <c r="A601" t="n">
         <v>135000</v>
       </c>
-      <c r="B601" t="inlineStr"/>
+      <c r="B601" t="n">
+        <v>47</v>
+      </c>
       <c r="C601" t="n">
         <v>3</v>
       </c>
@@ -13675,7 +14827,9 @@
       <c r="A602" t="n">
         <v>130000</v>
       </c>
-      <c r="B602" t="inlineStr"/>
+      <c r="B602" t="n">
+        <v>76</v>
+      </c>
       <c r="C602" t="n">
         <v>3</v>
       </c>
@@ -13697,7 +14851,9 @@
       <c r="A603" t="n">
         <v>130000</v>
       </c>
-      <c r="B603" t="inlineStr"/>
+      <c r="B603" t="n">
+        <v>74</v>
+      </c>
       <c r="C603" t="n">
         <v>3</v>
       </c>
@@ -13719,7 +14875,9 @@
       <c r="A604" t="n">
         <v>70000</v>
       </c>
-      <c r="B604" t="inlineStr"/>
+      <c r="B604" t="n">
+        <v>64</v>
+      </c>
       <c r="C604" t="n">
         <v>2</v>
       </c>
@@ -13741,7 +14899,9 @@
       <c r="A605" t="n">
         <v>90000</v>
       </c>
-      <c r="B605" t="inlineStr"/>
+      <c r="B605" t="n">
+        <v>72</v>
+      </c>
       <c r="C605" t="n">
         <v>3</v>
       </c>
@@ -13763,7 +14923,9 @@
       <c r="A606" t="n">
         <v>160000</v>
       </c>
-      <c r="B606" t="inlineStr"/>
+      <c r="B606" t="n">
+        <v>60</v>
+      </c>
       <c r="C606" t="n">
         <v>2</v>
       </c>
@@ -13785,7 +14947,9 @@
       <c r="A607" t="n">
         <v>85000</v>
       </c>
-      <c r="B607" t="inlineStr"/>
+      <c r="B607" t="n">
+        <v>56</v>
+      </c>
       <c r="C607" t="n">
         <v>2</v>
       </c>
@@ -13807,7 +14971,9 @@
       <c r="A608" t="n">
         <v>80000</v>
       </c>
-      <c r="B608" t="inlineStr"/>
+      <c r="B608" t="n">
+        <v>54</v>
+      </c>
       <c r="C608" t="n">
         <v>2</v>
       </c>
@@ -13829,7 +14995,9 @@
       <c r="A609" t="n">
         <v>100000</v>
       </c>
-      <c r="B609" t="inlineStr"/>
+      <c r="B609" t="n">
+        <v>56</v>
+      </c>
       <c r="C609" t="n">
         <v>2</v>
       </c>
@@ -13851,7 +15019,9 @@
       <c r="A610" t="n">
         <v>100000</v>
       </c>
-      <c r="B610" t="inlineStr"/>
+      <c r="B610" t="n">
+        <v>50</v>
+      </c>
       <c r="C610" t="n">
         <v>1</v>
       </c>
@@ -13873,7 +15043,9 @@
       <c r="A611" t="n">
         <v>70000</v>
       </c>
-      <c r="B611" t="inlineStr"/>
+      <c r="B611" t="n">
+        <v>55</v>
+      </c>
       <c r="C611" t="n">
         <v>2</v>
       </c>
@@ -13895,7 +15067,9 @@
       <c r="A612" t="n">
         <v>130000</v>
       </c>
-      <c r="B612" t="inlineStr"/>
+      <c r="B612" t="n">
+        <v>37</v>
+      </c>
       <c r="C612" t="n">
         <v>1</v>
       </c>
@@ -13917,7 +15091,9 @@
       <c r="A613" t="n">
         <v>140000</v>
       </c>
-      <c r="B613" t="inlineStr"/>
+      <c r="B613" t="n">
+        <v>45</v>
+      </c>
       <c r="C613" t="n">
         <v>2</v>
       </c>
@@ -13939,7 +15115,9 @@
       <c r="A614" t="n">
         <v>140000</v>
       </c>
-      <c r="B614" t="inlineStr"/>
+      <c r="B614" t="n">
+        <v>46</v>
+      </c>
       <c r="C614" t="n">
         <v>2</v>
       </c>
@@ -13961,7 +15139,9 @@
       <c r="A615" t="n">
         <v>180000</v>
       </c>
-      <c r="B615" t="inlineStr"/>
+      <c r="B615" t="n">
+        <v>65</v>
+      </c>
       <c r="C615" t="n">
         <v>2</v>
       </c>
@@ -13983,7 +15163,9 @@
       <c r="A616" t="n">
         <v>60000</v>
       </c>
-      <c r="B616" t="inlineStr"/>
+      <c r="B616" t="n">
+        <v>43</v>
+      </c>
       <c r="C616" t="n">
         <v>2</v>
       </c>
@@ -14005,7 +15187,9 @@
       <c r="A617" t="n">
         <v>100000</v>
       </c>
-      <c r="B617" t="inlineStr"/>
+      <c r="B617" t="n">
+        <v>75</v>
+      </c>
       <c r="C617" t="n">
         <v>3</v>
       </c>
@@ -14027,7 +15211,9 @@
       <c r="A618" t="n">
         <v>110000</v>
       </c>
-      <c r="B618" t="inlineStr"/>
+      <c r="B618" t="n">
+        <v>60</v>
+      </c>
       <c r="C618" t="n">
         <v>2</v>
       </c>
@@ -14049,7 +15235,9 @@
       <c r="A619" t="n">
         <v>60000</v>
       </c>
-      <c r="B619" t="inlineStr"/>
+      <c r="B619" t="n">
+        <v>15</v>
+      </c>
       <c r="C619" t="n">
         <v>1</v>
       </c>
@@ -14071,7 +15259,9 @@
       <c r="A620" t="n">
         <v>75000</v>
       </c>
-      <c r="B620" t="inlineStr"/>
+      <c r="B620" t="n">
+        <v>38</v>
+      </c>
       <c r="C620" t="n">
         <v>2</v>
       </c>
@@ -14093,7 +15283,9 @@
       <c r="A621" t="n">
         <v>90000</v>
       </c>
-      <c r="B621" t="inlineStr"/>
+      <c r="B621" t="n">
+        <v>56</v>
+      </c>
       <c r="C621" t="n">
         <v>2</v>
       </c>
@@ -14115,7 +15307,9 @@
       <c r="A622" t="n">
         <v>120000</v>
       </c>
-      <c r="B622" t="inlineStr"/>
+      <c r="B622" t="n">
+        <v>42</v>
+      </c>
       <c r="C622" t="n">
         <v>2</v>
       </c>
@@ -14137,7 +15331,9 @@
       <c r="A623" t="n">
         <v>250000</v>
       </c>
-      <c r="B623" t="inlineStr"/>
+      <c r="B623" t="n">
+        <v>120</v>
+      </c>
       <c r="C623" t="n">
         <v>4</v>
       </c>
@@ -14159,7 +15355,9 @@
       <c r="A624" t="n">
         <v>85000</v>
       </c>
-      <c r="B624" t="inlineStr"/>
+      <c r="B624" t="n">
+        <v>55</v>
+      </c>
       <c r="C624" t="n">
         <v>2</v>
       </c>
@@ -14181,7 +15379,9 @@
       <c r="A625" t="n">
         <v>150000</v>
       </c>
-      <c r="B625" t="inlineStr"/>
+      <c r="B625" t="n">
+        <v>55</v>
+      </c>
       <c r="C625" t="n">
         <v>2</v>
       </c>
@@ -14203,7 +15403,9 @@
       <c r="A626" t="n">
         <v>120000</v>
       </c>
-      <c r="B626" t="inlineStr"/>
+      <c r="B626" t="n">
+        <v>58</v>
+      </c>
       <c r="C626" t="n">
         <v>3</v>
       </c>
@@ -14225,7 +15427,9 @@
       <c r="A627" t="n">
         <v>90000</v>
       </c>
-      <c r="B627" t="inlineStr"/>
+      <c r="B627" t="n">
+        <v>60</v>
+      </c>
       <c r="C627" t="n">
         <v>2</v>
       </c>
@@ -14247,7 +15451,9 @@
       <c r="A628" t="n">
         <v>95000</v>
       </c>
-      <c r="B628" t="inlineStr"/>
+      <c r="B628" t="n">
+        <v>67</v>
+      </c>
       <c r="C628" t="n">
         <v>2</v>
       </c>
@@ -14269,7 +15475,9 @@
       <c r="A629" t="n">
         <v>130000</v>
       </c>
-      <c r="B629" t="inlineStr"/>
+      <c r="B629" t="n">
+        <v>53</v>
+      </c>
       <c r="C629" t="n">
         <v>2</v>
       </c>
@@ -14291,7 +15499,9 @@
       <c r="A630" t="n">
         <v>90000</v>
       </c>
-      <c r="B630" t="inlineStr"/>
+      <c r="B630" t="n">
+        <v>61</v>
+      </c>
       <c r="C630" t="n">
         <v>2</v>
       </c>
@@ -14313,7 +15523,9 @@
       <c r="A631" t="n">
         <v>100000</v>
       </c>
-      <c r="B631" t="inlineStr"/>
+      <c r="B631" t="n">
+        <v>55</v>
+      </c>
       <c r="C631" t="n">
         <v>2</v>
       </c>
@@ -14335,7 +15547,9 @@
       <c r="A632" t="n">
         <v>220000</v>
       </c>
-      <c r="B632" t="inlineStr"/>
+      <c r="B632" t="n">
+        <v>105</v>
+      </c>
       <c r="C632" t="n">
         <v>4</v>
       </c>
@@ -14357,7 +15571,9 @@
       <c r="A633" t="n">
         <v>120000</v>
       </c>
-      <c r="B633" t="inlineStr"/>
+      <c r="B633" t="n">
+        <v>55</v>
+      </c>
       <c r="C633" t="n">
         <v>2</v>
       </c>
@@ -14379,7 +15595,9 @@
       <c r="A634" t="n">
         <v>160000</v>
       </c>
-      <c r="B634" t="inlineStr"/>
+      <c r="B634" t="n">
+        <v>46</v>
+      </c>
       <c r="C634" t="n">
         <v>2</v>
       </c>
@@ -14401,7 +15619,9 @@
       <c r="A635" t="n">
         <v>100000</v>
       </c>
-      <c r="B635" t="inlineStr"/>
+      <c r="B635" t="n">
+        <v>73</v>
+      </c>
       <c r="C635" t="n">
         <v>3</v>
       </c>
@@ -14423,7 +15643,9 @@
       <c r="A636" t="n">
         <v>100000</v>
       </c>
-      <c r="B636" t="inlineStr"/>
+      <c r="B636" t="n">
+        <v>75</v>
+      </c>
       <c r="C636" t="n">
         <v>3</v>
       </c>
@@ -14445,7 +15667,9 @@
       <c r="A637" t="n">
         <v>85000</v>
       </c>
-      <c r="B637" t="inlineStr"/>
+      <c r="B637" t="n">
+        <v>55</v>
+      </c>
       <c r="C637" t="n">
         <v>2</v>
       </c>
@@ -14467,7 +15691,9 @@
       <c r="A638" t="n">
         <v>90000</v>
       </c>
-      <c r="B638" t="inlineStr"/>
+      <c r="B638" t="n">
+        <v>55</v>
+      </c>
       <c r="C638" t="n">
         <v>2</v>
       </c>
@@ -14489,7 +15715,9 @@
       <c r="A639" t="n">
         <v>150000</v>
       </c>
-      <c r="B639" t="inlineStr"/>
+      <c r="B639" t="n">
+        <v>80</v>
+      </c>
       <c r="C639" t="n">
         <v>4</v>
       </c>
@@ -14511,7 +15739,9 @@
       <c r="A640" t="n">
         <v>80000</v>
       </c>
-      <c r="B640" t="inlineStr"/>
+      <c r="B640" t="n">
+        <v>54</v>
+      </c>
       <c r="C640" t="n">
         <v>2</v>
       </c>
@@ -14533,7 +15763,9 @@
       <c r="A641" t="n">
         <v>160000</v>
       </c>
-      <c r="B641" t="inlineStr"/>
+      <c r="B641" t="n">
+        <v>43</v>
+      </c>
       <c r="C641" t="n">
         <v>1</v>
       </c>
@@ -14555,7 +15787,9 @@
       <c r="A642" t="n">
         <v>180000</v>
       </c>
-      <c r="B642" t="inlineStr"/>
+      <c r="B642" t="n">
+        <v>54</v>
+      </c>
       <c r="C642" t="n">
         <v>3</v>
       </c>
@@ -14571,7 +15805,9 @@
       <c r="A643" t="n">
         <v>200000</v>
       </c>
-      <c r="B643" t="inlineStr"/>
+      <c r="B643" t="n">
+        <v>100</v>
+      </c>
       <c r="C643" t="n">
         <v>4</v>
       </c>
@@ -14587,7 +15823,9 @@
       <c r="A644" t="n">
         <v>440000</v>
       </c>
-      <c r="B644" t="inlineStr"/>
+      <c r="B644" t="n">
+        <v>76</v>
+      </c>
       <c r="C644" t="n">
         <v>4</v>
       </c>
@@ -14603,7 +15841,9 @@
       <c r="A645" t="n">
         <v>375000</v>
       </c>
-      <c r="B645" t="inlineStr"/>
+      <c r="B645" t="n">
+        <v>82</v>
+      </c>
       <c r="C645" t="n">
         <v>4</v>
       </c>
@@ -14619,7 +15859,9 @@
       <c r="A646" t="n">
         <v>490000</v>
       </c>
-      <c r="B646" t="inlineStr"/>
+      <c r="B646" t="n">
+        <v>288</v>
+      </c>
       <c r="C646" t="n">
         <v>4</v>
       </c>
@@ -14635,7 +15877,9 @@
       <c r="A647" t="n">
         <v>290000</v>
       </c>
-      <c r="B647" t="inlineStr"/>
+      <c r="B647" t="n">
+        <v>136</v>
+      </c>
       <c r="C647" t="n">
         <v>2</v>
       </c>
@@ -14651,7 +15895,9 @@
       <c r="A648" t="n">
         <v>250000</v>
       </c>
-      <c r="B648" t="inlineStr"/>
+      <c r="B648" t="n">
+        <v>70</v>
+      </c>
       <c r="C648" t="n">
         <v>2</v>
       </c>
@@ -14667,7 +15913,9 @@
       <c r="A649" t="n">
         <v>195000</v>
       </c>
-      <c r="B649" t="inlineStr"/>
+      <c r="B649" t="n">
+        <v>72</v>
+      </c>
       <c r="C649" t="n">
         <v>3</v>
       </c>
@@ -14681,65 +15929,73 @@
     </row>
     <row r="650">
       <c r="A650" t="n">
-        <v>270000</v>
-      </c>
-      <c r="B650" t="inlineStr"/>
+        <v>180000</v>
+      </c>
+      <c r="B650" t="n">
+        <v>48</v>
+      </c>
       <c r="C650" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D650" t="inlineStr"/>
       <c r="E650" t="inlineStr"/>
       <c r="F650" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/99593-debrecen-flat</t>
+          <t>https://www.greatforest.hu/property/32179-debrecen-close-to-main-campus-agricult-unversity-block-of-flats</t>
         </is>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="n">
-        <v>260000</v>
-      </c>
-      <c r="B651" t="inlineStr"/>
+        <v>200000</v>
+      </c>
+      <c r="B651" t="n">
+        <v>45</v>
+      </c>
       <c r="C651" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D651" t="inlineStr"/>
       <c r="E651" t="inlineStr"/>
       <c r="F651" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/99590-debrecen-flat</t>
+          <t>https://www.greatforest.hu/property/98102-debrecen-city-center-flat</t>
         </is>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="n">
-        <v>230000</v>
-      </c>
-      <c r="B652" t="inlineStr"/>
+        <v>130000</v>
+      </c>
+      <c r="B652" t="n">
+        <v>45</v>
+      </c>
       <c r="C652" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D652" t="inlineStr"/>
       <c r="E652" t="inlineStr"/>
       <c r="F652" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/99587-debrecen-flat</t>
+          <t>https://www.greatforest.hu/property/84773-debrecen-close-to-plaza-office-not-in-office-building</t>
         </is>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="n">
-        <v>380000</v>
-      </c>
-      <c r="B653" t="inlineStr"/>
+        <v>168000</v>
+      </c>
+      <c r="B653" t="n">
+        <v>63</v>
+      </c>
       <c r="C653" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D653" t="inlineStr"/>
       <c r="E653" t="inlineStr"/>
       <c r="F653" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/99387-debrecen-city-north-family-house</t>
+          <t>https://www.greatforest.hu/property/12339-debrecen-close-to-main-campus-agricult-unversity-block-of-flats</t>
         </is>
       </c>
     </row>
@@ -14747,87 +16003,99 @@
       <c r="A654" t="n">
         <v>320000</v>
       </c>
-      <c r="B654" t="inlineStr"/>
+      <c r="B654" t="n">
+        <v>42</v>
+      </c>
       <c r="C654" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D654" t="inlineStr"/>
       <c r="E654" t="inlineStr"/>
       <c r="F654" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/99434-debrecen-flat</t>
+          <t>https://www.greatforest.hu/property/99511-debrecen-close-to-main-campus-flat</t>
         </is>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="n">
-        <v>250000</v>
-      </c>
-      <c r="B655" t="inlineStr"/>
+        <v>399000</v>
+      </c>
+      <c r="B655" t="n">
+        <v>42</v>
+      </c>
       <c r="C655" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D655" t="inlineStr"/>
       <c r="E655" t="inlineStr"/>
       <c r="F655" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/63923-debrecen-kassai-campus-area-flat</t>
+          <t>https://www.greatforest.hu/property/99510-debrecen-close-to-main-campus-flat</t>
         </is>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="n">
-        <v>250000</v>
-      </c>
-      <c r="B656" t="inlineStr"/>
+        <v>260000</v>
+      </c>
+      <c r="B656" t="n">
+        <v>73</v>
+      </c>
       <c r="C656" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D656" t="inlineStr"/>
       <c r="E656" t="inlineStr"/>
       <c r="F656" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/99332-debrecen-bem-square-office-in-office-building</t>
+          <t>https://www.greatforest.hu/property/99598-debrecen-flat</t>
         </is>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="n">
-        <v>220000</v>
-      </c>
-      <c r="B657" t="inlineStr"/>
+        <v>230000</v>
+      </c>
+      <c r="B657" t="n">
+        <v>64</v>
+      </c>
       <c r="C657" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D657" t="inlineStr"/>
       <c r="E657" t="inlineStr"/>
       <c r="F657" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/99213-debrecen-close-to-main-campus-flat</t>
+          <t>https://www.greatforest.hu/property/99597-debrecen-flat</t>
         </is>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="n">
-        <v>450000</v>
-      </c>
-      <c r="B658" t="inlineStr"/>
+        <v>280000</v>
+      </c>
+      <c r="B658" t="n">
+        <v>88</v>
+      </c>
       <c r="C658" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D658" t="inlineStr"/>
       <c r="E658" t="inlineStr"/>
       <c r="F658" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/99212-debrecen-tesco-area-flat</t>
+          <t>https://www.greatforest.hu/property/99595-debrecen-flat</t>
         </is>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="n">
-        <v>350000</v>
-      </c>
-      <c r="B659" t="inlineStr"/>
+        <v>270000</v>
+      </c>
+      <c r="B659" t="n">
+        <v>72</v>
+      </c>
       <c r="C659" t="n">
         <v>4</v>
       </c>
@@ -14835,127 +16103,143 @@
       <c r="E659" t="inlineStr"/>
       <c r="F659" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/89979-debrecen-city-center-office-not-in-office-building</t>
+          <t>https://www.greatforest.hu/property/99593-debrecen-flat</t>
         </is>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="n">
-        <v>595000</v>
-      </c>
-      <c r="B660" t="inlineStr"/>
+        <v>260000</v>
+      </c>
+      <c r="B660" t="n">
+        <v>73</v>
+      </c>
       <c r="C660" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D660" t="inlineStr"/>
       <c r="E660" t="inlineStr"/>
       <c r="F660" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/36059-debrecen-kassai-campus-area-flat</t>
+          <t>https://www.greatforest.hu/property/99590-debrecen-flat</t>
         </is>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="n">
-        <v>300000</v>
-      </c>
-      <c r="B661" t="inlineStr"/>
+        <v>230000</v>
+      </c>
+      <c r="B661" t="n">
+        <v>64</v>
+      </c>
       <c r="C661" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D661" t="inlineStr"/>
       <c r="E661" t="inlineStr"/>
       <c r="F661" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/69432-debrecen-greatforest-area-flat</t>
+          <t>https://www.greatforest.hu/property/99587-debrecen-flat</t>
         </is>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="n">
-        <v>150000</v>
-      </c>
-      <c r="B662" t="inlineStr"/>
+        <v>380000</v>
+      </c>
+      <c r="B662" t="n">
+        <v>128</v>
+      </c>
       <c r="C662" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D662" t="inlineStr"/>
       <c r="E662" t="inlineStr"/>
       <c r="F662" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/65443-debrecen-city-west-office-in-office-building</t>
+          <t>https://www.greatforest.hu/property/99387-debrecen-city-north-family-house</t>
         </is>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="n">
-        <v>695000</v>
-      </c>
-      <c r="B663" t="inlineStr"/>
+        <v>320000</v>
+      </c>
+      <c r="B663" t="n">
+        <v>43</v>
+      </c>
       <c r="C663" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D663" t="inlineStr"/>
       <c r="E663" t="inlineStr"/>
       <c r="F663" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/98997-debrecen-tesco-area-family-house</t>
+          <t>https://www.greatforest.hu/property/99434-debrecen-flat</t>
         </is>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="n">
-        <v>450000</v>
-      </c>
-      <c r="B664" t="inlineStr"/>
+        <v>250000</v>
+      </c>
+      <c r="B664" t="n">
+        <v>85</v>
+      </c>
       <c r="C664" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D664" t="inlineStr"/>
       <c r="E664" t="inlineStr"/>
       <c r="F664" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/46734-debrecen-close-to-main-campus-flat</t>
+          <t>https://www.greatforest.hu/property/63923-debrecen-kassai-campus-area-flat</t>
         </is>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="n">
-        <v>200000</v>
-      </c>
-      <c r="B665" t="inlineStr"/>
+        <v>250000</v>
+      </c>
+      <c r="B665" t="n">
+        <v>91</v>
+      </c>
       <c r="C665" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D665" t="inlineStr"/>
       <c r="E665" t="inlineStr"/>
       <c r="F665" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/98744-debrecen-city-center-flat</t>
+          <t>https://www.greatforest.hu/property/99332-debrecen-bem-square-office-in-office-building</t>
         </is>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="n">
-        <v>210000</v>
-      </c>
-      <c r="B666" t="inlineStr"/>
+        <v>220000</v>
+      </c>
+      <c r="B666" t="n">
+        <v>38</v>
+      </c>
       <c r="C666" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D666" t="inlineStr"/>
       <c r="E666" t="inlineStr"/>
       <c r="F666" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/61519-debrecen-close-to-main-campus-flat</t>
+          <t>https://www.greatforest.hu/property/99213-debrecen-close-to-main-campus-flat</t>
         </is>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="n">
-        <v>280000</v>
-      </c>
-      <c r="B667" t="inlineStr"/>
+        <v>450000</v>
+      </c>
+      <c r="B667" t="n">
+        <v>100</v>
+      </c>
       <c r="C667" t="n">
         <v>3</v>
       </c>
@@ -14963,135 +16247,151 @@
       <c r="E667" t="inlineStr"/>
       <c r="F667" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/97856-debrecen-city-center-office-not-in-office-building</t>
+          <t>https://www.greatforest.hu/property/99212-debrecen-tesco-area-flat</t>
         </is>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="n">
-        <v>230000</v>
-      </c>
-      <c r="B668" t="inlineStr"/>
+        <v>350000</v>
+      </c>
+      <c r="B668" t="n">
+        <v>118</v>
+      </c>
       <c r="C668" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D668" t="inlineStr"/>
       <c r="E668" t="inlineStr"/>
       <c r="F668" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/98613-debrecen-jozsa-lower-flat</t>
+          <t>https://www.greatforest.hu/property/89979-debrecen-city-center-office-not-in-office-building</t>
         </is>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="n">
-        <v>580000</v>
-      </c>
-      <c r="B669" t="inlineStr"/>
+        <v>595000</v>
+      </c>
+      <c r="B669" t="n">
+        <v>92</v>
+      </c>
       <c r="C669" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D669" t="inlineStr"/>
       <c r="E669" t="inlineStr"/>
       <c r="F669" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/98425-debrecen-city-center-flat</t>
+          <t>https://www.greatforest.hu/property/36059-debrecen-kassai-campus-area-flat</t>
         </is>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="n">
-        <v>480000</v>
-      </c>
-      <c r="B670" t="inlineStr"/>
+        <v>300000</v>
+      </c>
+      <c r="B670" t="n">
+        <v>89</v>
+      </c>
       <c r="C670" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D670" t="inlineStr"/>
       <c r="E670" t="inlineStr"/>
       <c r="F670" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/97186-debrecen-city-center-flat</t>
+          <t>https://www.greatforest.hu/property/69432-debrecen-greatforest-area-flat</t>
         </is>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="n">
-        <v>480000</v>
-      </c>
-      <c r="B671" t="inlineStr"/>
+        <v>150000</v>
+      </c>
+      <c r="B671" t="n">
+        <v>63</v>
+      </c>
       <c r="C671" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D671" t="inlineStr"/>
       <c r="E671" t="inlineStr"/>
       <c r="F671" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/97187-debrecen-flat</t>
+          <t>https://www.greatforest.hu/property/65443-debrecen-city-west-office-in-office-building</t>
         </is>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="n">
-        <v>5000</v>
-      </c>
-      <c r="B672" t="inlineStr"/>
+        <v>695000</v>
+      </c>
+      <c r="B672" t="n">
+        <v>360</v>
+      </c>
       <c r="C672" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D672" t="inlineStr"/>
       <c r="E672" t="inlineStr"/>
       <c r="F672" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/98074-hajduszoboszlo-pension</t>
+          <t>https://www.greatforest.hu/property/98997-debrecen-tesco-area-family-house</t>
         </is>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="n">
-        <v>100000</v>
-      </c>
-      <c r="B673" t="inlineStr"/>
+        <v>450000</v>
+      </c>
+      <c r="B673" t="n">
+        <v>83</v>
+      </c>
       <c r="C673" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D673" t="inlineStr"/>
       <c r="E673" t="inlineStr"/>
       <c r="F673" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/97809-debrecen-block-of-flats</t>
+          <t>https://www.greatforest.hu/property/46734-debrecen-close-to-main-campus-flat</t>
         </is>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="n">
-        <v>400000</v>
-      </c>
-      <c r="B674" t="inlineStr"/>
+        <v>200000</v>
+      </c>
+      <c r="B674" t="n">
+        <v>40</v>
+      </c>
       <c r="C674" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D674" t="inlineStr"/>
       <c r="E674" t="inlineStr"/>
       <c r="F674" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/67666-debrecen-city-center-flat</t>
+          <t>https://www.greatforest.hu/property/98744-debrecen-city-center-flat</t>
         </is>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="n">
-        <v>650000</v>
-      </c>
-      <c r="B675" t="inlineStr"/>
+        <v>210000</v>
+      </c>
+      <c r="B675" t="n">
+        <v>70</v>
+      </c>
       <c r="C675" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D675" t="inlineStr"/>
       <c r="E675" t="inlineStr"/>
       <c r="F675" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/97238-debrecen-family-house</t>
+          <t>https://www.greatforest.hu/property/61519-debrecen-close-to-main-campus-flat</t>
         </is>
       </c>
     </row>
@@ -15099,23 +16399,27 @@
       <c r="A676" t="n">
         <v>280000</v>
       </c>
-      <c r="B676" t="inlineStr"/>
+      <c r="B676" t="n">
+        <v>69</v>
+      </c>
       <c r="C676" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D676" t="inlineStr"/>
       <c r="E676" t="inlineStr"/>
       <c r="F676" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/96655-debrecen-city-center-flat</t>
+          <t>https://www.greatforest.hu/property/97856-debrecen-city-center-office-not-in-office-building</t>
         </is>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="n">
-        <v>555000</v>
-      </c>
-      <c r="B677" t="inlineStr"/>
+        <v>230000</v>
+      </c>
+      <c r="B677" t="n">
+        <v>54</v>
+      </c>
       <c r="C677" t="n">
         <v>1</v>
       </c>
@@ -15123,63 +16427,71 @@
       <c r="E677" t="inlineStr"/>
       <c r="F677" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/96621-debrecen-city-center-office-not-in-office-building</t>
+          <t>https://www.greatforest.hu/property/98613-debrecen-jozsa-lower-flat</t>
         </is>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="n">
-        <v>150000</v>
-      </c>
-      <c r="B678" t="inlineStr"/>
+        <v>580000</v>
+      </c>
+      <c r="B678" t="n">
+        <v>100</v>
+      </c>
       <c r="C678" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D678" t="inlineStr"/>
       <c r="E678" t="inlineStr"/>
       <c r="F678" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/51448-debrecen-close-to-kassai-campus-office-not-in-office-building</t>
+          <t>https://www.greatforest.hu/property/98425-debrecen-city-center-flat</t>
         </is>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="n">
-        <v>200000</v>
-      </c>
-      <c r="B679" t="inlineStr"/>
+        <v>480000</v>
+      </c>
+      <c r="B679" t="n">
+        <v>73</v>
+      </c>
       <c r="C679" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D679" t="inlineStr"/>
       <c r="E679" t="inlineStr"/>
       <c r="F679" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/94781-debrecen-city-center-commercial-premises-not-in-shopping-center</t>
+          <t>https://www.greatforest.hu/property/97186-debrecen-city-center-flat</t>
         </is>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="n">
-        <v>990000</v>
-      </c>
-      <c r="B680" t="inlineStr"/>
+        <v>480000</v>
+      </c>
+      <c r="B680" t="n">
+        <v>83</v>
+      </c>
       <c r="C680" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D680" t="inlineStr"/>
       <c r="E680" t="inlineStr"/>
       <c r="F680" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/92260-debrecen-kassai-campus-area-family-house</t>
+          <t>https://www.greatforest.hu/property/97187-debrecen-flat</t>
         </is>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="n">
-        <v>250000</v>
-      </c>
-      <c r="B681" t="inlineStr"/>
+        <v>5000</v>
+      </c>
+      <c r="B681" t="n">
+        <v>600</v>
+      </c>
       <c r="C681" t="n">
         <v>1</v>
       </c>
@@ -15187,79 +16499,89 @@
       <c r="E681" t="inlineStr"/>
       <c r="F681" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/70458-debrecen-close-to-bem-square-commercial-premises-not-in-shopping-center</t>
+          <t>https://www.greatforest.hu/property/98074-hajduszoboszlo-pension</t>
         </is>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="n">
-        <v>850000</v>
-      </c>
-      <c r="B682" t="inlineStr"/>
+        <v>100000</v>
+      </c>
+      <c r="B682" t="n">
+        <v>30</v>
+      </c>
       <c r="C682" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D682" t="inlineStr"/>
       <c r="E682" t="inlineStr"/>
       <c r="F682" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/84313-debrecen-greatforest-area-family-house</t>
+          <t>https://www.greatforest.hu/property/97809-debrecen-block-of-flats</t>
         </is>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="n">
-        <v>175000</v>
-      </c>
-      <c r="B683" t="inlineStr"/>
+        <v>400000</v>
+      </c>
+      <c r="B683" t="n">
+        <v>159</v>
+      </c>
       <c r="C683" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D683" t="inlineStr"/>
       <c r="E683" t="inlineStr"/>
       <c r="F683" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/50904-debrecen-city-center-office-not-in-office-building</t>
+          <t>https://www.greatforest.hu/property/67666-debrecen-city-center-flat</t>
         </is>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="n">
-        <v>595000</v>
-      </c>
-      <c r="B684" t="inlineStr"/>
+        <v>650000</v>
+      </c>
+      <c r="B684" t="n">
+        <v>228</v>
+      </c>
       <c r="C684" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D684" t="inlineStr"/>
       <c r="E684" t="inlineStr"/>
       <c r="F684" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/89378-debrecen-city-north-attached-house</t>
+          <t>https://www.greatforest.hu/property/97238-debrecen-family-house</t>
         </is>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="n">
-        <v>13500</v>
-      </c>
-      <c r="B685" t="inlineStr"/>
+        <v>280000</v>
+      </c>
+      <c r="B685" t="n">
+        <v>55</v>
+      </c>
       <c r="C685" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D685" t="inlineStr"/>
       <c r="E685" t="inlineStr"/>
       <c r="F685" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/54209-debrecen-main-campus-area-parking-lot-underground</t>
+          <t>https://www.greatforest.hu/property/96655-debrecen-city-center-flat</t>
         </is>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="n">
-        <v>25000</v>
-      </c>
-      <c r="B686" t="inlineStr"/>
+        <v>555000</v>
+      </c>
+      <c r="B686" t="n">
+        <v>154</v>
+      </c>
       <c r="C686" t="n">
         <v>1</v>
       </c>
@@ -15267,31 +16589,35 @@
       <c r="E686" t="inlineStr"/>
       <c r="F686" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/85190-debrecen-main-campus-area-parking-lot-underground</t>
+          <t>https://www.greatforest.hu/property/96621-debrecen-city-center-office-not-in-office-building</t>
         </is>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="n">
-        <v>6000</v>
-      </c>
-      <c r="B687" t="inlineStr"/>
+        <v>150000</v>
+      </c>
+      <c r="B687" t="n">
+        <v>41</v>
+      </c>
       <c r="C687" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D687" t="inlineStr"/>
       <c r="E687" t="inlineStr"/>
       <c r="F687" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/85001-budapest-office-not-in-office-building</t>
+          <t>https://www.greatforest.hu/property/51448-debrecen-close-to-kassai-campus-office-not-in-office-building</t>
         </is>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="n">
-        <v>80000</v>
-      </c>
-      <c r="B688" t="inlineStr"/>
+        <v>200000</v>
+      </c>
+      <c r="B688" t="n">
+        <v>47</v>
+      </c>
       <c r="C688" t="n">
         <v>1</v>
       </c>
@@ -15299,55 +16625,61 @@
       <c r="E688" t="inlineStr"/>
       <c r="F688" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/84787-debrecen-city-center-office-not-in-office-building</t>
+          <t>https://www.greatforest.hu/property/94781-debrecen-city-center-commercial-premises-not-in-shopping-center</t>
         </is>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="n">
-        <v>2500</v>
-      </c>
-      <c r="B689" t="inlineStr"/>
+        <v>990000</v>
+      </c>
+      <c r="B689" t="n">
+        <v>560</v>
+      </c>
       <c r="C689" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D689" t="inlineStr"/>
       <c r="E689" t="inlineStr"/>
       <c r="F689" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/80796-debrecen-close-to-city-center-office-in-office-building</t>
+          <t>https://www.greatforest.hu/property/92260-debrecen-kassai-campus-area-family-house</t>
         </is>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="n">
-        <v>190500</v>
-      </c>
-      <c r="B690" t="inlineStr"/>
+        <v>250000</v>
+      </c>
+      <c r="B690" t="n">
+        <v>152</v>
+      </c>
       <c r="C690" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D690" t="inlineStr"/>
       <c r="E690" t="inlineStr"/>
       <c r="F690" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/77686-debrecen-close-to-plaza-flat</t>
+          <t>https://www.greatforest.hu/property/70458-debrecen-close-to-bem-square-commercial-premises-not-in-shopping-center</t>
         </is>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="n">
-        <v>12000</v>
-      </c>
-      <c r="B691" t="inlineStr"/>
+        <v>850000</v>
+      </c>
+      <c r="B691" t="n">
+        <v>250</v>
+      </c>
       <c r="C691" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D691" t="inlineStr"/>
       <c r="E691" t="inlineStr"/>
       <c r="F691" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/45433-debrecen-main-campus-area-parking-lot-underground</t>
+          <t>https://www.greatforest.hu/property/84313-debrecen-greatforest-area-family-house</t>
         </is>
       </c>
     </row>

--- a/streamlit/Houses_Cleaned.xlsx
+++ b/streamlit/Houses_Cleaned.xlsx
@@ -10646,7 +10646,7 @@
         <v>160000</v>
       </c>
       <c r="B427" t="n">
-        <v>71.14</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="C427" t="n">
         <v>3</v>

--- a/streamlit/Houses_Cleaned.xlsx
+++ b/streamlit/Houses_Cleaned.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F703"/>
+  <dimension ref="A1:F702"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14714,14 +14714,14 @@
         <v>220000</v>
       </c>
       <c r="B600" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C600" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
-          <t>Debrecen, Bethlen</t>
+          <t>Debrecen, Nyár street</t>
         </is>
       </c>
       <c r="E600" t="n">
@@ -14729,7 +14729,7 @@
       </c>
       <c r="F600" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/luxury-apartment-for-rent-in-the-city-center/</t>
+          <t>https://www.findahome.hu/ingatlanok/nyar-street-2-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -14810,14 +14810,14 @@
         <v>220000</v>
       </c>
       <c r="B604" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C604" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
-          <t>Debrecen, Nyár street</t>
+          <t>Debrecen, Bethlen</t>
         </is>
       </c>
       <c r="E604" t="n">
@@ -14825,7 +14825,7 @@
       </c>
       <c r="F604" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/nyar-street-2-bedroom-living-room-flat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/luxury-apartment-for-rent-in-the-city-center/</t>
         </is>
       </c>
     </row>
@@ -14882,14 +14882,14 @@
         <v>220000</v>
       </c>
       <c r="B607" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C607" t="n">
         <v>3</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
-          <t>Debrecen, Serház</t>
+          <t>Debrecen, Hatvan Corner</t>
         </is>
       </c>
       <c r="E607" t="n">
@@ -14897,7 +14897,7 @@
       </c>
       <c r="F607" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/debrecen-serhaz-utca-2-bedroom-living-room-flat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/hatvan-corner-2-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -14930,14 +14930,14 @@
         <v>220000</v>
       </c>
       <c r="B609" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C609" t="n">
         <v>3</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
-          <t>Debrecen, Hatvan Corner</t>
+          <t>Debrecen, Arany János</t>
         </is>
       </c>
       <c r="E609" t="n">
@@ -14945,7 +14945,7 @@
       </c>
       <c r="F609" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/hatvan-corner-2-bedroom-living-room-flat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/city-center-2-bedroom-american-style-kitchen-apartment-for-rent/</t>
         </is>
       </c>
     </row>
@@ -14978,14 +14978,14 @@
         <v>220000</v>
       </c>
       <c r="B611" t="n">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="C611" t="n">
         <v>3</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
-          <t>Debrecen, Komlóssy street</t>
+          <t>Debrecen, Simonyi</t>
         </is>
       </c>
       <c r="E611" t="n">
@@ -14993,7 +14993,7 @@
       </c>
       <c r="F611" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/komlossy-street-near-med-uni-beautiful-2-bedroom-living-room-apartment-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/simonyi-street-flat-rent/</t>
         </is>
       </c>
     </row>
@@ -15026,14 +15026,14 @@
         <v>220000</v>
       </c>
       <c r="B613" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C613" t="n">
         <v>3</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
-          <t>Debrecen, Simonyi</t>
+          <t>Debrecen, Serház</t>
         </is>
       </c>
       <c r="E613" t="n">
@@ -15041,7 +15041,7 @@
       </c>
       <c r="F613" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/simonyi-street-flat-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/debrecen-serhaz-utca-2-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -15050,14 +15050,14 @@
         <v>220000</v>
       </c>
       <c r="B614" t="n">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="C614" t="n">
         <v>3</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
-          <t>Debrecen, Arany János</t>
+          <t>Debrecen, Komlóssy street</t>
         </is>
       </c>
       <c r="E614" t="n">
@@ -15065,7 +15065,7 @@
       </c>
       <c r="F614" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/city-center-2-bedroom-american-style-kitchen-apartment-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/komlossy-street-near-med-uni-beautiful-2-bedroom-living-room-apartment-for-rent/</t>
         </is>
       </c>
     </row>
@@ -15074,14 +15074,14 @@
         <v>230000</v>
       </c>
       <c r="B615" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C615" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
-          <t>Debrecen, Füredi</t>
+          <t>Debrecen, Dóczy Park</t>
         </is>
       </c>
       <c r="E615" t="n">
@@ -15089,7 +15089,7 @@
       </c>
       <c r="F615" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/apartment-for-rent-in-debrecen-next-to-the-university-of-agriculture/</t>
+          <t>https://www.findahome.hu/ingatlanok/doczy-park-2-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -15098,14 +15098,14 @@
         <v>230000</v>
       </c>
       <c r="B616" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C616" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
-          <t>, Széchenyi street</t>
+          <t>Debrecen, Hadházi út</t>
         </is>
       </c>
       <c r="E616" t="n">
@@ -15113,7 +15113,7 @@
       </c>
       <c r="F616" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/szechenyi-corner-city-center-2-bedroom-living-room-brand-new-flat-for-rent-2/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-hadhazi-ut/218454/</t>
         </is>
       </c>
     </row>
@@ -15122,16 +15122,22 @@
         <v>230000</v>
       </c>
       <c r="B617" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C617" t="n">
-        <v>1</v>
-      </c>
-      <c r="D617" t="inlineStr"/>
-      <c r="E617" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="D617" t="inlineStr">
+        <is>
+          <t>Debrecen, Károli Gáspár</t>
+        </is>
+      </c>
+      <c r="E617" t="n">
+        <v>1</v>
+      </c>
       <c r="F617" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/98613-debrecen-jozsa-lower-flat</t>
+          <t>https://www.findahome.hu/ingatlanok/flat-for-rent-karoli-gaspar-street/</t>
         </is>
       </c>
     </row>
@@ -15140,22 +15146,22 @@
         <v>230000</v>
       </c>
       <c r="B618" t="n">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C618" t="n">
         <v>3</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
-          <t>Debrecen, Dóczy Park</t>
+          <t>Debrecen, Víztorony</t>
         </is>
       </c>
       <c r="E618" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F618" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/doczy-park-2-bedroom-living-room-flat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/debrecen-3-separate-room-close-to-the-otemeto-kassai-campus/</t>
         </is>
       </c>
     </row>
@@ -15164,14 +15170,14 @@
         <v>230000</v>
       </c>
       <c r="B619" t="n">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="C619" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
-          <t>Debrecen, Tímár street</t>
+          <t>, Széchenyi street</t>
         </is>
       </c>
       <c r="E619" t="n">
@@ -15179,7 +15185,7 @@
       </c>
       <c r="F619" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/timar-street-exclusively-designed-3-bedroom-living-room-flat-available/</t>
+          <t>https://www.findahome.hu/ingatlanok/szechenyi-corner-city-center-2-bedroom-living-room-brand-new-flat-for-rent-2/</t>
         </is>
       </c>
     </row>
@@ -15188,14 +15194,14 @@
         <v>230000</v>
       </c>
       <c r="B620" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C620" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
-          <t>Debrecen, Károli Gáspár</t>
+          <t>Debrecen, Füredi</t>
         </is>
       </c>
       <c r="E620" t="n">
@@ -15203,7 +15209,7 @@
       </c>
       <c r="F620" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/flat-for-rent-karoli-gaspar-street/</t>
+          <t>https://www.findahome.hu/ingatlanok/apartment-for-rent-in-debrecen-next-to-the-university-of-agriculture/</t>
         </is>
       </c>
     </row>
@@ -15212,22 +15218,22 @@
         <v>230000</v>
       </c>
       <c r="B621" t="n">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="C621" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
-          <t>Debrecen, Víztorony</t>
+          <t>Debrecen, Gönczy Pál utca</t>
         </is>
       </c>
       <c r="E621" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F621" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/debrecen-3-separate-room-close-to-the-otemeto-kassai-campus/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-gonczy-pal-utca/216064/</t>
         </is>
       </c>
     </row>
@@ -15241,17 +15247,11 @@
       <c r="C622" t="n">
         <v>1</v>
       </c>
-      <c r="D622" t="inlineStr">
-        <is>
-          <t>Debrecen, Gönczy Pál utca</t>
-        </is>
-      </c>
-      <c r="E622" t="n">
-        <v>1</v>
-      </c>
+      <c r="D622" t="inlineStr"/>
+      <c r="E622" t="inlineStr"/>
       <c r="F622" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-gonczy-pal-utca/216064/</t>
+          <t>https://www.greatforest.hu/property/98613-debrecen-jozsa-lower-flat</t>
         </is>
       </c>
     </row>
@@ -15260,14 +15260,14 @@
         <v>230000</v>
       </c>
       <c r="B623" t="n">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="C623" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
-          <t>Debrecen, Hadházi út</t>
+          <t>Debrecen, Tímár street</t>
         </is>
       </c>
       <c r="E623" t="n">
@@ -15275,7 +15275,7 @@
       </c>
       <c r="F623" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-hadhazi-ut/218454/</t>
+          <t>https://www.findahome.hu/ingatlanok/timar-street-exclusively-designed-3-bedroom-living-room-flat-available/</t>
         </is>
       </c>
     </row>
@@ -15356,22 +15356,22 @@
         <v>240000</v>
       </c>
       <c r="B627" t="n">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="C627" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
-          <t>Debrecen, Nagy Lajos király tér</t>
+          <t>Debrecen, Lilla köz</t>
         </is>
       </c>
       <c r="E627" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F627" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-nagy-lajos-kiraly-ter/218134/</t>
+          <t>https://www.findahome.hu/ingatlanok/debrecen-lilla-koz-new-modern-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -15380,14 +15380,14 @@
         <v>240000</v>
       </c>
       <c r="B628" t="n">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="C628" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
-          <t>Debrecen, Hatvani István street</t>
+          <t>Debrecen, Nagy Lajos király tér</t>
         </is>
       </c>
       <c r="E628" t="n">
@@ -15395,7 +15395,7 @@
       </c>
       <c r="F628" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/debrecen-hatvani-istvan-street-2-bedroom-living-room-105-sqm-flat-for-rent/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-nagy-lajos-kiraly-ter/218134/</t>
         </is>
       </c>
     </row>
@@ -15404,22 +15404,22 @@
         <v>240000</v>
       </c>
       <c r="B629" t="n">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="C629" t="n">
         <v>3</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
-          <t>Debrecen, Lilla köz</t>
+          <t>Debrecen, Hatvani István street</t>
         </is>
       </c>
       <c r="E629" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F629" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/debrecen-lilla-koz-new-modern-flat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/debrecen-hatvani-istvan-street-2-bedroom-living-room-105-sqm-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -15476,22 +15476,16 @@
         <v>250000</v>
       </c>
       <c r="B632" t="n">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="C632" t="n">
         <v>3</v>
       </c>
-      <c r="D632" t="inlineStr">
-        <is>
-          <t>Debrecen, Apafi street</t>
-        </is>
-      </c>
-      <c r="E632" t="n">
-        <v>1</v>
-      </c>
+      <c r="D632" t="inlineStr"/>
+      <c r="E632" t="inlineStr"/>
       <c r="F632" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/debrecen-newer-building-apafi-street-2-bedroom-living-room-terrace-flat-for-rent/</t>
+          <t>https://www.greatforest.hu/property/99332-debrecen-bem-square-office-in-office-building</t>
         </is>
       </c>
     </row>
@@ -15524,16 +15518,22 @@
         <v>250000</v>
       </c>
       <c r="B634" t="n">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="C634" t="n">
         <v>3</v>
       </c>
-      <c r="D634" t="inlineStr"/>
-      <c r="E634" t="inlineStr"/>
+      <c r="D634" t="inlineStr">
+        <is>
+          <t>Debrecen, Apafi street</t>
+        </is>
+      </c>
+      <c r="E634" t="n">
+        <v>1</v>
+      </c>
       <c r="F634" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/99332-debrecen-bem-square-office-in-office-building</t>
+          <t>https://www.findahome.hu/ingatlanok/debrecen-newer-building-apafi-street-2-bedroom-living-room-terrace-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -15968,22 +15968,16 @@
         <v>280000</v>
       </c>
       <c r="B653" t="n">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="C653" t="n">
-        <v>2</v>
-      </c>
-      <c r="D653" t="inlineStr">
-        <is>
-          <t>Debrecen, Egyetem tér</t>
-        </is>
-      </c>
-      <c r="E653" t="n">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D653" t="inlineStr"/>
+      <c r="E653" t="inlineStr"/>
       <c r="F653" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/university-residence-new-building-next-to-the-uni-1-bedroom-living-room-flat-for-rent/</t>
+          <t>https://www.greatforest.hu/property/99021-debrecen-city-center-block-of-flats</t>
         </is>
       </c>
     </row>
@@ -15992,16 +15986,16 @@
         <v>280000</v>
       </c>
       <c r="B654" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C654" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D654" t="inlineStr"/>
       <c r="E654" t="inlineStr"/>
       <c r="F654" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/99021-debrecen-city-center-block-of-flats</t>
+          <t>https://www.greatforest.hu/property/97856-debrecen-city-center-office-not-in-office-building</t>
         </is>
       </c>
     </row>
@@ -16010,16 +16004,22 @@
         <v>280000</v>
       </c>
       <c r="B655" t="n">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="C655" t="n">
-        <v>3</v>
-      </c>
-      <c r="D655" t="inlineStr"/>
-      <c r="E655" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D655" t="inlineStr">
+        <is>
+          <t>Debrecen, Egyetem tér</t>
+        </is>
+      </c>
+      <c r="E655" t="n">
+        <v>1</v>
+      </c>
       <c r="F655" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/97856-debrecen-city-center-office-not-in-office-building</t>
+          <t>https://www.findahome.hu/ingatlanok/university-residence-new-building-next-to-the-uni-1-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -16043,43 +16043,49 @@
     </row>
     <row r="657">
       <c r="A657" t="n">
-        <v>290000</v>
+        <v>295000</v>
       </c>
       <c r="B657" t="n">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C657" t="n">
-        <v>2</v>
-      </c>
-      <c r="D657" t="inlineStr"/>
-      <c r="E657" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="D657" t="inlineStr">
+        <is>
+          <t>Debrecen, Nagyerdei körút</t>
+        </is>
+      </c>
+      <c r="E657" t="n">
+        <v>2</v>
+      </c>
       <c r="F657" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/65827-debrecen-close-to-bem-square-part-of-a-house</t>
+          <t>https://www.findahome.hu/ingatlanok/nagyerdei-krt-beautiful-2-levels-home-with-4-rooms-available-for-rent/</t>
         </is>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="n">
-        <v>295000</v>
+        <v>300000</v>
       </c>
       <c r="B658" t="n">
-        <v>143</v>
+        <v>68</v>
       </c>
       <c r="C658" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
-          <t>Debrecen, Nagyerdei körút</t>
+          <t>Debrecen, Csapó utca</t>
         </is>
       </c>
       <c r="E658" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F658" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/nagyerdei-krt-beautiful-2-levels-home-with-4-rooms-available-for-rent/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-csapo-utca/218738/</t>
         </is>
       </c>
     </row>
@@ -16088,22 +16094,16 @@
         <v>300000</v>
       </c>
       <c r="B659" t="n">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="C659" t="n">
         <v>3</v>
       </c>
-      <c r="D659" t="inlineStr">
-        <is>
-          <t>Debrecen, Párizsi udvar</t>
-        </is>
-      </c>
-      <c r="E659" t="n">
-        <v>1</v>
-      </c>
+      <c r="D659" t="inlineStr"/>
+      <c r="E659" t="inlineStr"/>
       <c r="F659" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/debrecen-parizsi-udvar-3-room-70-sqm-flat-for-rent/</t>
+          <t>https://www.greatforest.hu/property/100455-debrecen-flat</t>
         </is>
       </c>
     </row>
@@ -16112,16 +16112,22 @@
         <v>300000</v>
       </c>
       <c r="B660" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="C660" t="n">
-        <v>3</v>
-      </c>
-      <c r="D660" t="inlineStr"/>
-      <c r="E660" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D660" t="inlineStr">
+        <is>
+          <t>Debrecen, Bem tér</t>
+        </is>
+      </c>
+      <c r="E660" t="n">
+        <v>2</v>
+      </c>
       <c r="F660" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/101102-debrecen-city-center-flat</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-bem-ter/163005/</t>
         </is>
       </c>
     </row>
@@ -16130,22 +16136,16 @@
         <v>300000</v>
       </c>
       <c r="B661" t="n">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="C661" t="n">
         <v>2</v>
       </c>
-      <c r="D661" t="inlineStr">
-        <is>
-          <t>Debrecen, Antall József utca</t>
-        </is>
-      </c>
-      <c r="E661" t="n">
-        <v>1</v>
-      </c>
+      <c r="D661" t="inlineStr"/>
+      <c r="E661" t="inlineStr"/>
       <c r="F661" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-antall-jozsef-utca/218121/</t>
+          <t>https://www.greatforest.hu/property/69432-debrecen-greatforest-area-flat</t>
         </is>
       </c>
     </row>
@@ -16154,14 +16154,14 @@
         <v>300000</v>
       </c>
       <c r="B662" t="n">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C662" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
-          <t>Debrecen, Bólyai street</t>
+          <t>Debrecen, Antall József utca</t>
         </is>
       </c>
       <c r="E662" t="n">
@@ -16169,7 +16169,7 @@
       </c>
       <c r="F662" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/bolyai-street-brand-new-beautiful-luxurious-apartment-with-2-bedrooms-for-rent/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-antall-jozsef-utca/218121/</t>
         </is>
       </c>
     </row>
@@ -16178,14 +16178,14 @@
         <v>300000</v>
       </c>
       <c r="B663" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C663" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
-          <t>Debrecen, Csapó utca</t>
+          <t>Debrecen, Párizsi udvar</t>
         </is>
       </c>
       <c r="E663" t="n">
@@ -16193,7 +16193,7 @@
       </c>
       <c r="F663" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-csapo-utca/218738/</t>
+          <t>https://www.findahome.hu/ingatlanok/debrecen-parizsi-udvar-3-room-70-sqm-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -16202,22 +16202,16 @@
         <v>300000</v>
       </c>
       <c r="B664" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="C664" t="n">
-        <v>2</v>
-      </c>
-      <c r="D664" t="inlineStr">
-        <is>
-          <t>Debrecen, Bem tér</t>
-        </is>
-      </c>
-      <c r="E664" t="n">
-        <v>2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D664" t="inlineStr"/>
+      <c r="E664" t="inlineStr"/>
       <c r="F664" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-bem-ter/163005/</t>
+          <t>https://www.greatforest.hu/property/101102-debrecen-city-center-flat</t>
         </is>
       </c>
     </row>
@@ -16226,16 +16220,22 @@
         <v>300000</v>
       </c>
       <c r="B665" t="n">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="C665" t="n">
         <v>3</v>
       </c>
-      <c r="D665" t="inlineStr"/>
-      <c r="E665" t="inlineStr"/>
+      <c r="D665" t="inlineStr">
+        <is>
+          <t>Debrecen, Poroszlay</t>
+        </is>
+      </c>
+      <c r="E665" t="n">
+        <v>1</v>
+      </c>
       <c r="F665" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/100455-debrecen-flat</t>
+          <t>https://www.findahome.hu/ingatlanok/apartment-for-rent-in-debrecen-on-poroszlay-ut/</t>
         </is>
       </c>
     </row>
@@ -16262,32 +16262,38 @@
         <v>300000</v>
       </c>
       <c r="B667" t="n">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C667" t="n">
-        <v>2</v>
-      </c>
-      <c r="D667" t="inlineStr"/>
-      <c r="E667" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="D667" t="inlineStr">
+        <is>
+          <t>Debrecen, Bólyai street</t>
+        </is>
+      </c>
+      <c r="E667" t="n">
+        <v>1</v>
+      </c>
       <c r="F667" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/69432-debrecen-greatforest-area-flat</t>
+          <t>https://www.findahome.hu/ingatlanok/bolyai-street-brand-new-beautiful-luxurious-apartment-with-2-bedrooms-for-rent/</t>
         </is>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="n">
-        <v>300000</v>
+        <v>315000</v>
       </c>
       <c r="B668" t="n">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="C668" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
-          <t>Debrecen, Poroszlay</t>
+          <t>Debrecen, Hatvani István utca</t>
         </is>
       </c>
       <c r="E668" t="n">
@@ -16295,7 +16301,7 @@
       </c>
       <c r="F668" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/apartment-for-rent-in-debrecen-on-poroszlay-ut/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-hatvani-istvan-utca/219937/</t>
         </is>
       </c>
     </row>
@@ -16319,7 +16325,7 @@
       </c>
       <c r="F669" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-hatvani-istvan-utca/219994/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-hatvani-istvan-utca/219974/</t>
         </is>
       </c>
     </row>
@@ -16343,7 +16349,7 @@
       </c>
       <c r="F670" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-hatvani-istvan-utca/219937/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-hatvani-istvan-utca/219994/</t>
         </is>
       </c>
     </row>
@@ -16367,7 +16373,7 @@
       </c>
       <c r="F671" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-hatvani-istvan-utca/220005/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-hatvani-istvan-utca/219906/</t>
         </is>
       </c>
     </row>
@@ -16391,7 +16397,7 @@
       </c>
       <c r="F672" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-hatvani-istvan-utca/219959/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-hatvani-istvan-utca/220005/</t>
         </is>
       </c>
     </row>
@@ -16439,31 +16445,25 @@
       </c>
       <c r="F674" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-hatvani-istvan-utca/219974/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-hatvani-istvan-utca/219959/</t>
         </is>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="n">
-        <v>315000</v>
+        <v>320000</v>
       </c>
       <c r="B675" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C675" t="n">
         <v>1</v>
       </c>
-      <c r="D675" t="inlineStr">
-        <is>
-          <t>Debrecen, Hatvani István utca</t>
-        </is>
-      </c>
-      <c r="E675" t="n">
-        <v>1</v>
-      </c>
+      <c r="D675" t="inlineStr"/>
+      <c r="E675" t="inlineStr"/>
       <c r="F675" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-hatvani-istvan-utca/219906/</t>
+          <t>https://www.greatforest.hu/property/99511-debrecen-close-to-main-campus-flat</t>
         </is>
       </c>
     </row>
@@ -16472,16 +16472,22 @@
         <v>320000</v>
       </c>
       <c r="B676" t="n">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="C676" t="n">
-        <v>1</v>
-      </c>
-      <c r="D676" t="inlineStr"/>
-      <c r="E676" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="D676" t="inlineStr">
+        <is>
+          <t>Debrecen, Széchenyi utca</t>
+        </is>
+      </c>
+      <c r="E676" t="n">
+        <v>1</v>
+      </c>
       <c r="F676" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/99511-debrecen-close-to-main-campus-flat</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-szechenyi-utca/219826/</t>
         </is>
       </c>
     </row>
@@ -16490,56 +16496,56 @@
         <v>320000</v>
       </c>
       <c r="B677" t="n">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="C677" t="n">
-        <v>3</v>
-      </c>
-      <c r="D677" t="inlineStr">
-        <is>
-          <t>Debrecen, Széchenyi utca</t>
-        </is>
-      </c>
-      <c r="E677" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D677" t="inlineStr"/>
+      <c r="E677" t="inlineStr"/>
       <c r="F677" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-szechenyi-utca/219826/</t>
+          <t>https://www.greatforest.hu/property/99510-debrecen-close-to-main-campus-flat</t>
         </is>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="n">
-        <v>320000</v>
+        <v>330000</v>
       </c>
       <c r="B678" t="n">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="C678" t="n">
-        <v>1</v>
-      </c>
-      <c r="D678" t="inlineStr"/>
-      <c r="E678" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="D678" t="inlineStr">
+        <is>
+          <t>Debrecen, Hatvan</t>
+        </is>
+      </c>
+      <c r="E678" t="n">
+        <v>1</v>
+      </c>
       <c r="F678" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/99510-debrecen-close-to-main-campus-flat</t>
+          <t>https://www.findahome.hu/ingatlanok/apartment-for-rent-on-hatvan-street/</t>
         </is>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="n">
-        <v>330000</v>
+        <v>350000</v>
       </c>
       <c r="B679" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C679" t="n">
         <v>3</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
-          <t>Debrecen, Hatvan</t>
+          <t>Debrecen, Menyhárt József tér</t>
         </is>
       </c>
       <c r="E679" t="n">
@@ -16547,7 +16553,7 @@
       </c>
       <c r="F679" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/apartment-for-rent-on-hatvan-street/</t>
+          <t>https://www.findahome.hu/ingatlanok/luxury-apartment-for-rent-in-menyhart-jozsef-ter/</t>
         </is>
       </c>
     </row>
@@ -16556,22 +16562,22 @@
         <v>350000</v>
       </c>
       <c r="B680" t="n">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="C680" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
-          <t>Debrecen, Menyhárt József tér</t>
+          <t>Debrecen, Akadémia utca</t>
         </is>
       </c>
       <c r="E680" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F680" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/luxury-apartment-for-rent-in-menyhart-jozsef-ter/</t>
+          <t>https://debrecenrent.hu/for-rent/house/debrecen-akademia-utca/217736/</t>
         </is>
       </c>
     </row>
@@ -16580,22 +16586,16 @@
         <v>350000</v>
       </c>
       <c r="B681" t="n">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C681" t="n">
         <v>4</v>
       </c>
-      <c r="D681" t="inlineStr">
-        <is>
-          <t>Debrecen, Akadémia utca</t>
-        </is>
-      </c>
-      <c r="E681" t="n">
-        <v>2</v>
-      </c>
+      <c r="D681" t="inlineStr"/>
+      <c r="E681" t="inlineStr"/>
       <c r="F681" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/house/debrecen-akademia-utca/217736/</t>
+          <t>https://www.greatforest.hu/property/89979-debrecen-city-center-office-not-in-office-building</t>
         </is>
       </c>
     </row>
@@ -16604,74 +16604,80 @@
         <v>350000</v>
       </c>
       <c r="B682" t="n">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C682" t="n">
         <v>4</v>
       </c>
-      <c r="D682" t="inlineStr"/>
-      <c r="E682" t="inlineStr"/>
+      <c r="D682" t="inlineStr">
+        <is>
+          <t>Debrecen, Bem tér</t>
+        </is>
+      </c>
+      <c r="E682" t="n">
+        <v>2</v>
+      </c>
       <c r="F682" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/89979-debrecen-city-center-office-not-in-office-building</t>
+          <t>https://www.findahome.hu/ingatlanok/bem-ter-3-bedroom-living-room-with-dining-area-2-bathroom/</t>
         </is>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="n">
-        <v>350000</v>
+        <v>375000</v>
       </c>
       <c r="B683" t="n">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="C683" t="n">
         <v>4</v>
       </c>
-      <c r="D683" t="inlineStr">
-        <is>
-          <t>Debrecen, Bem tér</t>
-        </is>
-      </c>
-      <c r="E683" t="n">
-        <v>2</v>
-      </c>
+      <c r="D683" t="inlineStr"/>
+      <c r="E683" t="inlineStr"/>
       <c r="F683" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/bem-ter-3-bedroom-living-room-with-dining-area-2-bathroom/</t>
+          <t>https://www.greatforest.hu/property/96519-debrecen-greatforest-area-flat</t>
         </is>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="n">
-        <v>375000</v>
+        <v>380000</v>
       </c>
       <c r="B684" t="n">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="C684" t="n">
         <v>4</v>
       </c>
-      <c r="D684" t="inlineStr"/>
-      <c r="E684" t="inlineStr"/>
+      <c r="D684" t="inlineStr">
+        <is>
+          <t>Debrecen, -</t>
+        </is>
+      </c>
+      <c r="E684" t="n">
+        <v>1</v>
+      </c>
       <c r="F684" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/96519-debrecen-greatforest-area-flat</t>
+          <t>https://www.findahome.hu/ingatlanok/debrecen-house-for-rent-with-3-bedrooms-living-room/</t>
         </is>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="n">
-        <v>380000</v>
+        <v>385000</v>
       </c>
       <c r="B685" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C685" t="n">
         <v>4</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
-          <t>Debrecen, -</t>
+          <t>Debrecen, Vas Gereben</t>
         </is>
       </c>
       <c r="E685" t="n">
@@ -16679,23 +16685,23 @@
       </c>
       <c r="F685" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/debrecen-house-for-rent-with-3-bedrooms-living-room/</t>
+          <t>https://www.findahome.hu/ingatlanok/17339/</t>
         </is>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="n">
-        <v>385000</v>
+        <v>390000</v>
       </c>
       <c r="B686" t="n">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="C686" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
-          <t>Debrecen, Vas Gereben</t>
+          <t>Debrecen, Csapó utca</t>
         </is>
       </c>
       <c r="E686" t="n">
@@ -16703,7 +16709,7 @@
       </c>
       <c r="F686" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/17339/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-csapo-utca/219320/</t>
         </is>
       </c>
     </row>
@@ -16712,14 +16718,14 @@
         <v>390000</v>
       </c>
       <c r="B687" t="n">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="C687" t="n">
         <v>3</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
-          <t>Debrecen, Csapó utca</t>
+          <t>Debrecen, Nagyerdei körút</t>
         </is>
       </c>
       <c r="E687" t="n">
@@ -16727,23 +16733,23 @@
       </c>
       <c r="F687" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-csapo-utca/219320/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-nagyerdei-korut/213647/</t>
         </is>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="n">
-        <v>390000</v>
+        <v>395000</v>
       </c>
       <c r="B688" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C688" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
-          <t>Debrecen, Nagyerdei körút</t>
+          <t>Debrecen, Garai utca</t>
         </is>
       </c>
       <c r="E688" t="n">
@@ -16751,7 +16757,7 @@
       </c>
       <c r="F688" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-nagyerdei-korut/213647/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-garai-utca/217183/</t>
         </is>
       </c>
     </row>
@@ -16760,7 +16766,7 @@
         <v>395000</v>
       </c>
       <c r="B689" t="n">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C689" t="n">
         <v>2</v>
@@ -16771,51 +16777,51 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F689" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-garai-utca/217183/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-garai-utca/217196/</t>
         </is>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="n">
-        <v>395000</v>
+        <v>410000</v>
       </c>
       <c r="B690" t="n">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="C690" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
-          <t>Debrecen, Garai utca</t>
+          <t>Debrecen, Piac</t>
         </is>
       </c>
       <c r="E690" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F690" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-garai-utca/217196/</t>
+          <t>https://www.findahome.hu/ingatlanok/debrecen-city-center-piac-street-2-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="n">
-        <v>410000</v>
+        <v>420000</v>
       </c>
       <c r="B691" t="n">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C691" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
-          <t>Debrecen, Piac</t>
+          <t>Debrecen, Rákóczi</t>
         </is>
       </c>
       <c r="E691" t="n">
@@ -16823,31 +16829,25 @@
       </c>
       <c r="F691" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/debrecen-city-center-piac-street-2-bedroom-living-room-flat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/debrecen-belvaros-3-bedroom-living-room-unfurnished-apartament-for-rent/</t>
         </is>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="n">
-        <v>420000</v>
+        <v>480000</v>
       </c>
       <c r="B692" t="n">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="C692" t="n">
-        <v>4</v>
-      </c>
-      <c r="D692" t="inlineStr">
-        <is>
-          <t>Debrecen, Rákóczi</t>
-        </is>
-      </c>
-      <c r="E692" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D692" t="inlineStr"/>
+      <c r="E692" t="inlineStr"/>
       <c r="F692" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/debrecen-belvaros-3-bedroom-living-room-unfurnished-apartament-for-rent/</t>
+          <t>https://www.greatforest.hu/property/97187-debrecen-flat</t>
         </is>
       </c>
     </row>
@@ -16856,7 +16856,7 @@
         <v>480000</v>
       </c>
       <c r="B693" t="n">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C693" t="n">
         <v>3</v>
@@ -16865,49 +16865,55 @@
       <c r="E693" t="inlineStr"/>
       <c r="F693" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/97187-debrecen-flat</t>
+          <t>https://www.greatforest.hu/property/97186-debrecen-city-center-flat</t>
         </is>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="n">
-        <v>480000</v>
+        <v>490000</v>
       </c>
       <c r="B694" t="n">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="C694" t="n">
-        <v>3</v>
-      </c>
-      <c r="D694" t="inlineStr"/>
-      <c r="E694" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D694" t="inlineStr">
+        <is>
+          <t>Debrecen, Mikszáth Kálmán utca</t>
+        </is>
+      </c>
+      <c r="E694" t="n">
+        <v>1</v>
+      </c>
       <c r="F694" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/97186-debrecen-city-center-flat</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-mikszath-kalman-utca/216981/</t>
         </is>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="n">
-        <v>490000</v>
+        <v>500000</v>
       </c>
       <c r="B695" t="n">
-        <v>52</v>
+        <v>147</v>
       </c>
       <c r="C695" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
-          <t>Debrecen, Mikszáth Kálmán utca</t>
+          <t>Hajdúszoboszló, Hőforrás utca</t>
         </is>
       </c>
       <c r="E695" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F695" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-mikszath-kalman-utca/216981/</t>
+          <t>https://debrecenrent.hu/for-rent/house/hajduszoboszlo-hoforras-utca/214766/</t>
         </is>
       </c>
     </row>
@@ -16916,31 +16922,25 @@
         <v>500000</v>
       </c>
       <c r="B696" t="n">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="C696" t="n">
-        <v>3</v>
-      </c>
-      <c r="D696" t="inlineStr">
-        <is>
-          <t>Hajdúszoboszló, Hőforrás utca</t>
-        </is>
-      </c>
-      <c r="E696" t="n">
-        <v>2</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D696" t="inlineStr"/>
+      <c r="E696" t="inlineStr"/>
       <c r="F696" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/house/hajduszoboszlo-hoforras-utca/214766/</t>
+          <t>https://www.greatforest.hu/property/101101-debrecen-city-center-flat</t>
         </is>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="n">
-        <v>500000</v>
+        <v>580000</v>
       </c>
       <c r="B697" t="n">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C697" t="n">
         <v>4</v>
@@ -16949,25 +16949,25 @@
       <c r="E697" t="inlineStr"/>
       <c r="F697" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/101101-debrecen-city-center-flat</t>
+          <t>https://www.greatforest.hu/property/98425-debrecen-city-center-flat</t>
         </is>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="n">
-        <v>580000</v>
+        <v>595000</v>
       </c>
       <c r="B698" t="n">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C698" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D698" t="inlineStr"/>
       <c r="E698" t="inlineStr"/>
       <c r="F698" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/98425-debrecen-city-center-flat</t>
+          <t>https://www.greatforest.hu/property/36059-debrecen-kassai-campus-area-flat</t>
         </is>
       </c>
     </row>
@@ -16976,34 +16976,40 @@
         <v>595000</v>
       </c>
       <c r="B699" t="n">
-        <v>92</v>
+        <v>147</v>
       </c>
       <c r="C699" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D699" t="inlineStr"/>
       <c r="E699" t="inlineStr"/>
       <c r="F699" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/36059-debrecen-kassai-campus-area-flat</t>
+          <t>https://www.greatforest.hu/property/101274-hajduszoboszlo-attached-house</t>
         </is>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="n">
-        <v>595000</v>
+        <v>600000</v>
       </c>
       <c r="B700" t="n">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="C700" t="n">
         <v>4</v>
       </c>
-      <c r="D700" t="inlineStr"/>
-      <c r="E700" t="inlineStr"/>
+      <c r="D700" t="inlineStr">
+        <is>
+          <t>Debrecen, Bajcsy-Zsilinszky</t>
+        </is>
+      </c>
+      <c r="E700" t="n">
+        <v>1</v>
+      </c>
       <c r="F700" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/101274-hajduszoboszlo-attached-house</t>
+          <t>https://www.findahome.hu/ingatlanok/luxury-apartment-for-rent/</t>
         </is>
       </c>
     </row>
@@ -17012,14 +17018,14 @@
         <v>600000</v>
       </c>
       <c r="B701" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C701" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
-          <t>Debrecen, Bajcsy-Zsilinszky</t>
+          <t>Debrecen, Hadházi út</t>
         </is>
       </c>
       <c r="E701" t="n">
@@ -17027,53 +17033,29 @@
       </c>
       <c r="F701" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/luxury-apartment-for-rent/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-hadhazi-ut/219319/</t>
         </is>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="n">
-        <v>600000</v>
+        <v>760000</v>
       </c>
       <c r="B702" t="n">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="C702" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
-          <t>Debrecen, Hadházi út</t>
+          <t>Debrecen, Pacsirta</t>
         </is>
       </c>
       <c r="E702" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F702" t="inlineStr">
-        <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-hadhazi-ut/219319/</t>
-        </is>
-      </c>
-    </row>
-    <row r="703">
-      <c r="A703" t="n">
-        <v>760000</v>
-      </c>
-      <c r="B703" t="n">
-        <v>135</v>
-      </c>
-      <c r="C703" t="n">
-        <v>4</v>
-      </c>
-      <c r="D703" t="inlineStr">
-        <is>
-          <t>Debrecen, Pacsirta</t>
-        </is>
-      </c>
-      <c r="E703" t="n">
-        <v>0</v>
-      </c>
-      <c r="F703" t="inlineStr">
         <is>
           <t>https://www.findahome.hu/ingatlanok/luxury-house-for-rent-3-bedroom-living-room/</t>
         </is>

--- a/streamlit/Houses_Cleaned.xlsx
+++ b/streamlit/Houses_Cleaned.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F715"/>
+  <dimension ref="A1:G715"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>Link</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Area</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -488,6 +493,11 @@
           <t>https://www.findahome.hu/ingatlanok/martonfalvi-street-room-available-for-rent/</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -512,6 +522,11 @@
           <t>https://www.findahome.hu/ingatlanok/3-halos-kiado-lakas/</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -536,6 +551,11 @@
           <t>https://www.findahome.hu/ingatlanok/libakert-street-renovated-1-bedroom-and-living-room-flat-available/</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -560,6 +580,11 @@
           <t>https://www.findahome.hu/ingatlanok/cheap-room-for-rent/</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -584,6 +609,11 @@
           <t>https://www.findahome.hu/ingatlanok/2-rooms-is-available-only-for-girls-in-city-center/</t>
         </is>
       </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -608,6 +638,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-jeriko-street-only-room-for-rent/</t>
         </is>
       </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -632,6 +667,11 @@
           <t>https://www.findahome.hu/ingatlanok/egyetem-sugarut-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -656,6 +696,11 @@
           <t>https://www.findahome.hu/ingatlanok/csapo-street-business-space-for-rent/</t>
         </is>
       </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -680,6 +725,11 @@
           <t>https://www.findahome.hu/ingatlanok/egyetem-sugarut-unfurnished-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -704,6 +754,11 @@
           <t>https://www.findahome.hu/ingatlanok/egyetem-sugarut-brand-new-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -728,6 +783,11 @@
           <t>https://www.findahome.hu/ingatlanok/piac-street-in-the-city-center-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -752,6 +812,11 @@
           <t>https://www.findahome.hu/ingatlanok/cheap-apartment-for-rent-5-min-from-the-uni/</t>
         </is>
       </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -776,6 +841,11 @@
           <t>https://www.findahome.hu/ingatlanok/flat-for-rent-near-to-the-egyetem-sugarut/</t>
         </is>
       </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -800,6 +870,11 @@
           <t>https://www.findahome.hu/ingatlanok/jeriko-street-newly-renovated-modern-1-bedroom-living-room-flat-available/</t>
         </is>
       </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -824,6 +899,11 @@
           <t>https://www.findahome.hu/ingatlanok/gorgey-street-close-to-the-uni-1-bedroom-flat-available-for-long-term-rent/</t>
         </is>
       </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -848,6 +928,11 @@
           <t>https://www.findahome.hu/ingatlanok/flat-for-rent-debrecen-hatvan-street-in-the-city-center/</t>
         </is>
       </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -872,6 +957,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-bem-ter-1-bedroom-dining-area/</t>
         </is>
       </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -896,6 +986,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-piac-street-1-bedroom-apartment-available-for-long-term-rent/</t>
         </is>
       </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -920,6 +1015,11 @@
           <t>https://www.findahome.hu/ingatlanok/bethlen-street-close-to-both-tram-line-and-city-center-2-rooms-flat-available/</t>
         </is>
       </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -944,6 +1044,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-city-center-1-bedroom-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -968,6 +1073,11 @@
           <t>https://www.findahome.hu/ingatlanok/two-rooms-flat-for-rent-at-debrecen-rakovszky-daniel-street-near-to-the-otemeto-campus/</t>
         </is>
       </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -992,6 +1102,11 @@
           <t>https://www.findahome.hu/ingatlanok/sumen-street-modern-1-bedroom-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1016,6 +1131,11 @@
           <t>https://www.findahome.hu/ingatlanok/2-rooms-flat-available-near-university/</t>
         </is>
       </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1040,6 +1160,11 @@
           <t>https://www.findahome.hu/ingatlanok/egyetem-sugarut-1-bedroom-renovated-flat-is-available/</t>
         </is>
       </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1064,6 +1189,11 @@
           <t>https://www.findahome.hu/ingatlanok/batthyany-street-1-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1088,6 +1218,11 @@
           <t>https://www.findahome.hu/ingatlanok/studio-flat-for-rent-close-to-uni/</t>
         </is>
       </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1112,6 +1247,11 @@
           <t>https://www.findahome.hu/ingatlanok/boszormenyi-street-1-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1136,6 +1276,11 @@
           <t>https://www.findahome.hu/ingatlanok/otvenhatosok-tere-1-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1160,6 +1305,11 @@
           <t>https://www.findahome.hu/ingatlanok/egyetem-sugarut-renovated-1bedroom-flat-for-long-term-rent/</t>
         </is>
       </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1184,6 +1334,11 @@
           <t>https://www.findahome.hu/ingatlanok/shop-for-rent/</t>
         </is>
       </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1208,6 +1363,11 @@
           <t>https://www.findahome.hu/ingatlanok/close-to-the-hatar-street-house-for-rent/</t>
         </is>
       </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1232,6 +1392,11 @@
           <t>https://www.findahome.hu/ingatlanok/1-bedroom-living-room-flat-for-rent-2/</t>
         </is>
       </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1256,6 +1421,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-close-to-the-bem-ter-1-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1280,6 +1450,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-hadhazi-street-1-bedroom-living-room/</t>
         </is>
       </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1304,6 +1479,11 @@
           <t>https://www.findahome.hu/ingatlanok/bem-square-near-city-center-and-the-uni-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1328,6 +1508,11 @@
           <t>https://www.findahome.hu/ingatlanok/1-bedroom-living-room-flat-close-to-kassai-campus/</t>
         </is>
       </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1352,6 +1537,11 @@
           <t>https://www.findahome.hu/ingatlanok/modern-youthful-1-5-rooms-flat-near-malompark-for-rent/</t>
         </is>
       </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1376,6 +1566,11 @@
           <t>https://www.findahome.hu/ingatlanok/flat-for-rent-at-debrecen-bethlen-street/</t>
         </is>
       </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1400,6 +1595,11 @@
           <t>https://www.findahome.hu/ingatlanok/beautiful-flat-available-for-rent-on-the-boszormenyi-street/</t>
         </is>
       </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1424,6 +1624,11 @@
           <t>https://www.findahome.hu/ingatlanok/1-bedroom-living-room-house-for-rent/</t>
         </is>
       </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1448,6 +1653,11 @@
           <t>https://www.findahome.hu/ingatlanok/cheap-flat-for-rent-close-to-the-uni/</t>
         </is>
       </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1472,6 +1682,11 @@
           <t>https://www.findahome.hu/ingatlanok/city-center-1-bedroomliving-room-flat-is-available/</t>
         </is>
       </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1496,6 +1711,11 @@
           <t>https://www.findahome.hu/ingatlanok/3063/</t>
         </is>
       </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1520,6 +1740,11 @@
           <t>https://www.findahome.hu/ingatlanok/egyetem-sugarut-near-bem-ter-2-rooms-flat-available/</t>
         </is>
       </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1544,6 +1769,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-komlossy-street-2-bedroom-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1568,6 +1798,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-egyetem-sugarut-45-sqm-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1592,6 +1827,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-egyetem-sugarut-43-sqm-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1616,6 +1856,11 @@
           <t>https://www.findahome.hu/ingatlanok/csemete-street-in-city-center-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1640,6 +1885,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-egyetem-sugarut-2-bedrooms-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1664,6 +1914,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-close-to-bem-ter-38-sqm-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1688,6 +1943,11 @@
           <t>https://www.findahome.hu/ingatlanok/furedi-street-new-modern-2-rooms-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1712,6 +1972,11 @@
           <t>https://www.findahome.hu/ingatlanok/2-bedrooms-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1736,6 +2001,11 @@
           <t>https://www.findahome.hu/ingatlanok/boszormenyi-street-a-small-stand-alone-house-for-long-or-short-term-rent/</t>
         </is>
       </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1760,6 +2030,11 @@
           <t>https://www.findahome.hu/ingatlanok/diofa-street-modern-1-bedroomliving-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1784,6 +2059,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-apafi-street-1-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1808,6 +2088,11 @@
           <t>https://www.findahome.hu/ingatlanok/bem-ter-modernyouthful-studio-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1832,6 +2117,11 @@
           <t>https://www.findahome.hu/ingatlanok/unfurnished-flat-for-rent-at-gyergyo-street/</t>
         </is>
       </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1856,6 +2146,11 @@
           <t>https://www.findahome.hu/ingatlanok/weszpremy-street-2-bedrooms-flat-is-available/</t>
         </is>
       </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1880,6 +2175,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-bem-ter-1-bedroom-livingroom-flat/</t>
         </is>
       </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1904,6 +2204,11 @@
           <t>https://www.findahome.hu/ingatlanok/close-to-uni-2-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1928,6 +2233,11 @@
           <t>https://www.findahome.hu/ingatlanok/ujhazi-ede-street-in-the-city-center-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1952,6 +2262,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-egyetem-sugarut-35-sqm-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1976,6 +2291,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-hatvani-istvan-street-61sqm-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2000,6 +2320,11 @@
           <t>https://www.findahome.hu/ingatlanok/1-bedroom-living-room-flat-for-rent-4/</t>
         </is>
       </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -2024,6 +2349,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-jeriko-street-2-separated-rooms-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -2048,6 +2378,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-bem-ter-1-bedroomliving-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -2072,6 +2407,11 @@
           <t>https://www.findahome.hu/ingatlanok/bethlen-street-1-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -2096,6 +2436,11 @@
           <t>https://www.findahome.hu/ingatlanok/2-bedroom-and-living-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -2120,6 +2465,11 @@
           <t>https://www.findahome.hu/ingatlanok/bajcsy-zsilinszky-street-in-city-center-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -2144,6 +2494,11 @@
           <t>https://www.findahome.hu/ingatlanok/gyergyo-street-close-to-inter-spar-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -2168,6 +2523,11 @@
           <t>https://www.findahome.hu/ingatlanok/1-bedroom-living-room-flat-for-rent-5/</t>
         </is>
       </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -2192,6 +2552,11 @@
           <t>https://www.findahome.hu/ingatlanok/okut-street-renovated-modern-cozy-flat-for-long-term-rent/</t>
         </is>
       </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -2216,6 +2581,11 @@
           <t>https://www.findahome.hu/ingatlanok/gorgey-street-near-the-uni-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -2240,6 +2610,11 @@
           <t>https://www.findahome.hu/ingatlanok/furedi-street-2-bedrooms-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -2264,6 +2639,11 @@
           <t>https://www.findahome.hu/ingatlanok/furedi-street-close-to-agriculture-uni-renovated-new-2-rooms-flat-available/</t>
         </is>
       </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -2288,6 +2668,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-oszirozsa-koz-1-room-apartment-for-rent/</t>
         </is>
       </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -2312,6 +2697,11 @@
           <t>https://www.findahome.hu/ingatlanok/lakas-kiado-a-szegfu-utcan/</t>
         </is>
       </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -2336,6 +2726,11 @@
           <t>https://www.findahome.hu/ingatlanok/bem-ter-renovated-modern-studio-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -2360,6 +2755,11 @@
           <t>https://www.findahome.hu/ingatlanok/darabos-street-2-bedroom-flat-in-the-city-center/</t>
         </is>
       </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -2384,6 +2784,11 @@
           <t>https://www.findahome.hu/ingatlanok/2-bedrooms-apartment-for-rent/</t>
         </is>
       </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -2408,6 +2813,11 @@
           <t>https://www.findahome.hu/ingatlanok/bolyai-street-1-bedroom-and-livnig-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -2432,6 +2842,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-gorgey-street-1-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -2456,6 +2871,11 @@
           <t>https://www.findahome.hu/ingatlanok/vasary-istvan-street-1-bedroomliving-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -2480,6 +2900,11 @@
           <t>https://www.findahome.hu/ingatlanok/thomas-mann-1-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -2504,6 +2929,11 @@
           <t>https://www.findahome.hu/ingatlanok/egyetem-sugarut-1-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -2528,6 +2958,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-derek-utca-2-roomdining-area-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -2552,6 +2987,11 @@
           <t>https://www.findahome.hu/ingatlanok/close-to-forum-beautiful-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -2576,6 +3016,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-jeriko-street-renovated-1-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -2600,6 +3045,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-close-to-the-otemeto-campus-2-separate-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -2624,6 +3074,11 @@
           <t>https://www.findahome.hu/ingatlanok/three-separate-rooms-apartment-for-rent/</t>
         </is>
       </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -2648,6 +3103,11 @@
           <t>https://www.findahome.hu/ingatlanok/hadhazi-street-studio-flat-with-garage-available-for-rent/</t>
         </is>
       </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -2672,6 +3132,11 @@
           <t>https://www.findahome.hu/ingatlanok/7406/</t>
         </is>
       </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -2696,6 +3161,11 @@
           <t>https://www.findahome.hu/ingatlanok/arany-janos-street-in-city-center-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -2720,6 +3190,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-gorgey-street-54-sqm-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -2744,6 +3219,11 @@
           <t>https://www.findahome.hu/ingatlanok/mikszath-kalman-street-2-rooms-renovated-flat-close-to-uni/</t>
         </is>
       </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -2768,6 +3248,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-egyetem-sugarut-1-bedroom-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -2792,6 +3277,11 @@
           <t>https://www.findahome.hu/ingatlanok/doczy-street-1-min-from-the-uni-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -2816,6 +3306,11 @@
           <t>https://www.findahome.hu/ingatlanok/veres-street-1-room-is-available-for-rent/</t>
         </is>
       </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -2840,6 +3335,11 @@
           <t>https://www.findahome.hu/ingatlanok/renovated-1-half-room-apartment-for-rent-on-sinai-miklos-street/</t>
         </is>
       </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -2864,6 +3364,11 @@
           <t>https://www.findahome.hu/ingatlanok/thomas-mann-street-very-close-to-uni-and-tram-2-brand-new-flat/</t>
         </is>
       </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -2888,6 +3393,11 @@
           <t>https://www.findahome.hu/ingatlanok/miklos-street-city-center-2-bedrooms-flat-available-for-rent-2/</t>
         </is>
       </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -2912,6 +3422,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-bem-ter-1-spacious-room-with-dining-area/</t>
         </is>
       </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -2936,6 +3451,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-gyongyosi-utca-1-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -2960,6 +3480,11 @@
           <t>https://www.findahome.hu/ingatlanok/flat-for-rent-in-the-city-center-2/</t>
         </is>
       </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -2984,6 +3509,11 @@
           <t>https://www.findahome.hu/ingatlanok/1-bedroom-living-room-flat-for-rent-close-to-uni/</t>
         </is>
       </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -3008,6 +3538,11 @@
           <t>https://www.findahome.hu/ingatlanok/thomas-mann-street-very-close-to-uni-and-tram-2-brand-new-flat-2/</t>
         </is>
       </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -3032,6 +3567,11 @@
           <t>https://www.findahome.hu/ingatlanok/laktanya-street-2-rooms-flat-for-long-term-rent/</t>
         </is>
       </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -3056,6 +3596,11 @@
           <t>https://www.findahome.hu/ingatlanok/otvenhatosok-tere-close-to-uni-modern-1-bedroom-living-room-flat-available/</t>
         </is>
       </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -3080,6 +3625,11 @@
           <t>https://www.findahome.hu/ingatlanok/bem-ter-brand-new-modern-1-bedroom-apartment-for-rent/</t>
         </is>
       </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -3104,6 +3654,11 @@
           <t>https://www.findahome.hu/ingatlanok/honved-street-1-bedroomliving-room-flat-is-available/</t>
         </is>
       </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -3128,6 +3683,11 @@
           <t>https://www.findahome.hu/ingatlanok/trombitas-street-2-bedrooms-living-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -3152,6 +3712,11 @@
           <t>https://www.findahome.hu/ingatlanok/hatvan-street-city-center-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -3176,6 +3741,11 @@
           <t>https://www.findahome.hu/ingatlanok/5110/</t>
         </is>
       </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -3200,6 +3770,11 @@
           <t>https://www.findahome.hu/ingatlanok/ajto-street-close-to-the-city-center-and-tram-line-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -3224,6 +3799,11 @@
           <t>https://www.findahome.hu/ingatlanok/poroszlay-street-3-bedrooms-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -3248,6 +3828,11 @@
           <t>https://www.findahome.hu/ingatlanok/mester-street-2-bedroomsliving-room-flat-is-available/</t>
         </is>
       </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -3272,6 +3857,11 @@
           <t>https://www.findahome.hu/ingatlanok/parizsi-udvar-cozy-studio-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -3296,6 +3886,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-city-center-hatvan-street-one-big-bedroom-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -3320,6 +3915,11 @@
           <t>https://www.findahome.hu/ingatlanok/nagyerdei-korut-close-to-uni-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -3344,6 +3944,11 @@
           <t>https://www.findahome.hu/ingatlanok/miklos-street-city-center-2-bedrooms-flat-available-for-rent/</t>
         </is>
       </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -3368,6 +3973,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-gyepusor-street-2-roomdining-area-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -3392,6 +4002,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-poroszlay-street-2-separate-rooms-for-rent/</t>
         </is>
       </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -3416,6 +4031,11 @@
           <t>https://www.findahome.hu/ingatlanok/flat-for-rent-at-viola-street/</t>
         </is>
       </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -3440,6 +4060,11 @@
           <t>https://www.findahome.hu/ingatlanok/flat-for-rent-in-the-city-center/</t>
         </is>
       </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -3464,6 +4089,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-mikszath-kalman-street-1-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -3488,6 +4118,11 @@
           <t>https://www.findahome.hu/ingatlanok/gvadanyi-street-2-bedrooms-flat-is-available-for-rent/</t>
         </is>
       </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -3512,6 +4147,11 @@
           <t>https://www.findahome.hu/ingatlanok/egyetem-sugart-brand-new-studio-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -3536,6 +4176,11 @@
           <t>https://www.findahome.hu/ingatlanok/poroszlay-street-close-to-uni-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -3560,6 +4205,11 @@
           <t>https://www.findahome.hu/ingatlanok/furedi-residential-area-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -3584,6 +4234,11 @@
           <t>https://www.findahome.hu/ingatlanok/kartacs-street-2-bedrooms-renovated-flat-is-available/</t>
         </is>
       </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -3608,6 +4263,11 @@
           <t>https://www.findahome.hu/ingatlanok/2-bedroom-living-room-flat-for-rent-in-city-center/</t>
         </is>
       </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -3632,6 +4292,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-bethlen-street-45-sqm-1-bedroom-living-room/</t>
         </is>
       </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -3656,6 +4321,11 @@
           <t>https://www.findahome.hu/ingatlanok/flat-for-rent-csengo-street/</t>
         </is>
       </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -3680,6 +4350,11 @@
           <t>https://www.findahome.hu/ingatlanok/libakert-street-just-opposite-to-malompark-near-bem-ter-1-bedroom-flat-available/</t>
         </is>
       </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -3704,6 +4379,11 @@
           <t>https://www.findahome.hu/ingatlanok/2-bedroom-living-room-flat-for-rent-2/</t>
         </is>
       </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -3728,6 +4408,11 @@
           <t>https://www.findahome.hu/ingatlanok/piac-street-new-cozy-home-for-rent-in-the-city-center/</t>
         </is>
       </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -3752,6 +4437,11 @@
           <t>https://www.findahome.hu/ingatlanok/2-halos-kiado-lakas/</t>
         </is>
       </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -3776,6 +4466,11 @@
           <t>https://www.findahome.hu/ingatlanok/egyetem-sugarut-renovated-modern-2-rooms-flat-available-for-rent/</t>
         </is>
       </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -3800,6 +4495,11 @@
           <t>https://www.findahome.hu/ingatlanok/simonffy-street-halkoz-1-bedroom-living-room-flat-available/</t>
         </is>
       </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -3824,6 +4524,11 @@
           <t>https://www.findahome.hu/ingatlanok/1-bedroom-living-room-close-to-otemeto-campus/</t>
         </is>
       </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -3848,6 +4553,11 @@
           <t>https://www.findahome.hu/ingatlanok/piac-street-1-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -3872,6 +4582,11 @@
           <t>https://www.findahome.hu/ingatlanok/greatforest-area-1-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -3896,6 +4611,11 @@
           <t>https://www.findahome.hu/ingatlanok/poroszlay-street-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -3920,6 +4640,11 @@
           <t>https://www.findahome.hu/ingatlanok/in-the-heart-of-the-city-1-bedroom-living-room/</t>
         </is>
       </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -3944,6 +4669,11 @@
           <t>https://www.findahome.hu/ingatlanok/nyar-street-fully-renovated-1-bedroomliving-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -3968,6 +4698,11 @@
           <t>https://www.findahome.hu/ingatlanok/furedi-street-2-bedroom-living-room-for-rent/</t>
         </is>
       </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -3992,6 +4727,11 @@
           <t>https://www.findahome.hu/ingatlanok/egyetem-sgt-new-modern-1-bedroom-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -4016,6 +4756,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-city-center-39-sqm-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -4040,6 +4785,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-city-center-brand-new-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -4064,6 +4814,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-furedi-residential-area-1-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -4088,6 +4843,11 @@
           <t>https://www.findahome.hu/ingatlanok/gvadanyi-street-near-kassai-campus-1-bedroom-living-room-apartment-available/</t>
         </is>
       </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -4112,6 +4872,11 @@
           <t>https://www.findahome.hu/ingatlanok/cozy-1-bedroom-living-room-flat-for-rent-close-to-uni/</t>
         </is>
       </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -4136,6 +4901,11 @@
           <t>https://www.findahome.hu/ingatlanok/bem-ter-renovated-moder-1-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -4160,6 +4930,11 @@
           <t>https://www.findahome.hu/ingatlanok/flat-for-rent-close-to-the-kassai-campus/</t>
         </is>
       </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -4184,6 +4959,11 @@
           <t>https://www.findahome.hu/ingatlanok/city-center-modern-youthful-2-rooms-apartment-for-rent/</t>
         </is>
       </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -4208,6 +4988,11 @@
           <t>https://www.findahome.hu/ingatlanok/3-bedrooms-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -4232,6 +5017,11 @@
           <t>https://www.findahome.hu/ingatlanok/civis-street-close-to-the-uni-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -4256,6 +5046,11 @@
           <t>https://www.findahome.hu/ingatlanok/flat-for-rent-1-min-from-the-uni/</t>
         </is>
       </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -4280,6 +5075,11 @@
           <t>https://www.findahome.hu/ingatlanok/poroszlay-street-1-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -4304,6 +5104,11 @@
           <t>https://www.findahome.hu/ingatlanok/close-to-uni-melange-new-modern-1-bedroom-living-room-flat-available/</t>
         </is>
       </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -4328,6 +5133,11 @@
           <t>https://www.findahome.hu/ingatlanok/flat-for-rent-on-karacsony-gyorgy-street/</t>
         </is>
       </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -4352,6 +5162,11 @@
           <t>https://www.findahome.hu/ingatlanok/modern-one-bedroom-apartment-near-uni/</t>
         </is>
       </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -4376,6 +5191,11 @@
           <t>https://www.findahome.hu/ingatlanok/lakas-kiado-a-bolyai-utcan/</t>
         </is>
       </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -4400,6 +5220,11 @@
           <t>https://www.findahome.hu/ingatlanok/egyetem-sugaruti-kiado-lakas/</t>
         </is>
       </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -4424,6 +5249,11 @@
           <t>https://www.findahome.hu/ingatlanok/egyetem-sugarut-beautiful-apartment-for-rent/</t>
         </is>
       </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -4448,6 +5278,11 @@
           <t>https://www.findahome.hu/ingatlanok/doczy-street-1-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -4472,6 +5307,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-hatvan-street-1-bedroom-living-room/</t>
         </is>
       </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -4496,6 +5336,11 @@
           <t>https://www.findahome.hu/ingatlanok/karolyi-mihaly-street-1-bedroomliving-room-flat-is-available/</t>
         </is>
       </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -4520,6 +5365,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-bem-ter-1-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -4544,6 +5394,11 @@
           <t>https://www.findahome.hu/ingatlanok/close-to-uni-flat-for-rent-2/</t>
         </is>
       </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -4568,6 +5423,11 @@
           <t>https://www.findahome.hu/ingatlanok/komlossy-street-very-close-to-medical-school-1-bedroom-flat-available/</t>
         </is>
       </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -4592,6 +5452,11 @@
           <t>https://www.findahome.hu/ingatlanok/poroszlay-street-a-few-minutes-from-med-school-new-flat-available/</t>
         </is>
       </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -4616,6 +5481,11 @@
           <t>https://www.findahome.hu/ingatlanok/kiado-lakas-debrecenben-a-nagyerdon-egyetemhez-kozel/</t>
         </is>
       </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -4640,6 +5510,11 @@
           <t>https://www.findahome.hu/ingatlanok/martonfalvi-street-very-close-to-uni-1-bedroom-living-room-flat-available-2/</t>
         </is>
       </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -4664,6 +5539,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-doczy-jozsef-street-1-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -4688,6 +5568,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-kartacs-street-close-to-the-uni-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -4712,6 +5597,11 @@
           <t>https://www.findahome.hu/ingatlanok/hatvani-istvan-street-very-close-to-the-uni-1-bedroom-flat-available/</t>
         </is>
       </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -4736,6 +5626,11 @@
           <t>https://www.findahome.hu/ingatlanok/city-center-1-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -4760,6 +5655,11 @@
           <t>https://www.findahome.hu/ingatlanok/jeriko-street-between-medical-agriculture-uni-modern-2-rooms-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -4784,6 +5684,11 @@
           <t>https://debrecenrent.hu/for-rent/flat/debrecen-faraktar-utca/219628/</t>
         </is>
       </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -4808,6 +5713,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-poroszlay-street-1-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -4832,6 +5742,11 @@
           <t>https://www.findahome.hu/ingatlanok/poroszlay-street-1-bedroom-living-room-flat-forr-ent/</t>
         </is>
       </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -4856,6 +5771,11 @@
           <t>https://debrecenrent.hu/for-rent/house/debrecen-kassai-ut/176619/</t>
         </is>
       </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -4880,6 +5800,11 @@
           <t>https://www.findahome.hu/ingatlanok/komlossy-street-2-min-from-the-uni-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -4904,6 +5829,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-egyetem-sugarut-1-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -4928,6 +5858,11 @@
           <t>https://www.findahome.hu/ingatlanok/egyetem-sugarut-1-bedroom-living-room-1-min-from-the-uni/</t>
         </is>
       </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -4952,6 +5887,11 @@
           <t>https://www.findahome.hu/ingatlanok/3-bedrooms-flat-for-rent-in-the-city-center/</t>
         </is>
       </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -4976,6 +5916,11 @@
           <t>https://www.findahome.hu/ingatlanok/mikszath-kalman-street-close-to-uni-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -5000,6 +5945,11 @@
           <t>https://www.findahome.hu/ingatlanok/furedi-residential-area-new-building-brand-new-modern-apartment/</t>
         </is>
       </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -5024,6 +5974,11 @@
           <t>https://www.findahome.hu/ingatlanok/cozy-1-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -5048,6 +6003,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-derek-street-3-rooms-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -5072,6 +6032,11 @@
           <t>https://www.findahome.hu/ingatlanok/1-bedroom-living-room-flat-for-rent-7/</t>
         </is>
       </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -5096,6 +6061,11 @@
           <t>https://www.findahome.hu/ingatlanok/bolyai-street-very-close-to-uni-beautiful-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -5120,6 +6090,11 @@
           <t>https://www.findahome.hu/ingatlanok/close-to-thr-uni-2-separate-room-ac-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -5144,6 +6119,11 @@
           <t>https://www.findahome.hu/ingatlanok/cozy-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -5168,6 +6148,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-sinai-miklos-utca-1-bedroom-living-room-apartament-for-rent/</t>
         </is>
       </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -5192,6 +6177,11 @@
           <t>https://www.findahome.hu/ingatlanok/nagyerdei-korut-5-min-from-the-uni-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -5216,6 +6206,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-kandia-street-flat-for-long-term-rent/</t>
         </is>
       </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -5240,6 +6235,11 @@
           <t>https://www.findahome.hu/ingatlanok/modern-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -5264,6 +6264,11 @@
           <t>https://www.findahome.hu/ingatlanok/malomkoz-street-2-bedroomsliving-room-flat-is-available/</t>
         </is>
       </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -5288,6 +6293,11 @@
           <t>https://www.findahome.hu/ingatlanok/libakert-street-modern-1-bedroom-american-style-kitchen-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -5312,6 +6322,11 @@
           <t>https://www.findahome.hu/ingatlanok/mikszath-street-close-to-uni-new-modern-1-bedroom-living-room-flat-available/</t>
         </is>
       </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -5336,6 +6351,11 @@
           <t>https://www.findahome.hu/ingatlanok/flat-for-rent-in-hatvani-istvan/</t>
         </is>
       </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -5360,6 +6380,11 @@
           <t>https://www.findahome.hu/ingatlanok/flat-for-rent-in-hadhazi-street/</t>
         </is>
       </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -5384,6 +6409,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-poroszlay-street-1-bedroom-living-room-flat-for-rent-3/</t>
         </is>
       </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -5408,6 +6438,11 @@
           <t>https://www.findahome.hu/ingatlanok/mikszath-kalman-street-close-to-uni-flat-for-rent-2/</t>
         </is>
       </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -5432,6 +6467,11 @@
           <t>https://www.findahome.hu/ingatlanok/flat-for-rent-next-to-the-yellow-church/</t>
         </is>
       </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -5456,6 +6496,11 @@
           <t>https://debrecenrent.hu/for-rent/flat/debrecen-vezer-utca/219797/</t>
         </is>
       </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -5480,6 +6525,11 @@
           <t>https://www.findahome.hu/ingatlanok/bem-ter-new-building-with-elevator-new1-bedroom-living-room-flat-available/</t>
         </is>
       </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -5504,6 +6554,11 @@
           <t>https://www.findahome.hu/ingatlanok/flat-for-rent-mata-janos-utca/</t>
         </is>
       </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -5528,6 +6583,11 @@
           <t>https://www.findahome.hu/ingatlanok/2-bedroom-living-room-flat-for-rent-4/</t>
         </is>
       </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -5552,6 +6612,11 @@
           <t>https://www.findahome.hu/ingatlanok/flat-for-rent-next-to-the-uni-at-bolyai-street/</t>
         </is>
       </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -5576,6 +6641,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-mikszath-kalman-street-2-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -5600,6 +6670,11 @@
           <t>https://www.findahome.hu/ingatlanok/flat-for-rent-in-the-city-center-3/</t>
         </is>
       </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -5624,6 +6699,11 @@
           <t>https://www.findahome.hu/ingatlanok/egyetem-sgt-renovated-modern-1-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -5648,6 +6728,11 @@
           <t>https://www.findahome.hu/ingatlanok/cozy-studio-apartment-for-rent/</t>
         </is>
       </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -5672,6 +6757,11 @@
           <t>https://www.findahome.hu/ingatlanok/70sqm-flat-for-rent-close-to-bem-ter/</t>
         </is>
       </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -5696,6 +6786,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-city-center-2-bedrom-living-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -5720,6 +6815,11 @@
           <t>https://www.findahome.hu/ingatlanok/darabos-street-fully-renovated-and-modern-2-bedrooms-flat-is-available/</t>
         </is>
       </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -5744,6 +6844,11 @@
           <t>https://www.findahome.hu/ingatlanok/2-bedroom-apartment-for-rent-near-the-uni/</t>
         </is>
       </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -5768,6 +6873,11 @@
           <t>https://www.findahome.hu/ingatlanok/mikszath-kalman-street-brand-new-cozy-home-very-close-to-uni/</t>
         </is>
       </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -5792,6 +6902,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-2-bedroom-living-room-close-to-the-otemeto-campus/</t>
         </is>
       </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -5816,6 +6931,11 @@
           <t>https://www.findahome.hu/ingatlanok/flat-for-rent-in-bem-ter/</t>
         </is>
       </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -5840,6 +6960,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-nagyerdei-korut-2-rooms-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -5864,6 +6989,11 @@
           <t>https://www.findahome.hu/ingatlanok/vezer-street-1-bedroom-living-room-flat-available/</t>
         </is>
       </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -5888,6 +7018,11 @@
           <t>https://www.findahome.hu/ingatlanok/furedi-residential-area-unfurnished-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -5912,6 +7047,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-hatvani-istvan-street-2-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -5936,6 +7076,11 @@
           <t>https://www.findahome.hu/ingatlanok/thomas-mann-street-stylish-modern-1-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -5960,6 +7105,11 @@
           <t>https://www.findahome.hu/ingatlanok/bem-ter-new-building-1-bedroom-living-room-flat-available-2/</t>
         </is>
       </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -5984,6 +7134,11 @@
           <t>https://www.findahome.hu/ingatlanok/honved-street-1-bedroom-living-room-unfurnished/</t>
         </is>
       </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -6008,6 +7163,11 @@
           <t>https://www.findahome.hu/ingatlanok/damjanich-street-close-to-kassai-brand-new-2-rooms-flat-available/</t>
         </is>
       </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -6032,6 +7192,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-bem-ter-2-bedroom-living-room/</t>
         </is>
       </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -6056,6 +7221,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-bethlen-street-1-bedroom-lving-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -6080,6 +7250,11 @@
           <t>https://www.findahome.hu/ingatlanok/hadhazi-ut-2-bedroom-living-room-dining-area-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -6104,6 +7279,11 @@
           <t>https://www.findahome.hu/ingatlanok/pechy-mihaly-street-5-min-from-the-uni-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -6128,6 +7308,11 @@
           <t>https://www.findahome.hu/ingatlanok/vezer-street-2-bedroom-living-room-flat/</t>
         </is>
       </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -6152,6 +7337,11 @@
           <t>https://www.findahome.hu/ingatlanok/for-rent-at-debrecen-poroszlay-street/</t>
         </is>
       </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -6176,6 +7366,11 @@
           <t>https://www.findahome.hu/ingatlanok/bem-ter-new-building-1-bedroom-living-room-flat-available/</t>
         </is>
       </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -6200,6 +7395,11 @@
           <t>https://www.findahome.hu/ingatlanok/mikszath-street-very-close-to-uni-modern-2-rooms-flat-available/</t>
         </is>
       </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -6224,6 +7424,11 @@
           <t>https://www.findahome.hu/ingatlanok/city-center-cozy-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -6248,6 +7453,11 @@
           <t>https://www.findahome.hu/ingatlanok/furedi-street-2-rooms-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -6272,6 +7482,11 @@
           <t>https://www.findahome.hu/ingatlanok/egyetem-sugarut-2-separated-room-fully-furnsihed-and-equipped-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -6296,6 +7511,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-furedi-residential-46-sqm-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -6320,6 +7540,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-csapo-street-unfurnished-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -6344,6 +7569,11 @@
           <t>https://www.findahome.hu/ingatlanok/1-bedroom-living-room-flat-for-rent-in-the-city-center/</t>
         </is>
       </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -6368,6 +7598,11 @@
           <t>https://www.findahome.hu/ingatlanok/1-bedroomliving-room-freshly-renovated-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -6392,6 +7627,11 @@
           <t>https://www.findahome.hu/ingatlanok/1-bedroom-living-room-flat-for-rent-6/</t>
         </is>
       </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -6416,6 +7656,11 @@
           <t>https://www.findahome.hu/ingatlanok/kiado-haz-a-budai-nagy-antal-utcan/</t>
         </is>
       </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -6440,6 +7685,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-poroszlay-street-1-bedroom-living-room-flat-for-rent-2/</t>
         </is>
       </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -6464,6 +7714,11 @@
           <t>https://www.findahome.hu/ingatlanok/furedi-residential-area-flat-for-rent-3/</t>
         </is>
       </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -6488,6 +7743,11 @@
           <t>https://www.findahome.hu/ingatlanok/flat-for-rent-simonffy-utca/</t>
         </is>
       </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -6512,6 +7772,11 @@
           <t>https://www.findahome.hu/ingatlanok/city-center-new-building-1-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -6536,6 +7801,11 @@
           <t>https://www.findahome.hu/ingatlanok/studio-apartment-for-rent/</t>
         </is>
       </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -6560,6 +7830,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-dozsa-gyorgy-1-bedroom-living-room/</t>
         </is>
       </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -6584,6 +7859,11 @@
           <t>https://www.findahome.hu/ingatlanok/egyetem-sugarut-1-bedroom-living-room-flat-for-rent-2/</t>
         </is>
       </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -6608,6 +7888,11 @@
           <t>https://www.findahome.hu/ingatlanok/liszt-ferenc-street-1bedroomliving-room-modern-flat-is-available/</t>
         </is>
       </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -6632,6 +7917,11 @@
           <t>https://www.findahome.hu/ingatlanok/doczy-residential-area-modern-studio-flat-is-available/</t>
         </is>
       </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -6656,6 +7946,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-city-center-close-to-the-otemeto-campus-1-room-apartment-for-rent/</t>
         </is>
       </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -6680,6 +7975,11 @@
           <t>https://www.findahome.hu/ingatlanok/flat-for-rent-kurtgyarmat-utca/</t>
         </is>
       </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -6704,6 +8004,11 @@
           <t>https://www.findahome.hu/ingatlanok/near-the-uni-new-modern-1-bedroom-living-room-flat-available/</t>
         </is>
       </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -6728,6 +8033,11 @@
           <t>https://www.findahome.hu/ingatlanok/cozy-flat-for-rent-in-bem-ter/</t>
         </is>
       </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -6752,6 +8062,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-viola-street-1-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -6776,6 +8091,11 @@
           <t>https://www.findahome.hu/ingatlanok/in-the-middle-of-the-city-center-modern-studio-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -6794,6 +8114,11 @@
           <t>https://www.greatforest.hu/property/84773-debrecen-close-to-plaza-office-not-in-office-building</t>
         </is>
       </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -6818,6 +8143,11 @@
           <t>https://www.findahome.hu/ingatlanok/1-bedroom-livin-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -6842,6 +8172,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-poroszlay-street-flat-for-rent-with-three-separated-rooms/</t>
         </is>
       </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -6866,6 +8201,11 @@
           <t>https://www.findahome.hu/ingatlanok/2-bedrooms-flat-for-rent-close-to-uni/</t>
         </is>
       </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -6890,6 +8230,11 @@
           <t>https://www.findahome.hu/ingatlanok/parizsi-udvar-cozy1-bedroom-living-room-flat-available-for-rent/</t>
         </is>
       </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -6914,6 +8259,11 @@
           <t>https://www.findahome.hu/ingatlanok/peterfia-corner-brand-new-1-bedroomliving-room-flat-is-available/</t>
         </is>
       </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -6938,6 +8288,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-hatvani-istvan-street-1-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -6962,6 +8317,11 @@
           <t>https://www.findahome.hu/ingatlanok/11241/</t>
         </is>
       </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -6986,6 +8346,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-gardonyi-geza-street-new-building-1-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -7010,6 +8375,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-poroszlay-street-2-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -7034,6 +8404,11 @@
           <t>https://www.findahome.hu/ingatlanok/2-bedroom-living-room-close-to-kassai-campus-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -7058,6 +8433,11 @@
           <t>https://www.findahome.hu/ingatlanok/lilla-koz-2-bedroomsliving-room-flat-is-available/</t>
         </is>
       </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -7082,6 +8462,11 @@
           <t>https://www.findahome.hu/ingatlanok/furedi-residential-area-brand-new-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -7106,6 +8491,11 @@
           <t>https://www.findahome.hu/ingatlanok/kiado-lakas-jeriko-utcan/</t>
         </is>
       </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -7130,6 +8520,11 @@
           <t>https://www.findahome.hu/ingatlanok/furedi-residental-area-brand-new-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -7154,6 +8549,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-bekessy-bela-street-58-sqm-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -7178,6 +8578,11 @@
           <t>https://www.findahome.hu/ingatlanok/flat-fro-rent-only-3-mins-from-the-uni/</t>
         </is>
       </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -7202,6 +8607,11 @@
           <t>https://www.findahome.hu/ingatlanok/flat-for-rent-close-to-agricultural-building/</t>
         </is>
       </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -7226,6 +8636,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-honved-street-2-bedroom-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -7250,6 +8665,11 @@
           <t>https://www.findahome.hu/ingatlanok/apartment-for-rent-on-rakovszky-daniel-street/</t>
         </is>
       </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -7274,6 +8694,11 @@
           <t>https://www.findahome.hu/ingatlanok/for-rent-at-debrecen-hadhazi-ut/</t>
         </is>
       </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -7292,6 +8717,11 @@
           <t>https://www.greatforest.hu/property/100624-debrecen-city-center-part-of-a-house</t>
         </is>
       </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -7316,6 +8746,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-egyetem-sugarut-1-bedroom-living-room-flat-for-rent-2/</t>
         </is>
       </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -7334,6 +8769,11 @@
           <t>https://www.greatforest.hu/property/100649-debrecen-city-center-office-not-in-office-building</t>
         </is>
       </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -7358,6 +8798,11 @@
           <t>https://www.findahome.hu/ingatlanok/egyetem-sugarut-2-bedroom-living-room-flat-available-for-rent/</t>
         </is>
       </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -7382,6 +8827,11 @@
           <t>https://www.findahome.hu/ingatlanok/civis-street-modern-2-rooms-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -7406,6 +8856,11 @@
           <t>https://www.findahome.hu/ingatlanok/close-to-uni-flat-for-rent-3/</t>
         </is>
       </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -7430,6 +8885,11 @@
           <t>https://www.findahome.hu/ingatlanok/egyetem-sugarut-cozy-1bedroomliving-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -7454,6 +8914,11 @@
           <t>https://www.findahome.hu/ingatlanok/kossuth-street-in-city-center-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -7478,6 +8943,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-furedi-street-at-the-malom-park-tram-2-2-bedroom-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -7502,6 +8972,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-oszirozsa-koz-egyetem-sugarut-1-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -7526,6 +9001,11 @@
           <t>https://www.findahome.hu/ingatlanok/eotvos-street-2-bedroomliving-room-flat-is-available/</t>
         </is>
       </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -7550,6 +9030,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-hortobagy-street-1-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -7574,6 +9059,11 @@
           <t>https://www.findahome.hu/ingatlanok/1-bedroom-living-room-5-min-from-the-uni-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -7598,6 +9088,11 @@
           <t>https://www.findahome.hu/ingatlanok/flat-for-rent-at-piac-street-50-sqm/</t>
         </is>
       </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -7622,6 +9117,11 @@
           <t>https://www.findahome.hu/ingatlanok/csapo-street-2-bedrooms-flat-for-long-term-rent/</t>
         </is>
       </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -7646,6 +9146,11 @@
           <t>https://www.findahome.hu/ingatlanok/2-bedroom-and-living-room-flat-for-rent-palma-restaurant/</t>
         </is>
       </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -7670,6 +9175,11 @@
           <t>https://www.findahome.hu/ingatlanok/flar-for-rent-kassai-ut/</t>
         </is>
       </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
@@ -7694,6 +9204,11 @@
           <t>https://www.findahome.hu/ingatlanok/csanak-street-1-bedroomliving-room-flat-is-available/</t>
         </is>
       </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -7718,6 +9233,11 @@
           <t>https://www.findahome.hu/ingatlanok/andahazi-street-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -7742,6 +9262,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-vorosmarti-utca-1-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
@@ -7766,6 +9291,11 @@
           <t>https://www.findahome.hu/ingatlanok/brand-new-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
@@ -7790,6 +9320,11 @@
           <t>https://www.findahome.hu/ingatlanok/1-bedroom-living-room-flat-for-rent-3/</t>
         </is>
       </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
@@ -7814,6 +9349,11 @@
           <t>https://www.findahome.hu/ingatlanok/2-bedroom-apartment-only-2-mins-from-the-uni-main-building/</t>
         </is>
       </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
@@ -7838,6 +9378,11 @@
           <t>https://www.findahome.hu/ingatlanok/city-centre-halkoz-1-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -7862,6 +9407,11 @@
           <t>https://www.findahome.hu/ingatlanok/lehel-street-apartment-for-rent/</t>
         </is>
       </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
@@ -7886,6 +9436,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-civis-utca-2-bedroomdining-area-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
@@ -7910,6 +9465,11 @@
           <t>https://www.findahome.hu/ingatlanok/doczy-street-new-modern-1-bedroom-living-room-apartment-for-rent/</t>
         </is>
       </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
@@ -7934,6 +9494,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-heart-of-the-city-1-bedroom-living-room-flat-available-for-long-term-rent/</t>
         </is>
       </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
@@ -7958,6 +9523,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-egyetem-sugarut-1-minute-from-the-uni-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
@@ -7982,6 +9552,11 @@
           <t>https://www.findahome.hu/ingatlanok/furedi-residential-area-flat-for-rent-4/</t>
         </is>
       </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -8006,6 +9581,11 @@
           <t>https://www.findahome.hu/ingatlanok/lilla-koz-newly-built-3-bedroom-living-room-flat-available-for-rent/</t>
         </is>
       </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -8030,6 +9610,11 @@
           <t>https://www.findahome.hu/ingatlanok/poroszlay-street-a-few-minutes-from-the-uni-brand-new-flat-available/</t>
         </is>
       </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
@@ -8054,6 +9639,11 @@
           <t>https://www.findahome.hu/ingatlanok/halkoz-city-center-2-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
@@ -8078,6 +9668,11 @@
           <t>https://www.findahome.hu/ingatlanok/mikszath-kalman-street-close-to-uni-flat-for-rent-3/</t>
         </is>
       </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
@@ -8102,6 +9697,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-andahazi-street-55-sqm-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
@@ -8126,6 +9726,11 @@
           <t>https://www.findahome.hu/ingatlanok/laktanya-street-3-rooms-flat-available-for-rent/</t>
         </is>
       </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
@@ -8150,6 +9755,11 @@
           <t>https://www.findahome.hu/ingatlanok/cozy-falt-in-city-center-for-rent/</t>
         </is>
       </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
@@ -8174,6 +9784,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-mediterran-area-1-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
@@ -8198,6 +9813,11 @@
           <t>https://www.findahome.hu/ingatlanok/bethlen-street-beatiful-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
@@ -8222,6 +9842,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-ker-street-2-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
@@ -8246,6 +9871,11 @@
           <t>https://www.findahome.hu/ingatlanok/dozcy-park-1-min-from-the-uni-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
@@ -8270,6 +9900,11 @@
           <t>https://www.findahome.hu/ingatlanok/liszt-ferenc-street-city-center-modern-flat-is-available/</t>
         </is>
       </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
@@ -8294,6 +9929,11 @@
           <t>https://www.findahome.hu/ingatlanok/doczy-park-1-min-from-the-uni-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
@@ -8318,6 +9958,11 @@
           <t>https://www.findahome.hu/ingatlanok/csapo-street-2-bedroomsliving-room-flat-is-available/</t>
         </is>
       </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
@@ -8342,6 +9987,11 @@
           <t>https://www.findahome.hu/ingatlanok/piac-street-new-cozy-1-bedroom-flat-for-one-person-or-a-couple/</t>
         </is>
       </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
@@ -8366,6 +10016,11 @@
           <t>https://www.findahome.hu/ingatlanok/city-center-new-building-modern-high-quality-1-bedroom-living-room-flat/</t>
         </is>
       </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
@@ -8390,6 +10045,11 @@
           <t>https://www.findahome.hu/ingatlanok/elegant-minimal-style-home-in-absolute-city-center-for-long-term-rent/</t>
         </is>
       </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
@@ -8414,6 +10074,11 @@
           <t>https://www.findahome.hu/ingatlanok/poroszlay-street-brand-new-2-bedrooms-apartment-for-rent/</t>
         </is>
       </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
@@ -8438,6 +10103,11 @@
           <t>https://www.findahome.hu/ingatlanok/doczy-park-2-min-from-the-uni-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
@@ -8462,6 +10132,11 @@
           <t>https://www.findahome.hu/ingatlanok/vas-gereben-street-2-bedroom-3-living-room-dining-area-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
@@ -8486,6 +10161,11 @@
           <t>https://www.findahome.hu/ingatlanok/city-center-3-separated-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
@@ -8510,6 +10190,11 @@
           <t>https://www.findahome.hu/ingatlanok/otvenhatosok-tere-between-med-agriculture-uni-renovated-nice-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
@@ -8534,6 +10219,11 @@
           <t>https://www.findahome.hu/ingatlanok/csapo-street-city-center-2-bedroomsliving-room-flat-is-available/</t>
         </is>
       </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
@@ -8558,6 +10248,11 @@
           <t>https://www.findahome.hu/ingatlanok/csapo-street-city-center-2-bedrooms-living-room-flat-available/</t>
         </is>
       </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
@@ -8582,6 +10277,11 @@
           <t>https://www.findahome.hu/ingatlanok/flat-for-rent-varga-utca/</t>
         </is>
       </c>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
@@ -8606,6 +10306,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-city-center-next-to-the-forum-51-sqm-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
@@ -8630,6 +10335,11 @@
           <t>https://debrecenrent.hu/for-rent/flat/debrecen-kossuth-utca/219810/</t>
         </is>
       </c>
+      <c r="G342" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
@@ -8654,6 +10364,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-komlossy-street-2-separate-room-guest-study-room-available-for-rent/</t>
         </is>
       </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
@@ -8678,6 +10393,11 @@
           <t>https://www.findahome.hu/ingatlanok/bolyai-street-wlaking-disctance-from-the-uni-modern-flat-is-available/</t>
         </is>
       </c>
+      <c r="G344" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
@@ -8702,6 +10422,11 @@
           <t>https://www.findahome.hu/ingatlanok/forumhoz-kozeli-lakas-kiado/</t>
         </is>
       </c>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
@@ -8726,6 +10451,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-heart-of-the-city-1-min-from-the-yellow-church/</t>
         </is>
       </c>
+      <c r="G346" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
@@ -8750,6 +10480,11 @@
           <t>https://debrecenrent.hu/for-rent/flat/debrecen-derek-utca/220128/</t>
         </is>
       </c>
+      <c r="G347" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
@@ -8774,6 +10509,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-city-center-2-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G348" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
@@ -8798,6 +10538,11 @@
           <t>https://www.findahome.hu/ingatlanok/vasary-istvan-street-2-separate-room-flat-for-sale/</t>
         </is>
       </c>
+      <c r="G349" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
@@ -8822,6 +10567,11 @@
           <t>https://www.findahome.hu/ingatlanok/domokos-lajos-street-2-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G350" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
@@ -8846,6 +10596,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-end-of-the-hadhazi-street-3-separate-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G351" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
@@ -8870,6 +10625,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-hadhazi-street-2-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G352" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
@@ -8888,6 +10648,11 @@
           <t>https://www.greatforest.hu/property/100631-debrecen-flat</t>
         </is>
       </c>
+      <c r="G353" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
@@ -8912,6 +10677,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-nagyerdei-korut-1-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G354" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
@@ -8936,6 +10706,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-poroszlay-street-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
@@ -8960,6 +10735,11 @@
           <t>https://www.findahome.hu/ingatlanok/komlossy-street-very-close-to-medical-school-modern-1-bedroom-study-room-living-room-apartment-for-rent/</t>
         </is>
       </c>
+      <c r="G356" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
@@ -8984,6 +10764,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-city-center-1-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G357" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
@@ -9008,6 +10793,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-nagy-lajos-kiraly-ter-1-bedroom-living-room-youthful-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G358" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
@@ -9032,6 +10822,11 @@
           <t>https://debrecenrent.hu/for-rent/flat/debrecen-batthyany-utca/219726/</t>
         </is>
       </c>
+      <c r="G359" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
@@ -9056,6 +10851,11 @@
           <t>https://www.findahome.hu/ingatlanok/kiado-csaladi-haz-a-bathori-utcan/</t>
         </is>
       </c>
+      <c r="G360" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
@@ -9080,6 +10880,11 @@
           <t>https://www.findahome.hu/ingatlanok/close-to-doberdo-3-bedroomsliving-room-flat-is-available/</t>
         </is>
       </c>
+      <c r="G361" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
@@ -9104,6 +10909,11 @@
           <t>https://debrecenrent.hu/for-rent/flat/debrecen-bem-ter/169681/</t>
         </is>
       </c>
+      <c r="G362" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
@@ -9128,6 +10938,11 @@
           <t>https://debrecenrent.hu/for-rent/flat/debrecen-csapo-utca/212757/</t>
         </is>
       </c>
+      <c r="G363" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
@@ -9152,6 +10967,11 @@
           <t>https://www.findahome.hu/ingatlanok/gyongyosi-street-beside-melnage-1-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G364" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
@@ -9176,6 +10996,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-kardos-albert-street-2-separate-rooms-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G365" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
@@ -9200,6 +11025,11 @@
           <t>https://www.findahome.hu/ingatlanok/flat-for-rent-in-venkert/</t>
         </is>
       </c>
+      <c r="G366" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
@@ -9224,6 +11054,11 @@
           <t>https://www.findahome.hu/ingatlanok/flat-for-rent-on-klaipeda-street/</t>
         </is>
       </c>
+      <c r="G367" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
@@ -9248,6 +11083,11 @@
           <t>https://www.findahome.hu/ingatlanok/well-equipped-new-apartmentstudio-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G368" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
@@ -9272,6 +11112,11 @@
           <t>https://www.findahome.hu/ingatlanok/thomas-mann-street-beautiful-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G369" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
@@ -9290,6 +11135,11 @@
           <t>https://www.greatforest.hu/property/22810-debrecen-close-to-main-campus-flat</t>
         </is>
       </c>
+      <c r="G370" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
@@ -9314,6 +11164,11 @@
           <t>https://www.findahome.hu/ingatlanok/darabos-street-1-min-from-plaza-2-rooms-flat-available-for-rent/</t>
         </is>
       </c>
+      <c r="G371" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
@@ -9338,6 +11193,11 @@
           <t>https://www.findahome.hu/ingatlanok/fully-furnished-and-equipped-2-separate-room-apafi-street-for-rent/</t>
         </is>
       </c>
+      <c r="G372" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
@@ -9362,6 +11222,11 @@
           <t>https://www.findahome.hu/ingatlanok/gorgey-street-near-uni-2-rooms-flat-availabe-for-rent/</t>
         </is>
       </c>
+      <c r="G373" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
@@ -9386,6 +11251,11 @@
           <t>https://www.findahome.hu/ingatlanok/vezer-street-spacious-2-bedroom-living-room-flat-available/</t>
         </is>
       </c>
+      <c r="G374" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
@@ -9410,6 +11280,11 @@
           <t>https://www.findahome.hu/ingatlanok/gorgey-utca-150/</t>
         </is>
       </c>
+      <c r="G375" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
@@ -9434,6 +11309,11 @@
           <t>https://www.findahome.hu/ingatlanok/1-halo-nappalis-47-nm-es-kiado-lakas/</t>
         </is>
       </c>
+      <c r="G376" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
@@ -9458,6 +11338,11 @@
           <t>https://www.findahome.hu/ingatlanok/3-bedrooms-living-room-flat-close-to-the-kassai-campus/</t>
         </is>
       </c>
+      <c r="G377" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
@@ -9482,6 +11367,11 @@
           <t>https://www.findahome.hu/ingatlanok/three-rooms-flat-for-rent-at-vasvari-pal-street/</t>
         </is>
       </c>
+      <c r="G378" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
@@ -9506,6 +11396,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-santa-kalman-street-2-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G379" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
@@ -9530,6 +11425,11 @@
           <t>https://www.findahome.hu/ingatlanok/poroszlay-street-cozy-1bedroomliving-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G380" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
@@ -9554,6 +11454,11 @@
           <t>https://www.findahome.hu/ingatlanok/flat-for-rent-debrecen-honved-street/</t>
         </is>
       </c>
+      <c r="G381" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
@@ -9572,6 +11477,11 @@
           <t>https://www.greatforest.hu/property/51448-debrecen-close-to-kassai-campus-office-not-in-office-building</t>
         </is>
       </c>
+      <c r="G382" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
@@ -9590,6 +11500,11 @@
           <t>https://www.greatforest.hu/property/65443-debrecen-city-west-office-in-office-building</t>
         </is>
       </c>
+      <c r="G383" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
@@ -9614,6 +11529,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-garai-street-1-bedroom-living-room-50sqm/</t>
         </is>
       </c>
+      <c r="G384" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
@@ -9638,6 +11558,11 @@
           <t>https://www.findahome.hu/ingatlanok/nagyerdei-korut-few-minutes-from-uni-brand-new-1-bedroom-living-room-flat-available/</t>
         </is>
       </c>
+      <c r="G385" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
@@ -9662,6 +11587,11 @@
           <t>https://www.findahome.hu/ingatlanok/modern-flat-in-nagy-lajos-kiraly-square/</t>
         </is>
       </c>
+      <c r="G386" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
@@ -9686,6 +11616,11 @@
           <t>https://www.findahome.hu/ingatlanok/poroszlay-street-cozy-flat-for-rent-5-min-from-the-uni/</t>
         </is>
       </c>
+      <c r="G387" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
@@ -9710,6 +11645,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-city-center-new-building-1-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G388" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
@@ -9734,6 +11674,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-komlossy-street-1-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G389" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
@@ -9758,6 +11703,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-simonffy-street-1-bedroom-living-room/</t>
         </is>
       </c>
+      <c r="G390" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
@@ -9782,6 +11732,11 @@
           <t>https://www.findahome.hu/ingatlanok/city-center-bajcsy-zsilinszky-street-2-spacious-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G391" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
@@ -9806,6 +11761,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-hatvani-istvan-street-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G392" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
@@ -9830,6 +11790,11 @@
           <t>https://debrecenrent.hu/for-rent/flat/debrecen-dozsa-gyorgy-utca/218362/</t>
         </is>
       </c>
+      <c r="G393" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
@@ -9854,6 +11819,11 @@
           <t>https://debrecenrent.hu/for-rent/flat/debrecen-thomas-mann-utca/186723/</t>
         </is>
       </c>
+      <c r="G394" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
@@ -9878,6 +11848,11 @@
           <t>https://www.findahome.hu/ingatlanok/poroszlay-street-very-close-to-uni-3-bedroom-living-room-flat-available/</t>
         </is>
       </c>
+      <c r="G395" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
@@ -9902,6 +11877,11 @@
           <t>https://www.findahome.hu/ingatlanok/peterfia-corner-stylish-modern-1-bedroomliving-room-flat-is-available/</t>
         </is>
       </c>
+      <c r="G396" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
@@ -9926,6 +11906,11 @@
           <t>https://www.findahome.hu/ingatlanok/office-for-rent/</t>
         </is>
       </c>
+      <c r="G397" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
@@ -9950,6 +11935,11 @@
           <t>https://www.findahome.hu/ingatlanok/flat-for-rent-in-tocovolgy/</t>
         </is>
       </c>
+      <c r="G398" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
@@ -9974,6 +11964,11 @@
           <t>https://www.findahome.hu/ingatlanok/cozy-1-bedroom-living-room-flat-for-rent-2/</t>
         </is>
       </c>
+      <c r="G399" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
@@ -9998,6 +11993,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-bolyai-street-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G400" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
@@ -10022,6 +12022,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-arany-janos-street-3-bedrooms-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G401" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
@@ -10046,6 +12051,11 @@
           <t>https://www.findahome.hu/ingatlanok/flat-for-rent-in-poroszlay-street/</t>
         </is>
       </c>
+      <c r="G402" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
@@ -10070,6 +12080,11 @@
           <t>https://www.findahome.hu/ingatlanok/2-bedroom-living-room-flat-for-rent-only-one-min-from-tram-line-2/</t>
         </is>
       </c>
+      <c r="G403" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
@@ -10094,6 +12109,11 @@
           <t>https://www.findahome.hu/ingatlanok/doczy-street-right-beside-the-uni-2-bedroom-living-room-flat/</t>
         </is>
       </c>
+      <c r="G404" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
@@ -10118,6 +12138,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-viola-street-1-bedroom-living-room-flat-fo-rent/</t>
         </is>
       </c>
+      <c r="G405" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
@@ -10142,6 +12167,11 @@
           <t>https://www.findahome.hu/ingatlanok/doczy-park-brand-new-exclusive-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G406" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
@@ -10166,6 +12196,11 @@
           <t>https://www.findahome.hu/ingatlanok/kiado-lakas-az-ispotaly-utcan/</t>
         </is>
       </c>
+      <c r="G407" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
@@ -10190,6 +12225,11 @@
           <t>https://www.findahome.hu/ingatlanok/darabos-street-3-bedrooms-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G408" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
@@ -10214,6 +12254,11 @@
           <t>https://www.findahome.hu/ingatlanok/2-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G409" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
@@ -10238,6 +12283,11 @@
           <t>https://www.findahome.hu/ingatlanok/poroszlay-street-new-building-modern-2-bedroom-and-living-room-flat-available/</t>
         </is>
       </c>
+      <c r="G410" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
@@ -10262,6 +12312,11 @@
           <t>https://www.findahome.hu/ingatlanok/2-bedroom-living-room-flat-for-rent-close-to-uni/</t>
         </is>
       </c>
+      <c r="G411" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
@@ -10286,6 +12341,11 @@
           <t>https://www.findahome.hu/ingatlanok/close-to-the-otemeto-and-kassai-campus-3-separate-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G412" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
@@ -10310,6 +12370,11 @@
           <t>https://www.findahome.hu/ingatlanok/flat-for-rent-derek-utca/</t>
         </is>
       </c>
+      <c r="G413" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
@@ -10334,6 +12399,11 @@
           <t>https://debrecenrent.hu/for-rent/flat/debrecen-kartacs-utca/219619/</t>
         </is>
       </c>
+      <c r="G414" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
@@ -10358,6 +12428,11 @@
           <t>https://debrecenrent.hu/for-rent/flat/debrecen-arany-janos-utca/214264/</t>
         </is>
       </c>
+      <c r="G415" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
@@ -10382,6 +12457,11 @@
           <t>https://debrecenrent.hu/for-rent/flat/debrecen-kassai-ut/219562/</t>
         </is>
       </c>
+      <c r="G416" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
@@ -10406,6 +12486,11 @@
           <t>https://www.findahome.hu/ingatlanok/1-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G417" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
@@ -10430,6 +12515,11 @@
           <t>https://www.findahome.hu/ingatlanok/in-the-heart-of-the-city-2-spacious-room-for-rent/</t>
         </is>
       </c>
+      <c r="G418" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
@@ -10454,6 +12544,11 @@
           <t>https://www.findahome.hu/ingatlanok/flat-for-rent-near-to-the-university-at-poroszlay-street/</t>
         </is>
       </c>
+      <c r="G419" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
@@ -10478,6 +12573,11 @@
           <t>https://www.findahome.hu/ingatlanok/poroszlay-street-2-bedrooms-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G420" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
@@ -10502,6 +12602,11 @@
           <t>https://www.findahome.hu/ingatlanok/exclusive-flat-available-near-to-the-university/</t>
         </is>
       </c>
+      <c r="G421" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
@@ -10520,6 +12625,11 @@
           <t>https://www.greatforest.hu/property/100442-debrecen-city-center-part-of-a-house</t>
         </is>
       </c>
+      <c r="G422" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
@@ -10544,6 +12654,11 @@
           <t>https://www.findahome.hu/ingatlanok/parizsi-udvar-1-bedroom-living-room-modern-apartment-for-rent/</t>
         </is>
       </c>
+      <c r="G423" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
@@ -10568,6 +12683,11 @@
           <t>https://www.findahome.hu/ingatlanok/close-to-bem-ter-and-city-center-2-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G424" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
@@ -10592,6 +12712,11 @@
           <t>https://www.findahome.hu/ingatlanok/mester-street-close-to-tram-2-new-building-2-bedroom-living-room-apartment-for-rent/</t>
         </is>
       </c>
+      <c r="G425" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
@@ -10616,6 +12741,11 @@
           <t>https://www.findahome.hu/ingatlanok/spaceous-2-floor-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G426" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
@@ -10634,6 +12764,11 @@
           <t>https://www.greatforest.hu/property/101057-debrecen-flat</t>
         </is>
       </c>
+      <c r="G427" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
@@ -10658,6 +12793,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-bolyai-street-1-bedroom-living-room-57-sqm/</t>
         </is>
       </c>
+      <c r="G428" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
@@ -10682,6 +12822,11 @@
           <t>https://www.findahome.hu/ingatlanok/mikszath-street-close-to-uni-2-bedroom-living-room-modern-apartment-for-rent/</t>
         </is>
       </c>
+      <c r="G429" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
@@ -10706,6 +12851,11 @@
           <t>https://www.findahome.hu/ingatlanok/doczy-street-2-bedroom-separated-living-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G430" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
@@ -10730,6 +12880,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-doczy-park1-bedroom-living-room-apartment-for-rent/</t>
         </is>
       </c>
+      <c r="G431" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
@@ -10754,6 +12909,11 @@
           <t>https://www.findahome.hu/ingatlanok/city-center-cozy-modern-1-bedroom-living-room-apartment-for-rent/</t>
         </is>
       </c>
+      <c r="G432" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
@@ -10778,6 +12938,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-city-center-2-bedroom-living-room-flat-for-rent-2/</t>
         </is>
       </c>
+      <c r="G433" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
@@ -10802,6 +12967,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-simonyi-street-2-separate-room-flat-for-rent-at-a-tram-1/</t>
         </is>
       </c>
+      <c r="G434" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
@@ -10826,6 +12996,11 @@
           <t>https://www.findahome.hu/ingatlanok/2-halo-nappalis-68-nm-es-kiado-lakas/</t>
         </is>
       </c>
+      <c r="G435" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
@@ -10844,6 +13019,11 @@
           <t>https://www.greatforest.hu/property/54030-debrecen-greatforest-area-flat</t>
         </is>
       </c>
+      <c r="G436" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
@@ -10868,6 +13048,11 @@
           <t>https://www.findahome.hu/ingatlanok/honved-street-fully-renovated-modern-flat-is-available/</t>
         </is>
       </c>
+      <c r="G437" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
@@ -10892,6 +13077,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-next-to-the-plaza-3-separate-rooms-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G438" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
@@ -10916,6 +13106,11 @@
           <t>https://www.findahome.hu/ingatlanok/doczy-jozsef-street-2-bedroom-living-room-cozy-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G439" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
@@ -10940,6 +13135,11 @@
           <t>https://www.findahome.hu/ingatlanok/brand-new-apartment-for-rent-inthe-city-center/</t>
         </is>
       </c>
+      <c r="G440" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
@@ -10964,6 +13164,11 @@
           <t>https://debrecenrent.hu/for-rent/flat/debrecen-gyolcsos-utca/215897/</t>
         </is>
       </c>
+      <c r="G441" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
@@ -10988,6 +13193,11 @@
           <t>https://debrecenrent.hu/for-rent/flat/debrecen-hatvan-utca/219640/</t>
         </is>
       </c>
+      <c r="G442" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
@@ -11012,6 +13222,11 @@
           <t>https://www.findahome.hu/ingatlanok/csanak-street-modern-cozy-flat-for-long-term-rent/</t>
         </is>
       </c>
+      <c r="G443" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
@@ -11036,6 +13251,11 @@
           <t>https://www.findahome.hu/ingatlanok/heart-of-the-city-2-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G444" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
@@ -11054,6 +13274,11 @@
           <t>https://www.greatforest.hu/property/100954-debrecen-city-center-flat</t>
         </is>
       </c>
+      <c r="G445" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
@@ -11078,6 +13303,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-in-the-heart-of-the-city-60-sqm-brand-new-vintage-style-renovated-flat-available-for-rent/</t>
         </is>
       </c>
+      <c r="G446" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
@@ -11102,6 +13332,11 @@
           <t>https://www.findahome.hu/ingatlanok/doczy-park-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G447" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
@@ -11126,6 +13361,11 @@
           <t>https://www.findahome.hu/ingatlanok/egyetem-sugarutcozy-2bedroomliving-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G448" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
@@ -11150,6 +13390,11 @@
           <t>https://www.findahome.hu/ingatlanok/city-center-2-bedroom-living-room-flat-for-rent-2/</t>
         </is>
       </c>
+      <c r="G449" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
@@ -11174,6 +13419,11 @@
           <t>https://www.findahome.hu/ingatlanok/flat-for-rent-akademia-street/</t>
         </is>
       </c>
+      <c r="G450" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
@@ -11198,6 +13448,11 @@
           <t>https://www.findahome.hu/ingatlanok/doczy-residential-area-47-sqm-1-bedroom-living-room-apartment-for-rent/</t>
         </is>
       </c>
+      <c r="G451" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
@@ -11222,6 +13477,11 @@
           <t>https://www.findahome.hu/ingatlanok/egyetem-sugarut-modern-2-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G452" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
@@ -11246,6 +13506,11 @@
           <t>https://www.findahome.hu/ingatlanok/egyetem-sugarut-new-modern-1-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G453" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
@@ -11270,6 +13535,11 @@
           <t>https://www.findahome.hu/ingatlanok/city-ceneter-1-bedroom-and-living-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G454" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
@@ -11294,6 +13564,11 @@
           <t>https://www.findahome.hu/ingatlanok/flat-for-rent-in-teleki-street/</t>
         </is>
       </c>
+      <c r="G455" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
@@ -11318,6 +13593,11 @@
           <t>https://www.findahome.hu/ingatlanok/poroszlay-street-modern-demanding-1-bedroom-living-room-flat-available/</t>
         </is>
       </c>
+      <c r="G456" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
@@ -11342,6 +13622,11 @@
           <t>https://www.findahome.hu/ingatlanok/parizsi-udvar-2-bedrooms-flat-available-for-rent/</t>
         </is>
       </c>
+      <c r="G457" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
@@ -11366,6 +13651,11 @@
           <t>https://www.findahome.hu/ingatlanok/2-bedroom-living-room-family-house-for-rent/</t>
         </is>
       </c>
+      <c r="G458" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
@@ -11390,6 +13680,11 @@
           <t>https://www.findahome.hu/ingatlanok/doczy-jozsef-street-2-bedroom-living-room-flat-for-rent-next-to-the-uni/</t>
         </is>
       </c>
+      <c r="G459" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
@@ -11414,6 +13709,11 @@
           <t>https://www.findahome.hu/ingatlanok/4-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G460" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
@@ -11438,6 +13738,11 @@
           <t>https://www.findahome.hu/ingatlanok/flat-for-rent-at-debrecen-doczi-park/</t>
         </is>
       </c>
+      <c r="G461" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
@@ -11462,6 +13767,11 @@
           <t>https://www.findahome.hu/ingatlanok/arany-residence-one-of-the-newest-building-luxurious-elegant-home-for-rent/</t>
         </is>
       </c>
+      <c r="G462" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
@@ -11486,6 +13796,11 @@
           <t>https://www.findahome.hu/ingatlanok/doczy-residential-area-1-bedroomliving-room-flat-is-available/</t>
         </is>
       </c>
+      <c r="G463" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
@@ -11510,6 +13825,11 @@
           <t>https://www.findahome.hu/ingatlanok/hatvani-istvan-street-brand-new-stylish-exclusive-1-bedroom-living-room-flat/</t>
         </is>
       </c>
+      <c r="G464" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
@@ -11534,6 +13854,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-city-center-next-to-the-plaza-1-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G465" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
@@ -11558,6 +13883,11 @@
           <t>https://www.findahome.hu/ingatlanok/zoldfa-utcan-butorozatlan-lakas-kiado/</t>
         </is>
       </c>
+      <c r="G466" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
@@ -11582,6 +13912,11 @@
           <t>https://www.findahome.hu/ingatlanok/2-bedroom-living-room-and-study-roomflat-for-rent/</t>
         </is>
       </c>
+      <c r="G467" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
@@ -11606,6 +13941,11 @@
           <t>https://www.findahome.hu/ingatlanok/2-bedroom-and-living-room-flat-for-rent-close-to-uni/</t>
         </is>
       </c>
+      <c r="G468" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
@@ -11630,6 +13970,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-karolyi-mihaly-street-2-bedroom1-livingroom-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G469" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
@@ -11654,6 +13999,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-doczy-park-1-bedroom-living-room-flat-for-rent-2/</t>
         </is>
       </c>
+      <c r="G470" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
@@ -11672,6 +14022,11 @@
           <t>https://www.greatforest.hu/property/101495-debrecen-greatforest-area-flat</t>
         </is>
       </c>
+      <c r="G471" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
@@ -11696,6 +14051,11 @@
           <t>https://www.findahome.hu/ingatlanok/doczy-lakopark-c-building-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G472" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
@@ -11720,6 +14080,11 @@
           <t>https://www.findahome.hu/ingatlanok/bem-ter-1-bedroom-living-room-flat-for-rent-2/</t>
         </is>
       </c>
+      <c r="G473" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
@@ -11744,6 +14109,11 @@
           <t>https://www.findahome.hu/ingatlanok/close-to-uni-stylish-exclusive-2-bedroom-living-room-apartment-for-rent/</t>
         </is>
       </c>
+      <c r="G474" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
@@ -11768,6 +14138,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-apafi-street-close-to-the-kassai-campus-1-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G475" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
@@ -11792,6 +14167,11 @@
           <t>https://www.findahome.hu/ingatlanok/new-building-2-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G476" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
@@ -11816,6 +14196,11 @@
           <t>https://www.findahome.hu/ingatlanok/near-melange-and-uni-1-bedroomliving-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G477" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
@@ -11840,6 +14225,11 @@
           <t>https://www.findahome.hu/ingatlanok/cozy-2-bedroom-and-living-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G478" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
@@ -11864,6 +14254,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-egyetem-sugarut-1-bedroom-living-room-stylish-apartament-for-rent/</t>
         </is>
       </c>
+      <c r="G479" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
@@ -11888,6 +14283,11 @@
           <t>https://www.findahome.hu/ingatlanok/honved-street-4-bedrooms-living-room-flat-available-for-rent/</t>
         </is>
       </c>
+      <c r="G480" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
@@ -11912,6 +14312,11 @@
           <t>https://www.findahome.hu/ingatlanok/nagyerdi-korut-1-bedroom-living-room-3-min-from-the-uni-renovated-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G481" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
@@ -11936,6 +14341,11 @@
           <t>https://www.findahome.hu/ingatlanok/parizsi-udvar-2-bedrooms-flat-available-for-rent-3/</t>
         </is>
       </c>
+      <c r="G482" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
@@ -11960,6 +14370,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-gorgey-street-2-separate-room-dining-area-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G483" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
@@ -11984,6 +14399,11 @@
           <t>https://www.findahome.hu/ingatlanok/egyetem-sugarut-2-bedroom-living-room-apartment-for-rent/</t>
         </is>
       </c>
+      <c r="G484" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
@@ -12008,6 +14428,11 @@
           <t>https://www.findahome.hu/ingatlanok/flat-for-rent-baross-utca/</t>
         </is>
       </c>
+      <c r="G485" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
@@ -12032,6 +14457,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-egyetemsugarut-modern-renovated-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G486" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
@@ -12056,6 +14486,11 @@
           <t>https://www.findahome.hu/ingatlanok/studio-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G487" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
@@ -12080,6 +14515,11 @@
           <t>https://www.findahome.hu/ingatlanok/boszormenyi-street-3-separate-room-dining-area-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G488" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
@@ -12104,6 +14544,11 @@
           <t>https://debrecenrent.hu/for-rent/flat/debrecen-szechenyi-utca/219233/</t>
         </is>
       </c>
+      <c r="G489" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
@@ -12128,6 +14573,11 @@
           <t>https://www.findahome.hu/ingatlanok/flat-for-rent-arany-janos-utca/</t>
         </is>
       </c>
+      <c r="G490" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
@@ -12152,6 +14602,11 @@
           <t>https://debrecenrent.hu/for-rent/flat/debrecen-peterfia-utca/215070/</t>
         </is>
       </c>
+      <c r="G491" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
@@ -12176,6 +14631,11 @@
           <t>https://www.findahome.hu/ingatlanok/hatvani-istvan-street-2-bedroom-living-room-cozy-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G492" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
@@ -12200,6 +14660,11 @@
           <t>https://www.findahome.hu/ingatlanok/dozsa-gyorgy-street-2-bedrooms-living-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G493" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
@@ -12224,6 +14689,11 @@
           <t>https://www.findahome.hu/ingatlanok/flat-for-rent-in-csapo-street/</t>
         </is>
       </c>
+      <c r="G494" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
@@ -12248,6 +14718,11 @@
           <t>https://www.findahome.hu/ingatlanok/parizsi-udvar-2-bedrooms-flat-available-for-rent-2/</t>
         </is>
       </c>
+      <c r="G495" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
@@ -12272,6 +14747,11 @@
           <t>https://www.findahome.hu/ingatlanok/flat-for-rent-hatvani-istvan-utca/</t>
         </is>
       </c>
+      <c r="G496" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
@@ -12296,6 +14776,11 @@
           <t>https://www.findahome.hu/ingatlanok/bem-ter-new-building-2-bedroom-living-room-modern-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G497" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
@@ -12320,6 +14805,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-lehel-bolyai-corner-1-bedroom-livibng-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G498" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
@@ -12344,6 +14834,11 @@
           <t>https://www.findahome.hu/ingatlanok/flat-for-rent-szechenyi-street/</t>
         </is>
       </c>
+      <c r="G499" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
@@ -12368,6 +14863,11 @@
           <t>https://www.findahome.hu/ingatlanok/city-center-2-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G500" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="501">
       <c r="A501" t="n">
@@ -12392,6 +14892,11 @@
           <t>https://www.findahome.hu/ingatlanok/nice-flat-in-the-city-center/</t>
         </is>
       </c>
+      <c r="G501" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="502">
       <c r="A502" t="n">
@@ -12416,6 +14921,11 @@
           <t>https://www.findahome.hu/ingatlanok/near-the-bem-ter-1-bedroom-livingroom-flat-for-long-term-rent/</t>
         </is>
       </c>
+      <c r="G502" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="503">
       <c r="A503" t="n">
@@ -12440,6 +14950,11 @@
           <t>https://www.findahome.hu/ingatlanok/furedi-residential-area-flat-for-rent-2/</t>
         </is>
       </c>
+      <c r="G503" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="504">
       <c r="A504" t="n">
@@ -12464,6 +14979,11 @@
           <t>https://www.findahome.hu/ingatlanok/mikszath-kalman-street-renovated-1-bedroomliving-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G504" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="505">
       <c r="A505" t="n">
@@ -12488,6 +15008,11 @@
           <t>https://www.findahome.hu/ingatlanok/1-bedroom-and-living-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G505" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="506">
       <c r="A506" t="n">
@@ -12512,6 +15037,11 @@
           <t>https://www.findahome.hu/ingatlanok/beautiful-1-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G506" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="507">
       <c r="A507" t="n">
@@ -12536,6 +15066,11 @@
           <t>https://www.findahome.hu/ingatlanok/3-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G507" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="508">
       <c r="A508" t="n">
@@ -12560,6 +15095,11 @@
           <t>https://www.findahome.hu/ingatlanok/2-bedroom-living-room-flat-for-rent-5/</t>
         </is>
       </c>
+      <c r="G508" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="509">
       <c r="A509" t="n">
@@ -12584,6 +15124,11 @@
           <t>https://www.findahome.hu/ingatlanok/luxury-cozy-home-in-poroszlay-street-new-building/</t>
         </is>
       </c>
+      <c r="G509" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="510">
       <c r="A510" t="n">
@@ -12608,6 +15153,11 @@
           <t>https://www.findahome.hu/ingatlanok/flat-for-rent-in-ketmalom-utca/</t>
         </is>
       </c>
+      <c r="G510" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="511">
       <c r="A511" t="n">
@@ -12632,6 +15182,11 @@
           <t>https://www.findahome.hu/ingatlanok/egyetem-sugarut-2-bedroom-living-room-apartment-for-rent-2/</t>
         </is>
       </c>
+      <c r="G511" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="512">
       <c r="A512" t="n">
@@ -12656,6 +15211,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-diofa-street-new-building-3-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G512" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="513">
       <c r="A513" t="n">
@@ -12680,6 +15240,11 @@
           <t>https://www.findahome.hu/ingatlanok/cozy-flat-for-rent-close-to-the-city-center/</t>
         </is>
       </c>
+      <c r="G513" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="514">
       <c r="A514" t="n">
@@ -12704,6 +15269,11 @@
           <t>https://www.findahome.hu/ingatlanok/csanak-street-very-close-to-tram-1-medical-school-cozy-modern-1-bedroom-apartment-for-rent/</t>
         </is>
       </c>
+      <c r="G514" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="515">
       <c r="A515" t="n">
@@ -12728,6 +15298,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-geresi-street-2-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G515" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="516">
       <c r="A516" t="n">
@@ -12752,6 +15327,11 @@
           <t>https://debrecenrent.hu/for-rent/flat/debrecen-nagyerdei-korut/199999/</t>
         </is>
       </c>
+      <c r="G516" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="517">
       <c r="A517" t="n">
@@ -12776,6 +15356,11 @@
           <t>https://www.findahome.hu/ingatlanok/two-bedroom-american-style-kitchen-unfurnished-flat-peterfia-street/</t>
         </is>
       </c>
+      <c r="G517" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="518">
       <c r="A518" t="n">
@@ -12800,6 +15385,11 @@
           <t>https://www.findahome.hu/ingatlanok/flat-for-rent-bajcsy-zsilinszky-street/</t>
         </is>
       </c>
+      <c r="G518" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="519">
       <c r="A519" t="n">
@@ -12824,6 +15414,11 @@
           <t>https://www.findahome.hu/ingatlanok/flat-for-rent-close-to-uni/</t>
         </is>
       </c>
+      <c r="G519" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="520">
       <c r="A520" t="n">
@@ -12848,6 +15443,11 @@
           <t>https://www.findahome.hu/ingatlanok/flat-for-rent-in-furedi-lakopark/</t>
         </is>
       </c>
+      <c r="G520" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="521">
       <c r="A521" t="n">
@@ -12872,6 +15472,11 @@
           <t>https://www.findahome.hu/ingatlanok/9154/</t>
         </is>
       </c>
+      <c r="G521" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="522">
       <c r="A522" t="n">
@@ -12896,6 +15501,11 @@
           <t>https://www.findahome.hu/ingatlanok/clean-renovated-flat-in-bem-ter/</t>
         </is>
       </c>
+      <c r="G522" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="523">
       <c r="A523" t="n">
@@ -12920,6 +15530,11 @@
           <t>https://debrecenrent.hu/for-rent/flat/debrecen-csapo-utca/218492/</t>
         </is>
       </c>
+      <c r="G523" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="524">
       <c r="A524" t="n">
@@ -12944,6 +15559,11 @@
           <t>https://www.findahome.hu/ingatlanok/egyetem-sugarut-3-separated-rooms-for-rent/</t>
         </is>
       </c>
+      <c r="G524" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="525">
       <c r="A525" t="n">
@@ -12968,6 +15588,11 @@
           <t>https://www.findahome.hu/ingatlanok/doczy-park-2-bedroom-living-room-flat-for-rent-2/</t>
         </is>
       </c>
+      <c r="G525" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="526">
       <c r="A526" t="n">
@@ -12992,6 +15617,11 @@
           <t>https://www.findahome.hu/ingatlanok/2-bedroom-and-living-room-flat-for-rent-2/</t>
         </is>
       </c>
+      <c r="G526" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="527">
       <c r="A527" t="n">
@@ -13016,6 +15646,11 @@
           <t>https://www.findahome.hu/ingatlanok/poroszlay-street-2-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G527" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="528">
       <c r="A528" t="n">
@@ -13034,6 +15669,11 @@
           <t>https://www.greatforest.hu/property/80392-debrecen-greatforest-area-flat</t>
         </is>
       </c>
+      <c r="G528" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
     </row>
     <row r="529">
       <c r="A529" t="n">
@@ -13058,6 +15698,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-city-center-2-bedroom-living-room-flat-for-rent-4/</t>
         </is>
       </c>
+      <c r="G529" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="530">
       <c r="A530" t="n">
@@ -13082,6 +15727,11 @@
           <t>https://www.findahome.hu/ingatlanok/doczy-park-2-bedroom-living-room-flat-for-rent-3/</t>
         </is>
       </c>
+      <c r="G530" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="531">
       <c r="A531" t="n">
@@ -13106,6 +15756,11 @@
           <t>https://www.findahome.hu/ingatlanok/kodaly-street-modern-1-bedroom-living-room-flat-available-beside-tram-line/</t>
         </is>
       </c>
+      <c r="G531" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="532">
       <c r="A532" t="n">
@@ -13130,6 +15785,11 @@
           <t>https://www.findahome.hu/ingatlanok/flat-rent-vorosmarty-street/</t>
         </is>
       </c>
+      <c r="G532" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="533">
       <c r="A533" t="n">
@@ -13154,6 +15814,11 @@
           <t>https://www.findahome.hu/ingatlanok/flat-for-rent-at-debrecen-teleki-street-2-bedroom-living-room/</t>
         </is>
       </c>
+      <c r="G533" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="534">
       <c r="A534" t="n">
@@ -13178,6 +15843,11 @@
           <t>https://debrecenrent.hu/for-rent/flat/debrecen-egyetem-sugarut/183691/</t>
         </is>
       </c>
+      <c r="G534" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="535">
       <c r="A535" t="n">
@@ -13202,6 +15872,11 @@
           <t>https://www.findahome.hu/ingatlanok/mikszath-kalman-street-close-to-uni-2-rooms-flat-available/</t>
         </is>
       </c>
+      <c r="G535" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="536">
       <c r="A536" t="n">
@@ -13226,6 +15901,11 @@
           <t>https://www.findahome.hu/ingatlanok/mikszath-street-very-close-to-uni-brand-new-cozy-home-for-rent/</t>
         </is>
       </c>
+      <c r="G536" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="537">
       <c r="A537" t="n">
@@ -13250,6 +15930,11 @@
           <t>https://www.findahome.hu/ingatlanok/komlossy-utca-2-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G537" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="538">
       <c r="A538" t="n">
@@ -13274,6 +15959,11 @@
           <t>https://www.findahome.hu/ingatlanok/beautiful-1-bedroom-living-room-flat-only-a-few-minutes-from-medical-school-for-rent/</t>
         </is>
       </c>
+      <c r="G538" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="539">
       <c r="A539" t="n">
@@ -13298,6 +15988,11 @@
           <t>https://www.findahome.hu/ingatlanok/17265/</t>
         </is>
       </c>
+      <c r="G539" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="540">
       <c r="A540" t="n">
@@ -13322,6 +16017,11 @@
           <t>https://www.findahome.hu/ingatlanok/furedi-lakopark-brand-new-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G540" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="541">
       <c r="A541" t="n">
@@ -13346,6 +16046,11 @@
           <t>https://www.findahome.hu/ingatlanok/apartment-for-rent-on-nap-utca/</t>
         </is>
       </c>
+      <c r="G541" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="542">
       <c r="A542" t="n">
@@ -13364,6 +16069,11 @@
           <t>https://www.greatforest.hu/property/100277-debrecen-city-center-flat</t>
         </is>
       </c>
+      <c r="G542" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
     </row>
     <row r="543">
       <c r="A543" t="n">
@@ -13388,6 +16098,11 @@
           <t>https://debrecenrent.hu/for-rent/flat/debrecen-gorgey-utca/219815/</t>
         </is>
       </c>
+      <c r="G543" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="544">
       <c r="A544" t="n">
@@ -13412,6 +16127,11 @@
           <t>https://debrecenrent.hu/for-rent/flat/debrecen-peterfia-utca/205429/</t>
         </is>
       </c>
+      <c r="G544" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="545">
       <c r="A545" t="n">
@@ -13436,6 +16156,11 @@
           <t>https://debrecenrent.hu/for-rent/flat/debrecen-peterfia-utca/205422/</t>
         </is>
       </c>
+      <c r="G545" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="546">
       <c r="A546" t="n">
@@ -13460,6 +16185,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-city-center-2-bedroom-living-room-flat-for-ent/</t>
         </is>
       </c>
+      <c r="G546" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="547">
       <c r="A547" t="n">
@@ -13484,6 +16214,11 @@
           <t>https://www.findahome.hu/ingatlanok/komlossy-street-2-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G547" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="548">
       <c r="A548" t="n">
@@ -13508,6 +16243,11 @@
           <t>https://www.findahome.hu/ingatlanok/szechenyi-corner-city-center-2-bedroom-living-room-brand-new-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G548" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="549">
       <c r="A549" t="n">
@@ -13532,6 +16272,11 @@
           <t>https://www.findahome.hu/ingatlanok/2-bedroom-living-room-flat-for-rent-3/</t>
         </is>
       </c>
+      <c r="G549" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="550">
       <c r="A550" t="n">
@@ -13556,6 +16301,11 @@
           <t>https://www.findahome.hu/ingatlanok/flat-rent-piac-street/</t>
         </is>
       </c>
+      <c r="G550" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="551">
       <c r="A551" t="n">
@@ -13580,6 +16330,11 @@
           <t>https://debrecenrent.hu/for-rent/flat/debrecen-szoboszloi-ut/204247/</t>
         </is>
       </c>
+      <c r="G551" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="552">
       <c r="A552" t="n">
@@ -13604,6 +16359,11 @@
           <t>https://debrecenrent.hu/for-rent/flat/debrecen-dienes-janos-utca/218718/</t>
         </is>
       </c>
+      <c r="G552" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="553">
       <c r="A553" t="n">
@@ -13628,6 +16388,11 @@
           <t>https://www.findahome.hu/ingatlanok/cozy-2-bedroom-living-room-flat-for-rent-close-to-uni/</t>
         </is>
       </c>
+      <c r="G553" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="554">
       <c r="A554" t="n">
@@ -13652,6 +16417,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-city-centernew-building-2-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G554" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="555">
       <c r="A555" t="n">
@@ -13676,6 +16446,11 @@
           <t>https://www.findahome.hu/ingatlanok/fancy-flat-for-rent-in-lilla-koz/</t>
         </is>
       </c>
+      <c r="G555" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="556">
       <c r="A556" t="n">
@@ -13700,6 +16475,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-2-bedroom-living-room-komlossy-ut/</t>
         </is>
       </c>
+      <c r="G556" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="557">
       <c r="A557" t="n">
@@ -13724,6 +16504,11 @@
           <t>https://www.findahome.hu/ingatlanok/parizsi-udvar-cozy-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G557" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="558">
       <c r="A558" t="n">
@@ -13748,6 +16533,11 @@
           <t>https://www.findahome.hu/ingatlanok/3-bedrooms-livng-room-flat-for-rent-close-to-kassai-campus/</t>
         </is>
       </c>
+      <c r="G558" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="559">
       <c r="A559" t="n">
@@ -13772,6 +16562,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-hatvani-istvan-street-3-rooms-ac-new-building-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G559" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="560">
       <c r="A560" t="n">
@@ -13796,6 +16591,11 @@
           <t>https://debrecenrent.hu/for-rent/flat/debrecen-peterfia-utca/210104/</t>
         </is>
       </c>
+      <c r="G560" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="561">
       <c r="A561" t="n">
@@ -13820,6 +16620,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-serhaz-utca-brand-new-1-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G561" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="562">
       <c r="A562" t="n">
@@ -13844,6 +16649,11 @@
           <t>https://www.findahome.hu/ingatlanok/parizsi-udvar-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G562" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="563">
       <c r="A563" t="n">
@@ -13868,6 +16678,11 @@
           <t>https://www.findahome.hu/ingatlanok/cozy-2-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G563" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="564">
       <c r="A564" t="n">
@@ -13886,6 +16701,11 @@
           <t>https://www.greatforest.hu/property/20816-debrecen-city-north-part-of-a-house</t>
         </is>
       </c>
+      <c r="G564" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
     </row>
     <row r="565">
       <c r="A565" t="n">
@@ -13910,6 +16730,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-komlossy-street-2-bedroom-living-room-100-sqm-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G565" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="566">
       <c r="A566" t="n">
@@ -13934,6 +16759,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-poroszlay-street-2-bedroom-big-dining-area/</t>
         </is>
       </c>
+      <c r="G566" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="567">
       <c r="A567" t="n">
@@ -13958,6 +16788,11 @@
           <t>https://www.findahome.hu/ingatlanok/flat-for-rent-in-parizsi-udvar/</t>
         </is>
       </c>
+      <c r="G567" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="568">
       <c r="A568" t="n">
@@ -13982,6 +16817,11 @@
           <t>https://www.findahome.hu/ingatlanok/bolyai-street-luxury-flat-next-to-the-uni-main-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G568" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="569">
       <c r="A569" t="n">
@@ -14006,6 +16846,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-lilla-koz-modern-new-flat-for-long-term-rent/</t>
         </is>
       </c>
+      <c r="G569" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="570">
       <c r="A570" t="n">
@@ -14030,6 +16875,11 @@
           <t>https://www.findahome.hu/ingatlanok/nappali-2-halos-felujitott-gepesitett-lakas/</t>
         </is>
       </c>
+      <c r="G570" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="571">
       <c r="A571" t="n">
@@ -14048,6 +16898,11 @@
           <t>https://www.greatforest.hu/property/94781-debrecen-city-center-commercial-premises-not-in-shopping-center</t>
         </is>
       </c>
+      <c r="G571" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
     </row>
     <row r="572">
       <c r="A572" t="n">
@@ -14072,6 +16927,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-city-center-3-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G572" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="573">
       <c r="A573" t="n">
@@ -14096,6 +16956,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-city-center-1-min-from-the-yellow-church-2-bedroomliving-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G573" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="574">
       <c r="A574" t="n">
@@ -14120,6 +16985,11 @@
           <t>https://www.findahome.hu/ingatlanok/2-bedroom-living-room-flat-for-rent-in-doczy-park/</t>
         </is>
       </c>
+      <c r="G574" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="575">
       <c r="A575" t="n">
@@ -14144,6 +17014,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-close-to-ther-uni-main-building-3-rooms-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G575" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="576">
       <c r="A576" t="n">
@@ -14168,6 +17043,11 @@
           <t>https://www.findahome.hu/ingatlanok/borbiro-ter-brand-new-3-rooms-apartment-near-uni-for-rent/</t>
         </is>
       </c>
+      <c r="G576" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="577">
       <c r="A577" t="n">
@@ -14192,6 +17072,11 @@
           <t>https://www.findahome.hu/ingatlanok/parizsi-udvar-2-bedroom-living-room-flat-for-rent-2/</t>
         </is>
       </c>
+      <c r="G577" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="578">
       <c r="A578" t="n">
@@ -14216,6 +17101,11 @@
           <t>https://www.findahome.hu/ingatlanok/parizsi-udvar-2-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G578" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="579">
       <c r="A579" t="n">
@@ -14240,6 +17130,11 @@
           <t>https://www.findahome.hu/ingatlanok/poroszlay-street-exclusive-brand-new-2-bedroom-living-room-apartment/</t>
         </is>
       </c>
+      <c r="G579" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="580">
       <c r="A580" t="n">
@@ -14264,6 +17159,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-bem-ter-2-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G580" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="581">
       <c r="A581" t="n">
@@ -14288,6 +17188,11 @@
           <t>https://debrecenrent.hu/for-rent/flat/debrecen-jeriko-utca/218202/</t>
         </is>
       </c>
+      <c r="G581" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="582">
       <c r="A582" t="n">
@@ -14312,6 +17217,11 @@
           <t>https://debrecenrent.hu/for-rent/flat/debrecen-csapo-utca/220026/</t>
         </is>
       </c>
+      <c r="G582" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="583">
       <c r="A583" t="n">
@@ -14336,6 +17246,11 @@
           <t>https://debrecenrent.hu/for-rent/house/debrecen-rigo-utca/215785/</t>
         </is>
       </c>
+      <c r="G583" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="584">
       <c r="A584" t="n">
@@ -14354,6 +17269,11 @@
           <t>https://www.greatforest.hu/property/101366-debrecen-city-center-flat</t>
         </is>
       </c>
+      <c r="G584" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
     </row>
     <row r="585">
       <c r="A585" t="n">
@@ -14378,6 +17298,11 @@
           <t>https://www.findahome.hu/ingatlanok/popular-parizsi-udvar-2-bedroom-living-room-flat-available/</t>
         </is>
       </c>
+      <c r="G585" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="586">
       <c r="A586" t="n">
@@ -14402,6 +17327,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-doczy-park-1-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G586" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="587">
       <c r="A587" t="n">
@@ -14426,6 +17356,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-bessenyei-street-100sqm-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G587" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="588">
       <c r="A588" t="n">
@@ -14450,6 +17385,11 @@
           <t>https://www.findahome.hu/ingatlanok/flat-for-rent-erzsebet-utca/</t>
         </is>
       </c>
+      <c r="G588" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="589">
       <c r="A589" t="n">
@@ -14474,6 +17414,11 @@
           <t>https://www.findahome.hu/ingatlanok/flat-for-rent-peterfia-street/</t>
         </is>
       </c>
+      <c r="G589" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="590">
       <c r="A590" t="n">
@@ -14498,6 +17443,11 @@
           <t>https://www.findahome.hu/ingatlanok/parizsi-udvar-2-bedroom-living-room-flat-for-rent-3/</t>
         </is>
       </c>
+      <c r="G590" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="591">
       <c r="A591" t="n">
@@ -14522,6 +17472,11 @@
           <t>https://www.findahome.hu/ingatlanok/flat-for-rent-csapo-street/</t>
         </is>
       </c>
+      <c r="G591" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="592">
       <c r="A592" t="n">
@@ -14546,6 +17501,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-bem-ter-2-bedroom-living-room-flat-for-rent-2/</t>
         </is>
       </c>
+      <c r="G592" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="593">
       <c r="A593" t="n">
@@ -14570,6 +17530,11 @@
           <t>https://www.findahome.hu/ingatlanok/close-to-forum-2-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G593" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="594">
       <c r="A594" t="n">
@@ -14594,6 +17559,11 @@
           <t>https://www.findahome.hu/ingatlanok/modern-spaceous-flat-in-halkoz-for-rent/</t>
         </is>
       </c>
+      <c r="G594" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="595">
       <c r="A595" t="n">
@@ -14618,6 +17588,11 @@
           <t>https://debrecenrent.hu/for-rent/flat/debrecen-laktanya-utca/203923/</t>
         </is>
       </c>
+      <c r="G595" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="596">
       <c r="A596" t="n">
@@ -14642,6 +17617,11 @@
           <t>https://www.findahome.hu/ingatlanok/balassa-balint-street-3-bedroom-living-room-2-bathroom-apartment-for-rent/</t>
         </is>
       </c>
+      <c r="G596" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="597">
       <c r="A597" t="n">
@@ -14666,6 +17646,11 @@
           <t>https://www.findahome.hu/ingatlanok/piac-street-brand-new-exclusive-2-bedrooms-2-bathrooms-apartment-for-rent/</t>
         </is>
       </c>
+      <c r="G597" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="598">
       <c r="A598" t="n">
@@ -14690,6 +17675,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-city-center-2-bedroom-living-room-flat-for-rent-3/</t>
         </is>
       </c>
+      <c r="G598" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="599">
       <c r="A599" t="n">
@@ -14708,6 +17698,11 @@
           <t>https://www.greatforest.hu/property/89189-debrecen-city-center-flat</t>
         </is>
       </c>
+      <c r="G599" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
     </row>
     <row r="600">
       <c r="A600" t="n">
@@ -14732,6 +17727,11 @@
           <t>https://debrecenrent.hu/for-rent/flat/debrecen-egyetem-sugarut/216383/</t>
         </is>
       </c>
+      <c r="G600" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="601">
       <c r="A601" t="n">
@@ -14750,6 +17750,11 @@
           <t>https://www.greatforest.hu/property/99213-debrecen-close-to-main-campus-flat</t>
         </is>
       </c>
+      <c r="G601" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
     </row>
     <row r="602">
       <c r="A602" t="n">
@@ -14774,6 +17779,11 @@
           <t>https://debrecenrent.hu/for-rent/flat/debrecen-rozsahegy-utca/209110/</t>
         </is>
       </c>
+      <c r="G602" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="603">
       <c r="A603" t="n">
@@ -14798,6 +17808,11 @@
           <t>https://debrecenrent.hu/for-rent/flat/debrecen-simonyi-ut/220137/</t>
         </is>
       </c>
+      <c r="G603" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="604">
       <c r="A604" t="n">
@@ -14822,6 +17837,11 @@
           <t>https://debrecenrent.hu/for-rent/flat/debrecen-boszormenyi-ut/209447/</t>
         </is>
       </c>
+      <c r="G604" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="605">
       <c r="A605" t="n">
@@ -14846,6 +17866,11 @@
           <t>https://www.findahome.hu/ingatlanok/4-bedroom-living-room-flat-for-rent-at-vasvari-pal-street/</t>
         </is>
       </c>
+      <c r="G605" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="606">
       <c r="A606" t="n">
@@ -14870,6 +17895,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-doczy-jozsef-street-3-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G606" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="607">
       <c r="A607" t="n">
@@ -14894,6 +17924,11 @@
           <t>https://www.findahome.hu/ingatlanok/hatvani-istvan-street-renovated-modern-flat-for-long-term-rent/</t>
         </is>
       </c>
+      <c r="G607" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="608">
       <c r="A608" t="n">
@@ -14918,6 +17953,11 @@
           <t>https://www.findahome.hu/ingatlanok/simonyi-street-flat-rent/</t>
         </is>
       </c>
+      <c r="G608" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="609">
       <c r="A609" t="n">
@@ -14942,6 +17982,11 @@
           <t>https://www.findahome.hu/ingatlanok/luxury-apartment-for-rent-in-the-city-center/</t>
         </is>
       </c>
+      <c r="G609" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="610">
       <c r="A610" t="n">
@@ -14966,6 +18011,11 @@
           <t>https://www.findahome.hu/ingatlanok/vezer-residential-area-in-a-queit-neighbourhood-3-bedrooms-living-room-house-for-rent/</t>
         </is>
       </c>
+      <c r="G610" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="611">
       <c r="A611" t="n">
@@ -14990,6 +18040,11 @@
           <t>https://www.findahome.hu/ingatlanok/egyetem-sugarut-2-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G611" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="612">
       <c r="A612" t="n">
@@ -15014,6 +18069,11 @@
           <t>https://www.findahome.hu/ingatlanok/kiado-arany-janos-utca-54-nm/</t>
         </is>
       </c>
+      <c r="G612" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="613">
       <c r="A613" t="n">
@@ -15038,6 +18098,11 @@
           <t>https://www.findahome.hu/ingatlanok/komlossy-street-near-med-uni-beautiful-2-bedroom-living-room-apartment-for-rent/</t>
         </is>
       </c>
+      <c r="G613" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="614">
       <c r="A614" t="n">
@@ -15062,6 +18127,11 @@
           <t>https://www.findahome.hu/ingatlanok/hatvan-corner-2-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G614" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="615">
       <c r="A615" t="n">
@@ -15086,6 +18156,11 @@
           <t>https://www.findahome.hu/ingatlanok/nyar-street-2-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G615" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="616">
       <c r="A616" t="n">
@@ -15110,6 +18185,11 @@
           <t>https://www.findahome.hu/ingatlanok/kiado-52-nm-es-uj-epitesu-lakas/</t>
         </is>
       </c>
+      <c r="G616" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="617">
       <c r="A617" t="n">
@@ -15134,6 +18214,11 @@
           <t>https://www.findahome.hu/ingatlanok/kut-street-modern-3-bedrooms-living-room-flat-is-available/</t>
         </is>
       </c>
+      <c r="G617" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="618">
       <c r="A618" t="n">
@@ -15158,6 +18243,11 @@
           <t>https://www.findahome.hu/ingatlanok/piac-street-2-bedrooms-cozy-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G618" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="619">
       <c r="A619" t="n">
@@ -15182,6 +18272,11 @@
           <t>https://www.findahome.hu/ingatlanok/city-center-2-bedroom-american-style-kitchen-apartment-for-rent/</t>
         </is>
       </c>
+      <c r="G619" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="620">
       <c r="A620" t="n">
@@ -15206,6 +18301,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-serhaz-utca-2-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G620" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="621">
       <c r="A621" t="n">
@@ -15230,6 +18330,11 @@
           <t>https://www.findahome.hu/ingatlanok/flat-for-rent-karoli-gaspar-street/</t>
         </is>
       </c>
+      <c r="G621" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="622">
       <c r="A622" t="n">
@@ -15254,6 +18359,11 @@
           <t>https://www.findahome.hu/ingatlanok/doczy-park-2-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G622" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="623">
       <c r="A623" t="n">
@@ -15278,6 +18388,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-3-separate-room-close-to-the-otemeto-kassai-campus/</t>
         </is>
       </c>
+      <c r="G623" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="624">
       <c r="A624" t="n">
@@ -15302,6 +18417,11 @@
           <t>https://www.findahome.hu/ingatlanok/apartment-for-rent-in-debrecen-next-to-the-university-of-agriculture/</t>
         </is>
       </c>
+      <c r="G624" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="625">
       <c r="A625" t="n">
@@ -15320,6 +18440,11 @@
           <t>https://www.greatforest.hu/property/98613-debrecen-jozsa-lower-flat</t>
         </is>
       </c>
+      <c r="G625" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
     </row>
     <row r="626">
       <c r="A626" t="n">
@@ -15344,6 +18469,11 @@
           <t>https://www.findahome.hu/ingatlanok/szechenyi-corner-city-center-2-bedroom-living-room-brand-new-flat-for-rent-2/</t>
         </is>
       </c>
+      <c r="G626" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="627">
       <c r="A627" t="n">
@@ -15368,6 +18498,11 @@
           <t>https://www.findahome.hu/ingatlanok/timar-street-exclusively-designed-3-bedroom-living-room-flat-available/</t>
         </is>
       </c>
+      <c r="G627" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="628">
       <c r="A628" t="n">
@@ -15392,6 +18527,11 @@
           <t>https://www.findahome.hu/ingatlanok/flat-for-rent-bem-ter/</t>
         </is>
       </c>
+      <c r="G628" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="629">
       <c r="A629" t="n">
@@ -15416,6 +18556,11 @@
           <t>https://debrecenrent.hu/for-rent/flat/debrecen-gonczy-pal-utca/216064/</t>
         </is>
       </c>
+      <c r="G629" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="630">
       <c r="A630" t="n">
@@ -15440,6 +18585,11 @@
           <t>https://www.findahome.hu/ingatlanok/kiado-lakas-a-belvaros-kozeleben/</t>
         </is>
       </c>
+      <c r="G630" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="631">
       <c r="A631" t="n">
@@ -15464,6 +18614,11 @@
           <t>https://www.findahome.hu/ingatlanok/luxury-flat-flat-in-the-city-center-2-bedroom-american-style-kitchen-with-terrace/</t>
         </is>
       </c>
+      <c r="G631" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="632">
       <c r="A632" t="n">
@@ -15488,6 +18643,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-lilla-koz-new-modern-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G632" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="633">
       <c r="A633" t="n">
@@ -15512,6 +18672,11 @@
           <t>https://debrecenrent.hu/for-rent/flat/debrecen-bethlen-utca/220054/</t>
         </is>
       </c>
+      <c r="G633" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="634">
       <c r="A634" t="n">
@@ -15536,6 +18701,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-hatvani-istvan-street-2-bedroom-living-room-105-sqm-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G634" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="635">
       <c r="A635" t="n">
@@ -15560,6 +18730,11 @@
           <t>https://debrecenrent.hu/for-rent/flat/debrecen-nagy-lajos-kiraly-ter/218134/</t>
         </is>
       </c>
+      <c r="G635" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="636">
       <c r="A636" t="n">
@@ -15584,6 +18759,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-doberdo-street-close-to-uni-4-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G636" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="637">
       <c r="A637" t="n">
@@ -15608,6 +18788,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-bem-ter-4-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G637" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="638">
       <c r="A638" t="n">
@@ -15632,6 +18817,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-newer-building-apafi-street-2-bedroom-living-room-terrace-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G638" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="639">
       <c r="A639" t="n">
@@ -15656,6 +18846,11 @@
           <t>https://www.findahome.hu/ingatlanok/piac-street-modern-3-bedroom-living-room-with-american-kitchen/</t>
         </is>
       </c>
+      <c r="G639" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="640">
       <c r="A640" t="n">
@@ -15680,6 +18875,11 @@
           <t>https://www.findahome.hu/ingatlanok/4-bedroom-living-room-house-for-rent/</t>
         </is>
       </c>
+      <c r="G640" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="641">
       <c r="A641" t="n">
@@ -15704,6 +18904,11 @@
           <t>https://www.findahome.hu/ingatlanok/parizsi-udvar-luxurious-penthouse-with-huge-private-terrace-for-rent/</t>
         </is>
       </c>
+      <c r="G641" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="642">
       <c r="A642" t="n">
@@ -15728,6 +18933,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-city-center-simonffy-street-3-bedroom-living-oom-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G642" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="643">
       <c r="A643" t="n">
@@ -15752,6 +18962,11 @@
           <t>https://www.findahome.hu/ingatlanok/gyongyosi-street-family-house-for-rent/</t>
         </is>
       </c>
+      <c r="G643" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="644">
       <c r="A644" t="n">
@@ -15770,6 +18985,11 @@
           <t>https://www.greatforest.hu/property/99332-debrecen-bem-square-office-in-office-building</t>
         </is>
       </c>
+      <c r="G644" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
     </row>
     <row r="645">
       <c r="A645" t="n">
@@ -15794,6 +19014,11 @@
           <t>https://www.findahome.hu/ingatlanok/nagyerdei-korut-hadhazi-corner-3-bedroom-plus-living-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G645" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="646">
       <c r="A646" t="n">
@@ -15818,6 +19043,11 @@
           <t>https://www.findahome.hu/ingatlanok/bem-ter-3-bedroom-flat-for-long-term-rent/</t>
         </is>
       </c>
+      <c r="G646" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="647">
       <c r="A647" t="n">
@@ -15842,6 +19072,11 @@
           <t>https://www.findahome.hu/ingatlanok/city-center-3-separate-room-fully-furnsihed-and-equipped-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G647" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="648">
       <c r="A648" t="n">
@@ -15866,6 +19101,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-city-center-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G648" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="649">
       <c r="A649" t="n">
@@ -15890,6 +19130,11 @@
           <t>https://www.findahome.hu/ingatlanok/flat-for-rent-in-boszormenyi-street/</t>
         </is>
       </c>
+      <c r="G649" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="650">
       <c r="A650" t="n">
@@ -15908,6 +19153,11 @@
           <t>https://www.greatforest.hu/property/100658-debrecen-close-to-tesco-area-flat</t>
         </is>
       </c>
+      <c r="G650" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
     </row>
     <row r="651">
       <c r="A651" t="n">
@@ -15932,6 +19182,11 @@
           <t>https://debrecenrent.hu/for-rent/house/debrecen-bartok-bela-ut/163569/</t>
         </is>
       </c>
+      <c r="G651" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="652">
       <c r="A652" t="n">
@@ -15956,6 +19211,11 @@
           <t>https://www.findahome.hu/ingatlanok/flat-for-rent-in-hatvan-utcai-kert/</t>
         </is>
       </c>
+      <c r="G652" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="653">
       <c r="A653" t="n">
@@ -15980,6 +19240,11 @@
           <t>https://www.findahome.hu/ingatlanok/university-residence-new-building-next-to-the-uni-1-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G653" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="654">
       <c r="A654" t="n">
@@ -16004,6 +19269,11 @@
           <t>https://www.findahome.hu/ingatlanok/flat-for-rent-in-rakoczi-utca/</t>
         </is>
       </c>
+      <c r="G654" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="655">
       <c r="A655" t="n">
@@ -16028,6 +19298,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen1-min-from-the-uni-main-4-bedroom-living-room-apartment-for-rent/</t>
         </is>
       </c>
+      <c r="G655" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="656">
       <c r="A656" t="n">
@@ -16052,6 +19327,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-rakoczi-street-2-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G656" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="657">
       <c r="A657" t="n">
@@ -16070,6 +19350,11 @@
           <t>https://www.greatforest.hu/property/97856-debrecen-city-center-office-not-in-office-building</t>
         </is>
       </c>
+      <c r="G657" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
     </row>
     <row r="658">
       <c r="A658" t="n">
@@ -16088,6 +19373,11 @@
           <t>https://www.greatforest.hu/property/100455-debrecen-flat</t>
         </is>
       </c>
+      <c r="G658" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
     </row>
     <row r="659">
       <c r="A659" t="n">
@@ -16106,6 +19396,11 @@
           <t>https://www.greatforest.hu/property/101246-debrecen-bem-square-flat</t>
         </is>
       </c>
+      <c r="G659" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
     </row>
     <row r="660">
       <c r="A660" t="n">
@@ -16130,6 +19425,11 @@
           <t>https://www.findahome.hu/ingatlanok/nagyerdei-krt-beautiful-2-levels-home-with-4-rooms-available-for-rent/</t>
         </is>
       </c>
+      <c r="G660" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="661">
       <c r="A661" t="n">
@@ -16154,6 +19454,11 @@
           <t>https://debrecenrent.hu/for-rent/flat/debrecen-antall-jozsef-utca/218121/</t>
         </is>
       </c>
+      <c r="G661" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="662">
       <c r="A662" t="n">
@@ -16178,6 +19483,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-parizsi-udvar-3-room-70-sqm-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G662" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="663">
       <c r="A663" t="n">
@@ -16202,6 +19512,11 @@
           <t>https://debrecenrent.hu/for-rent/flat/debrecen-bem-ter/163005/</t>
         </is>
       </c>
+      <c r="G663" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="664">
       <c r="A664" t="n">
@@ -16226,6 +19541,11 @@
           <t>https://debrecenrent.hu/for-rent/flat/debrecen-csapo-utca/218738/</t>
         </is>
       </c>
+      <c r="G664" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="665">
       <c r="A665" t="n">
@@ -16250,6 +19570,11 @@
           <t>https://debrecenrent.hu/for-rent/flat/debrecen-csapo-utca/206077/</t>
         </is>
       </c>
+      <c r="G665" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="666">
       <c r="A666" t="n">
@@ -16274,6 +19599,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-city-center-3-bedroom-living-room-flat-for-rent-2/</t>
         </is>
       </c>
+      <c r="G666" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="667">
       <c r="A667" t="n">
@@ -16292,6 +19622,11 @@
           <t>https://www.greatforest.hu/property/31478-debrecen-flat</t>
         </is>
       </c>
+      <c r="G667" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
     </row>
     <row r="668">
       <c r="A668" t="n">
@@ -16310,6 +19645,11 @@
           <t>https://www.greatforest.hu/property/101102-debrecen-city-center-flat</t>
         </is>
       </c>
+      <c r="G668" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
     </row>
     <row r="669">
       <c r="A669" t="n">
@@ -16328,6 +19668,11 @@
           <t>https://www.greatforest.hu/property/101244-debrecen-greatforest-area-flat</t>
         </is>
       </c>
+      <c r="G669" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
     </row>
     <row r="670">
       <c r="A670" t="n">
@@ -16346,6 +19691,11 @@
           <t>https://www.greatforest.hu/property/41027-debrecen-city-center-flat</t>
         </is>
       </c>
+      <c r="G670" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
     </row>
     <row r="671">
       <c r="A671" t="n">
@@ -16364,6 +19714,11 @@
           <t>https://www.greatforest.hu/property/42340-debrecen-kassai-campus-area-flat</t>
         </is>
       </c>
+      <c r="G671" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
     </row>
     <row r="672">
       <c r="A672" t="n">
@@ -16388,6 +19743,11 @@
           <t>https://www.findahome.hu/ingatlanok/bolyai-street-brand-new-beautiful-luxurious-apartment-with-2-bedrooms-for-rent/</t>
         </is>
       </c>
+      <c r="G672" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="673">
       <c r="A673" t="n">
@@ -16412,6 +19772,11 @@
           <t>https://www.findahome.hu/ingatlanok/apartment-for-rent-in-debrecen-on-poroszlay-ut/</t>
         </is>
       </c>
+      <c r="G673" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="674">
       <c r="A674" t="n">
@@ -16436,6 +19801,11 @@
           <t>https://debrecenrent.hu/for-rent/flat/debrecen-hatvani-istvan-utca/219974/</t>
         </is>
       </c>
+      <c r="G674" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="675">
       <c r="A675" t="n">
@@ -16460,6 +19830,11 @@
           <t>https://debrecenrent.hu/for-rent/flat/debrecen-hatvani-istvan-utca/219959/</t>
         </is>
       </c>
+      <c r="G675" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="676">
       <c r="A676" t="n">
@@ -16484,6 +19859,11 @@
           <t>https://debrecenrent.hu/for-rent/flat/debrecen-hatvani-istvan-utca/220110/</t>
         </is>
       </c>
+      <c r="G676" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="677">
       <c r="A677" t="n">
@@ -16508,6 +19888,11 @@
           <t>https://debrecenrent.hu/for-rent/flat/debrecen-hatvani-istvan-utca/220119/</t>
         </is>
       </c>
+      <c r="G677" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="678">
       <c r="A678" t="n">
@@ -16532,6 +19917,11 @@
           <t>https://debrecenrent.hu/for-rent/flat/debrecen-hatvani-istvan-utca/220092/</t>
         </is>
       </c>
+      <c r="G678" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="679">
       <c r="A679" t="n">
@@ -16556,6 +19946,11 @@
           <t>https://debrecenrent.hu/for-rent/flat/debrecen-hatvani-istvan-utca/219937/</t>
         </is>
       </c>
+      <c r="G679" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="680">
       <c r="A680" t="n">
@@ -16580,6 +19975,11 @@
           <t>https://debrecenrent.hu/for-rent/flat/debrecen-hatvani-istvan-utca/219994/</t>
         </is>
       </c>
+      <c r="G680" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="681">
       <c r="A681" t="n">
@@ -16604,6 +20004,11 @@
           <t>https://debrecenrent.hu/for-rent/flat/debrecen-hatvani-istvan-utca/220102/</t>
         </is>
       </c>
+      <c r="G681" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="682">
       <c r="A682" t="n">
@@ -16628,6 +20033,11 @@
           <t>https://debrecenrent.hu/for-rent/flat/debrecen-hatvani-istvan-utca/219950/</t>
         </is>
       </c>
+      <c r="G682" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="683">
       <c r="A683" t="n">
@@ -16652,6 +20062,11 @@
           <t>https://debrecenrent.hu/for-rent/flat/debrecen-hatvani-istvan-utca/219906/</t>
         </is>
       </c>
+      <c r="G683" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="684">
       <c r="A684" t="n">
@@ -16676,6 +20091,11 @@
           <t>https://debrecenrent.hu/for-rent/flat/debrecen-hatvani-istvan-utca/220005/</t>
         </is>
       </c>
+      <c r="G684" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="685">
       <c r="A685" t="n">
@@ -16700,6 +20120,11 @@
           <t>https://debrecenrent.hu/for-rent/flat/debrecen-hatvani-istvan-utca/220081/</t>
         </is>
       </c>
+      <c r="G685" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="686">
       <c r="A686" t="n">
@@ -16718,6 +20143,11 @@
           <t>https://www.greatforest.hu/property/99511-debrecen-close-to-main-campus-flat</t>
         </is>
       </c>
+      <c r="G686" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
     </row>
     <row r="687">
       <c r="A687" t="n">
@@ -16736,6 +20166,11 @@
           <t>https://www.greatforest.hu/property/99510-debrecen-close-to-main-campus-flat</t>
         </is>
       </c>
+      <c r="G687" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
     </row>
     <row r="688">
       <c r="A688" t="n">
@@ -16760,6 +20195,11 @@
           <t>https://debrecenrent.hu/for-rent/flat/debrecen-szechenyi-utca/219826/</t>
         </is>
       </c>
+      <c r="G688" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="689">
       <c r="A689" t="n">
@@ -16784,6 +20224,11 @@
           <t>https://www.findahome.hu/ingatlanok/apartment-for-rent-on-hatvan-street/</t>
         </is>
       </c>
+      <c r="G689" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="690">
       <c r="A690" t="n">
@@ -16808,6 +20253,11 @@
           <t>https://www.findahome.hu/ingatlanok/bem-ter-3-bedroom-living-room-with-dining-area-2-bathroom/</t>
         </is>
       </c>
+      <c r="G690" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="691">
       <c r="A691" t="n">
@@ -16826,6 +20276,11 @@
           <t>https://www.greatforest.hu/property/89979-debrecen-city-center-office-not-in-office-building</t>
         </is>
       </c>
+      <c r="G691" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
     </row>
     <row r="692">
       <c r="A692" t="n">
@@ -16850,6 +20305,11 @@
           <t>https://debrecenrent.hu/for-rent/house/debrecen-akademia-utca/217736/</t>
         </is>
       </c>
+      <c r="G692" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="693">
       <c r="A693" t="n">
@@ -16874,6 +20334,11 @@
           <t>https://www.findahome.hu/ingatlanok/luxury-apartment-for-rent-in-menyhart-jozsef-ter/</t>
         </is>
       </c>
+      <c r="G693" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="694">
       <c r="A694" t="n">
@@ -16892,6 +20357,11 @@
           <t>https://www.greatforest.hu/property/96519-debrecen-greatforest-area-flat</t>
         </is>
       </c>
+      <c r="G694" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
     </row>
     <row r="695">
       <c r="A695" t="n">
@@ -16916,6 +20386,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-house-for-rent-with-3-bedrooms-living-room/</t>
         </is>
       </c>
+      <c r="G695" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="696">
       <c r="A696" t="n">
@@ -16940,6 +20415,11 @@
           <t>https://www.findahome.hu/ingatlanok/17339/</t>
         </is>
       </c>
+      <c r="G696" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="697">
       <c r="A697" t="n">
@@ -16958,6 +20438,11 @@
           <t>https://www.greatforest.hu/property/101245-debrecen-greatforest-area-flat</t>
         </is>
       </c>
+      <c r="G697" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
     </row>
     <row r="698">
       <c r="A698" t="n">
@@ -16982,6 +20467,11 @@
           <t>https://debrecenrent.hu/for-rent/flat/debrecen-nagyerdei-korut/213647/</t>
         </is>
       </c>
+      <c r="G698" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="699">
       <c r="A699" t="n">
@@ -17006,6 +20496,11 @@
           <t>https://debrecenrent.hu/for-rent/flat/debrecen-csapo-utca/219320/</t>
         </is>
       </c>
+      <c r="G699" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="700">
       <c r="A700" t="n">
@@ -17030,6 +20525,11 @@
           <t>https://debrecenrent.hu/for-rent/flat/debrecen-garai-utca/217183/</t>
         </is>
       </c>
+      <c r="G700" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="701">
       <c r="A701" t="n">
@@ -17054,6 +20554,11 @@
           <t>https://debrecenrent.hu/for-rent/flat/debrecen-garai-utca/217196/</t>
         </is>
       </c>
+      <c r="G701" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="702">
       <c r="A702" t="n">
@@ -17078,6 +20583,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-city-center-piac-street-2-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
+      <c r="G702" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="703">
       <c r="A703" t="n">
@@ -17102,6 +20612,11 @@
           <t>https://www.findahome.hu/ingatlanok/debrecen-belvaros-3-bedroom-living-room-unfurnished-apartament-for-rent/</t>
         </is>
       </c>
+      <c r="G703" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="704">
       <c r="A704" t="n">
@@ -17120,6 +20635,11 @@
           <t>https://www.greatforest.hu/property/97187-debrecen-flat</t>
         </is>
       </c>
+      <c r="G704" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
     </row>
     <row r="705">
       <c r="A705" t="n">
@@ -17138,6 +20658,11 @@
           <t>https://www.greatforest.hu/property/97186-debrecen-city-center-flat</t>
         </is>
       </c>
+      <c r="G705" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
     </row>
     <row r="706">
       <c r="A706" t="n">
@@ -17156,6 +20681,11 @@
           <t>https://www.greatforest.hu/property/98949-debrecen-close-to-main-campus-flat</t>
         </is>
       </c>
+      <c r="G706" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
     </row>
     <row r="707">
       <c r="A707" t="n">
@@ -17180,6 +20710,11 @@
           <t>https://debrecenrent.hu/for-rent/flat/debrecen-mikszath-kalman-utca/216981/</t>
         </is>
       </c>
+      <c r="G707" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="708">
       <c r="A708" t="n">
@@ -17204,6 +20739,11 @@
           <t>https://debrecenrent.hu/for-rent/house/hajduszoboszlo-hoforras-utca/214766/</t>
         </is>
       </c>
+      <c r="G708" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="709">
       <c r="A709" t="n">
@@ -17222,6 +20762,11 @@
           <t>https://www.greatforest.hu/property/101101-debrecen-city-center-flat</t>
         </is>
       </c>
+      <c r="G709" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
     </row>
     <row r="710">
       <c r="A710" t="n">
@@ -17240,6 +20785,11 @@
           <t>https://www.greatforest.hu/property/98425-debrecen-city-center-flat</t>
         </is>
       </c>
+      <c r="G710" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
     </row>
     <row r="711">
       <c r="A711" t="n">
@@ -17258,6 +20808,11 @@
           <t>https://www.greatforest.hu/property/36059-debrecen-kassai-campus-area-flat</t>
         </is>
       </c>
+      <c r="G711" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
     </row>
     <row r="712">
       <c r="A712" t="n">
@@ -17276,6 +20831,11 @@
           <t>https://www.greatforest.hu/property/101274-hajduszoboszlo-attached-house</t>
         </is>
       </c>
+      <c r="G712" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
     </row>
     <row r="713">
       <c r="A713" t="n">
@@ -17300,6 +20860,11 @@
           <t>https://www.findahome.hu/ingatlanok/luxury-apartment-for-rent/</t>
         </is>
       </c>
+      <c r="G713" t="inlineStr">
+        <is>
+          <t>center</t>
+        </is>
+      </c>
     </row>
     <row r="714">
       <c r="A714" t="n">
@@ -17324,6 +20889,11 @@
           <t>https://debrecenrent.hu/for-rent/flat/debrecen-hadhazi-ut/219319/</t>
         </is>
       </c>
+      <c r="G714" t="inlineStr">
+        <is>
+          <t>not center</t>
+        </is>
+      </c>
     </row>
     <row r="715">
       <c r="A715" t="n">
@@ -17346,6 +20916,11 @@
       <c r="F715" t="inlineStr">
         <is>
           <t>https://www.findahome.hu/ingatlanok/luxury-house-for-rent-3-bedroom-living-room/</t>
+        </is>
+      </c>
+      <c r="G715" t="inlineStr">
+        <is>
+          <t>not center</t>
         </is>
       </c>
     </row>

--- a/streamlit/Houses_Cleaned.xlsx
+++ b/streamlit/Houses_Cleaned.xlsx
@@ -495,7 +495,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>not center</t>
+          <t>unknown</t>
         </is>
       </c>
     </row>
@@ -2844,7 +2844,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>not center</t>
+          <t>unknown</t>
         </is>
       </c>
     </row>
@@ -4004,7 +4004,7 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>not center</t>
+          <t>unknown</t>
         </is>
       </c>
     </row>
@@ -4410,7 +4410,7 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>not center</t>
+          <t>unknown</t>
         </is>
       </c>
     </row>
@@ -5106,7 +5106,7 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>not center</t>
+          <t>unknown</t>
         </is>
       </c>
     </row>
@@ -12064,7 +12064,7 @@
       </c>
       <c r="G403" t="inlineStr">
         <is>
-          <t>not center</t>
+          <t>unknown</t>
         </is>
       </c>
     </row>
@@ -12354,7 +12354,7 @@
       </c>
       <c r="G413" t="inlineStr">
         <is>
-          <t>not center</t>
+          <t>unknown</t>
         </is>
       </c>
     </row>
@@ -12986,7 +12986,7 @@
       </c>
       <c r="G435" t="inlineStr">
         <is>
-          <t>not center</t>
+          <t>unknown</t>
         </is>
       </c>
     </row>
@@ -13653,7 +13653,7 @@
       </c>
       <c r="G458" t="inlineStr">
         <is>
-          <t>not center</t>
+          <t>unknown</t>
         </is>
       </c>
     </row>
@@ -17416,7 +17416,7 @@
       </c>
       <c r="G589" t="inlineStr">
         <is>
-          <t>not center</t>
+          <t>unknown</t>
         </is>
       </c>
     </row>
@@ -18222,7 +18222,7 @@
       </c>
       <c r="G617" t="inlineStr">
         <is>
-          <t>not center</t>
+          <t>unknown</t>
         </is>
       </c>
     </row>

--- a/streamlit/Houses_Cleaned.xlsx
+++ b/streamlit/Houses_Cleaned.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Location is hidden.</t>
+          <t>Address unavailable</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -2831,7 +2831,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Location is hidden.</t>
+          <t>Address unavailable</t>
         </is>
       </c>
       <c r="E83" t="n">
@@ -3991,7 +3991,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Location is hidden.</t>
+          <t>Address unavailable</t>
         </is>
       </c>
       <c r="E123" t="n">
@@ -4397,7 +4397,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Location is hidden.</t>
+          <t>Address unavailable</t>
         </is>
       </c>
       <c r="E137" t="n">
@@ -5093,7 +5093,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Location is hidden.</t>
+          <t>Address unavailable</t>
         </is>
       </c>
       <c r="E161" t="n">
@@ -12051,7 +12051,7 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>Location is hidden.</t>
+          <t>Address unavailable</t>
         </is>
       </c>
       <c r="E403" t="n">
@@ -12341,7 +12341,7 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>Location is hidden.</t>
+          <t>Address unavailable</t>
         </is>
       </c>
       <c r="E413" t="n">
@@ -12973,7 +12973,7 @@
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>Location is hidden.</t>
+          <t>Address unavailable</t>
         </is>
       </c>
       <c r="E435" t="n">
@@ -13640,7 +13640,7 @@
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>Location is hidden.</t>
+          <t>Address unavailable</t>
         </is>
       </c>
       <c r="E458" t="n">
@@ -17403,7 +17403,7 @@
       </c>
       <c r="D589" t="inlineStr">
         <is>
-          <t>Location is hidden.</t>
+          <t>Address unavailable</t>
         </is>
       </c>
       <c r="E589" t="n">
@@ -18209,7 +18209,7 @@
       </c>
       <c r="D617" t="inlineStr">
         <is>
-          <t>Location is hidden.</t>
+          <t>Address unavailable</t>
         </is>
       </c>
       <c r="E617" t="n">

--- a/streamlit/Houses_Cleaned.xlsx
+++ b/streamlit/Houses_Cleaned.xlsx
@@ -8861,7 +8861,11 @@
       <c r="C291" t="n">
         <v>2</v>
       </c>
-      <c r="D291" t="inlineStr"/>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>Address unavailable</t>
+        </is>
+      </c>
       <c r="E291" t="inlineStr"/>
       <c r="F291" t="inlineStr">
         <is>
@@ -8884,7 +8888,11 @@
       <c r="C292" t="n">
         <v>1</v>
       </c>
-      <c r="D292" t="inlineStr"/>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>Address unavailable</t>
+        </is>
+      </c>
       <c r="E292" t="inlineStr"/>
       <c r="F292" t="inlineStr">
         <is>
@@ -8907,7 +8915,11 @@
       <c r="C293" t="n">
         <v>1</v>
       </c>
-      <c r="D293" t="inlineStr"/>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>Address unavailable</t>
+        </is>
+      </c>
       <c r="E293" t="inlineStr"/>
       <c r="F293" t="inlineStr">
         <is>
@@ -9481,7 +9493,11 @@
       <c r="C313" t="n">
         <v>2</v>
       </c>
-      <c r="D313" t="inlineStr"/>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>Address unavailable</t>
+        </is>
+      </c>
       <c r="E313" t="inlineStr"/>
       <c r="F313" t="inlineStr">
         <is>
@@ -9968,7 +9984,11 @@
       <c r="C330" t="n">
         <v>2</v>
       </c>
-      <c r="D330" t="inlineStr"/>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>Address unavailable</t>
+        </is>
+      </c>
       <c r="E330" t="inlineStr"/>
       <c r="F330" t="inlineStr">
         <is>
@@ -10194,7 +10214,11 @@
       <c r="C338" t="n">
         <v>1</v>
       </c>
-      <c r="D338" t="inlineStr"/>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>Address unavailable</t>
+        </is>
+      </c>
       <c r="E338" t="inlineStr"/>
       <c r="F338" t="inlineStr">
         <is>
@@ -11116,7 +11140,11 @@
       <c r="C370" t="n">
         <v>2</v>
       </c>
-      <c r="D370" t="inlineStr"/>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>Address unavailable</t>
+        </is>
+      </c>
       <c r="E370" t="inlineStr"/>
       <c r="F370" t="inlineStr">
         <is>
@@ -11487,7 +11515,11 @@
       <c r="C383" t="n">
         <v>2</v>
       </c>
-      <c r="D383" t="inlineStr"/>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>Address unavailable</t>
+        </is>
+      </c>
       <c r="E383" t="inlineStr"/>
       <c r="F383" t="inlineStr">
         <is>
@@ -11800,7 +11832,11 @@
       <c r="C394" t="n">
         <v>2</v>
       </c>
-      <c r="D394" t="inlineStr"/>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>Address unavailable</t>
+        </is>
+      </c>
       <c r="E394" t="inlineStr"/>
       <c r="F394" t="inlineStr">
         <is>
@@ -11852,7 +11888,11 @@
       <c r="C396" t="n">
         <v>2</v>
       </c>
-      <c r="D396" t="inlineStr"/>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>Address unavailable</t>
+        </is>
+      </c>
       <c r="E396" t="inlineStr"/>
       <c r="F396" t="inlineStr">
         <is>
@@ -12919,7 +12959,11 @@
       <c r="C433" t="n">
         <v>2</v>
       </c>
-      <c r="D433" t="inlineStr"/>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>Address unavailable</t>
+        </is>
+      </c>
       <c r="E433" t="inlineStr"/>
       <c r="F433" t="inlineStr">
         <is>
@@ -13783,7 +13827,11 @@
       <c r="C463" t="n">
         <v>2</v>
       </c>
-      <c r="D463" t="inlineStr"/>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>Address unavailable</t>
+        </is>
+      </c>
       <c r="E463" t="inlineStr"/>
       <c r="F463" t="inlineStr">
         <is>
@@ -15604,7 +15652,11 @@
       <c r="C526" t="n">
         <v>2</v>
       </c>
-      <c r="D526" t="inlineStr"/>
+      <c r="D526" t="inlineStr">
+        <is>
+          <t>Address unavailable</t>
+        </is>
+      </c>
       <c r="E526" t="inlineStr"/>
       <c r="F526" t="inlineStr">
         <is>
@@ -16004,7 +16056,11 @@
       <c r="C540" t="n">
         <v>3</v>
       </c>
-      <c r="D540" t="inlineStr"/>
+      <c r="D540" t="inlineStr">
+        <is>
+          <t>Address unavailable</t>
+        </is>
+      </c>
       <c r="E540" t="inlineStr"/>
       <c r="F540" t="inlineStr">
         <is>
@@ -16491,7 +16547,11 @@
       <c r="C557" t="n">
         <v>3</v>
       </c>
-      <c r="D557" t="inlineStr"/>
+      <c r="D557" t="inlineStr">
+        <is>
+          <t>Address unavailable</t>
+        </is>
+      </c>
       <c r="E557" t="inlineStr"/>
       <c r="F557" t="inlineStr">
         <is>
@@ -16659,7 +16719,11 @@
       <c r="C563" t="n">
         <v>2</v>
       </c>
-      <c r="D563" t="inlineStr"/>
+      <c r="D563" t="inlineStr">
+        <is>
+          <t>Address unavailable</t>
+        </is>
+      </c>
       <c r="E563" t="inlineStr"/>
       <c r="F563" t="inlineStr">
         <is>
@@ -17262,7 +17326,11 @@
       <c r="C584" t="n">
         <v>1</v>
       </c>
-      <c r="D584" t="inlineStr"/>
+      <c r="D584" t="inlineStr">
+        <is>
+          <t>Address unavailable</t>
+        </is>
+      </c>
       <c r="E584" t="inlineStr"/>
       <c r="F584" t="inlineStr">
         <is>
@@ -17778,7 +17846,11 @@
       <c r="C602" t="n">
         <v>1</v>
       </c>
-      <c r="D602" t="inlineStr"/>
+      <c r="D602" t="inlineStr">
+        <is>
+          <t>Address unavailable</t>
+        </is>
+      </c>
       <c r="E602" t="inlineStr"/>
       <c r="F602" t="inlineStr">
         <is>
@@ -18323,7 +18395,11 @@
       <c r="C621" t="n">
         <v>1</v>
       </c>
-      <c r="D621" t="inlineStr"/>
+      <c r="D621" t="inlineStr">
+        <is>
+          <t>Address unavailable</t>
+        </is>
+      </c>
       <c r="E621" t="inlineStr"/>
       <c r="F621" t="inlineStr">
         <is>
@@ -18926,7 +19002,11 @@
       <c r="C642" t="n">
         <v>3</v>
       </c>
-      <c r="D642" t="inlineStr"/>
+      <c r="D642" t="inlineStr">
+        <is>
+          <t>Address unavailable</t>
+        </is>
+      </c>
       <c r="E642" t="inlineStr"/>
       <c r="F642" t="inlineStr">
         <is>
@@ -19065,7 +19145,11 @@
       <c r="C647" t="n">
         <v>3</v>
       </c>
-      <c r="D647" t="inlineStr"/>
+      <c r="D647" t="inlineStr">
+        <is>
+          <t>Address unavailable</t>
+        </is>
+      </c>
       <c r="E647" t="inlineStr"/>
       <c r="F647" t="inlineStr">
         <is>
@@ -19204,7 +19288,11 @@
       <c r="C652" t="n">
         <v>3</v>
       </c>
-      <c r="D652" t="inlineStr"/>
+      <c r="D652" t="inlineStr">
+        <is>
+          <t>Address unavailable</t>
+        </is>
+      </c>
       <c r="E652" t="inlineStr"/>
       <c r="F652" t="inlineStr">
         <is>
@@ -19314,7 +19402,11 @@
       <c r="C656" t="n">
         <v>3</v>
       </c>
-      <c r="D656" t="inlineStr"/>
+      <c r="D656" t="inlineStr">
+        <is>
+          <t>Address unavailable</t>
+        </is>
+      </c>
       <c r="E656" t="inlineStr"/>
       <c r="F656" t="inlineStr">
         <is>
@@ -19482,7 +19574,11 @@
       <c r="C662" t="n">
         <v>3</v>
       </c>
-      <c r="D662" t="inlineStr"/>
+      <c r="D662" t="inlineStr">
+        <is>
+          <t>Address unavailable</t>
+        </is>
+      </c>
       <c r="E662" t="inlineStr"/>
       <c r="F662" t="inlineStr">
         <is>
@@ -19505,7 +19601,11 @@
       <c r="C663" t="n">
         <v>2</v>
       </c>
-      <c r="D663" t="inlineStr"/>
+      <c r="D663" t="inlineStr">
+        <is>
+          <t>Address unavailable</t>
+        </is>
+      </c>
       <c r="E663" t="inlineStr"/>
       <c r="F663" t="inlineStr">
         <is>
@@ -19586,7 +19686,11 @@
       <c r="C666" t="n">
         <v>4</v>
       </c>
-      <c r="D666" t="inlineStr"/>
+      <c r="D666" t="inlineStr">
+        <is>
+          <t>Address unavailable</t>
+        </is>
+      </c>
       <c r="E666" t="inlineStr"/>
       <c r="F666" t="inlineStr">
         <is>
@@ -19638,7 +19742,11 @@
       <c r="C668" t="n">
         <v>3</v>
       </c>
-      <c r="D668" t="inlineStr"/>
+      <c r="D668" t="inlineStr">
+        <is>
+          <t>Address unavailable</t>
+        </is>
+      </c>
       <c r="E668" t="inlineStr"/>
       <c r="F668" t="inlineStr">
         <is>
@@ -20038,7 +20146,11 @@
       <c r="C682" t="n">
         <v>1</v>
       </c>
-      <c r="D682" t="inlineStr"/>
+      <c r="D682" t="inlineStr">
+        <is>
+          <t>Address unavailable</t>
+        </is>
+      </c>
       <c r="E682" t="inlineStr"/>
       <c r="F682" t="inlineStr">
         <is>
@@ -20061,7 +20173,11 @@
       <c r="C683" t="n">
         <v>1</v>
       </c>
-      <c r="D683" t="inlineStr"/>
+      <c r="D683" t="inlineStr">
+        <is>
+          <t>Address unavailable</t>
+        </is>
+      </c>
       <c r="E683" t="inlineStr"/>
       <c r="F683" t="inlineStr">
         <is>
@@ -20229,7 +20345,11 @@
       <c r="C689" t="n">
         <v>4</v>
       </c>
-      <c r="D689" t="inlineStr"/>
+      <c r="D689" t="inlineStr">
+        <is>
+          <t>Address unavailable</t>
+        </is>
+      </c>
       <c r="E689" t="inlineStr"/>
       <c r="F689" t="inlineStr">
         <is>
@@ -20252,7 +20372,11 @@
       <c r="C690" t="n">
         <v>4</v>
       </c>
-      <c r="D690" t="inlineStr"/>
+      <c r="D690" t="inlineStr">
+        <is>
+          <t>Address unavailable</t>
+        </is>
+      </c>
       <c r="E690" t="inlineStr"/>
       <c r="F690" t="inlineStr">
         <is>
@@ -20507,7 +20631,11 @@
       <c r="C699" t="n">
         <v>3</v>
       </c>
-      <c r="D699" t="inlineStr"/>
+      <c r="D699" t="inlineStr">
+        <is>
+          <t>Address unavailable</t>
+        </is>
+      </c>
       <c r="E699" t="inlineStr"/>
       <c r="F699" t="inlineStr">
         <is>
@@ -20530,7 +20658,11 @@
       <c r="C700" t="n">
         <v>3</v>
       </c>
-      <c r="D700" t="inlineStr"/>
+      <c r="D700" t="inlineStr">
+        <is>
+          <t>Address unavailable</t>
+        </is>
+      </c>
       <c r="E700" t="inlineStr"/>
       <c r="F700" t="inlineStr">
         <is>
@@ -20582,7 +20714,11 @@
       <c r="C702" t="n">
         <v>2</v>
       </c>
-      <c r="D702" t="inlineStr"/>
+      <c r="D702" t="inlineStr">
+        <is>
+          <t>Address unavailable</t>
+        </is>
+      </c>
       <c r="E702" t="inlineStr"/>
       <c r="F702" t="inlineStr">
         <is>
@@ -20605,7 +20741,11 @@
       <c r="C703" t="n">
         <v>4</v>
       </c>
-      <c r="D703" t="inlineStr"/>
+      <c r="D703" t="inlineStr">
+        <is>
+          <t>Address unavailable</t>
+        </is>
+      </c>
       <c r="E703" t="inlineStr"/>
       <c r="F703" t="inlineStr">
         <is>
@@ -20628,7 +20768,11 @@
       <c r="C704" t="n">
         <v>4</v>
       </c>
-      <c r="D704" t="inlineStr"/>
+      <c r="D704" t="inlineStr">
+        <is>
+          <t>Address unavailable</t>
+        </is>
+      </c>
       <c r="E704" t="inlineStr"/>
       <c r="F704" t="inlineStr">
         <is>
@@ -20651,7 +20795,11 @@
       <c r="C705" t="n">
         <v>3</v>
       </c>
-      <c r="D705" t="inlineStr"/>
+      <c r="D705" t="inlineStr">
+        <is>
+          <t>Address unavailable</t>
+        </is>
+      </c>
       <c r="E705" t="inlineStr"/>
       <c r="F705" t="inlineStr">
         <is>

--- a/streamlit/Houses_Cleaned.xlsx
+++ b/streamlit/Houses_Cleaned.xlsx
@@ -722,7 +722,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">

--- a/streamlit/Houses_Cleaned.xlsx
+++ b/streamlit/Houses_Cleaned.xlsx
@@ -2085,7 +2085,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -5594,7 +5594,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
@@ -6319,7 +6319,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
@@ -7537,7 +7537,7 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
@@ -8813,7 +8813,7 @@
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="G289" t="inlineStr">
@@ -11552,7 +11552,7 @@
       </c>
       <c r="F384" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="G384" t="inlineStr">
@@ -12157,7 +12157,7 @@
       </c>
       <c r="F405" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="G405" t="inlineStr">
@@ -13719,7 +13719,7 @@
       </c>
       <c r="F459" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="G459" t="inlineStr">
@@ -14299,7 +14299,7 @@
       </c>
       <c r="F479" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="G479" t="inlineStr">
@@ -14502,7 +14502,7 @@
       </c>
       <c r="F486" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="G486" t="inlineStr">
@@ -14879,7 +14879,7 @@
       </c>
       <c r="F499" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="G499" t="inlineStr">
@@ -17479,7 +17479,7 @@
       </c>
       <c r="F589" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="G589" t="inlineStr">
@@ -18115,7 +18115,7 @@
       </c>
       <c r="F611" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="G611" t="inlineStr">
@@ -18664,7 +18664,7 @@
       </c>
       <c r="F630" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="G630" t="inlineStr">
@@ -19808,7 +19808,7 @@
       </c>
       <c r="F670" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="G670" t="inlineStr">
@@ -19837,7 +19837,7 @@
       </c>
       <c r="F671" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="G671" t="inlineStr">
@@ -19866,7 +19866,7 @@
       </c>
       <c r="F672" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="G672" t="inlineStr">
@@ -19895,7 +19895,7 @@
       </c>
       <c r="F673" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="G673" t="inlineStr">
@@ -19924,7 +19924,7 @@
       </c>
       <c r="F674" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="G674" t="inlineStr">
@@ -19953,7 +19953,7 @@
       </c>
       <c r="F675" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="G675" t="inlineStr">
@@ -19982,7 +19982,7 @@
       </c>
       <c r="F676" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="G676" t="inlineStr">
@@ -20011,7 +20011,7 @@
       </c>
       <c r="F677" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="G677" t="inlineStr">
@@ -20040,7 +20040,7 @@
       </c>
       <c r="F678" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="G678" t="inlineStr">
@@ -20069,7 +20069,7 @@
       </c>
       <c r="F679" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="G679" t="inlineStr">
@@ -20098,7 +20098,7 @@
       </c>
       <c r="F680" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="G680" t="inlineStr">
@@ -20127,7 +20127,7 @@
       </c>
       <c r="F681" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="G681" t="inlineStr">

--- a/streamlit/Houses_Cleaned.xlsx
+++ b/streamlit/Houses_Cleaned.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F709"/>
+  <dimension ref="A1:F708"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11754,24 +11754,24 @@
         <v>155000</v>
       </c>
       <c r="B436" t="n">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C436" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t>Address unavailable</t>
+          <t>Debrecen, Honvéd</t>
         </is>
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="F436" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/2-halo-nappalis-68-nm-es-kiado-lakas/</t>
+          <t>https://www.findahome.hu/ingatlanok/honved-street-fully-renovated-modern-flat-is-available/</t>
         </is>
       </c>
     </row>
@@ -11780,24 +11780,24 @@
         <v>155000</v>
       </c>
       <c r="B437" t="n">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C437" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>Debrecen, Honvéd</t>
+          <t>Address unavailable</t>
         </is>
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>not center</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="F437" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/honved-street-fully-renovated-modern-flat-is-available/</t>
+          <t>https://www.findahome.hu/ingatlanok/2-halo-nappalis-68-nm-es-kiado-lakas/</t>
         </is>
       </c>
     </row>
@@ -11832,14 +11832,14 @@
         <v>160000</v>
       </c>
       <c r="B439" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="C439" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>Debrecen, Csanak street</t>
+          <t>Debrecen, Jósika street</t>
         </is>
       </c>
       <c r="E439" t="inlineStr">
@@ -11849,7 +11849,7 @@
       </c>
       <c r="F439" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/csanak-street-modern-cozy-flat-for-long-term-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/4-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -11858,14 +11858,14 @@
         <v>160000</v>
       </c>
       <c r="B440" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="C440" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
-          <t>Debrecen, Jósika street</t>
+          <t>Debrecen, Egyetem sugárút</t>
         </is>
       </c>
       <c r="E440" t="inlineStr">
@@ -11875,7 +11875,7 @@
       </c>
       <c r="F440" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/4-bedroom-living-room-flat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/egyetem-sugarut-modern-2-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -11901,7 +11901,7 @@
       </c>
       <c r="F441" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/egyetem-sugarut-modern-2-bedroom-living-room-flat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/egyetem-sugarutcozy-2bedroomliving-room-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -11910,24 +11910,24 @@
         <v>160000</v>
       </c>
       <c r="B442" t="n">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C442" t="n">
         <v>2</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t>Debrecen, Rákóczi street</t>
+          <t>Debrecen, Dóczy Residential Area</t>
         </is>
       </c>
       <c r="E442" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="F442" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/brand-new-apartment-for-rent-inthe-city-center/</t>
+          <t>https://www.findahome.hu/ingatlanok/doczy-park-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -11936,24 +11936,24 @@
         <v>160000</v>
       </c>
       <c r="B443" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C443" t="n">
         <v>3</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>Debrecen, Egyetem sugárút</t>
+          <t>Debrecen, Bethlen</t>
         </is>
       </c>
       <c r="E443" t="inlineStr">
         <is>
-          <t>not center</t>
+          <t>center</t>
         </is>
       </c>
       <c r="F443" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/egyetem-sugarutcozy-2bedroomliving-room-flat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/city-center-2-bedroom-living-room-flat-for-rent-2/</t>
         </is>
       </c>
     </row>
@@ -11962,24 +11962,24 @@
         <v>160000</v>
       </c>
       <c r="B444" t="n">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C444" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>Debrecen, Bethlen</t>
+          <t>Debrecen, Dóczy Park</t>
         </is>
       </c>
       <c r="E444" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="F444" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/city-center-2-bedroom-living-room-flat-for-rent-2/</t>
+          <t>https://www.findahome.hu/ingatlanok/debrecen-doczy-park-1-bedroom-living-room-flat-for-rent-2/</t>
         </is>
       </c>
     </row>
@@ -11988,24 +11988,24 @@
         <v>160000</v>
       </c>
       <c r="B445" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C445" t="n">
         <v>2</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>Debrecen, Dóczy Park</t>
+          <t>Debrecen, Jókai street</t>
         </is>
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>not center</t>
+          <t>center</t>
         </is>
       </c>
       <c r="F445" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/debrecen-doczy-park-1-bedroom-living-room-flat-for-rent-2/</t>
+          <t>https://www.findahome.hu/ingatlanok/city-ceneter-1-bedroom-and-living-room-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -12014,24 +12014,24 @@
         <v>160000</v>
       </c>
       <c r="B446" t="n">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C446" t="n">
         <v>2</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>Debrecen, Jókai street</t>
+          <t>Debrecen, Egyetem sugárút</t>
         </is>
       </c>
       <c r="E446" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="F446" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/city-ceneter-1-bedroom-and-living-room-flat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/egyetem-sugarut-new-modern-1-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -12040,14 +12040,14 @@
         <v>160000</v>
       </c>
       <c r="B447" t="n">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="C447" t="n">
         <v>2</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>Debrecen, Egyetem sugárút</t>
+          <t>Debrecen, Poroszlay street</t>
         </is>
       </c>
       <c r="E447" t="inlineStr">
@@ -12057,7 +12057,7 @@
       </c>
       <c r="F447" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/egyetem-sugarut-new-modern-1-bedroom-living-room-flat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/poroszlay-street-modern-demanding-1-bedroom-living-room-flat-available/</t>
         </is>
       </c>
     </row>
@@ -12066,14 +12066,14 @@
         <v>160000</v>
       </c>
       <c r="B448" t="n">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="C448" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>Debrecen, Poroszlay street</t>
+          <t>Debrecen, Lóskúti street</t>
         </is>
       </c>
       <c r="E448" t="inlineStr">
@@ -12083,7 +12083,7 @@
       </c>
       <c r="F448" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/poroszlay-street-modern-demanding-1-bedroom-living-room-flat-available/</t>
+          <t>https://www.findahome.hu/ingatlanok/2-bedroom-living-room-family-house-for-rent/</t>
         </is>
       </c>
     </row>
@@ -12092,14 +12092,14 @@
         <v>160000</v>
       </c>
       <c r="B449" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C449" t="n">
         <v>3</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>Debrecen, Lóskúti street</t>
+          <t>Debrecen, Dóczy József street</t>
         </is>
       </c>
       <c r="E449" t="inlineStr">
@@ -12109,7 +12109,7 @@
       </c>
       <c r="F449" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/2-bedroom-living-room-family-house-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/doczy-jozsef-street-2-bedroom-living-room-cozy-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -12135,7 +12135,7 @@
       </c>
       <c r="F450" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/doczy-jozsef-street-2-bedroom-living-room-cozy-flat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/2-bedroom-living-room-and-study-roomflat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -12144,14 +12144,14 @@
         <v>160000</v>
       </c>
       <c r="B451" t="n">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C451" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>Debrecen, Zöldfa</t>
+          <t>Debrecen, Csanak street</t>
         </is>
       </c>
       <c r="E451" t="inlineStr">
@@ -12161,7 +12161,7 @@
       </c>
       <c r="F451" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/zoldfa-utcan-butorozatlan-lakas-kiado/</t>
+          <t>https://www.findahome.hu/ingatlanok/csanak-street-modern-cozy-flat-for-long-term-rent/</t>
         </is>
       </c>
     </row>
@@ -12170,24 +12170,24 @@
         <v>160000</v>
       </c>
       <c r="B452" t="n">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="C452" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
-          <t>Debrecen, Arany János street</t>
+          <t>Debrecen, Komlóssy street</t>
         </is>
       </c>
       <c r="E452" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="F452" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/arany-residence-one-of-the-newest-building-luxurious-elegant-home-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/2-bedroom-and-living-room-flat-for-rent-close-to-uni/</t>
         </is>
       </c>
     </row>
@@ -12196,14 +12196,14 @@
         <v>160000</v>
       </c>
       <c r="B453" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C453" t="n">
         <v>3</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t>Debrecen, Dóczy József street</t>
+          <t>Debrecen, Károlyi Mihály</t>
         </is>
       </c>
       <c r="E453" t="inlineStr">
@@ -12213,7 +12213,7 @@
       </c>
       <c r="F453" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/2-bedroom-living-room-and-study-roomflat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/debrecen-karolyi-mihaly-street-2-bedroom1-livingroom-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -12222,24 +12222,24 @@
         <v>160000</v>
       </c>
       <c r="B454" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C454" t="n">
         <v>3</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>Debrecen, Komlóssy street</t>
+          <t>Debrecen, Darabos</t>
         </is>
       </c>
       <c r="E454" t="inlineStr">
         <is>
-          <t>not center</t>
+          <t>center</t>
         </is>
       </c>
       <c r="F454" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/2-bedroom-and-living-room-flat-for-rent-close-to-uni/</t>
+          <t>https://www.findahome.hu/ingatlanok/debrecen-next-to-the-plaza-3-separate-rooms-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -12248,24 +12248,24 @@
         <v>160000</v>
       </c>
       <c r="B455" t="n">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C455" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>Debrecen, Károlyi Mihály</t>
+          <t>Debrecen, Darabos</t>
         </is>
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>not center</t>
+          <t>center</t>
         </is>
       </c>
       <c r="F455" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/debrecen-karolyi-mihaly-street-2-bedroom1-livingroom-flat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/debrecen-city-center-next-to-the-plaza-1-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -12274,24 +12274,24 @@
         <v>160000</v>
       </c>
       <c r="B456" t="n">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="C456" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>Debrecen, Darabos</t>
+          <t>Debrecen , Dóczy Park</t>
         </is>
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="F456" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/debrecen-next-to-the-plaza-3-separate-rooms-flat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/doczy-lakopark-c-building-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -12300,14 +12300,14 @@
         <v>160000</v>
       </c>
       <c r="B457" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C457" t="n">
         <v>2</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>Debrecen, Darabos</t>
+          <t>Debrecen, Rákóczi street</t>
         </is>
       </c>
       <c r="E457" t="inlineStr">
@@ -12317,7 +12317,7 @@
       </c>
       <c r="F457" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/debrecen-city-center-next-to-the-plaza-1-bedroom-living-room-flat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/brand-new-apartment-for-rent-inthe-city-center/</t>
         </is>
       </c>
     </row>
@@ -12326,14 +12326,14 @@
         <v>160000</v>
       </c>
       <c r="B458" t="n">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C458" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>Debrecen , Dóczy Park</t>
+          <t>Debrecen, Dóczy Residential Area</t>
         </is>
       </c>
       <c r="E458" t="inlineStr">
@@ -12343,7 +12343,7 @@
       </c>
       <c r="F458" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/doczy-lakopark-c-building-flat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/doczy-residential-area-1-bedroomliving-room-flat-is-available/</t>
         </is>
       </c>
     </row>
@@ -12352,24 +12352,24 @@
         <v>160000</v>
       </c>
       <c r="B459" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="C459" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>Debrecen, Hunyadi János</t>
+          <t>Debrecen, Akadémia</t>
         </is>
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="F459" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/debrecen-in-the-heart-of-the-city-60-sqm-brand-new-vintage-style-renovated-flat-available-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/flat-for-rent-akademia-street/</t>
         </is>
       </c>
     </row>
@@ -12378,24 +12378,24 @@
         <v>160000</v>
       </c>
       <c r="B460" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="C460" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>Debrecen, Hunyadi utca</t>
+          <t>Address unavailable</t>
         </is>
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="F460" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/heart-of-the-city-2-bedroom-living-room-flat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/flat-for-rent-at-debrecen-doczi-park/</t>
         </is>
       </c>
     </row>
@@ -12404,14 +12404,14 @@
         <v>160000</v>
       </c>
       <c r="B461" t="n">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C461" t="n">
         <v>2</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>Debrecen, Dóczy Residential Area</t>
+          <t>Debrecen, Teleki</t>
         </is>
       </c>
       <c r="E461" t="inlineStr">
@@ -12421,7 +12421,7 @@
       </c>
       <c r="F461" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/doczy-park-flat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/flat-for-rent-in-teleki-street/</t>
         </is>
       </c>
     </row>
@@ -12430,24 +12430,24 @@
         <v>160000</v>
       </c>
       <c r="B462" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C462" t="n">
         <v>2</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>Debrecen, Dóczy Residential Area</t>
+          <t>Debrecen, Arany János street</t>
         </is>
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>not center</t>
+          <t>center</t>
         </is>
       </c>
       <c r="F462" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/doczy-residential-area-47-sqm-1-bedroom-living-room-apartment-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/arany-residence-one-of-the-newest-building-luxurious-elegant-home-for-rent/</t>
         </is>
       </c>
     </row>
@@ -12456,24 +12456,24 @@
         <v>160000</v>
       </c>
       <c r="B463" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C463" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>Debrecen, Akadémia</t>
+          <t>Debrecen, Hunyadi János</t>
         </is>
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>not center</t>
+          <t>center</t>
         </is>
       </c>
       <c r="F463" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/flat-for-rent-akademia-street/</t>
+          <t>https://www.findahome.hu/ingatlanok/debrecen-in-the-heart-of-the-city-60-sqm-brand-new-vintage-style-renovated-flat-available-for-rent/</t>
         </is>
       </c>
     </row>
@@ -12482,24 +12482,24 @@
         <v>160000</v>
       </c>
       <c r="B464" t="n">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="C464" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>Address unavailable</t>
+          <t>Debrecen, Zöldfa</t>
         </is>
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="F464" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/flat-for-rent-at-debrecen-doczi-park/</t>
+          <t>https://www.findahome.hu/ingatlanok/zoldfa-utcan-butorozatlan-lakas-kiado/</t>
         </is>
       </c>
     </row>
@@ -12534,24 +12534,24 @@
         <v>160000</v>
       </c>
       <c r="B466" t="n">
-        <v>43</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="C466" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>Debrecen, Dóczy Residential Area</t>
+          <t>Debrecen, Párizsi Udvar</t>
         </is>
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>not center</t>
+          <t>center</t>
         </is>
       </c>
       <c r="F466" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/doczy-residential-area-1-bedroomliving-room-flat-is-available/</t>
+          <t>https://www.findahome.hu/ingatlanok/parizsi-udvar-2-bedrooms-flat-available-for-rent/</t>
         </is>
       </c>
     </row>
@@ -12560,24 +12560,24 @@
         <v>160000</v>
       </c>
       <c r="B467" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C467" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>Debrecen, Teleki</t>
+          <t>Debrecen, Hunyadi utca</t>
         </is>
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>not center</t>
+          <t>center</t>
         </is>
       </c>
       <c r="F467" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/flat-for-rent-in-teleki-street/</t>
+          <t>https://www.findahome.hu/ingatlanok/heart-of-the-city-2-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -12586,24 +12586,24 @@
         <v>160000</v>
       </c>
       <c r="B468" t="n">
-        <v>71.09999999999999</v>
+        <v>47</v>
       </c>
       <c r="C468" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>Debrecen, Párizsi Udvar</t>
+          <t>Debrecen, Dóczy Residential Area</t>
         </is>
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="F468" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/parizsi-udvar-2-bedrooms-flat-available-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/doczy-residential-area-47-sqm-1-bedroom-living-room-apartment-for-rent/</t>
         </is>
       </c>
     </row>
@@ -12638,14 +12638,14 @@
         <v>165000</v>
       </c>
       <c r="B470" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C470" t="n">
         <v>3</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>Debrecen, Diófa</t>
+          <t>Debrecen, Hatvani István street</t>
         </is>
       </c>
       <c r="E470" t="inlineStr">
@@ -12655,7 +12655,7 @@
       </c>
       <c r="F470" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/new-building-2-bedroom-living-room-flat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/close-to-uni-stylish-exclusive-2-bedroom-living-room-apartment-for-rent/</t>
         </is>
       </c>
     </row>
@@ -12664,24 +12664,24 @@
         <v>165000</v>
       </c>
       <c r="B471" t="n">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="C471" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>Debrecen, Kossuth utca</t>
+          <t>Debrecen, Egyetem sugárút</t>
         </is>
       </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="F471" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-kossuth-utca/214185/</t>
+          <t>https://www.findahome.hu/ingatlanok/egyetem-sugarut-2-bedroom-living-room-apartment-for-rent/</t>
         </is>
       </c>
     </row>
@@ -12690,24 +12690,24 @@
         <v>165000</v>
       </c>
       <c r="B472" t="n">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="C472" t="n">
         <v>3</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>Debrecen, Egyetem sugárút</t>
+          <t>Debrecen, Párizsi Udvar</t>
         </is>
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>not center</t>
+          <t>center</t>
         </is>
       </c>
       <c r="F472" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/egyetem-sugarut-2-bedroom-living-room-apartment-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/parizsi-udvar-2-bedrooms-flat-available-for-rent-3/</t>
         </is>
       </c>
     </row>
@@ -12716,14 +12716,14 @@
         <v>165000</v>
       </c>
       <c r="B473" t="n">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C473" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>Debrecen, Hatvani István street</t>
+          <t>Debrecen, Nagy Lajos király tér</t>
         </is>
       </c>
       <c r="E473" t="inlineStr">
@@ -12733,7 +12733,7 @@
       </c>
       <c r="F473" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/close-to-uni-stylish-exclusive-2-bedroom-living-room-apartment-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/near-melange-and-uni-1-bedroomliving-room-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -12742,14 +12742,14 @@
         <v>165000</v>
       </c>
       <c r="B474" t="n">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="C474" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>Debrecen, Honvéd</t>
+          <t>Debrecen, Görgey</t>
         </is>
       </c>
       <c r="E474" t="inlineStr">
@@ -12759,7 +12759,7 @@
       </c>
       <c r="F474" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/honved-street-4-bedrooms-living-room-flat-available-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/debrecen-gorgey-street-2-separate-room-dining-area-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -12768,14 +12768,14 @@
         <v>165000</v>
       </c>
       <c r="B475" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C475" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>Debrecen, Nagy Lajos király tér</t>
+          <t>Debrecen, Abigél utca</t>
         </is>
       </c>
       <c r="E475" t="inlineStr">
@@ -12785,7 +12785,7 @@
       </c>
       <c r="F475" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/near-melange-and-uni-1-bedroomliving-room-flat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/cozy-2-bedroom-and-living-room-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -12794,14 +12794,14 @@
         <v>165000</v>
       </c>
       <c r="B476" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C476" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>Debrecen, Párizsi Udvar</t>
+          <t>Debrecen, Kossuth utca</t>
         </is>
       </c>
       <c r="E476" t="inlineStr">
@@ -12811,7 +12811,7 @@
       </c>
       <c r="F476" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/parizsi-udvar-2-bedrooms-flat-available-for-rent-3/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-kossuth-utca/214185/</t>
         </is>
       </c>
     </row>
@@ -12820,14 +12820,14 @@
         <v>165000</v>
       </c>
       <c r="B477" t="n">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="C477" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>Debrecen, Egyetem sugárút</t>
+          <t>Debrecen, Diófa</t>
         </is>
       </c>
       <c r="E477" t="inlineStr">
@@ -12837,7 +12837,7 @@
       </c>
       <c r="F477" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/debrecen-egyetem-sugarut-1-bedroom-living-room-stylish-apartament-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/new-building-2-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -12846,14 +12846,14 @@
         <v>165000</v>
       </c>
       <c r="B478" t="n">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C478" t="n">
         <v>2</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>Debrecen , Nagyerdei körút</t>
+          <t>Debrecen, Apafi</t>
         </is>
       </c>
       <c r="E478" t="inlineStr">
@@ -12863,7 +12863,7 @@
       </c>
       <c r="F478" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/nagyerdi-korut-1-bedroom-living-room-3-min-from-the-uni-renovated-flat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/debrecen-apafi-street-close-to-the-kassai-campus-1-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -12872,14 +12872,14 @@
         <v>165000</v>
       </c>
       <c r="B479" t="n">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C479" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>Debrecen, Abigél utca</t>
+          <t>Debrecen, Egyetem sugárút</t>
         </is>
       </c>
       <c r="E479" t="inlineStr">
@@ -12889,7 +12889,7 @@
       </c>
       <c r="F479" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/cozy-2-bedroom-and-living-room-flat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/debrecen-egyetem-sugarut-1-bedroom-living-room-stylish-apartament-for-rent/</t>
         </is>
       </c>
     </row>
@@ -12898,14 +12898,14 @@
         <v>165000</v>
       </c>
       <c r="B480" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="C480" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>Debrecen, Apafi</t>
+          <t>Debrecen, Honvéd</t>
         </is>
       </c>
       <c r="E480" t="inlineStr">
@@ -12915,7 +12915,7 @@
       </c>
       <c r="F480" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/debrecen-apafi-street-close-to-the-kassai-campus-1-bedroom-living-room-flat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/honved-street-4-bedrooms-living-room-flat-available-for-rent/</t>
         </is>
       </c>
     </row>
@@ -12924,14 +12924,14 @@
         <v>165000</v>
       </c>
       <c r="B481" t="n">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C481" t="n">
         <v>2</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>Debrecen, Görgey</t>
+          <t>Debrecen , Nagyerdei körút</t>
         </is>
       </c>
       <c r="E481" t="inlineStr">
@@ -12941,7 +12941,7 @@
       </c>
       <c r="F481" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/debrecen-gorgey-street-2-separate-room-dining-area-flat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/nagyerdi-korut-1-bedroom-living-room-3-min-from-the-uni-renovated-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -12950,14 +12950,14 @@
         <v>170000</v>
       </c>
       <c r="B482" t="n">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C482" t="n">
         <v>2</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>Debrecen, Lehel</t>
+          <t>Debrecen, Honvéd street</t>
         </is>
       </c>
       <c r="E482" t="inlineStr">
@@ -12967,7 +12967,7 @@
       </c>
       <c r="F482" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/debrecen-lehel-bolyai-corner-1-bedroom-livibng-room-flat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/near-the-bem-ter-1-bedroom-livingroom-flat-for-long-term-rent/</t>
         </is>
       </c>
     </row>
@@ -12976,24 +12976,24 @@
         <v>170000</v>
       </c>
       <c r="B483" t="n">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C483" t="n">
         <v>2</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>Debrecen, Tímár utca</t>
+          <t>Debrecen, Lehel</t>
         </is>
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="F483" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-timar-utca/220350/</t>
+          <t>https://www.findahome.hu/ingatlanok/debrecen-lehel-bolyai-corner-1-bedroom-livibng-room-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -13002,24 +13002,24 @@
         <v>170000</v>
       </c>
       <c r="B484" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="C484" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>Debrecen, Honvéd street</t>
+          <t>Debrecen, Párizsi Udvar</t>
         </is>
       </c>
       <c r="E484" t="inlineStr">
         <is>
-          <t>not center</t>
+          <t>center</t>
         </is>
       </c>
       <c r="F484" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/near-the-bem-ter-1-bedroom-livingroom-flat-for-long-term-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/parizsi-udvar-2-bedrooms-flat-available-for-rent-2/</t>
         </is>
       </c>
     </row>
@@ -13028,24 +13028,24 @@
         <v>170000</v>
       </c>
       <c r="B485" t="n">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C485" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>Debrecen, Kórház street</t>
+          <t>Debrecen, Csapó street</t>
         </is>
       </c>
       <c r="E485" t="inlineStr">
         <is>
-          <t>not center</t>
+          <t>center</t>
         </is>
       </c>
       <c r="F485" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/3-bedroom-living-room-flat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/nice-flat-in-the-city-center/</t>
         </is>
       </c>
     </row>
@@ -13054,24 +13054,24 @@
         <v>170000</v>
       </c>
       <c r="B486" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C486" t="n">
         <v>3</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>Debrecen, Párizsi Udvar</t>
+          <t>Debrecen, Hatvani István street</t>
         </is>
       </c>
       <c r="E486" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="F486" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/parizsi-udvar-2-bedrooms-flat-available-for-rent-2/</t>
+          <t>https://www.findahome.hu/ingatlanok/hatvani-istvan-street-2-bedroom-living-room-cozy-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -13080,14 +13080,14 @@
         <v>170000</v>
       </c>
       <c r="B487" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C487" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>Debrecen, Hatvani István street</t>
+          <t>Debrecen, Hatvani István</t>
         </is>
       </c>
       <c r="E487" t="inlineStr">
@@ -13097,7 +13097,7 @@
       </c>
       <c r="F487" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/hatvani-istvan-street-2-bedroom-living-room-cozy-flat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/flat-for-rent-hatvani-istvan-utca/</t>
         </is>
       </c>
     </row>
@@ -13106,14 +13106,14 @@
         <v>170000</v>
       </c>
       <c r="B488" t="n">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C488" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t>Debrecen, Böszörményi street</t>
+          <t>Debrecen, Baross</t>
         </is>
       </c>
       <c r="E488" t="inlineStr">
@@ -13123,7 +13123,7 @@
       </c>
       <c r="F488" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/boszormenyi-street-3-separate-room-dining-area-flat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/flat-for-rent-baross-utca/</t>
         </is>
       </c>
     </row>
@@ -13158,14 +13158,14 @@
         <v>170000</v>
       </c>
       <c r="B490" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="C490" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
-          <t>Debrecen, Poroszlay street</t>
+          <t>Debrecen, Nyár street</t>
         </is>
       </c>
       <c r="E490" t="inlineStr">
@@ -13175,7 +13175,7 @@
       </c>
       <c r="F490" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/luxury-cozy-home-in-poroszlay-street-new-building/</t>
+          <t>https://www.findahome.hu/ingatlanok/studio-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -13184,14 +13184,14 @@
         <v>170000</v>
       </c>
       <c r="B491" t="n">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C491" t="n">
         <v>3</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t>Debrecen, Bem tér</t>
+          <t>Debrecen, Dózsa György street</t>
         </is>
       </c>
       <c r="E491" t="inlineStr">
@@ -13201,7 +13201,7 @@
       </c>
       <c r="F491" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/bem-ter-new-building-2-bedroom-living-room-modern-flat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/dozsa-gyorgy-street-2-bedrooms-living-room-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -13210,14 +13210,14 @@
         <v>170000</v>
       </c>
       <c r="B492" t="n">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C492" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>Debrecen, Mikszáth Kálmán</t>
+          <t>Debrecen, Cívis utca</t>
         </is>
       </c>
       <c r="E492" t="inlineStr">
@@ -13227,7 +13227,7 @@
       </c>
       <c r="F492" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/mikszath-kalman-street-renovated-1-bedroomliving-room-flat-for-rent/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-civis-utca/220404/</t>
         </is>
       </c>
     </row>
@@ -13236,14 +13236,14 @@
         <v>170000</v>
       </c>
       <c r="B493" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C493" t="n">
         <v>2</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>Debrecen, Kossuth street</t>
+          <t>Debrecen, Széchenyi</t>
         </is>
       </c>
       <c r="E493" t="inlineStr">
@@ -13253,7 +13253,7 @@
       </c>
       <c r="F493" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/1-bedroom-and-living-room-flat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/flat-for-rent-szechenyi-street/</t>
         </is>
       </c>
     </row>
@@ -13262,14 +13262,14 @@
         <v>170000</v>
       </c>
       <c r="B494" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="C494" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
-          <t>Debrecen, Péterfia street</t>
+          <t>Debrecen, Kossuth street</t>
         </is>
       </c>
       <c r="E494" t="inlineStr">
@@ -13279,7 +13279,7 @@
       </c>
       <c r="F494" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/city-center-2-bedroom-living-room-flat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/1-bedroom-and-living-room-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -13288,14 +13288,14 @@
         <v>170000</v>
       </c>
       <c r="B495" t="n">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C495" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t>Debrecen, Cívis utca</t>
+          <t>Debrecen, Peterfia</t>
         </is>
       </c>
       <c r="E495" t="inlineStr">
@@ -13305,7 +13305,7 @@
       </c>
       <c r="F495" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-civis-utca/220404/</t>
+          <t>https://www.findahome.hu/ingatlanok/beautiful-1-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -13314,14 +13314,14 @@
         <v>170000</v>
       </c>
       <c r="B496" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="C496" t="n">
         <v>2</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
-          <t>Debrecen, Hatvani István</t>
+          <t>Debrecen, Mikszáth Kálmán</t>
         </is>
       </c>
       <c r="E496" t="inlineStr">
@@ -13331,7 +13331,7 @@
       </c>
       <c r="F496" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/flat-for-rent-hatvani-istvan-utca/</t>
+          <t>https://www.findahome.hu/ingatlanok/mikszath-kalman-street-renovated-1-bedroomliving-room-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -13340,24 +13340,24 @@
         <v>170000</v>
       </c>
       <c r="B497" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C497" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
-          <t>Debrecen, Baross</t>
+          <t>Address unavailable</t>
         </is>
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>not center</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="F497" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/flat-for-rent-baross-utca/</t>
+          <t>https://www.greatforest.hu/property/101904-debrecen-close-to-kassai-campus-flat</t>
         </is>
       </c>
     </row>
@@ -13366,14 +13366,14 @@
         <v>170000</v>
       </c>
       <c r="B498" t="n">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="C498" t="n">
         <v>2</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
-          <t>Debrecen, Széchenyi</t>
+          <t>Debrecen, Arany János</t>
         </is>
       </c>
       <c r="E498" t="inlineStr">
@@ -13383,7 +13383,7 @@
       </c>
       <c r="F498" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/flat-for-rent-szechenyi-street/</t>
+          <t>https://www.findahome.hu/ingatlanok/flat-for-rent-arany-janos-utca/</t>
         </is>
       </c>
     </row>
@@ -13392,14 +13392,14 @@
         <v>170000</v>
       </c>
       <c r="B499" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C499" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
-          <t>Debrecen, Széchenyi utca</t>
+          <t>Debrecen, Tímár utca</t>
         </is>
       </c>
       <c r="E499" t="inlineStr">
@@ -13409,7 +13409,7 @@
       </c>
       <c r="F499" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-szechenyi-utca/219233/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-timar-utca/220350/</t>
         </is>
       </c>
     </row>
@@ -13418,24 +13418,24 @@
         <v>170000</v>
       </c>
       <c r="B500" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C500" t="n">
         <v>3</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
-          <t>Address unavailable</t>
+          <t>Debrecen, Csapó</t>
         </is>
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>center</t>
         </is>
       </c>
       <c r="F500" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/101904-debrecen-close-to-kassai-campus-flat</t>
+          <t>https://www.findahome.hu/ingatlanok/flat-for-rent-in-csapo-street/</t>
         </is>
       </c>
     </row>
@@ -13444,24 +13444,24 @@
         <v>170000</v>
       </c>
       <c r="B501" t="n">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C501" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
-          <t>Debrecen, Csapó street</t>
+          <t>Debrecen, Böszörményi street</t>
         </is>
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="F501" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/nice-flat-in-the-city-center/</t>
+          <t>https://www.findahome.hu/ingatlanok/boszormenyi-street-3-separate-room-dining-area-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -13470,24 +13470,24 @@
         <v>170000</v>
       </c>
       <c r="B502" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C502" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
-          <t>Debrecen, Egyetemsugárút</t>
+          <t>Debrecen, Széchenyi utca</t>
         </is>
       </c>
       <c r="E502" t="inlineStr">
         <is>
-          <t>not center</t>
+          <t>center</t>
         </is>
       </c>
       <c r="F502" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/debrecen-egyetemsugarut-modern-renovated-flat-for-rent/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-szechenyi-utca/219233/</t>
         </is>
       </c>
     </row>
@@ -13496,14 +13496,14 @@
         <v>170000</v>
       </c>
       <c r="B503" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C503" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
-          <t>Debrecen, Arany János</t>
+          <t>Debrecen, Péterfia street</t>
         </is>
       </c>
       <c r="E503" t="inlineStr">
@@ -13513,7 +13513,7 @@
       </c>
       <c r="F503" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/flat-for-rent-arany-janos-utca/</t>
+          <t>https://www.findahome.hu/ingatlanok/city-center-2-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -13522,14 +13522,14 @@
         <v>170000</v>
       </c>
       <c r="B504" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C504" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
-          <t>Debrecen, Dózsa György street</t>
+          <t>Debrecen, Árpád tér</t>
         </is>
       </c>
       <c r="E504" t="inlineStr">
@@ -13539,7 +13539,7 @@
       </c>
       <c r="F504" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/dozsa-gyorgy-street-2-bedrooms-living-room-flat-for-rent/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-arpad-ter/220260/</t>
         </is>
       </c>
     </row>
@@ -13548,14 +13548,14 @@
         <v>170000</v>
       </c>
       <c r="B505" t="n">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="C505" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
-          <t>Debrecen, Peterfia</t>
+          <t>Debrecen, Kórház street</t>
         </is>
       </c>
       <c r="E505" t="inlineStr">
@@ -13565,7 +13565,7 @@
       </c>
       <c r="F505" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/beautiful-1-bedroom-living-room-flat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/3-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -13574,14 +13574,14 @@
         <v>170000</v>
       </c>
       <c r="B506" t="n">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="C506" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
-          <t>Debrecen, Nyár street</t>
+          <t>Debrecen , Böszörményi street</t>
         </is>
       </c>
       <c r="E506" t="inlineStr">
@@ -13591,7 +13591,7 @@
       </c>
       <c r="F506" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/studio-flat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/furedi-residential-area-flat-for-rent-2/</t>
         </is>
       </c>
     </row>
@@ -13600,14 +13600,14 @@
         <v>170000</v>
       </c>
       <c r="B507" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C507" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
-          <t>Debrecen, Árpád tér</t>
+          <t>Debrecen, Bem tér</t>
         </is>
       </c>
       <c r="E507" t="inlineStr">
@@ -13617,7 +13617,7 @@
       </c>
       <c r="F507" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-arpad-ter/220260/</t>
+          <t>https://www.findahome.hu/ingatlanok/bem-ter-new-building-2-bedroom-living-room-modern-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -13626,24 +13626,24 @@
         <v>170000</v>
       </c>
       <c r="B508" t="n">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C508" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
-          <t>Debrecen, Csapó</t>
+          <t>Debrecen, Poroszlay street</t>
         </is>
       </c>
       <c r="E508" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="F508" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/flat-for-rent-in-csapo-street/</t>
+          <t>https://www.findahome.hu/ingatlanok/luxury-cozy-home-in-poroszlay-street-new-building/</t>
         </is>
       </c>
     </row>
@@ -13659,7 +13659,7 @@
       </c>
       <c r="D509" t="inlineStr">
         <is>
-          <t>Debrecen , Böszörményi street</t>
+          <t>Debrecen, Egyetemsugárút</t>
         </is>
       </c>
       <c r="E509" t="inlineStr">
@@ -13669,7 +13669,7 @@
       </c>
       <c r="F509" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/furedi-residential-area-flat-for-rent-2/</t>
+          <t>https://www.findahome.hu/ingatlanok/debrecen-egyetemsugarut-modern-renovated-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -13678,24 +13678,24 @@
         <v>175000</v>
       </c>
       <c r="B510" t="n">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="C510" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
-          <t>Address unavailable</t>
+          <t>Debrecen, Egyetem sugárút</t>
         </is>
       </c>
       <c r="E510" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="F510" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/50904-debrecen-city-center-office-not-in-office-building</t>
+          <t>https://www.findahome.hu/ingatlanok/egyetem-sugarut-2-bedroom-living-room-apartment-for-rent-2/</t>
         </is>
       </c>
     </row>
@@ -13704,14 +13704,14 @@
         <v>175000</v>
       </c>
       <c r="B511" t="n">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="C511" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
-          <t>Debrecen, Diófa</t>
+          <t>Debrecen, Egyetem sugárút</t>
         </is>
       </c>
       <c r="E511" t="inlineStr">
@@ -13721,7 +13721,7 @@
       </c>
       <c r="F511" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/debrecen-diofa-street-new-building-3-bedroom-living-room-flat-for-rent/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-egyetem-sugarut/201487/</t>
         </is>
       </c>
     </row>
@@ -13730,14 +13730,14 @@
         <v>175000</v>
       </c>
       <c r="B512" t="n">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="C512" t="n">
         <v>1</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
-          <t>Debrecen, Egyetem sugárút</t>
+          <t>Debrecen, Kétmalom</t>
         </is>
       </c>
       <c r="E512" t="inlineStr">
@@ -13747,7 +13747,7 @@
       </c>
       <c r="F512" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-egyetem-sugarut/201487/</t>
+          <t>https://www.findahome.hu/ingatlanok/flat-for-rent-in-ketmalom-utca/</t>
         </is>
       </c>
     </row>
@@ -13756,14 +13756,14 @@
         <v>175000</v>
       </c>
       <c r="B513" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C513" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
-          <t>Debrecen, Egyetem sugárút</t>
+          <t>Debrecen, Diófa</t>
         </is>
       </c>
       <c r="E513" t="inlineStr">
@@ -13773,7 +13773,7 @@
       </c>
       <c r="F513" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/egyetem-sugarut-2-bedroom-living-room-apartment-for-rent-2/</t>
+          <t>https://www.findahome.hu/ingatlanok/debrecen-diofa-street-new-building-3-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -13808,24 +13808,24 @@
         <v>175000</v>
       </c>
       <c r="B515" t="n">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C515" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
-          <t>Debrecen, Kétmalom</t>
+          <t>Address unavailable</t>
         </is>
       </c>
       <c r="E515" t="inlineStr">
         <is>
-          <t>not center</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="F515" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/flat-for-rent-in-ketmalom-utca/</t>
+          <t>https://www.greatforest.hu/property/50904-debrecen-city-center-office-not-in-office-building</t>
         </is>
       </c>
     </row>
@@ -13834,14 +13834,14 @@
         <v>180000</v>
       </c>
       <c r="B516" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C516" t="n">
         <v>2</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
-          <t>Debrecen, Csanak utca</t>
+          <t>Debrecen, Bem tér</t>
         </is>
       </c>
       <c r="E516" t="inlineStr">
@@ -13851,7 +13851,7 @@
       </c>
       <c r="F516" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/csanak-street-very-close-to-tram-1-medical-school-cozy-modern-1-bedroom-apartment-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/clean-renovated-flat-in-bem-ter/</t>
         </is>
       </c>
     </row>
@@ -13860,14 +13860,14 @@
         <v>180000</v>
       </c>
       <c r="B517" t="n">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="C517" t="n">
         <v>3</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
-          <t>Debrecen, Thomas Mann street</t>
+          <t>Debrecen, Dóczy József street</t>
         </is>
       </c>
       <c r="E517" t="inlineStr">
@@ -13877,7 +13877,7 @@
       </c>
       <c r="F517" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/flat-for-rent-close-to-uni/</t>
+          <t>https://www.findahome.hu/ingatlanok/9154/</t>
         </is>
       </c>
     </row>
@@ -13886,14 +13886,14 @@
         <v>180000</v>
       </c>
       <c r="B518" t="n">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="C518" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
-          <t>Debrecen, Csanak street</t>
+          <t>Debrecen, Komlóssy street</t>
         </is>
       </c>
       <c r="E518" t="inlineStr">
@@ -13903,7 +13903,7 @@
       </c>
       <c r="F518" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/beautiful-1-bedroom-living-room-flat-only-a-few-minutes-from-medical-school-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/komlossy-utca-2-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -13912,24 +13912,24 @@
         <v>180000</v>
       </c>
       <c r="B519" t="n">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="C519" t="n">
         <v>3</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
-          <t>Debrecen, Poroszlay street</t>
+          <t>Debrecen, Vörösmarty</t>
         </is>
       </c>
       <c r="E519" t="inlineStr">
         <is>
-          <t>not center</t>
+          <t>center</t>
         </is>
       </c>
       <c r="F519" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/poroszlay-street-2-bedroom-living-room-flat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/flat-rent-vorosmarty-street/</t>
         </is>
       </c>
     </row>
@@ -13938,14 +13938,14 @@
         <v>180000</v>
       </c>
       <c r="B520" t="n">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="C520" t="n">
         <v>3</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
-          <t>Debrecen, Komlóssy street</t>
+          <t>Debrecen, Poroszlay street</t>
         </is>
       </c>
       <c r="E520" t="inlineStr">
@@ -13955,7 +13955,7 @@
       </c>
       <c r="F520" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/komlossy-utca-2-bedroom-living-room-flat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/poroszlay-street-2-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -13990,14 +13990,14 @@
         <v>180000</v>
       </c>
       <c r="B522" t="n">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="C522" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
-          <t>Debrecen, Dóczy József street</t>
+          <t>Debrecen, Mikszáth Kálmán street</t>
         </is>
       </c>
       <c r="E522" t="inlineStr">
@@ -14007,7 +14007,7 @@
       </c>
       <c r="F522" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/9154/</t>
+          <t>https://www.findahome.hu/ingatlanok/mikszath-kalman-street-close-to-uni-2-rooms-flat-available/</t>
         </is>
       </c>
     </row>
@@ -14016,14 +14016,14 @@
         <v>180000</v>
       </c>
       <c r="B523" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C523" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
-          <t>Debrecen, Kodály Zoltán street</t>
+          <t>Debrecen, Hadházi út</t>
         </is>
       </c>
       <c r="E523" t="inlineStr">
@@ -14033,7 +14033,7 @@
       </c>
       <c r="F523" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/kodaly-street-modern-1-bedroom-living-room-flat-available-beside-tram-line/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-hadhazi-ut/220177/</t>
         </is>
       </c>
     </row>
@@ -14042,24 +14042,24 @@
         <v>180000</v>
       </c>
       <c r="B524" t="n">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C524" t="n">
         <v>2</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
-          <t>Debrecen, Bajcsy-Zsilinszky</t>
+          <t>Debrecen, Csanak street</t>
         </is>
       </c>
       <c r="E524" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="F524" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/flat-for-rent-bajcsy-zsilinszky-street/</t>
+          <t>https://www.findahome.hu/ingatlanok/beautiful-1-bedroom-living-room-flat-only-a-few-minutes-from-medical-school-for-rent/</t>
         </is>
       </c>
     </row>
@@ -14068,24 +14068,24 @@
         <v>180000</v>
       </c>
       <c r="B525" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="C525" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
-          <t>Debrecen, Böszörményi</t>
+          <t>Debrecen, Berek</t>
         </is>
       </c>
       <c r="E525" t="inlineStr">
         <is>
-          <t>not center</t>
+          <t>center</t>
         </is>
       </c>
       <c r="F525" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/flat-for-rent-in-furedi-lakopark/</t>
+          <t>https://www.findahome.hu/ingatlanok/debrecen-city-center-2-bedroom-living-room-flat-for-rent-4/</t>
         </is>
       </c>
     </row>
@@ -14094,24 +14094,24 @@
         <v>180000</v>
       </c>
       <c r="B526" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C526" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
-          <t>Address unavailable</t>
+          <t>Debrecen, Poroszlay út</t>
         </is>
       </c>
       <c r="E526" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="F526" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/101846-debrecen-close-to-main-campus-flat</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-poroszlay-ut/186919/</t>
         </is>
       </c>
     </row>
@@ -14120,14 +14120,14 @@
         <v>180000</v>
       </c>
       <c r="B527" t="n">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="C527" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
-          <t>Debrecen, Nagyerdei körút</t>
+          <t>Debrecen, Mikszáth Kálmán street</t>
         </is>
       </c>
       <c r="E527" t="inlineStr">
@@ -14137,7 +14137,7 @@
       </c>
       <c r="F527" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-nagyerdei-korut/199999/</t>
+          <t>https://www.findahome.hu/ingatlanok/mikszath-street-very-close-to-uni-brand-new-cozy-home-for-rent/</t>
         </is>
       </c>
     </row>
@@ -14146,24 +14146,24 @@
         <v>180000</v>
       </c>
       <c r="B528" t="n">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="C528" t="n">
         <v>2</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
-          <t>Debrecen, Mikszáth Kálmán street</t>
+          <t>Address unavailable</t>
         </is>
       </c>
       <c r="E528" t="inlineStr">
         <is>
-          <t>not center</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="F528" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/mikszath-street-very-close-to-uni-brand-new-cozy-home-for-rent/</t>
+          <t>https://www.greatforest.hu/property/80392-debrecen-greatforest-area-flat</t>
         </is>
       </c>
     </row>
@@ -14172,14 +14172,14 @@
         <v>180000</v>
       </c>
       <c r="B529" t="n">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C529" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
-          <t>Debrecen, Poroszlay út</t>
+          <t>Debrecen, Segner tér</t>
         </is>
       </c>
       <c r="E529" t="inlineStr">
@@ -14189,7 +14189,7 @@
       </c>
       <c r="F529" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-poroszlay-ut/186919/</t>
+          <t>https://www.findahome.hu/ingatlanok/2-bedroom-and-living-room-flat-for-rent-2/</t>
         </is>
       </c>
     </row>
@@ -14198,24 +14198,24 @@
         <v>180000</v>
       </c>
       <c r="B530" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C530" t="n">
         <v>3</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
-          <t>Debrecen, Vörösmarty</t>
+          <t>Debrecen, Egyetem sugárút</t>
         </is>
       </c>
       <c r="E530" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="F530" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/flat-rent-vorosmarty-street/</t>
+          <t>https://www.findahome.hu/ingatlanok/egyetem-sugarut-3-separated-rooms-for-rent/</t>
         </is>
       </c>
     </row>
@@ -14224,24 +14224,24 @@
         <v>180000</v>
       </c>
       <c r="B531" t="n">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C531" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
-          <t>Debrecen, Berek</t>
+          <t>Address unavailable</t>
         </is>
       </c>
       <c r="E531" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="F531" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/debrecen-city-center-2-bedroom-living-room-flat-for-rent-4/</t>
+          <t>https://www.greatforest.hu/property/101846-debrecen-close-to-main-campus-flat</t>
         </is>
       </c>
     </row>
@@ -14250,24 +14250,24 @@
         <v>180000</v>
       </c>
       <c r="B532" t="n">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="C532" t="n">
         <v>2</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
-          <t>Address unavailable</t>
+          <t>Debrecen, Bajcsy-Zsilinszky</t>
         </is>
       </c>
       <c r="E532" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>center</t>
         </is>
       </c>
       <c r="F532" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/80392-debrecen-greatforest-area-flat</t>
+          <t>https://www.findahome.hu/ingatlanok/flat-for-rent-bajcsy-zsilinszky-street/</t>
         </is>
       </c>
     </row>
@@ -14276,14 +14276,14 @@
         <v>180000</v>
       </c>
       <c r="B533" t="n">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="C533" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
-          <t>Debrecen, Mikszáth Kálmán street</t>
+          <t>Debrecen, Nagyerdei körút</t>
         </is>
       </c>
       <c r="E533" t="inlineStr">
@@ -14293,7 +14293,7 @@
       </c>
       <c r="F533" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/mikszath-kalman-street-close-to-uni-2-rooms-flat-available/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-nagyerdei-korut/199999/</t>
         </is>
       </c>
     </row>
@@ -14302,14 +14302,14 @@
         <v>180000</v>
       </c>
       <c r="B534" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C534" t="n">
         <v>2</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
-          <t>Debrecen, Bem tér</t>
+          <t>Debrecen, Csanak utca</t>
         </is>
       </c>
       <c r="E534" t="inlineStr">
@@ -14319,7 +14319,7 @@
       </c>
       <c r="F534" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/clean-renovated-flat-in-bem-ter/</t>
+          <t>https://www.findahome.hu/ingatlanok/csanak-street-very-close-to-tram-1-medical-school-cozy-modern-1-bedroom-apartment-for-rent/</t>
         </is>
       </c>
     </row>
@@ -14328,14 +14328,14 @@
         <v>180000</v>
       </c>
       <c r="B535" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C535" t="n">
         <v>3</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
-          <t>Debrecen, Egyetem sugárút</t>
+          <t>Debrecen, Dóczy Park</t>
         </is>
       </c>
       <c r="E535" t="inlineStr">
@@ -14345,7 +14345,7 @@
       </c>
       <c r="F535" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/egyetem-sugarut-3-separated-rooms-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/doczy-park-2-bedroom-living-room-flat-for-rent-2/</t>
         </is>
       </c>
     </row>
@@ -14354,24 +14354,24 @@
         <v>180000</v>
       </c>
       <c r="B536" t="n">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C536" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
-          <t>Debrecen, Egyetem sugárút</t>
+          <t>Debrecen, Péterfia</t>
         </is>
       </c>
       <c r="E536" t="inlineStr">
         <is>
-          <t>not center</t>
+          <t>center</t>
         </is>
       </c>
       <c r="F536" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-egyetem-sugarut/183691/</t>
+          <t>https://www.findahome.hu/ingatlanok/two-bedroom-american-style-kitchen-unfurnished-flat-peterfia-street/</t>
         </is>
       </c>
     </row>
@@ -14380,14 +14380,14 @@
         <v>180000</v>
       </c>
       <c r="B537" t="n">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="C537" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
-          <t>Debrecen, Dóczy Park</t>
+          <t>Debrecen, Egyetem sugárút</t>
         </is>
       </c>
       <c r="E537" t="inlineStr">
@@ -14397,7 +14397,7 @@
       </c>
       <c r="F537" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/doczy-park-2-bedroom-living-room-flat-for-rent-2/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-egyetem-sugarut/183691/</t>
         </is>
       </c>
     </row>
@@ -14406,14 +14406,14 @@
         <v>180000</v>
       </c>
       <c r="B538" t="n">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="C538" t="n">
         <v>3</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
-          <t>Debrecen, Dóczy Park</t>
+          <t>Debrecen, Géresi</t>
         </is>
       </c>
       <c r="E538" t="inlineStr">
@@ -14423,7 +14423,7 @@
       </c>
       <c r="F538" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/doczy-park-2-bedroom-living-room-flat-for-rent-3/</t>
+          <t>https://www.findahome.hu/ingatlanok/debrecen-geresi-street-2-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -14432,14 +14432,14 @@
         <v>180000</v>
       </c>
       <c r="B539" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C539" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
-          <t>Debrecen, Hadházi út</t>
+          <t>Debrecen, Dóczy Park</t>
         </is>
       </c>
       <c r="E539" t="inlineStr">
@@ -14449,7 +14449,7 @@
       </c>
       <c r="F539" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-hadhazi-ut/220177/</t>
+          <t>https://www.findahome.hu/ingatlanok/doczy-park-2-bedroom-living-room-flat-for-rent-3/</t>
         </is>
       </c>
     </row>
@@ -14458,14 +14458,14 @@
         <v>180000</v>
       </c>
       <c r="B540" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="C540" t="n">
         <v>3</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
-          <t>Debrecen, Géresi</t>
+          <t>Debrecen, Thomas Mann street</t>
         </is>
       </c>
       <c r="E540" t="inlineStr">
@@ -14475,7 +14475,7 @@
       </c>
       <c r="F540" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/debrecen-geresi-street-2-bedroom-living-room-flat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/flat-for-rent-close-to-uni/</t>
         </is>
       </c>
     </row>
@@ -14484,24 +14484,24 @@
         <v>180000</v>
       </c>
       <c r="B541" t="n">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C541" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
-          <t>Debrecen, Péterfia</t>
+          <t>Debrecen, Böszörményi</t>
         </is>
       </c>
       <c r="E541" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="F541" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/two-bedroom-american-style-kitchen-unfurnished-flat-peterfia-street/</t>
+          <t>https://www.findahome.hu/ingatlanok/flat-for-rent-in-furedi-lakopark/</t>
         </is>
       </c>
     </row>
@@ -14510,14 +14510,14 @@
         <v>180000</v>
       </c>
       <c r="B542" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C542" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
-          <t>Debrecen, Segner tér</t>
+          <t>Debrecen, Kodály Zoltán street</t>
         </is>
       </c>
       <c r="E542" t="inlineStr">
@@ -14527,7 +14527,7 @@
       </c>
       <c r="F542" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/2-bedroom-and-living-room-flat-for-rent-2/</t>
+          <t>https://www.findahome.hu/ingatlanok/kodaly-street-modern-1-bedroom-living-room-flat-available-beside-tram-line/</t>
         </is>
       </c>
     </row>
@@ -14536,24 +14536,24 @@
         <v>185000</v>
       </c>
       <c r="B543" t="n">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C543" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
-          <t>Address unavailable</t>
+          <t>Debrecen , Böszörményi street</t>
         </is>
       </c>
       <c r="E543" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="F543" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/100277-debrecen-city-center-flat</t>
+          <t>https://www.findahome.hu/ingatlanok/furedi-lakopark-brand-new-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -14588,14 +14588,14 @@
         <v>185000</v>
       </c>
       <c r="B545" t="n">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="C545" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
-          <t>Debrecen , Böszörményi street</t>
+          <t>Debrecen, Szombathi István</t>
         </is>
       </c>
       <c r="E545" t="inlineStr">
@@ -14605,33 +14605,33 @@
       </c>
       <c r="F545" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/furedi-lakopark-brand-new-flat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/17265/</t>
         </is>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="n">
-        <v>185000</v>
+        <v>190000</v>
       </c>
       <c r="B546" t="n">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C546" t="n">
         <v>3</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
-          <t>Debrecen, Szombathi István</t>
+          <t>Debrecen, Piac</t>
         </is>
       </c>
       <c r="E546" t="inlineStr">
         <is>
-          <t>not center</t>
+          <t>center</t>
         </is>
       </c>
       <c r="F546" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/17265/</t>
+          <t>https://www.findahome.hu/ingatlanok/flat-rent-piac-street/</t>
         </is>
       </c>
     </row>
@@ -14647,17 +14647,17 @@
       </c>
       <c r="D547" t="inlineStr">
         <is>
-          <t>Debrecen, Piac</t>
+          <t>Debrecen, Komlóssy street</t>
         </is>
       </c>
       <c r="E547" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="F547" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/flat-rent-piac-street/</t>
+          <t>https://www.findahome.hu/ingatlanok/komlossy-street-2-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -14666,14 +14666,14 @@
         <v>190000</v>
       </c>
       <c r="B548" t="n">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C548" t="n">
         <v>3</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
-          <t>Debrecen, Széchenyi street</t>
+          <t>Debrecen, Jászai Mari tér</t>
         </is>
       </c>
       <c r="E548" t="inlineStr">
@@ -14683,7 +14683,7 @@
       </c>
       <c r="F548" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/szechenyi-corner-city-center-2-bedroom-living-room-brand-new-flat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/debrecen-city-center-2-bedroom-living-room-flat-for-ent/</t>
         </is>
       </c>
     </row>
@@ -14718,24 +14718,24 @@
         <v>190000</v>
       </c>
       <c r="B550" t="n">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C550" t="n">
         <v>3</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
-          <t>Debrecen, Komlóssy street</t>
+          <t>Debrecen, Széchenyi street</t>
         </is>
       </c>
       <c r="E550" t="inlineStr">
         <is>
-          <t>not center</t>
+          <t>center</t>
         </is>
       </c>
       <c r="F550" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/komlossy-street-2-bedroom-living-room-flat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/szechenyi-corner-city-center-2-bedroom-living-room-brand-new-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -14767,27 +14767,27 @@
     </row>
     <row r="552">
       <c r="A552" t="n">
-        <v>190000</v>
+        <v>195000</v>
       </c>
       <c r="B552" t="n">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="C552" t="n">
         <v>3</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
-          <t>Debrecen, Jászai Mari tér</t>
+          <t>Debrecen, Lilla köz</t>
         </is>
       </c>
       <c r="E552" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="F552" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/debrecen-city-center-2-bedroom-living-room-flat-for-ent/</t>
+          <t>https://www.findahome.hu/ingatlanok/fancy-flat-for-rent-in-lilla-koz/</t>
         </is>
       </c>
     </row>
@@ -14796,24 +14796,24 @@
         <v>195000</v>
       </c>
       <c r="B553" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C553" t="n">
         <v>3</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
-          <t>Debrecen, Poroszlay street</t>
+          <t>Debrecen, Garai</t>
         </is>
       </c>
       <c r="E553" t="inlineStr">
         <is>
-          <t>not center</t>
+          <t>center</t>
         </is>
       </c>
       <c r="F553" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/cozy-2-bedroom-living-room-flat-for-rent-close-to-uni/</t>
+          <t>https://www.findahome.hu/ingatlanok/debrecen-city-centernew-building-2-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -14822,40 +14822,40 @@
         <v>195000</v>
       </c>
       <c r="B554" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C554" t="n">
         <v>3</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
-          <t>Debrecen, Garai</t>
+          <t>Debrecen, Poroszlay street</t>
         </is>
       </c>
       <c r="E554" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="F554" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/debrecen-city-centernew-building-2-bedroom-living-room-flat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/cozy-2-bedroom-living-room-flat-for-rent-close-to-uni/</t>
         </is>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="n">
-        <v>195000</v>
+        <v>199000</v>
       </c>
       <c r="B555" t="n">
-        <v>84</v>
+        <v>122</v>
       </c>
       <c r="C555" t="n">
         <v>3</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
-          <t>Debrecen, Lilla köz</t>
+          <t>Debrecen, Komlóssy street</t>
         </is>
       </c>
       <c r="E555" t="inlineStr">
@@ -14865,23 +14865,23 @@
       </c>
       <c r="F555" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/fancy-flat-for-rent-in-lilla-koz/</t>
+          <t>https://www.findahome.hu/ingatlanok/debrecen-2-bedroom-living-room-komlossy-ut/</t>
         </is>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="n">
-        <v>199000</v>
+        <v>200000</v>
       </c>
       <c r="B556" t="n">
-        <v>122</v>
+        <v>76</v>
       </c>
       <c r="C556" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
-          <t>Debrecen, Komlóssy street</t>
+          <t>Debrecen, Rigó utca</t>
         </is>
       </c>
       <c r="E556" t="inlineStr">
@@ -14891,7 +14891,7 @@
       </c>
       <c r="F556" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/debrecen-2-bedroom-living-room-komlossy-ut/</t>
+          <t>https://debrecenrent.hu/for-rent/house/debrecen-rigo-utca/215785/</t>
         </is>
       </c>
     </row>
@@ -14900,14 +14900,14 @@
         <v>200000</v>
       </c>
       <c r="B557" t="n">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="C557" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
-          <t>Debrecen, Szent Anna</t>
+          <t>Debrecen, Péterfia street</t>
         </is>
       </c>
       <c r="E557" t="inlineStr">
@@ -14917,7 +14917,7 @@
       </c>
       <c r="F557" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/debrecen-city-center-3-bedroom-living-room-flat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/popular-parizsi-udvar-2-bedroom-living-room-flat-available/</t>
         </is>
       </c>
     </row>
@@ -14926,14 +14926,14 @@
         <v>200000</v>
       </c>
       <c r="B558" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C558" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
-          <t>Debrecen, Párizsi Udvar</t>
+          <t>Debrecen, Csapó</t>
         </is>
       </c>
       <c r="E558" t="inlineStr">
@@ -14943,7 +14943,7 @@
       </c>
       <c r="F558" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/parizsi-udvar-2-bedroom-living-room-flat-for-rent-3/</t>
+          <t>https://www.findahome.hu/ingatlanok/flat-for-rent-csapo-street/</t>
         </is>
       </c>
     </row>
@@ -14952,14 +14952,14 @@
         <v>200000</v>
       </c>
       <c r="B559" t="n">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C559" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
-          <t>Debrecen , Kardos Albert street</t>
+          <t>Debrecen, Serház</t>
         </is>
       </c>
       <c r="E559" t="inlineStr">
@@ -14969,7 +14969,7 @@
       </c>
       <c r="F559" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/cozy-2-bedroom-living-room-flat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/debrecen-serhaz-utca-brand-new-1-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -14978,24 +14978,24 @@
         <v>200000</v>
       </c>
       <c r="B560" t="n">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C560" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
-          <t>Debrecen, Csapó</t>
+          <t>Debrecen, Párizsi udvar</t>
         </is>
       </c>
       <c r="E560" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="F560" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/flat-for-rent-csapo-street/</t>
+          <t>https://www.findahome.hu/ingatlanok/parizsi-udvar-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -15004,14 +15004,14 @@
         <v>200000</v>
       </c>
       <c r="B561" t="n">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="C561" t="n">
         <v>2</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
-          <t>Debrecen, Dóczy Park</t>
+          <t>Debrecen, Poroszlay street</t>
         </is>
       </c>
       <c r="E561" t="inlineStr">
@@ -15021,7 +15021,7 @@
       </c>
       <c r="F561" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/debrecen-doczy-park-1-bedroom-living-room-flat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/debrecen-poroszlay-street-2-bedroom-big-dining-area/</t>
         </is>
       </c>
     </row>
@@ -15030,14 +15030,14 @@
         <v>200000</v>
       </c>
       <c r="B562" t="n">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="C562" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
-          <t>Debrecen, Komlóssy</t>
+          <t>Debrecen, Párizsi udvar</t>
         </is>
       </c>
       <c r="E562" t="inlineStr">
@@ -15047,7 +15047,7 @@
       </c>
       <c r="F562" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/debrecen-komlossy-street-2-bedroom-living-room-100-sqm-flat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/parizsi-udvar-cozy-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -15056,24 +15056,24 @@
         <v>200000</v>
       </c>
       <c r="B563" t="n">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C563" t="n">
         <v>2</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
-          <t>Debrecen, Serház</t>
+          <t>Debrecen, Péterfia</t>
         </is>
       </c>
       <c r="E563" t="inlineStr">
         <is>
-          <t>not center</t>
+          <t>center</t>
         </is>
       </c>
       <c r="F563" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/debrecen-serhaz-utca-brand-new-1-bedroom-living-room-flat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/flat-for-rent-peterfia-street/</t>
         </is>
       </c>
     </row>
@@ -15082,14 +15082,14 @@
         <v>200000</v>
       </c>
       <c r="B564" t="n">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="C564" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
-          <t>Debrecen, Párizsi udvar</t>
+          <t>Debrecen, Dóczy Park</t>
         </is>
       </c>
       <c r="E564" t="inlineStr">
@@ -15099,7 +15099,7 @@
       </c>
       <c r="F564" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/parizsi-udvar-bedroom-living-room-flat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/debrecen-doczy-park-1-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -15108,24 +15108,24 @@
         <v>200000</v>
       </c>
       <c r="B565" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C565" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
-          <t>Debrecen, Párizsi udvar</t>
+          <t>Debrecen, Péterfia utca</t>
         </is>
       </c>
       <c r="E565" t="inlineStr">
         <is>
-          <t>not center</t>
+          <t>center</t>
         </is>
       </c>
       <c r="F565" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/parizsi-udvar-cozy-flat-for-rent/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-peterfia-utca/210104/</t>
         </is>
       </c>
     </row>
@@ -15134,14 +15134,14 @@
         <v>200000</v>
       </c>
       <c r="B566" t="n">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="C566" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
-          <t>Debrecen, Péterfia</t>
+          <t>Debrecen, Párizsi Udvar</t>
         </is>
       </c>
       <c r="E566" t="inlineStr">
@@ -15151,7 +15151,7 @@
       </c>
       <c r="F566" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/flat-for-rent-peterfia-street/</t>
+          <t>https://www.findahome.hu/ingatlanok/parizsi-udvar-2-bedroom-living-room-flat-for-rent-3/</t>
         </is>
       </c>
     </row>
@@ -15160,14 +15160,14 @@
         <v>200000</v>
       </c>
       <c r="B567" t="n">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C567" t="n">
         <v>2</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
-          <t>Debrecen, Poroszlay street</t>
+          <t>Debrecen, Párizsi udvar</t>
         </is>
       </c>
       <c r="E567" t="inlineStr">
@@ -15177,7 +15177,7 @@
       </c>
       <c r="F567" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/debrecen-poroszlay-street-2-bedroom-big-dining-area/</t>
+          <t>https://www.findahome.hu/ingatlanok/flat-for-rent-in-parizsi-udvar/</t>
         </is>
       </c>
     </row>
@@ -15186,24 +15186,24 @@
         <v>200000</v>
       </c>
       <c r="B568" t="n">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="C568" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
-          <t>Debrecen, Párizsi udvar</t>
+          <t>Address unavailable</t>
         </is>
       </c>
       <c r="E568" t="inlineStr">
         <is>
-          <t>not center</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="F568" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/flat-for-rent-in-parizsi-udvar/</t>
+          <t>https://www.findahome.hu/ingatlanok/nappali-2-halos-felujitott-gepesitett-lakas/</t>
         </is>
       </c>
     </row>
@@ -15212,24 +15212,24 @@
         <v>200000</v>
       </c>
       <c r="B569" t="n">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="C569" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
-          <t>Debrecen, Péterfia utca</t>
+          <t>Debrecen, Hatvani István</t>
         </is>
       </c>
       <c r="E569" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="F569" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-peterfia-utca/210104/</t>
+          <t>https://www.findahome.hu/ingatlanok/debrecen-hatvani-istvan-street-3-rooms-ac-new-building-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -15238,14 +15238,14 @@
         <v>200000</v>
       </c>
       <c r="B570" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C570" t="n">
         <v>3</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
-          <t>Debrecen, Dóczy Park</t>
+          <t>Debrecen, Serház street</t>
         </is>
       </c>
       <c r="E570" t="inlineStr">
@@ -15255,7 +15255,7 @@
       </c>
       <c r="F570" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/2-bedroom-living-room-flat-for-rent-in-doczy-park/</t>
+          <t>https://www.findahome.hu/ingatlanok/debrecen-bem-ter-2-bedroom-living-room-flat-for-rent-2/</t>
         </is>
       </c>
     </row>
@@ -15264,14 +15264,14 @@
         <v>200000</v>
       </c>
       <c r="B571" t="n">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="C571" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
-          <t>Debrecen, Péterfia street</t>
+          <t>Debrecen, Szent Anna</t>
         </is>
       </c>
       <c r="E571" t="inlineStr">
@@ -15281,7 +15281,7 @@
       </c>
       <c r="F571" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/popular-parizsi-udvar-2-bedroom-living-room-flat-available/</t>
+          <t>https://www.findahome.hu/ingatlanok/debrecen-city-center-3-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -15290,14 +15290,14 @@
         <v>200000</v>
       </c>
       <c r="B572" t="n">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="C572" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
-          <t>Debrecen, Jerikó utca</t>
+          <t>Debrecen, Komlóssy</t>
         </is>
       </c>
       <c r="E572" t="inlineStr">
@@ -15307,7 +15307,7 @@
       </c>
       <c r="F572" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-jeriko-utca/218202/</t>
+          <t>https://www.findahome.hu/ingatlanok/debrecen-komlossy-street-2-bedroom-living-room-100-sqm-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -15316,24 +15316,24 @@
         <v>200000</v>
       </c>
       <c r="B573" t="n">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="C573" t="n">
         <v>3</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
-          <t>Debrecen, Hatvan utca</t>
+          <t>Debrecen, Bem tér</t>
         </is>
       </c>
       <c r="E573" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="F573" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/debrecen-city-center-1-min-from-the-yellow-church-2-bedroomliving-room-flat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/debrecen-bem-ter-2-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -15342,14 +15342,14 @@
         <v>200000</v>
       </c>
       <c r="B574" t="n">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C574" t="n">
         <v>3</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
-          <t>Debrecen, Nagyerdei körút</t>
+          <t>Debrecen, Dóczy Park</t>
         </is>
       </c>
       <c r="E574" t="inlineStr">
@@ -15359,7 +15359,7 @@
       </c>
       <c r="F574" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/debrecen-close-to-ther-uni-main-building-3-rooms-flat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/2-bedroom-living-room-flat-for-rent-in-doczy-park/</t>
         </is>
       </c>
     </row>
@@ -15368,24 +15368,24 @@
         <v>200000</v>
       </c>
       <c r="B575" t="n">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="C575" t="n">
         <v>3</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
-          <t>Debrecen, Borbíró tér</t>
+          <t>Debrecen, Párizsi Udvar</t>
         </is>
       </c>
       <c r="E575" t="inlineStr">
         <is>
-          <t>not center</t>
+          <t>center</t>
         </is>
       </c>
       <c r="F575" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/borbiro-ter-brand-new-3-rooms-apartment-near-uni-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/parizsi-udvar-2-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -15394,24 +15394,24 @@
         <v>200000</v>
       </c>
       <c r="B576" t="n">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C576" t="n">
         <v>3</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
-          <t>Address unavailable</t>
+          <t>Debrecen, Párizsi Udvar</t>
         </is>
       </c>
       <c r="E576" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>center</t>
         </is>
       </c>
       <c r="F576" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/nappali-2-halos-felujitott-gepesitett-lakas/</t>
+          <t>https://www.findahome.hu/ingatlanok/parizsi-udvar-2-bedroom-living-room-flat-for-rent-2/</t>
         </is>
       </c>
     </row>
@@ -15446,14 +15446,14 @@
         <v>200000</v>
       </c>
       <c r="B578" t="n">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="C578" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
-          <t>Debrecen , Bólyai street</t>
+          <t>Debrecen , Kardos Albert street</t>
         </is>
       </c>
       <c r="E578" t="inlineStr">
@@ -15463,7 +15463,7 @@
       </c>
       <c r="F578" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/bolyai-street-luxury-flat-next-to-the-uni-main-flat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/cozy-2-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -15472,24 +15472,24 @@
         <v>200000</v>
       </c>
       <c r="B579" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C579" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
-          <t>Debrecen, Párizsi Udvar</t>
+          <t>Debrecen, Jerikó utca</t>
         </is>
       </c>
       <c r="E579" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="F579" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/parizsi-udvar-2-bedroom-living-room-flat-for-rent-2/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-jeriko-utca/218202/</t>
         </is>
       </c>
     </row>
@@ -15498,24 +15498,24 @@
         <v>200000</v>
       </c>
       <c r="B580" t="n">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="C580" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
-          <t>Address unavailable</t>
+          <t>Debrecen, Borbíró tér</t>
         </is>
       </c>
       <c r="E580" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="F580" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/94781-debrecen-city-center-commercial-premises-not-in-shopping-center</t>
+          <t>https://www.findahome.hu/ingatlanok/borbiro-ter-brand-new-3-rooms-apartment-near-uni-for-rent/</t>
         </is>
       </c>
     </row>
@@ -15524,24 +15524,24 @@
         <v>200000</v>
       </c>
       <c r="B581" t="n">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C581" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
-          <t>Debrecen, Rigó utca</t>
+          <t>Debrecen, Hatvan utca</t>
         </is>
       </c>
       <c r="E581" t="inlineStr">
         <is>
-          <t>not center</t>
+          <t>center</t>
         </is>
       </c>
       <c r="F581" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/house/debrecen-rigo-utca/215785/</t>
+          <t>https://www.findahome.hu/ingatlanok/debrecen-city-center-1-min-from-the-yellow-church-2-bedroomliving-room-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -15550,24 +15550,24 @@
         <v>200000</v>
       </c>
       <c r="B582" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="C582" t="n">
         <v>3</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
-          <t>Address unavailable</t>
+          <t>Debrecen, Lilla köz</t>
         </is>
       </c>
       <c r="E582" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="F582" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/20816-debrecen-city-north-part-of-a-house</t>
+          <t>https://www.findahome.hu/ingatlanok/debrecen-lilla-koz-modern-new-flat-for-long-term-rent/</t>
         </is>
       </c>
     </row>
@@ -15576,24 +15576,24 @@
         <v>200000</v>
       </c>
       <c r="B583" t="n">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C583" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
-          <t>Debrecen, Párizsi Udvar</t>
+          <t>Debrecen , Bólyai street</t>
         </is>
       </c>
       <c r="E583" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="F583" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/parizsi-udvar-2-bedroom-living-room-flat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/bolyai-street-luxury-flat-next-to-the-uni-main-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -15602,24 +15602,24 @@
         <v>200000</v>
       </c>
       <c r="B584" t="n">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C584" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
-          <t>Debrecen, Bem tér</t>
+          <t>Address unavailable</t>
         </is>
       </c>
       <c r="E584" t="inlineStr">
         <is>
-          <t>not center</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="F584" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/debrecen-bem-ter-2-bedroom-living-room-flat-for-rent/</t>
+          <t>https://www.greatforest.hu/property/94781-debrecen-city-center-commercial-premises-not-in-shopping-center</t>
         </is>
       </c>
     </row>
@@ -15628,24 +15628,24 @@
         <v>200000</v>
       </c>
       <c r="B585" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C585" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
-          <t>Debrecen , Kassai street</t>
+          <t>Debrecen, Simonffy</t>
         </is>
       </c>
       <c r="E585" t="inlineStr">
         <is>
-          <t>not center</t>
+          <t>center</t>
         </is>
       </c>
       <c r="F585" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/3-bedrooms-livng-room-flat-for-rent-close-to-kassai-campus/</t>
+          <t>https://www.findahome.hu/ingatlanok/modern-spaceous-flat-in-halkoz-for-rent/</t>
         </is>
       </c>
     </row>
@@ -15654,24 +15654,24 @@
         <v>200000</v>
       </c>
       <c r="B586" t="n">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C586" t="n">
         <v>3</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
-          <t>Debrecen, Erzsébet</t>
+          <t>Debrecen, Berek</t>
         </is>
       </c>
       <c r="E586" t="inlineStr">
         <is>
-          <t>not center</t>
+          <t>center</t>
         </is>
       </c>
       <c r="F586" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/flat-for-rent-erzsebet-utca/</t>
+          <t>https://www.findahome.hu/ingatlanok/close-to-forum-2-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -15680,24 +15680,24 @@
         <v>200000</v>
       </c>
       <c r="B587" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="C587" t="n">
         <v>3</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
-          <t>Debrecen, Lilla köz</t>
+          <t>Address unavailable</t>
         </is>
       </c>
       <c r="E587" t="inlineStr">
         <is>
-          <t>not center</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="F587" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/debrecen-lilla-koz-modern-new-flat-for-long-term-rent/</t>
+          <t>https://www.greatforest.hu/property/20816-debrecen-city-north-part-of-a-house</t>
         </is>
       </c>
     </row>
@@ -15706,14 +15706,14 @@
         <v>200000</v>
       </c>
       <c r="B588" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C588" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
-          <t>Debrecen, Hatvani István</t>
+          <t>Debrecen , Kassai street</t>
         </is>
       </c>
       <c r="E588" t="inlineStr">
@@ -15723,7 +15723,7 @@
       </c>
       <c r="F588" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/debrecen-hatvani-istvan-street-3-rooms-ac-new-building-flat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/3-bedrooms-livng-room-flat-for-rent-close-to-kassai-campus/</t>
         </is>
       </c>
     </row>
@@ -15732,24 +15732,24 @@
         <v>200000</v>
       </c>
       <c r="B589" t="n">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="C589" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
-          <t>Debrecen, Simonffy</t>
+          <t>Debrecen, Erzsébet</t>
         </is>
       </c>
       <c r="E589" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="F589" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/modern-spaceous-flat-in-halkoz-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/flat-for-rent-erzsebet-utca/</t>
         </is>
       </c>
     </row>
@@ -15758,24 +15758,24 @@
         <v>200000</v>
       </c>
       <c r="B590" t="n">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C590" t="n">
         <v>3</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
-          <t>Debrecen, Berek</t>
+          <t>Debrecen, Nagyerdei körút</t>
         </is>
       </c>
       <c r="E590" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="F590" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/close-to-forum-2-bedroom-living-room-flat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/debrecen-close-to-ther-uni-main-building-3-rooms-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -15784,14 +15784,14 @@
         <v>200000</v>
       </c>
       <c r="B591" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C591" t="n">
         <v>3</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
-          <t>Debrecen, Serház street</t>
+          <t>Debrecen, Poroszlay street</t>
         </is>
       </c>
       <c r="E591" t="inlineStr">
@@ -15801,33 +15801,33 @@
       </c>
       <c r="F591" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/debrecen-bem-ter-2-bedroom-living-room-flat-for-rent-2/</t>
+          <t>https://www.findahome.hu/ingatlanok/poroszlay-street-exclusive-brand-new-2-bedroom-living-room-apartment/</t>
         </is>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="n">
-        <v>200000</v>
+        <v>210000</v>
       </c>
       <c r="B592" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="C592" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
-          <t>Debrecen, Poroszlay street</t>
+          <t>Debrecen, Bethlen utca</t>
         </is>
       </c>
       <c r="E592" t="inlineStr">
         <is>
-          <t>not center</t>
+          <t>center</t>
         </is>
       </c>
       <c r="F592" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/poroszlay-street-exclusive-brand-new-2-bedroom-living-room-apartment/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-bethlen-utca/220348/</t>
         </is>
       </c>
     </row>
@@ -15888,24 +15888,24 @@
         <v>210000</v>
       </c>
       <c r="B595" t="n">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C595" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
-          <t>Debrecen, Bethlen utca</t>
+          <t>Debrecen, Bajcsy Zsilinszky</t>
         </is>
       </c>
       <c r="E595" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="F595" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-bethlen-utca/220348/</t>
+          <t>https://www.findahome.hu/ingatlanok/debrecen-city-center-2-bedroom-living-room-flat-for-rent-3/</t>
         </is>
       </c>
     </row>
@@ -15914,24 +15914,24 @@
         <v>210000</v>
       </c>
       <c r="B596" t="n">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C596" t="n">
         <v>3</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
-          <t>Debrecen, Bajcsy Zsilinszky</t>
+          <t>Debrecen, Piac street</t>
         </is>
       </c>
       <c r="E596" t="inlineStr">
         <is>
-          <t>not center</t>
+          <t>center</t>
         </is>
       </c>
       <c r="F596" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/debrecen-city-center-2-bedroom-living-room-flat-for-rent-3/</t>
+          <t>https://www.findahome.hu/ingatlanok/piac-street-brand-new-exclusive-2-bedrooms-2-bathrooms-apartment-for-rent/</t>
         </is>
       </c>
     </row>
@@ -15963,27 +15963,27 @@
     </row>
     <row r="598">
       <c r="A598" t="n">
-        <v>210000</v>
+        <v>220000</v>
       </c>
       <c r="B598" t="n">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C598" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
-          <t>Debrecen, Piac street</t>
+          <t>Debrecen, Böszörményi út</t>
         </is>
       </c>
       <c r="E598" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="F598" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/piac-street-brand-new-exclusive-2-bedrooms-2-bathrooms-apartment-for-rent/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-boszormenyi-ut/209447/</t>
         </is>
       </c>
     </row>
@@ -16018,14 +16018,14 @@
         <v>220000</v>
       </c>
       <c r="B600" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="C600" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
-          <t>Debrecen, Hatvani István street</t>
+          <t>Debrecen, Simonyi</t>
         </is>
       </c>
       <c r="E600" t="inlineStr">
@@ -16035,7 +16035,7 @@
       </c>
       <c r="F600" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/hatvani-istvan-street-renovated-modern-flat-for-long-term-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/simonyi-street-flat-rent/</t>
         </is>
       </c>
     </row>
@@ -16044,24 +16044,24 @@
         <v>220000</v>
       </c>
       <c r="B601" t="n">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="C601" t="n">
         <v>3</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
-          <t>Debrecen, Piac street</t>
+          <t>Debrecen, Egyetem sugárút</t>
         </is>
       </c>
       <c r="E601" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="F601" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/piac-street-2-bedrooms-cozy-flat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/egyetem-sugarut-2-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -16070,14 +16070,14 @@
         <v>220000</v>
       </c>
       <c r="B602" t="n">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="C602" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
-          <t>Debrecen, Vasvári pál</t>
+          <t>Debrecen, Vezér utca</t>
         </is>
       </c>
       <c r="E602" t="inlineStr">
@@ -16087,7 +16087,7 @@
       </c>
       <c r="F602" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/4-bedroom-living-room-flat-for-rent-at-vasvari-pal-street/</t>
+          <t>https://www.findahome.hu/ingatlanok/vezer-residential-area-in-a-queit-neighbourhood-3-bedrooms-living-room-house-for-rent/</t>
         </is>
       </c>
     </row>
@@ -16096,14 +16096,14 @@
         <v>220000</v>
       </c>
       <c r="B603" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C603" t="n">
         <v>3</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
-          <t>Debrecen, Hatvan Corner</t>
+          <t>Debrecen, Arany János</t>
         </is>
       </c>
       <c r="E603" t="inlineStr">
@@ -16113,7 +16113,7 @@
       </c>
       <c r="F603" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/hatvan-corner-2-bedroom-living-room-flat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/city-center-2-bedroom-american-style-kitchen-apartment-for-rent/</t>
         </is>
       </c>
     </row>
@@ -16122,24 +16122,24 @@
         <v>220000</v>
       </c>
       <c r="B604" t="n">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="C604" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
-          <t>Debrecen, Simonyi</t>
+          <t>Address unavailable</t>
         </is>
       </c>
       <c r="E604" t="inlineStr">
         <is>
-          <t>not center</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="F604" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/simonyi-street-flat-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/kiado-arany-janos-utca-54-nm/</t>
         </is>
       </c>
     </row>
@@ -16148,24 +16148,24 @@
         <v>220000</v>
       </c>
       <c r="B605" t="n">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="C605" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
-          <t>Debrecen, Arany jános</t>
+          <t>Debrecen, Piac street</t>
         </is>
       </c>
       <c r="E605" t="inlineStr">
         <is>
-          <t>not center</t>
+          <t>center</t>
         </is>
       </c>
       <c r="F605" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/kiado-52-nm-es-uj-epitesu-lakas/</t>
+          <t>https://www.findahome.hu/ingatlanok/piac-street-2-bedrooms-cozy-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -16174,14 +16174,14 @@
         <v>220000</v>
       </c>
       <c r="B606" t="n">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C606" t="n">
         <v>2</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
-          <t>Debrecen, Böszörményi út</t>
+          <t>Debrecen, Hatvani István street</t>
         </is>
       </c>
       <c r="E606" t="inlineStr">
@@ -16191,7 +16191,7 @@
       </c>
       <c r="F606" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-boszormenyi-ut/209447/</t>
+          <t>https://www.findahome.hu/ingatlanok/hatvani-istvan-street-renovated-modern-flat-for-long-term-rent/</t>
         </is>
       </c>
     </row>
@@ -16200,14 +16200,14 @@
         <v>220000</v>
       </c>
       <c r="B607" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="C607" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
-          <t>Debrecen, Vezér utca</t>
+          <t>Debrecen, Rózsahegy utca</t>
         </is>
       </c>
       <c r="E607" t="inlineStr">
@@ -16217,7 +16217,7 @@
       </c>
       <c r="F607" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/vezer-residential-area-in-a-queit-neighbourhood-3-bedrooms-living-room-house-for-rent/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-rozsahegy-utca/209110/</t>
         </is>
       </c>
     </row>
@@ -16252,24 +16252,24 @@
         <v>220000</v>
       </c>
       <c r="B609" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C609" t="n">
         <v>2</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
-          <t>Address unavailable</t>
+          <t>Debrecen, Arany jános</t>
         </is>
       </c>
       <c r="E609" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="F609" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/kiado-arany-janos-utca-54-nm/</t>
+          <t>https://www.findahome.hu/ingatlanok/kiado-52-nm-es-uj-epitesu-lakas/</t>
         </is>
       </c>
     </row>
@@ -16278,24 +16278,24 @@
         <v>220000</v>
       </c>
       <c r="B610" t="n">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="C610" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
-          <t>Debrecen, Piac utca</t>
+          <t>Debrecen, Komlóssy street</t>
         </is>
       </c>
       <c r="E610" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="F610" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-piac-utca/184393/</t>
+          <t>https://www.findahome.hu/ingatlanok/komlossy-street-near-med-uni-beautiful-2-bedroom-living-room-apartment-for-rent/</t>
         </is>
       </c>
     </row>
@@ -16304,24 +16304,24 @@
         <v>220000</v>
       </c>
       <c r="B611" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C611" t="n">
         <v>3</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
-          <t>Debrecen, Egyetem sugárút</t>
+          <t>Debrecen, Hatvan Corner</t>
         </is>
       </c>
       <c r="E611" t="inlineStr">
         <is>
-          <t>not center</t>
+          <t>center</t>
         </is>
       </c>
       <c r="F611" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/egyetem-sugarut-2-bedroom-living-room-flat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/hatvan-corner-2-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -16330,14 +16330,14 @@
         <v>220000</v>
       </c>
       <c r="B612" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C612" t="n">
         <v>3</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
-          <t>Debrecen, Nyár street</t>
+          <t>Debrecen, Serház</t>
         </is>
       </c>
       <c r="E612" t="inlineStr">
@@ -16347,7 +16347,7 @@
       </c>
       <c r="F612" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/nyar-street-2-bedroom-living-room-flat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/debrecen-serhaz-utca-2-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -16356,14 +16356,14 @@
         <v>220000</v>
       </c>
       <c r="B613" t="n">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C613" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
-          <t>Debrecen, Rózsahegy utca</t>
+          <t>Debrecen, Nyár street</t>
         </is>
       </c>
       <c r="E613" t="inlineStr">
@@ -16373,7 +16373,7 @@
       </c>
       <c r="F613" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-rozsahegy-utca/209110/</t>
+          <t>https://www.findahome.hu/ingatlanok/nyar-street-2-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -16382,24 +16382,24 @@
         <v>220000</v>
       </c>
       <c r="B614" t="n">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="C614" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
-          <t>Address unavailable</t>
+          <t>Debrecen, Kút</t>
         </is>
       </c>
       <c r="E614" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="F614" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/99213-debrecen-close-to-main-campus-flat</t>
+          <t>https://www.findahome.hu/ingatlanok/kut-street-modern-3-bedrooms-living-room-flat-is-available/</t>
         </is>
       </c>
     </row>
@@ -16408,24 +16408,24 @@
         <v>220000</v>
       </c>
       <c r="B615" t="n">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="C615" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
-          <t>Debrecen, Komlóssy street</t>
+          <t>Debrecen, Bethlen</t>
         </is>
       </c>
       <c r="E615" t="inlineStr">
         <is>
-          <t>not center</t>
+          <t>center</t>
         </is>
       </c>
       <c r="F615" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/komlossy-street-near-med-uni-beautiful-2-bedroom-living-room-apartment-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/luxury-apartment-for-rent-in-the-city-center/</t>
         </is>
       </c>
     </row>
@@ -16434,24 +16434,24 @@
         <v>220000</v>
       </c>
       <c r="B616" t="n">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="C616" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
-          <t>Debrecen, Serház</t>
+          <t>Address unavailable</t>
         </is>
       </c>
       <c r="E616" t="inlineStr">
         <is>
-          <t>not center</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="F616" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/debrecen-serhaz-utca-2-bedroom-living-room-flat-for-rent/</t>
+          <t>https://www.greatforest.hu/property/99213-debrecen-close-to-main-campus-flat</t>
         </is>
       </c>
     </row>
@@ -16460,14 +16460,14 @@
         <v>220000</v>
       </c>
       <c r="B617" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C617" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
-          <t>Debrecen, Arany János</t>
+          <t>Debrecen, Piac utca</t>
         </is>
       </c>
       <c r="E617" t="inlineStr">
@@ -16477,7 +16477,7 @@
       </c>
       <c r="F617" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/city-center-2-bedroom-american-style-kitchen-apartment-for-rent/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-piac-utca/184393/</t>
         </is>
       </c>
     </row>
@@ -16486,50 +16486,50 @@
         <v>220000</v>
       </c>
       <c r="B618" t="n">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="C618" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
-          <t>Debrecen, Bethlen</t>
+          <t>Debrecen, Vasvári pál</t>
         </is>
       </c>
       <c r="E618" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="F618" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/luxury-apartment-for-rent-in-the-city-center/</t>
+          <t>https://www.findahome.hu/ingatlanok/4-bedroom-living-room-flat-for-rent-at-vasvari-pal-street/</t>
         </is>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="n">
-        <v>220000</v>
+        <v>230000</v>
       </c>
       <c r="B619" t="n">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="C619" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
-          <t>Debrecen, Kút</t>
+          <t>, Széchenyi street</t>
         </is>
       </c>
       <c r="E619" t="inlineStr">
         <is>
-          <t>not center</t>
+          <t>center</t>
         </is>
       </c>
       <c r="F619" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/kut-street-modern-3-bedrooms-living-room-flat-is-available/</t>
+          <t>https://www.findahome.hu/ingatlanok/szechenyi-corner-city-center-2-bedroom-living-room-brand-new-flat-for-rent-2/</t>
         </is>
       </c>
     </row>
@@ -16538,14 +16538,14 @@
         <v>230000</v>
       </c>
       <c r="B620" t="n">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C620" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
-          <t>Debrecen, Gönczy Pál utca</t>
+          <t>Debrecen, Bem tér</t>
         </is>
       </c>
       <c r="E620" t="inlineStr">
@@ -16555,7 +16555,7 @@
       </c>
       <c r="F620" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-gonczy-pal-utca/216064/</t>
+          <t>https://www.findahome.hu/ingatlanok/flat-for-rent-bem-ter/</t>
         </is>
       </c>
     </row>
@@ -16564,24 +16564,24 @@
         <v>230000</v>
       </c>
       <c r="B621" t="n">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="C621" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
-          <t>Debrecen, Tímár street</t>
+          <t>Address unavailable</t>
         </is>
       </c>
       <c r="E621" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="F621" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/timar-street-exclusively-designed-3-bedroom-living-room-flat-available/</t>
+          <t>https://www.greatforest.hu/property/98613-debrecen-jozsa-lower-flat</t>
         </is>
       </c>
     </row>
@@ -16590,24 +16590,24 @@
         <v>230000</v>
       </c>
       <c r="B622" t="n">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C622" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
-          <t>Address unavailable</t>
+          <t>Debrecen, Dóczy Park</t>
         </is>
       </c>
       <c r="E622" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="F622" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/98613-debrecen-jozsa-lower-flat</t>
+          <t>https://www.findahome.hu/ingatlanok/doczy-park-2-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -16616,24 +16616,24 @@
         <v>230000</v>
       </c>
       <c r="B623" t="n">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="C623" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
-          <t>Debrecen, Dóczy Park</t>
+          <t>Debrecen, Tímár street</t>
         </is>
       </c>
       <c r="E623" t="inlineStr">
         <is>
-          <t>not center</t>
+          <t>center</t>
         </is>
       </c>
       <c r="F623" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/doczy-park-2-bedroom-living-room-flat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/timar-street-exclusively-designed-3-bedroom-living-room-flat-available/</t>
         </is>
       </c>
     </row>
@@ -16642,14 +16642,14 @@
         <v>230000</v>
       </c>
       <c r="B624" t="n">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C624" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
-          <t>Debrecen, Füredi</t>
+          <t>Debrecen, Gönczy Pál utca</t>
         </is>
       </c>
       <c r="E624" t="inlineStr">
@@ -16659,7 +16659,7 @@
       </c>
       <c r="F624" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/apartment-for-rent-in-debrecen-next-to-the-university-of-agriculture/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-gonczy-pal-utca/216064/</t>
         </is>
       </c>
     </row>
@@ -16720,14 +16720,14 @@
         <v>230000</v>
       </c>
       <c r="B627" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C627" t="n">
         <v>2</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
-          <t>Debrecen, Bem tér</t>
+          <t>Debrecen, Füredi</t>
         </is>
       </c>
       <c r="E627" t="inlineStr">
@@ -16737,59 +16737,59 @@
       </c>
       <c r="F627" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/flat-for-rent-bem-ter/</t>
+          <t>https://www.findahome.hu/ingatlanok/apartment-for-rent-in-debrecen-next-to-the-university-of-agriculture/</t>
         </is>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="n">
-        <v>230000</v>
+        <v>235000</v>
       </c>
       <c r="B628" t="n">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="C628" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
-          <t>, Széchenyi street</t>
+          <t>Debrecen, Dessewffy</t>
         </is>
       </c>
       <c r="E628" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="F628" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/szechenyi-corner-city-center-2-bedroom-living-room-brand-new-flat-for-rent-2/</t>
+          <t>https://www.findahome.hu/ingatlanok/kiado-lakas-a-belvaros-kozeleben/</t>
         </is>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="n">
-        <v>235000</v>
+        <v>240000</v>
       </c>
       <c r="B629" t="n">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="C629" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
-          <t>Debrecen, Dessewffy</t>
+          <t>Debrecen, Antall József</t>
         </is>
       </c>
       <c r="E629" t="inlineStr">
         <is>
-          <t>not center</t>
+          <t>center</t>
         </is>
       </c>
       <c r="F629" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/kiado-lakas-a-belvaros-kozeleben/</t>
+          <t>https://www.findahome.hu/ingatlanok/luxury-flat-flat-in-the-city-center-2-bedroom-american-style-kitchen-with-terrace/</t>
         </is>
       </c>
     </row>
@@ -16850,14 +16850,14 @@
         <v>240000</v>
       </c>
       <c r="B632" t="n">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="C632" t="n">
         <v>3</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
-          <t>Debrecen, Lilla köz</t>
+          <t>Debrecen, Hatvani István street</t>
         </is>
       </c>
       <c r="E632" t="inlineStr">
@@ -16867,7 +16867,7 @@
       </c>
       <c r="F632" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/debrecen-lilla-koz-new-modern-flat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/debrecen-hatvani-istvan-street-2-bedroom-living-room-105-sqm-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -16876,40 +16876,40 @@
         <v>240000</v>
       </c>
       <c r="B633" t="n">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C633" t="n">
         <v>3</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
-          <t>Debrecen, Antall József</t>
+          <t>Debrecen, Lilla köz</t>
         </is>
       </c>
       <c r="E633" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="F633" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/luxury-flat-flat-in-the-city-center-2-bedroom-american-style-kitchen-with-terrace/</t>
+          <t>https://www.findahome.hu/ingatlanok/debrecen-lilla-koz-new-modern-flat-for-rent/</t>
         </is>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="n">
-        <v>240000</v>
+        <v>250000</v>
       </c>
       <c r="B634" t="n">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C634" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
-          <t>Debrecen, Hatvani István street</t>
+          <t>Debrecen, Nagyerdei körút</t>
         </is>
       </c>
       <c r="E634" t="inlineStr">
@@ -16919,7 +16919,7 @@
       </c>
       <c r="F634" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/debrecen-hatvani-istvan-street-2-bedroom-living-room-105-sqm-flat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/nagyerdei-korut-hadhazi-corner-3-bedroom-plus-living-room-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -16954,14 +16954,14 @@
         <v>250000</v>
       </c>
       <c r="B636" t="n">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="C636" t="n">
         <v>5</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
-          <t>Debrecen, Doberdó</t>
+          <t>Debrecen, Bem tér</t>
         </is>
       </c>
       <c r="E636" t="inlineStr">
@@ -16971,7 +16971,7 @@
       </c>
       <c r="F636" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/debrecen-doberdo-street-close-to-uni-4-bedroom-living-room-flat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/debrecen-bem-ter-4-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -16980,24 +16980,24 @@
         <v>250000</v>
       </c>
       <c r="B637" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="C637" t="n">
         <v>4</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
-          <t>Debrecen, Piac street</t>
+          <t>Debrecen, Hadházi út</t>
         </is>
       </c>
       <c r="E637" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="F637" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/piac-street-modern-3-bedroom-living-room-with-american-kitchen/</t>
+          <t>https://www.findahome.hu/ingatlanok/bem-ter-3-bedroom-flat-for-long-term-rent/</t>
         </is>
       </c>
     </row>
@@ -17006,24 +17006,24 @@
         <v>250000</v>
       </c>
       <c r="B638" t="n">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C638" t="n">
         <v>4</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
-          <t>Debrecen, Gyöngyösi street</t>
+          <t>Debrecen, Simonffy</t>
         </is>
       </c>
       <c r="E638" t="inlineStr">
         <is>
-          <t>not center</t>
+          <t>center</t>
         </is>
       </c>
       <c r="F638" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/gyongyosi-street-family-house-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/debrecen-city-center-simonffy-street-3-bedroom-living-oom-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -17032,14 +17032,14 @@
         <v>250000</v>
       </c>
       <c r="B639" t="n">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="C639" t="n">
         <v>4</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
-          <t>Debrecen, Simonffy</t>
+          <t>Debrecen, Piac street</t>
         </is>
       </c>
       <c r="E639" t="inlineStr">
@@ -17049,7 +17049,7 @@
       </c>
       <c r="F639" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/debrecen-city-center-simonffy-street-3-bedroom-living-oom-flat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/piac-street-modern-3-bedroom-living-room-with-american-kitchen/</t>
         </is>
       </c>
     </row>
@@ -17058,14 +17058,14 @@
         <v>250000</v>
       </c>
       <c r="B640" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="C640" t="n">
         <v>4</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
-          <t>Debrecen, Hadházi út</t>
+          <t>Debrecen, Gyöngyösi street</t>
         </is>
       </c>
       <c r="E640" t="inlineStr">
@@ -17075,7 +17075,7 @@
       </c>
       <c r="F640" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/bem-ter-3-bedroom-flat-for-long-term-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/gyongyosi-street-family-house-for-rent/</t>
         </is>
       </c>
     </row>
@@ -17084,14 +17084,14 @@
         <v>250000</v>
       </c>
       <c r="B641" t="n">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="C641" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
-          <t>Debrecen, Péchy</t>
+          <t>Debrecen, Arany jános</t>
         </is>
       </c>
       <c r="E641" t="inlineStr">
@@ -17101,7 +17101,7 @@
       </c>
       <c r="F641" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/4-bedroom-living-room-house-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/city-center-3-separate-room-fully-furnsihed-and-equipped-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -17110,24 +17110,24 @@
         <v>250000</v>
       </c>
       <c r="B642" t="n">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="C642" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
-          <t>Address unavailable</t>
+          <t>Debrecen, Doberdó</t>
         </is>
       </c>
       <c r="E642" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="F642" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/99332-debrecen-bem-square-office-in-office-building</t>
+          <t>https://www.findahome.hu/ingatlanok/debrecen-doberdo-street-close-to-uni-4-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -17136,24 +17136,24 @@
         <v>250000</v>
       </c>
       <c r="B643" t="n">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="C643" t="n">
         <v>3</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
-          <t>Debrecen, Arany jános</t>
+          <t>Address unavailable</t>
         </is>
       </c>
       <c r="E643" t="inlineStr">
         <is>
-          <t>not center</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="F643" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/city-center-3-separate-room-fully-furnsihed-and-equipped-flat-for-rent/</t>
+          <t>https://www.greatforest.hu/property/99332-debrecen-bem-square-office-in-office-building</t>
         </is>
       </c>
     </row>
@@ -17162,14 +17162,14 @@
         <v>250000</v>
       </c>
       <c r="B644" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="C644" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
-          <t>Debrecen, Apafi street</t>
+          <t>Debrecen, Péchy</t>
         </is>
       </c>
       <c r="E644" t="inlineStr">
@@ -17179,7 +17179,7 @@
       </c>
       <c r="F644" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/debrecen-newer-building-apafi-street-2-bedroom-living-room-terrace-flat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/4-bedroom-living-room-house-for-rent/</t>
         </is>
       </c>
     </row>
@@ -17188,14 +17188,14 @@
         <v>250000</v>
       </c>
       <c r="B645" t="n">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="C645" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
-          <t>Debrecen, Nagyerdei körút</t>
+          <t>Debrecen, Apafi street</t>
         </is>
       </c>
       <c r="E645" t="inlineStr">
@@ -17205,23 +17205,23 @@
       </c>
       <c r="F645" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/nagyerdei-korut-hadhazi-corner-3-bedroom-plus-living-room-flat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/debrecen-newer-building-apafi-street-2-bedroom-living-room-terrace-flat-for-rent/</t>
         </is>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="n">
-        <v>250000</v>
+        <v>260000</v>
       </c>
       <c r="B646" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C646" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
-          <t>Debrecen, Bem tér</t>
+          <t>Debrecen, Zúgó</t>
         </is>
       </c>
       <c r="E646" t="inlineStr">
@@ -17231,7 +17231,7 @@
       </c>
       <c r="F646" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/debrecen-bem-ter-4-bedroom-living-room-flat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/debrecen-city-center-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -17240,14 +17240,14 @@
         <v>260000</v>
       </c>
       <c r="B647" t="n">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C647" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
-          <t>Debrecen, Zúgó</t>
+          <t>Debrecen, Mikepércsi út</t>
         </is>
       </c>
       <c r="E647" t="inlineStr">
@@ -17257,23 +17257,23 @@
       </c>
       <c r="F647" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/debrecen-city-center-flat-for-rent/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-mikepercsi-ut/220366/</t>
         </is>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="n">
-        <v>260000</v>
+        <v>265000</v>
       </c>
       <c r="B648" t="n">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="C648" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
-          <t>Debrecen, Mikepércsi út</t>
+          <t>Debrecen, Böszörményi</t>
         </is>
       </c>
       <c r="E648" t="inlineStr">
@@ -17283,23 +17283,23 @@
       </c>
       <c r="F648" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-mikepercsi-ut/220366/</t>
+          <t>https://www.findahome.hu/ingatlanok/flat-for-rent-in-boszormenyi-street/</t>
         </is>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="n">
-        <v>265000</v>
+        <v>270000</v>
       </c>
       <c r="B649" t="n">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="C649" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
-          <t>Debrecen, Böszörményi</t>
+          <t>Debrecen, Bartók Béla út</t>
         </is>
       </c>
       <c r="E649" t="inlineStr">
@@ -17309,59 +17309,59 @@
       </c>
       <c r="F649" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/flat-for-rent-in-boszormenyi-street/</t>
+          <t>https://debrecenrent.hu/for-rent/house/debrecen-bartok-bela-ut/163569/</t>
         </is>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="n">
-        <v>270000</v>
+        <v>275000</v>
       </c>
       <c r="B650" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="C650" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
-          <t>Debrecen, Bartók Béla út</t>
+          <t>Debrecen, Hatvan utcai kert</t>
         </is>
       </c>
       <c r="E650" t="inlineStr">
         <is>
-          <t>not center</t>
+          <t>center</t>
         </is>
       </c>
       <c r="F650" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/house/debrecen-bartok-bela-ut/163569/</t>
+          <t>https://www.findahome.hu/ingatlanok/flat-for-rent-in-hatvan-utcai-kert/</t>
         </is>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="n">
-        <v>275000</v>
+        <v>280000</v>
       </c>
       <c r="B651" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C651" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
-          <t>Debrecen, Hatvan utcai kert</t>
+          <t>Debrecen, Komlóssy street</t>
         </is>
       </c>
       <c r="E651" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="F651" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/flat-for-rent-in-hatvan-utcai-kert/</t>
+          <t>https://www.findahome.hu/ingatlanok/debrecen1-min-from-the-uni-main-4-bedroom-living-room-apartment-for-rent/</t>
         </is>
       </c>
     </row>
@@ -17373,11 +17373,11 @@
         <v>68</v>
       </c>
       <c r="C652" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
-          <t>Debrecen, Rákóczi</t>
+          <t>Debrecen, Csapó utca</t>
         </is>
       </c>
       <c r="E652" t="inlineStr">
@@ -17387,7 +17387,7 @@
       </c>
       <c r="F652" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/flat-for-rent-in-rakoczi-utca/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-csapo-utca/218738/</t>
         </is>
       </c>
     </row>
@@ -17396,24 +17396,24 @@
         <v>280000</v>
       </c>
       <c r="B653" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="C653" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
-          <t>Debrecen, Komlóssy street</t>
+          <t>Address unavailable</t>
         </is>
       </c>
       <c r="E653" t="inlineStr">
         <is>
-          <t>not center</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="F653" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/debrecen1-min-from-the-uni-main-4-bedroom-living-room-apartment-for-rent/</t>
+          <t>https://www.greatforest.hu/property/42340-debrecen-kassai-campus-area-flat</t>
         </is>
       </c>
     </row>
@@ -17422,24 +17422,24 @@
         <v>280000</v>
       </c>
       <c r="B654" t="n">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="C654" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
-          <t>Address unavailable</t>
+          <t>Debrecen, Egyetem tér</t>
         </is>
       </c>
       <c r="E654" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="F654" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/97856-debrecen-city-center-office-not-in-office-building</t>
+          <t>https://www.findahome.hu/ingatlanok/university-residence-new-building-next-to-the-uni-1-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -17448,24 +17448,24 @@
         <v>280000</v>
       </c>
       <c r="B655" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C655" t="n">
         <v>3</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
-          <t>Debrecen, Rákóczi</t>
+          <t>Address unavailable</t>
         </is>
       </c>
       <c r="E655" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="F655" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/debrecen-rakoczi-street-2-bedroom-living-room-flat-for-rent/</t>
+          <t>https://www.greatforest.hu/property/97856-debrecen-city-center-office-not-in-office-building</t>
         </is>
       </c>
     </row>
@@ -17474,24 +17474,24 @@
         <v>280000</v>
       </c>
       <c r="B656" t="n">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C656" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
-          <t>Debrecen, Egyetem tér</t>
+          <t>Debrecen, Rákóczi</t>
         </is>
       </c>
       <c r="E656" t="inlineStr">
         <is>
-          <t>not center</t>
+          <t>center</t>
         </is>
       </c>
       <c r="F656" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/university-residence-new-building-next-to-the-uni-1-bedroom-living-room-flat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/flat-for-rent-in-rakoczi-utca/</t>
         </is>
       </c>
     </row>
@@ -17500,50 +17500,50 @@
         <v>280000</v>
       </c>
       <c r="B657" t="n">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C657" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
-          <t>Address unavailable</t>
+          <t>Debrecen, Rákóczi</t>
         </is>
       </c>
       <c r="E657" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>center</t>
         </is>
       </c>
       <c r="F657" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/42340-debrecen-kassai-campus-area-flat</t>
+          <t>https://www.findahome.hu/ingatlanok/debrecen-rakoczi-street-2-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="n">
-        <v>280000</v>
+        <v>300000</v>
       </c>
       <c r="B658" t="n">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="C658" t="n">
         <v>2</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
-          <t>Debrecen, Csapó utca</t>
+          <t>Debrecen, Bem tér</t>
         </is>
       </c>
       <c r="E658" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="F658" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-csapo-utca/218738/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-bem-ter/163005/</t>
         </is>
       </c>
     </row>
@@ -17578,24 +17578,24 @@
         <v>300000</v>
       </c>
       <c r="B660" t="n">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="C660" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
-          <t>Debrecen, Nyugati utca</t>
+          <t>Address unavailable</t>
         </is>
       </c>
       <c r="E660" t="inlineStr">
         <is>
-          <t>not center</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="F660" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-nyugati-utca/220230/</t>
+          <t>https://www.greatforest.hu/property/31478-debrecen-flat</t>
         </is>
       </c>
     </row>
@@ -17604,24 +17604,24 @@
         <v>300000</v>
       </c>
       <c r="B661" t="n">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="C661" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
-          <t>Address unavailable</t>
+          <t>Debrecen, Csapó</t>
         </is>
       </c>
       <c r="E661" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>center</t>
         </is>
       </c>
       <c r="F661" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/101102-debrecen-city-center-flat</t>
+          <t>https://www.findahome.hu/ingatlanok/debrecen-city-center-3-bedroom-living-room-flat-for-rent-2/</t>
         </is>
       </c>
     </row>
@@ -17630,24 +17630,24 @@
         <v>300000</v>
       </c>
       <c r="B662" t="n">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="C662" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
-          <t>Address unavailable</t>
+          <t>Debrecen, Nyugati utca</t>
         </is>
       </c>
       <c r="E662" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="F662" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/41027-debrecen-city-center-flat</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-nyugati-utca/220230/</t>
         </is>
       </c>
     </row>
@@ -17656,7 +17656,7 @@
         <v>300000</v>
       </c>
       <c r="B663" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="C663" t="n">
         <v>3</v>
@@ -17673,7 +17673,7 @@
       </c>
       <c r="F663" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/31478-debrecen-flat</t>
+          <t>https://www.greatforest.hu/property/101102-debrecen-city-center-flat</t>
         </is>
       </c>
     </row>
@@ -17682,14 +17682,14 @@
         <v>300000</v>
       </c>
       <c r="B664" t="n">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="C664" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
-          <t>Debrecen, Csapó</t>
+          <t>Debrecen, Antall József utca</t>
         </is>
       </c>
       <c r="E664" t="inlineStr">
@@ -17699,7 +17699,7 @@
       </c>
       <c r="F664" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/debrecen-city-center-3-bedroom-living-room-flat-for-rent-2/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-antall-jozsef-utca/218121/</t>
         </is>
       </c>
     </row>
@@ -17760,40 +17760,40 @@
         <v>300000</v>
       </c>
       <c r="B667" t="n">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="C667" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
-          <t>Debrecen, Antall József utca</t>
+          <t>Address unavailable</t>
         </is>
       </c>
       <c r="E667" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="F667" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-antall-jozsef-utca/218121/</t>
+          <t>https://www.greatforest.hu/property/41027-debrecen-city-center-flat</t>
         </is>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="n">
-        <v>300000</v>
+        <v>315000</v>
       </c>
       <c r="B668" t="n">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="C668" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
-          <t>Debrecen, Bem tér</t>
+          <t>Debrecen, Hatvani István utca</t>
         </is>
       </c>
       <c r="E668" t="inlineStr">
@@ -17803,7 +17803,7 @@
       </c>
       <c r="F668" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-bem-ter/163005/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-hatvani-istvan-utca/220005/</t>
         </is>
       </c>
     </row>
@@ -17829,7 +17829,7 @@
       </c>
       <c r="F669" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-hatvani-istvan-utca/219974/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-hatvani-istvan-utca/219950/</t>
         </is>
       </c>
     </row>
@@ -17855,7 +17855,7 @@
       </c>
       <c r="F670" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-hatvani-istvan-utca/219906/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-hatvani-istvan-utca/219994/</t>
         </is>
       </c>
     </row>
@@ -17881,7 +17881,7 @@
       </c>
       <c r="F671" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-hatvani-istvan-utca/219959/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-hatvani-istvan-utca/219937/</t>
         </is>
       </c>
     </row>
@@ -17933,7 +17933,7 @@
       </c>
       <c r="F673" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-hatvani-istvan-utca/220102/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-hatvani-istvan-utca/219959/</t>
         </is>
       </c>
     </row>
@@ -17959,7 +17959,7 @@
       </c>
       <c r="F674" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-hatvani-istvan-utca/219994/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-hatvani-istvan-utca/219906/</t>
         </is>
       </c>
     </row>
@@ -17985,7 +17985,7 @@
       </c>
       <c r="F675" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-hatvani-istvan-utca/220081/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-hatvani-istvan-utca/219974/</t>
         </is>
       </c>
     </row>
@@ -18011,7 +18011,7 @@
       </c>
       <c r="F676" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-hatvani-istvan-utca/220110/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-hatvani-istvan-utca/220102/</t>
         </is>
       </c>
     </row>
@@ -18037,7 +18037,7 @@
       </c>
       <c r="F677" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-hatvani-istvan-utca/220005/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-hatvani-istvan-utca/220081/</t>
         </is>
       </c>
     </row>
@@ -18063,7 +18063,7 @@
       </c>
       <c r="F678" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-hatvani-istvan-utca/219950/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-hatvani-istvan-utca/220110/</t>
         </is>
       </c>
     </row>
@@ -18095,27 +18095,27 @@
     </row>
     <row r="680">
       <c r="A680" t="n">
-        <v>315000</v>
+        <v>320000</v>
       </c>
       <c r="B680" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C680" t="n">
         <v>1</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
-          <t>Debrecen, Hatvani István utca</t>
+          <t>Address unavailable</t>
         </is>
       </c>
       <c r="E680" t="inlineStr">
         <is>
-          <t>not center</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="F680" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-hatvani-istvan-utca/219937/</t>
+          <t>https://www.greatforest.hu/property/99511-debrecen-close-to-main-campus-flat</t>
         </is>
       </c>
     </row>
@@ -18124,24 +18124,24 @@
         <v>320000</v>
       </c>
       <c r="B681" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C681" t="n">
         <v>1</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
-          <t>Debrecen, Arany János utca</t>
+          <t>Address unavailable</t>
         </is>
       </c>
       <c r="E681" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="F681" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-arany-janos-utca/220418/</t>
+          <t>https://www.greatforest.hu/property/99510-debrecen-close-to-main-campus-flat</t>
         </is>
       </c>
     </row>
@@ -18150,76 +18150,76 @@
         <v>320000</v>
       </c>
       <c r="B682" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C682" t="n">
         <v>1</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
-          <t>Address unavailable</t>
+          <t>Debrecen, Arany János utca</t>
         </is>
       </c>
       <c r="E682" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>center</t>
         </is>
       </c>
       <c r="F682" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/99511-debrecen-close-to-main-campus-flat</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-arany-janos-utca/220418/</t>
         </is>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="n">
-        <v>320000</v>
+        <v>330000</v>
       </c>
       <c r="B683" t="n">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="C683" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
-          <t>Address unavailable</t>
+          <t>Debrecen, Hatvan</t>
         </is>
       </c>
       <c r="E683" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>center</t>
         </is>
       </c>
       <c r="F683" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/99510-debrecen-close-to-main-campus-flat</t>
+          <t>https://www.findahome.hu/ingatlanok/apartment-for-rent-on-hatvan-street/</t>
         </is>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="n">
-        <v>330000</v>
+        <v>350000</v>
       </c>
       <c r="B684" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C684" t="n">
         <v>3</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
-          <t>Debrecen, Hatvan</t>
+          <t>Address unavailable</t>
         </is>
       </c>
       <c r="E684" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="F684" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/apartment-for-rent-on-hatvan-street/</t>
+          <t>https://www.greatforest.hu/property/102000-debrecen-close-to-plaza-flat</t>
         </is>
       </c>
     </row>
@@ -18228,24 +18228,24 @@
         <v>350000</v>
       </c>
       <c r="B685" t="n">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C685" t="n">
         <v>4</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
-          <t>Debrecen, Akadémia utca</t>
+          <t>Address unavailable</t>
         </is>
       </c>
       <c r="E685" t="inlineStr">
         <is>
-          <t>not center</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="F685" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/house/debrecen-akademia-utca/217736/</t>
+          <t>https://www.greatforest.hu/property/89979-debrecen-city-center-office-not-in-office-building</t>
         </is>
       </c>
     </row>
@@ -18254,14 +18254,14 @@
         <v>350000</v>
       </c>
       <c r="B686" t="n">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="C686" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
-          <t>Debrecen, Nagyerdei körút</t>
+          <t>Debrecen, Bem tér</t>
         </is>
       </c>
       <c r="E686" t="inlineStr">
@@ -18271,7 +18271,7 @@
       </c>
       <c r="F686" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-nagyerdei-korut/188260/</t>
+          <t>https://www.findahome.hu/ingatlanok/bem-ter-3-bedroom-living-room-with-dining-area-2-bathroom/</t>
         </is>
       </c>
     </row>
@@ -18280,24 +18280,24 @@
         <v>350000</v>
       </c>
       <c r="B687" t="n">
-        <v>118</v>
+        <v>65</v>
       </c>
       <c r="C687" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
-          <t>Address unavailable</t>
+          <t>Debrecen, Menyhárt József tér</t>
         </is>
       </c>
       <c r="E687" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="F687" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/89979-debrecen-city-center-office-not-in-office-building</t>
+          <t>https://www.findahome.hu/ingatlanok/luxury-apartment-for-rent-in-menyhart-jozsef-ter/</t>
         </is>
       </c>
     </row>
@@ -18306,14 +18306,14 @@
         <v>350000</v>
       </c>
       <c r="B688" t="n">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C688" t="n">
         <v>4</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
-          <t>Debrecen, Bem tér</t>
+          <t>Debrecen, Akadémia utca</t>
         </is>
       </c>
       <c r="E688" t="inlineStr">
@@ -18323,7 +18323,7 @@
       </c>
       <c r="F688" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/bem-ter-3-bedroom-living-room-with-dining-area-2-bathroom/</t>
+          <t>https://debrecenrent.hu/for-rent/house/debrecen-akademia-utca/217736/</t>
         </is>
       </c>
     </row>
@@ -18332,40 +18332,40 @@
         <v>350000</v>
       </c>
       <c r="B689" t="n">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="C689" t="n">
         <v>3</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
-          <t>Address unavailable</t>
+          <t>Debrecen, Nagyerdei körút</t>
         </is>
       </c>
       <c r="E689" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="F689" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/102000-debrecen-close-to-plaza-flat</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-nagyerdei-korut/188260/</t>
         </is>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="n">
-        <v>350000</v>
+        <v>375000</v>
       </c>
       <c r="B690" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C690" t="n">
         <v>3</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
-          <t>Debrecen, Menyhárt József tér</t>
+          <t>Debrecen, Nagyerdei körút</t>
         </is>
       </c>
       <c r="E690" t="inlineStr">
@@ -18375,7 +18375,7 @@
       </c>
       <c r="F690" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/luxury-apartment-for-rent-in-menyhart-jozsef-ter/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-nagyerdei-korut/213647/</t>
         </is>
       </c>
     </row>
@@ -18384,66 +18384,66 @@
         <v>375000</v>
       </c>
       <c r="B691" t="n">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C691" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
-          <t>Debrecen, Nagyerdei körút</t>
+          <t>Address unavailable</t>
         </is>
       </c>
       <c r="E691" t="inlineStr">
         <is>
-          <t>not center</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="F691" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-nagyerdei-korut/213647/</t>
+          <t>https://www.greatforest.hu/property/96519-debrecen-greatforest-area-flat</t>
         </is>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="n">
-        <v>375000</v>
+        <v>380000</v>
       </c>
       <c r="B692" t="n">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="C692" t="n">
         <v>4</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
-          <t>Address unavailable</t>
+          <t>Debrecen, -</t>
         </is>
       </c>
       <c r="E692" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="F692" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/96519-debrecen-greatforest-area-flat</t>
+          <t>https://www.findahome.hu/ingatlanok/debrecen-house-for-rent-with-3-bedrooms-living-room/</t>
         </is>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="n">
-        <v>380000</v>
+        <v>385000</v>
       </c>
       <c r="B693" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C693" t="n">
         <v>4</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
-          <t>Debrecen, -</t>
+          <t>Debrecen, Vas Gereben</t>
         </is>
       </c>
       <c r="E693" t="inlineStr">
@@ -18453,49 +18453,49 @@
       </c>
       <c r="F693" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/debrecen-house-for-rent-with-3-bedrooms-living-room/</t>
+          <t>https://www.findahome.hu/ingatlanok/17339/</t>
         </is>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="n">
-        <v>385000</v>
+        <v>390000</v>
       </c>
       <c r="B694" t="n">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="C694" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
-          <t>Debrecen, Vas Gereben</t>
+          <t>Debrecen, Csapó utca</t>
         </is>
       </c>
       <c r="E694" t="inlineStr">
         <is>
-          <t>not center</t>
+          <t>center</t>
         </is>
       </c>
       <c r="F694" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/17339/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-csapo-utca/219320/</t>
         </is>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="n">
-        <v>390000</v>
+        <v>410000</v>
       </c>
       <c r="B695" t="n">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C695" t="n">
         <v>3</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
-          <t>Debrecen, Csapó utca</t>
+          <t>Debrecen, Piac</t>
         </is>
       </c>
       <c r="E695" t="inlineStr">
@@ -18505,23 +18505,23 @@
       </c>
       <c r="F695" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-csapo-utca/219320/</t>
+          <t>https://www.findahome.hu/ingatlanok/debrecen-city-center-piac-street-2-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="n">
-        <v>410000</v>
+        <v>420000</v>
       </c>
       <c r="B696" t="n">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C696" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
-          <t>Debrecen, Piac</t>
+          <t>Debrecen, Rákóczi</t>
         </is>
       </c>
       <c r="E696" t="inlineStr">
@@ -18531,23 +18531,23 @@
       </c>
       <c r="F696" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/debrecen-city-center-piac-street-2-bedroom-living-room-flat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/debrecen-belvaros-3-bedroom-living-room-unfurnished-apartament-for-rent/</t>
         </is>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="n">
-        <v>420000</v>
+        <v>450000</v>
       </c>
       <c r="B697" t="n">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="C697" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
-          <t>Debrecen, Rákóczi</t>
+          <t>Debrecen, Garai utca</t>
         </is>
       </c>
       <c r="E697" t="inlineStr">
@@ -18557,7 +18557,7 @@
       </c>
       <c r="F697" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/debrecen-belvaros-3-bedroom-living-room-unfurnished-apartament-for-rent/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-garai-utca/217183/</t>
         </is>
       </c>
     </row>
@@ -18589,27 +18589,27 @@
     </row>
     <row r="699">
       <c r="A699" t="n">
-        <v>450000</v>
+        <v>480000</v>
       </c>
       <c r="B699" t="n">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C699" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
-          <t>Debrecen, Garai utca</t>
+          <t>Address unavailable</t>
         </is>
       </c>
       <c r="E699" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="F699" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-garai-utca/217183/</t>
+          <t>https://www.greatforest.hu/property/97187-debrecen-flat</t>
         </is>
       </c>
     </row>
@@ -18618,7 +18618,7 @@
         <v>480000</v>
       </c>
       <c r="B700" t="n">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C700" t="n">
         <v>3</v>
@@ -18635,19 +18635,19 @@
       </c>
       <c r="F700" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/97187-debrecen-flat</t>
+          <t>https://www.greatforest.hu/property/97186-debrecen-city-center-flat</t>
         </is>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="n">
-        <v>480000</v>
+        <v>490000</v>
       </c>
       <c r="B701" t="n">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="C701" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -18661,19 +18661,19 @@
       </c>
       <c r="F701" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/97186-debrecen-city-center-flat</t>
+          <t>https://www.greatforest.hu/property/98949-debrecen-close-to-main-campus-flat</t>
         </is>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="n">
-        <v>490000</v>
+        <v>500000</v>
       </c>
       <c r="B702" t="n">
-        <v>52</v>
+        <v>116</v>
       </c>
       <c r="C702" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -18687,16 +18687,16 @@
       </c>
       <c r="F702" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/98949-debrecen-close-to-main-campus-flat</t>
+          <t>https://www.greatforest.hu/property/101101-debrecen-city-center-flat</t>
         </is>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="n">
-        <v>500000</v>
+        <v>580000</v>
       </c>
       <c r="B703" t="n">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C703" t="n">
         <v>4</v>
@@ -18713,19 +18713,19 @@
       </c>
       <c r="F703" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/101101-debrecen-city-center-flat</t>
+          <t>https://www.greatforest.hu/property/98425-debrecen-city-center-flat</t>
         </is>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="n">
-        <v>580000</v>
+        <v>595000</v>
       </c>
       <c r="B704" t="n">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C704" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -18739,33 +18739,33 @@
       </c>
       <c r="F704" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/98425-debrecen-city-center-flat</t>
+          <t>https://www.greatforest.hu/property/36059-debrecen-kassai-campus-area-flat</t>
         </is>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="n">
-        <v>595000</v>
+        <v>600000</v>
       </c>
       <c r="B705" t="n">
         <v>92</v>
       </c>
       <c r="C705" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
-          <t>Address unavailable</t>
+          <t>Debrecen, Hadházi út</t>
         </is>
       </c>
       <c r="E705" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="F705" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/36059-debrecen-kassai-campus-area-flat</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-hadhazi-ut/219319/</t>
         </is>
       </c>
     </row>
@@ -18774,66 +18774,66 @@
         <v>600000</v>
       </c>
       <c r="B706" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C706" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
-          <t>Debrecen, Hadházi út</t>
+          <t>Debrecen, Bajcsy-Zsilinszky</t>
         </is>
       </c>
       <c r="E706" t="inlineStr">
         <is>
-          <t>not center</t>
+          <t>center</t>
         </is>
       </c>
       <c r="F706" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-hadhazi-ut/219319/</t>
+          <t>https://www.findahome.hu/ingatlanok/luxury-apartment-for-rent/</t>
         </is>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="n">
-        <v>600000</v>
+        <v>660000</v>
       </c>
       <c r="B707" t="n">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="C707" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
-          <t>Debrecen, Bajcsy-Zsilinszky</t>
+          <t>Debrecen, Pacsirta utca</t>
         </is>
       </c>
       <c r="E707" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="F707" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/luxury-apartment-for-rent/</t>
+          <t>https://debrecenrent.hu/for-rent/house/debrecen-pacsirta-utca/220426/</t>
         </is>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="n">
-        <v>660000</v>
+        <v>760000</v>
       </c>
       <c r="B708" t="n">
         <v>135</v>
       </c>
       <c r="C708" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
-          <t>Debrecen, Pacsirta utca</t>
+          <t>Debrecen, Pacsirta</t>
         </is>
       </c>
       <c r="E708" t="inlineStr">
@@ -18842,32 +18842,6 @@
         </is>
       </c>
       <c r="F708" t="inlineStr">
-        <is>
-          <t>https://debrecenrent.hu/for-rent/house/debrecen-pacsirta-utca/220426/</t>
-        </is>
-      </c>
-    </row>
-    <row r="709">
-      <c r="A709" t="n">
-        <v>760000</v>
-      </c>
-      <c r="B709" t="n">
-        <v>135</v>
-      </c>
-      <c r="C709" t="n">
-        <v>4</v>
-      </c>
-      <c r="D709" t="inlineStr">
-        <is>
-          <t>Debrecen, Pacsirta</t>
-        </is>
-      </c>
-      <c r="E709" t="inlineStr">
-        <is>
-          <t>not center</t>
-        </is>
-      </c>
-      <c r="F709" t="inlineStr">
         <is>
           <t>https://www.findahome.hu/ingatlanok/luxury-house-for-rent-3-bedroom-living-room/</t>
         </is>

--- a/streamlit/Houses_Cleaned.xlsx
+++ b/streamlit/Houses_Cleaned.xlsx
@@ -12768,24 +12768,24 @@
         <v>165000</v>
       </c>
       <c r="B475" t="n">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C475" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>Debrecen, Abigél utca</t>
+          <t>Debrecen, Kossuth utca</t>
         </is>
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>not center</t>
+          <t>center</t>
         </is>
       </c>
       <c r="F475" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/cozy-2-bedroom-and-living-room-flat-for-rent/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-kossuth-utca/214185/</t>
         </is>
       </c>
     </row>
@@ -12794,24 +12794,24 @@
         <v>165000</v>
       </c>
       <c r="B476" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C476" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>Debrecen, Kossuth utca</t>
+          <t>Debrecen, Abigél utca</t>
         </is>
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="F476" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-kossuth-utca/214185/</t>
+          <t>https://www.findahome.hu/ingatlanok/cozy-2-bedroom-and-living-room-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -13210,24 +13210,24 @@
         <v>170000</v>
       </c>
       <c r="B492" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C492" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>Debrecen, Cívis utca</t>
+          <t>Debrecen, Széchenyi</t>
         </is>
       </c>
       <c r="E492" t="inlineStr">
         <is>
-          <t>not center</t>
+          <t>center</t>
         </is>
       </c>
       <c r="F492" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-civis-utca/220404/</t>
+          <t>https://www.findahome.hu/ingatlanok/flat-for-rent-szechenyi-street/</t>
         </is>
       </c>
     </row>
@@ -13236,24 +13236,24 @@
         <v>170000</v>
       </c>
       <c r="B493" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="C493" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>Debrecen, Széchenyi</t>
+          <t>Address unavailable</t>
         </is>
       </c>
       <c r="E493" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="F493" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/flat-for-rent-szechenyi-street/</t>
+          <t>https://www.greatforest.hu/property/101904-debrecen-close-to-kassai-campus-flat</t>
         </is>
       </c>
     </row>
@@ -13340,24 +13340,24 @@
         <v>170000</v>
       </c>
       <c r="B497" t="n">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C497" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
-          <t>Address unavailable</t>
+          <t>Debrecen, Cívis utca</t>
         </is>
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="F497" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/101904-debrecen-close-to-kassai-campus-flat</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-civis-utca/220404/</t>
         </is>
       </c>
     </row>
@@ -15914,24 +15914,24 @@
         <v>210000</v>
       </c>
       <c r="B596" t="n">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="C596" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
-          <t>Debrecen, Piac street</t>
+          <t>Debrecen, Balassa Bálint street</t>
         </is>
       </c>
       <c r="E596" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="F596" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/piac-street-brand-new-exclusive-2-bedrooms-2-bathrooms-apartment-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/balassa-balint-street-3-bedroom-living-room-2-bathroom-apartment-for-rent/</t>
         </is>
       </c>
     </row>
@@ -15940,24 +15940,24 @@
         <v>210000</v>
       </c>
       <c r="B597" t="n">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C597" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
-          <t>Debrecen, Balassa Bálint street</t>
+          <t>Debrecen, Piac street</t>
         </is>
       </c>
       <c r="E597" t="inlineStr">
         <is>
-          <t>not center</t>
+          <t>center</t>
         </is>
       </c>
       <c r="F597" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/balassa-balint-street-3-bedroom-living-room-2-bathroom-apartment-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/piac-street-brand-new-exclusive-2-bedrooms-2-bathrooms-apartment-for-rent/</t>
         </is>
       </c>
     </row>
@@ -15966,24 +15966,24 @@
         <v>220000</v>
       </c>
       <c r="B598" t="n">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="C598" t="n">
         <v>2</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
-          <t>Debrecen, Böszörményi út</t>
+          <t>Address unavailable</t>
         </is>
       </c>
       <c r="E598" t="inlineStr">
         <is>
-          <t>not center</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="F598" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-boszormenyi-ut/209447/</t>
+          <t>https://www.findahome.hu/ingatlanok/kiado-arany-janos-utca-54-nm/</t>
         </is>
       </c>
     </row>
@@ -15992,14 +15992,14 @@
         <v>220000</v>
       </c>
       <c r="B599" t="n">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="C599" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
-          <t>Debrecen, DóczyJózsef street</t>
+          <t>Debrecen, Arany jános</t>
         </is>
       </c>
       <c r="E599" t="inlineStr">
@@ -16009,7 +16009,7 @@
       </c>
       <c r="F599" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/debrecen-doczy-jozsef-street-3-bedroom-living-room-flat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/kiado-52-nm-es-uj-epitesu-lakas/</t>
         </is>
       </c>
     </row>
@@ -16018,24 +16018,24 @@
         <v>220000</v>
       </c>
       <c r="B600" t="n">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="C600" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
-          <t>Debrecen, Simonyi</t>
+          <t>Address unavailable</t>
         </is>
       </c>
       <c r="E600" t="inlineStr">
         <is>
-          <t>not center</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="F600" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/simonyi-street-flat-rent/</t>
+          <t>https://www.greatforest.hu/property/99213-debrecen-close-to-main-campus-flat</t>
         </is>
       </c>
     </row>
@@ -16070,14 +16070,14 @@
         <v>220000</v>
       </c>
       <c r="B602" t="n">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="C602" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
-          <t>Debrecen, Vezér utca</t>
+          <t>Debrecen, Nyár street</t>
         </is>
       </c>
       <c r="E602" t="inlineStr">
@@ -16087,7 +16087,7 @@
       </c>
       <c r="F602" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/vezer-residential-area-in-a-queit-neighbourhood-3-bedrooms-living-room-house-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/nyar-street-2-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -16096,14 +16096,14 @@
         <v>220000</v>
       </c>
       <c r="B603" t="n">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C603" t="n">
         <v>3</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
-          <t>Debrecen, Arany János</t>
+          <t>Debrecen, Hatvan Corner</t>
         </is>
       </c>
       <c r="E603" t="inlineStr">
@@ -16113,7 +16113,7 @@
       </c>
       <c r="F603" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/city-center-2-bedroom-american-style-kitchen-apartment-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/hatvan-corner-2-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -16122,24 +16122,24 @@
         <v>220000</v>
       </c>
       <c r="B604" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C604" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
-          <t>Address unavailable</t>
+          <t>Debrecen, Piac utca</t>
         </is>
       </c>
       <c r="E604" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>center</t>
         </is>
       </c>
       <c r="F604" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/kiado-arany-janos-utca-54-nm/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-piac-utca/184393/</t>
         </is>
       </c>
     </row>
@@ -16148,24 +16148,24 @@
         <v>220000</v>
       </c>
       <c r="B605" t="n">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C605" t="n">
         <v>3</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
-          <t>Debrecen, Piac street</t>
+          <t>Debrecen, Serház</t>
         </is>
       </c>
       <c r="E605" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="F605" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/piac-street-2-bedrooms-cozy-flat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/debrecen-serhaz-utca-2-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -16174,14 +16174,14 @@
         <v>220000</v>
       </c>
       <c r="B606" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="C606" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
-          <t>Debrecen, Hatvani István street</t>
+          <t>Debrecen, Vezér utca</t>
         </is>
       </c>
       <c r="E606" t="inlineStr">
@@ -16191,7 +16191,7 @@
       </c>
       <c r="F606" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/hatvani-istvan-street-renovated-modern-flat-for-long-term-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/vezer-residential-area-in-a-queit-neighbourhood-3-bedrooms-living-room-house-for-rent/</t>
         </is>
       </c>
     </row>
@@ -16200,14 +16200,14 @@
         <v>220000</v>
       </c>
       <c r="B607" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C607" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
-          <t>Debrecen, Rózsahegy utca</t>
+          <t>Debrecen, Hatvani István street</t>
         </is>
       </c>
       <c r="E607" t="inlineStr">
@@ -16217,7 +16217,7 @@
       </c>
       <c r="F607" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-rozsahegy-utca/209110/</t>
+          <t>https://www.findahome.hu/ingatlanok/hatvani-istvan-street-renovated-modern-flat-for-long-term-rent/</t>
         </is>
       </c>
     </row>
@@ -16226,14 +16226,14 @@
         <v>220000</v>
       </c>
       <c r="B608" t="n">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="C608" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
-          <t>Debrecen, Egyetem sugárút</t>
+          <t>Debrecen, DóczyJózsef street</t>
         </is>
       </c>
       <c r="E608" t="inlineStr">
@@ -16243,7 +16243,7 @@
       </c>
       <c r="F608" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-egyetem-sugarut/216383/</t>
+          <t>https://www.findahome.hu/ingatlanok/debrecen-doczy-jozsef-street-3-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -16252,24 +16252,24 @@
         <v>220000</v>
       </c>
       <c r="B609" t="n">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="C609" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
-          <t>Debrecen, Arany jános</t>
+          <t>Debrecen, Piac street</t>
         </is>
       </c>
       <c r="E609" t="inlineStr">
         <is>
-          <t>not center</t>
+          <t>center</t>
         </is>
       </c>
       <c r="F609" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/kiado-52-nm-es-uj-epitesu-lakas/</t>
+          <t>https://www.findahome.hu/ingatlanok/piac-street-2-bedrooms-cozy-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -16278,14 +16278,14 @@
         <v>220000</v>
       </c>
       <c r="B610" t="n">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="C610" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
-          <t>Debrecen, Komlóssy street</t>
+          <t>Debrecen, Rózsahegy utca</t>
         </is>
       </c>
       <c r="E610" t="inlineStr">
@@ -16295,7 +16295,7 @@
       </c>
       <c r="F610" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/komlossy-street-near-med-uni-beautiful-2-bedroom-living-room-apartment-for-rent/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-rozsahegy-utca/209110/</t>
         </is>
       </c>
     </row>
@@ -16304,24 +16304,24 @@
         <v>220000</v>
       </c>
       <c r="B611" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C611" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
-          <t>Debrecen, Hatvan Corner</t>
+          <t>Debrecen, Egyetem sugárút</t>
         </is>
       </c>
       <c r="E611" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="F611" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/hatvan-corner-2-bedroom-living-room-flat-for-rent/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-egyetem-sugarut/216383/</t>
         </is>
       </c>
     </row>
@@ -16330,14 +16330,14 @@
         <v>220000</v>
       </c>
       <c r="B612" t="n">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="C612" t="n">
         <v>3</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
-          <t>Debrecen, Serház</t>
+          <t>Debrecen, Komlóssy street</t>
         </is>
       </c>
       <c r="E612" t="inlineStr">
@@ -16347,7 +16347,7 @@
       </c>
       <c r="F612" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/debrecen-serhaz-utca-2-bedroom-living-room-flat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/komlossy-street-near-med-uni-beautiful-2-bedroom-living-room-apartment-for-rent/</t>
         </is>
       </c>
     </row>
@@ -16356,14 +16356,14 @@
         <v>220000</v>
       </c>
       <c r="B613" t="n">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="C613" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
-          <t>Debrecen, Nyár street</t>
+          <t>Debrecen, Vasvári pál</t>
         </is>
       </c>
       <c r="E613" t="inlineStr">
@@ -16373,7 +16373,7 @@
       </c>
       <c r="F613" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/nyar-street-2-bedroom-living-room-flat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/4-bedroom-living-room-flat-for-rent-at-vasvari-pal-street/</t>
         </is>
       </c>
     </row>
@@ -16382,14 +16382,14 @@
         <v>220000</v>
       </c>
       <c r="B614" t="n">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="C614" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
-          <t>Debrecen, Kút</t>
+          <t>Debrecen, Simonyi</t>
         </is>
       </c>
       <c r="E614" t="inlineStr">
@@ -16399,7 +16399,7 @@
       </c>
       <c r="F614" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/kut-street-modern-3-bedrooms-living-room-flat-is-available/</t>
+          <t>https://www.findahome.hu/ingatlanok/simonyi-street-flat-rent/</t>
         </is>
       </c>
     </row>
@@ -16408,24 +16408,24 @@
         <v>220000</v>
       </c>
       <c r="B615" t="n">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C615" t="n">
         <v>2</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
-          <t>Debrecen, Bethlen</t>
+          <t>Debrecen, Böszörményi út</t>
         </is>
       </c>
       <c r="E615" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="F615" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/luxury-apartment-for-rent-in-the-city-center/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-boszormenyi-ut/209447/</t>
         </is>
       </c>
     </row>
@@ -16434,24 +16434,24 @@
         <v>220000</v>
       </c>
       <c r="B616" t="n">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="C616" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
-          <t>Address unavailable</t>
+          <t>Debrecen, Arany János</t>
         </is>
       </c>
       <c r="E616" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>center</t>
         </is>
       </c>
       <c r="F616" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/99213-debrecen-close-to-main-campus-flat</t>
+          <t>https://www.findahome.hu/ingatlanok/city-center-2-bedroom-american-style-kitchen-apartment-for-rent/</t>
         </is>
       </c>
     </row>
@@ -16463,11 +16463,11 @@
         <v>55</v>
       </c>
       <c r="C617" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
-          <t>Debrecen, Piac utca</t>
+          <t>Debrecen, Bethlen</t>
         </is>
       </c>
       <c r="E617" t="inlineStr">
@@ -16477,7 +16477,7 @@
       </c>
       <c r="F617" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-piac-utca/184393/</t>
+          <t>https://www.findahome.hu/ingatlanok/luxury-apartment-for-rent-in-the-city-center/</t>
         </is>
       </c>
     </row>
@@ -16486,14 +16486,14 @@
         <v>220000</v>
       </c>
       <c r="B618" t="n">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C618" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
-          <t>Debrecen, Vasvári pál</t>
+          <t>Debrecen, Kút</t>
         </is>
       </c>
       <c r="E618" t="inlineStr">
@@ -16503,7 +16503,7 @@
       </c>
       <c r="F618" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/4-bedroom-living-room-flat-for-rent-at-vasvari-pal-street/</t>
+          <t>https://www.findahome.hu/ingatlanok/kut-street-modern-3-bedrooms-living-room-flat-is-available/</t>
         </is>
       </c>
     </row>
@@ -16512,24 +16512,24 @@
         <v>230000</v>
       </c>
       <c r="B619" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C619" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
-          <t>, Széchenyi street</t>
+          <t>Debrecen, Bem tér</t>
         </is>
       </c>
       <c r="E619" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="F619" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/szechenyi-corner-city-center-2-bedroom-living-room-brand-new-flat-for-rent-2/</t>
+          <t>https://www.findahome.hu/ingatlanok/flat-for-rent-bem-ter/</t>
         </is>
       </c>
     </row>
@@ -16538,24 +16538,24 @@
         <v>230000</v>
       </c>
       <c r="B620" t="n">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C620" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
-          <t>Debrecen, Bem tér</t>
+          <t>Address unavailable</t>
         </is>
       </c>
       <c r="E620" t="inlineStr">
         <is>
-          <t>not center</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="F620" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/flat-for-rent-bem-ter/</t>
+          <t>https://www.greatforest.hu/property/98613-debrecen-jozsa-lower-flat</t>
         </is>
       </c>
     </row>
@@ -16564,24 +16564,24 @@
         <v>230000</v>
       </c>
       <c r="B621" t="n">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C621" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
-          <t>Address unavailable</t>
+          <t>, Széchenyi street</t>
         </is>
       </c>
       <c r="E621" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>center</t>
         </is>
       </c>
       <c r="F621" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/98613-debrecen-jozsa-lower-flat</t>
+          <t>https://www.findahome.hu/ingatlanok/szechenyi-corner-city-center-2-bedroom-living-room-brand-new-flat-for-rent-2/</t>
         </is>
       </c>
     </row>
@@ -16590,14 +16590,14 @@
         <v>230000</v>
       </c>
       <c r="B622" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C622" t="n">
         <v>3</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
-          <t>Debrecen, Dóczy Park</t>
+          <t>Debrecen, Károli Gáspár</t>
         </is>
       </c>
       <c r="E622" t="inlineStr">
@@ -16607,7 +16607,7 @@
       </c>
       <c r="F622" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/doczy-park-2-bedroom-living-room-flat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/flat-for-rent-karoli-gaspar-street/</t>
         </is>
       </c>
     </row>
@@ -16616,24 +16616,24 @@
         <v>230000</v>
       </c>
       <c r="B623" t="n">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="C623" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
-          <t>Debrecen, Tímár street</t>
+          <t>Debrecen, Dóczy Park</t>
         </is>
       </c>
       <c r="E623" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="F623" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/timar-street-exclusively-designed-3-bedroom-living-room-flat-available/</t>
+          <t>https://www.findahome.hu/ingatlanok/doczy-park-2-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -16642,24 +16642,24 @@
         <v>230000</v>
       </c>
       <c r="B624" t="n">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="C624" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
-          <t>Debrecen, Gönczy Pál utca</t>
+          <t>Debrecen, Tímár street</t>
         </is>
       </c>
       <c r="E624" t="inlineStr">
         <is>
-          <t>not center</t>
+          <t>center</t>
         </is>
       </c>
       <c r="F624" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-gonczy-pal-utca/216064/</t>
+          <t>https://www.findahome.hu/ingatlanok/timar-street-exclusively-designed-3-bedroom-living-room-flat-available/</t>
         </is>
       </c>
     </row>
@@ -16668,14 +16668,14 @@
         <v>230000</v>
       </c>
       <c r="B625" t="n">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C625" t="n">
         <v>3</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
-          <t>Debrecen, Károli Gáspár</t>
+          <t>Debrecen, Víztorony</t>
         </is>
       </c>
       <c r="E625" t="inlineStr">
@@ -16685,7 +16685,7 @@
       </c>
       <c r="F625" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/flat-for-rent-karoli-gaspar-street/</t>
+          <t>https://www.findahome.hu/ingatlanok/debrecen-3-separate-room-close-to-the-otemeto-kassai-campus/</t>
         </is>
       </c>
     </row>
@@ -16694,14 +16694,14 @@
         <v>230000</v>
       </c>
       <c r="B626" t="n">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="C626" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
-          <t>Debrecen, Víztorony</t>
+          <t>Debrecen, Gönczy Pál utca</t>
         </is>
       </c>
       <c r="E626" t="inlineStr">
@@ -16711,7 +16711,7 @@
       </c>
       <c r="F626" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/debrecen-3-separate-room-close-to-the-otemeto-kassai-campus/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-gonczy-pal-utca/216064/</t>
         </is>
       </c>
     </row>
@@ -16772,14 +16772,14 @@
         <v>240000</v>
       </c>
       <c r="B629" t="n">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="C629" t="n">
         <v>3</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
-          <t>Debrecen, Antall József</t>
+          <t>Debrecen, Bethlen utca</t>
         </is>
       </c>
       <c r="E629" t="inlineStr">
@@ -16789,7 +16789,7 @@
       </c>
       <c r="F629" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/luxury-flat-flat-in-the-city-center-2-bedroom-american-style-kitchen-with-terrace/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-bethlen-utca/220054/</t>
         </is>
       </c>
     </row>
@@ -16798,14 +16798,14 @@
         <v>240000</v>
       </c>
       <c r="B630" t="n">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="C630" t="n">
         <v>3</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
-          <t>Debrecen, Bethlen utca</t>
+          <t>Debrecen, Antall József</t>
         </is>
       </c>
       <c r="E630" t="inlineStr">
@@ -16815,7 +16815,7 @@
       </c>
       <c r="F630" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-bethlen-utca/220054/</t>
+          <t>https://www.findahome.hu/ingatlanok/luxury-flat-flat-in-the-city-center-2-bedroom-american-style-kitchen-with-terrace/</t>
         </is>
       </c>
     </row>
@@ -16850,14 +16850,14 @@
         <v>240000</v>
       </c>
       <c r="B632" t="n">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="C632" t="n">
         <v>3</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
-          <t>Debrecen, Hatvani István street</t>
+          <t>Debrecen, Lilla köz</t>
         </is>
       </c>
       <c r="E632" t="inlineStr">
@@ -16867,7 +16867,7 @@
       </c>
       <c r="F632" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/debrecen-hatvani-istvan-street-2-bedroom-living-room-105-sqm-flat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/debrecen-lilla-koz-new-modern-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -16876,14 +16876,14 @@
         <v>240000</v>
       </c>
       <c r="B633" t="n">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="C633" t="n">
         <v>3</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
-          <t>Debrecen, Lilla köz</t>
+          <t>Debrecen, Hatvani István street</t>
         </is>
       </c>
       <c r="E633" t="inlineStr">
@@ -16893,7 +16893,7 @@
       </c>
       <c r="F633" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/debrecen-lilla-koz-new-modern-flat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/debrecen-hatvani-istvan-street-2-bedroom-living-room-105-sqm-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -16902,14 +16902,14 @@
         <v>250000</v>
       </c>
       <c r="B634" t="n">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="C634" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
-          <t>Debrecen, Nagyerdei körút</t>
+          <t>Debrecen, Arany jános</t>
         </is>
       </c>
       <c r="E634" t="inlineStr">
@@ -16919,7 +16919,7 @@
       </c>
       <c r="F634" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/nagyerdei-korut-hadhazi-corner-3-bedroom-plus-living-room-flat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/city-center-3-separate-room-fully-furnsihed-and-equipped-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -16928,14 +16928,14 @@
         <v>250000</v>
       </c>
       <c r="B635" t="n">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C635" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
-          <t>Debrecen, Párizsi udvar</t>
+          <t>Debrecen, Nagyerdei körút</t>
         </is>
       </c>
       <c r="E635" t="inlineStr">
@@ -16945,7 +16945,7 @@
       </c>
       <c r="F635" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/parizsi-udvar-luxurious-penthouse-with-huge-private-terrace-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/nagyerdei-korut-hadhazi-corner-3-bedroom-plus-living-room-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -16954,14 +16954,14 @@
         <v>250000</v>
       </c>
       <c r="B636" t="n">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="C636" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
-          <t>Debrecen, Bem tér</t>
+          <t>Debrecen, Hadházi út</t>
         </is>
       </c>
       <c r="E636" t="inlineStr">
@@ -16971,7 +16971,7 @@
       </c>
       <c r="F636" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/debrecen-bem-ter-4-bedroom-living-room-flat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/bem-ter-3-bedroom-flat-for-long-term-rent/</t>
         </is>
       </c>
     </row>
@@ -16980,24 +16980,24 @@
         <v>250000</v>
       </c>
       <c r="B637" t="n">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="C637" t="n">
         <v>4</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
-          <t>Debrecen, Hadházi út</t>
+          <t>Debrecen, Simonffy</t>
         </is>
       </c>
       <c r="E637" t="inlineStr">
         <is>
-          <t>not center</t>
+          <t>center</t>
         </is>
       </c>
       <c r="F637" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/bem-ter-3-bedroom-flat-for-long-term-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/debrecen-city-center-simonffy-street-3-bedroom-living-oom-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -17006,24 +17006,24 @@
         <v>250000</v>
       </c>
       <c r="B638" t="n">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="C638" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
-          <t>Debrecen, Simonffy</t>
+          <t>Debrecen, Apafi street</t>
         </is>
       </c>
       <c r="E638" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="F638" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/debrecen-city-center-simonffy-street-3-bedroom-living-oom-flat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/debrecen-newer-building-apafi-street-2-bedroom-living-room-terrace-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -17032,24 +17032,24 @@
         <v>250000</v>
       </c>
       <c r="B639" t="n">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="C639" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
-          <t>Debrecen, Piac street</t>
+          <t>Debrecen, Doberdó</t>
         </is>
       </c>
       <c r="E639" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="F639" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/piac-street-modern-3-bedroom-living-room-with-american-kitchen/</t>
+          <t>https://www.findahome.hu/ingatlanok/debrecen-doberdo-street-close-to-uni-4-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -17058,24 +17058,24 @@
         <v>250000</v>
       </c>
       <c r="B640" t="n">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="C640" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
-          <t>Debrecen, Gyöngyösi street</t>
+          <t>Address unavailable</t>
         </is>
       </c>
       <c r="E640" t="inlineStr">
         <is>
-          <t>not center</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="F640" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/gyongyosi-street-family-house-for-rent/</t>
+          <t>https://www.greatforest.hu/property/99332-debrecen-bem-square-office-in-office-building</t>
         </is>
       </c>
     </row>
@@ -17084,14 +17084,14 @@
         <v>250000</v>
       </c>
       <c r="B641" t="n">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="C641" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
-          <t>Debrecen, Arany jános</t>
+          <t>Debrecen, Párizsi udvar</t>
         </is>
       </c>
       <c r="E641" t="inlineStr">
@@ -17101,7 +17101,7 @@
       </c>
       <c r="F641" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/city-center-3-separate-room-fully-furnsihed-and-equipped-flat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/parizsi-udvar-luxurious-penthouse-with-huge-private-terrace-for-rent/</t>
         </is>
       </c>
     </row>
@@ -17113,11 +17113,11 @@
         <v>120</v>
       </c>
       <c r="C642" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
-          <t>Debrecen, Doberdó</t>
+          <t>Debrecen, Gyöngyösi street</t>
         </is>
       </c>
       <c r="E642" t="inlineStr">
@@ -17127,7 +17127,7 @@
       </c>
       <c r="F642" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/debrecen-doberdo-street-close-to-uni-4-bedroom-living-room-flat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/gyongyosi-street-family-house-for-rent/</t>
         </is>
       </c>
     </row>
@@ -17136,24 +17136,24 @@
         <v>250000</v>
       </c>
       <c r="B643" t="n">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="C643" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
-          <t>Address unavailable</t>
+          <t>Debrecen, Bem tér</t>
         </is>
       </c>
       <c r="E643" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="F643" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/99332-debrecen-bem-square-office-in-office-building</t>
+          <t>https://www.findahome.hu/ingatlanok/debrecen-bem-ter-4-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -17188,24 +17188,24 @@
         <v>250000</v>
       </c>
       <c r="B645" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C645" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
-          <t>Debrecen, Apafi street</t>
+          <t>Debrecen, Piac street</t>
         </is>
       </c>
       <c r="E645" t="inlineStr">
         <is>
-          <t>not center</t>
+          <t>center</t>
         </is>
       </c>
       <c r="F645" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/debrecen-newer-building-apafi-street-2-bedroom-living-room-terrace-flat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/piac-street-modern-3-bedroom-living-room-with-american-kitchen/</t>
         </is>
       </c>
     </row>
@@ -17214,14 +17214,14 @@
         <v>260000</v>
       </c>
       <c r="B646" t="n">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C646" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
-          <t>Debrecen, Zúgó</t>
+          <t>Debrecen, Mikepércsi út</t>
         </is>
       </c>
       <c r="E646" t="inlineStr">
@@ -17231,7 +17231,7 @@
       </c>
       <c r="F646" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/debrecen-city-center-flat-for-rent/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-mikepercsi-ut/220366/</t>
         </is>
       </c>
     </row>
@@ -17240,14 +17240,14 @@
         <v>260000</v>
       </c>
       <c r="B647" t="n">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="C647" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
-          <t>Debrecen, Mikepércsi út</t>
+          <t>Debrecen, Zúgó</t>
         </is>
       </c>
       <c r="E647" t="inlineStr">
@@ -17257,7 +17257,7 @@
       </c>
       <c r="F647" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-mikepercsi-ut/220366/</t>
+          <t>https://www.findahome.hu/ingatlanok/debrecen-city-center-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -17344,24 +17344,24 @@
         <v>280000</v>
       </c>
       <c r="B651" t="n">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="C651" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
-          <t>Debrecen, Komlóssy street</t>
+          <t>Debrecen, Rákóczi</t>
         </is>
       </c>
       <c r="E651" t="inlineStr">
         <is>
-          <t>not center</t>
+          <t>center</t>
         </is>
       </c>
       <c r="F651" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/debrecen1-min-from-the-uni-main-4-bedroom-living-room-apartment-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/flat-for-rent-in-rakoczi-utca/</t>
         </is>
       </c>
     </row>
@@ -17370,24 +17370,24 @@
         <v>280000</v>
       </c>
       <c r="B652" t="n">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="C652" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
-          <t>Debrecen, Csapó utca</t>
+          <t>Debrecen, Komlóssy street</t>
         </is>
       </c>
       <c r="E652" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="F652" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-csapo-utca/218738/</t>
+          <t>https://www.findahome.hu/ingatlanok/debrecen1-min-from-the-uni-main-4-bedroom-living-room-apartment-for-rent/</t>
         </is>
       </c>
     </row>
@@ -17396,24 +17396,24 @@
         <v>280000</v>
       </c>
       <c r="B653" t="n">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C653" t="n">
         <v>2</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
-          <t>Address unavailable</t>
+          <t>Debrecen, Csapó utca</t>
         </is>
       </c>
       <c r="E653" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>center</t>
         </is>
       </c>
       <c r="F653" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/42340-debrecen-kassai-campus-area-flat</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-csapo-utca/218738/</t>
         </is>
       </c>
     </row>
@@ -17422,24 +17422,24 @@
         <v>280000</v>
       </c>
       <c r="B654" t="n">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C654" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
-          <t>Debrecen, Egyetem tér</t>
+          <t>Debrecen, Rákóczi</t>
         </is>
       </c>
       <c r="E654" t="inlineStr">
         <is>
-          <t>not center</t>
+          <t>center</t>
         </is>
       </c>
       <c r="F654" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/university-residence-new-building-next-to-the-uni-1-bedroom-living-room-flat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/debrecen-rakoczi-street-2-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -17448,10 +17448,10 @@
         <v>280000</v>
       </c>
       <c r="B655" t="n">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C655" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -17465,7 +17465,7 @@
       </c>
       <c r="F655" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/97856-debrecen-city-center-office-not-in-office-building</t>
+          <t>https://www.greatforest.hu/property/42340-debrecen-kassai-campus-area-flat</t>
         </is>
       </c>
     </row>
@@ -17474,24 +17474,24 @@
         <v>280000</v>
       </c>
       <c r="B656" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C656" t="n">
         <v>3</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
-          <t>Debrecen, Rákóczi</t>
+          <t>Address unavailable</t>
         </is>
       </c>
       <c r="E656" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="F656" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/flat-for-rent-in-rakoczi-utca/</t>
+          <t>https://www.greatforest.hu/property/97856-debrecen-city-center-office-not-in-office-building</t>
         </is>
       </c>
     </row>
@@ -17500,24 +17500,24 @@
         <v>280000</v>
       </c>
       <c r="B657" t="n">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C657" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
-          <t>Debrecen, Rákóczi</t>
+          <t>Debrecen, Egyetem tér</t>
         </is>
       </c>
       <c r="E657" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="F657" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/debrecen-rakoczi-street-2-bedroom-living-room-flat-for-rent/</t>
+          <t>https://www.findahome.hu/ingatlanok/university-residence-new-building-next-to-the-uni-1-bedroom-living-room-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -17526,14 +17526,14 @@
         <v>300000</v>
       </c>
       <c r="B658" t="n">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="C658" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
-          <t>Debrecen, Bem tér</t>
+          <t>Debrecen, Poroszlay</t>
         </is>
       </c>
       <c r="E658" t="inlineStr">
@@ -17543,7 +17543,7 @@
       </c>
       <c r="F658" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-bem-ter/163005/</t>
+          <t>https://www.findahome.hu/ingatlanok/apartment-for-rent-in-debrecen-on-poroszlay-ut/</t>
         </is>
       </c>
     </row>
@@ -17578,10 +17578,10 @@
         <v>300000</v>
       </c>
       <c r="B660" t="n">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C660" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -17595,7 +17595,7 @@
       </c>
       <c r="F660" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/31478-debrecen-flat</t>
+          <t>https://www.greatforest.hu/property/41027-debrecen-city-center-flat</t>
         </is>
       </c>
     </row>
@@ -17604,14 +17604,14 @@
         <v>300000</v>
       </c>
       <c r="B661" t="n">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="C661" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
-          <t>Debrecen, Csapó</t>
+          <t>Debrecen, Antall József utca</t>
         </is>
       </c>
       <c r="E661" t="inlineStr">
@@ -17621,7 +17621,7 @@
       </c>
       <c r="F661" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/debrecen-city-center-3-bedroom-living-room-flat-for-rent-2/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-antall-jozsef-utca/218121/</t>
         </is>
       </c>
     </row>
@@ -17630,24 +17630,24 @@
         <v>300000</v>
       </c>
       <c r="B662" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C662" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
-          <t>Debrecen, Nyugati utca</t>
+          <t>Address unavailable</t>
         </is>
       </c>
       <c r="E662" t="inlineStr">
         <is>
-          <t>not center</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="F662" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-nyugati-utca/220230/</t>
+          <t>https://www.greatforest.hu/property/101102-debrecen-city-center-flat</t>
         </is>
       </c>
     </row>
@@ -17656,7 +17656,7 @@
         <v>300000</v>
       </c>
       <c r="B663" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="C663" t="n">
         <v>3</v>
@@ -17673,7 +17673,7 @@
       </c>
       <c r="F663" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/101102-debrecen-city-center-flat</t>
+          <t>https://www.greatforest.hu/property/31478-debrecen-flat</t>
         </is>
       </c>
     </row>
@@ -17682,24 +17682,24 @@
         <v>300000</v>
       </c>
       <c r="B664" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C664" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
-          <t>Debrecen, Antall József utca</t>
+          <t>Debrecen, Párizsi udvar</t>
         </is>
       </c>
       <c r="E664" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="F664" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-antall-jozsef-utca/218121/</t>
+          <t>https://www.findahome.hu/ingatlanok/debrecen-parizsi-udvar-3-room-70-sqm-flat-for-rent/</t>
         </is>
       </c>
     </row>
@@ -17708,24 +17708,24 @@
         <v>300000</v>
       </c>
       <c r="B665" t="n">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C665" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
-          <t>Debrecen, Poroszlay</t>
+          <t>Debrecen, Csapó</t>
         </is>
       </c>
       <c r="E665" t="inlineStr">
         <is>
-          <t>not center</t>
+          <t>center</t>
         </is>
       </c>
       <c r="F665" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/apartment-for-rent-in-debrecen-on-poroszlay-ut/</t>
+          <t>https://www.findahome.hu/ingatlanok/debrecen-city-center-3-bedroom-living-room-flat-for-rent-2/</t>
         </is>
       </c>
     </row>
@@ -17734,14 +17734,14 @@
         <v>300000</v>
       </c>
       <c r="B666" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C666" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
-          <t>Debrecen, Párizsi udvar</t>
+          <t>Debrecen, Nyugati utca</t>
         </is>
       </c>
       <c r="E666" t="inlineStr">
@@ -17751,7 +17751,7 @@
       </c>
       <c r="F666" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/debrecen-parizsi-udvar-3-room-70-sqm-flat-for-rent/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-nyugati-utca/220230/</t>
         </is>
       </c>
     </row>
@@ -17760,24 +17760,24 @@
         <v>300000</v>
       </c>
       <c r="B667" t="n">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C667" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
-          <t>Address unavailable</t>
+          <t>Debrecen, Bem tér</t>
         </is>
       </c>
       <c r="E667" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="F667" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/41027-debrecen-city-center-flat</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-bem-ter/163005/</t>
         </is>
       </c>
     </row>
@@ -17803,7 +17803,7 @@
       </c>
       <c r="F668" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-hatvani-istvan-utca/220005/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-hatvani-istvan-utca/220110/</t>
         </is>
       </c>
     </row>
@@ -17829,7 +17829,7 @@
       </c>
       <c r="F669" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-hatvani-istvan-utca/219950/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-hatvani-istvan-utca/220081/</t>
         </is>
       </c>
     </row>
@@ -17855,7 +17855,7 @@
       </c>
       <c r="F670" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-hatvani-istvan-utca/219994/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-hatvani-istvan-utca/219974/</t>
         </is>
       </c>
     </row>
@@ -17881,7 +17881,7 @@
       </c>
       <c r="F671" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-hatvani-istvan-utca/219937/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-hatvani-istvan-utca/220102/</t>
         </is>
       </c>
     </row>
@@ -17907,7 +17907,7 @@
       </c>
       <c r="F672" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-hatvani-istvan-utca/220092/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-hatvani-istvan-utca/220119/</t>
         </is>
       </c>
     </row>
@@ -17933,7 +17933,7 @@
       </c>
       <c r="F673" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-hatvani-istvan-utca/219959/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-hatvani-istvan-utca/219950/</t>
         </is>
       </c>
     </row>
@@ -17959,7 +17959,7 @@
       </c>
       <c r="F674" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-hatvani-istvan-utca/219906/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-hatvani-istvan-utca/220005/</t>
         </is>
       </c>
     </row>
@@ -17985,7 +17985,7 @@
       </c>
       <c r="F675" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-hatvani-istvan-utca/219974/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-hatvani-istvan-utca/219994/</t>
         </is>
       </c>
     </row>
@@ -18011,7 +18011,7 @@
       </c>
       <c r="F676" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-hatvani-istvan-utca/220102/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-hatvani-istvan-utca/219937/</t>
         </is>
       </c>
     </row>
@@ -18037,7 +18037,7 @@
       </c>
       <c r="F677" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-hatvani-istvan-utca/220081/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-hatvani-istvan-utca/219906/</t>
         </is>
       </c>
     </row>
@@ -18063,7 +18063,7 @@
       </c>
       <c r="F678" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-hatvani-istvan-utca/220110/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-hatvani-istvan-utca/219959/</t>
         </is>
       </c>
     </row>
@@ -18089,7 +18089,7 @@
       </c>
       <c r="F679" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-hatvani-istvan-utca/220119/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-hatvani-istvan-utca/220092/</t>
         </is>
       </c>
     </row>
@@ -18202,24 +18202,24 @@
         <v>350000</v>
       </c>
       <c r="B684" t="n">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="C684" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
-          <t>Address unavailable</t>
+          <t>Debrecen, Akadémia utca</t>
         </is>
       </c>
       <c r="E684" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="F684" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/102000-debrecen-close-to-plaza-flat</t>
+          <t>https://debrecenrent.hu/for-rent/house/debrecen-akademia-utca/217736/</t>
         </is>
       </c>
     </row>
@@ -18254,14 +18254,14 @@
         <v>350000</v>
       </c>
       <c r="B686" t="n">
-        <v>112</v>
+        <v>65</v>
       </c>
       <c r="C686" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
-          <t>Debrecen, Bem tér</t>
+          <t>Debrecen, Menyhárt József tér</t>
         </is>
       </c>
       <c r="E686" t="inlineStr">
@@ -18271,7 +18271,7 @@
       </c>
       <c r="F686" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/bem-ter-3-bedroom-living-room-with-dining-area-2-bathroom/</t>
+          <t>https://www.findahome.hu/ingatlanok/luxury-apartment-for-rent-in-menyhart-jozsef-ter/</t>
         </is>
       </c>
     </row>
@@ -18280,14 +18280,14 @@
         <v>350000</v>
       </c>
       <c r="B687" t="n">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="C687" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
-          <t>Debrecen, Menyhárt József tér</t>
+          <t>Debrecen, Bem tér</t>
         </is>
       </c>
       <c r="E687" t="inlineStr">
@@ -18297,7 +18297,7 @@
       </c>
       <c r="F687" t="inlineStr">
         <is>
-          <t>https://www.findahome.hu/ingatlanok/luxury-apartment-for-rent-in-menyhart-jozsef-ter/</t>
+          <t>https://www.findahome.hu/ingatlanok/bem-ter-3-bedroom-living-room-with-dining-area-2-bathroom/</t>
         </is>
       </c>
     </row>
@@ -18306,14 +18306,14 @@
         <v>350000</v>
       </c>
       <c r="B688" t="n">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="C688" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
-          <t>Debrecen, Akadémia utca</t>
+          <t>Debrecen, Nagyerdei körút</t>
         </is>
       </c>
       <c r="E688" t="inlineStr">
@@ -18323,7 +18323,7 @@
       </c>
       <c r="F688" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/house/debrecen-akademia-utca/217736/</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-nagyerdei-korut/188260/</t>
         </is>
       </c>
     </row>
@@ -18332,24 +18332,24 @@
         <v>350000</v>
       </c>
       <c r="B689" t="n">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="C689" t="n">
         <v>3</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
-          <t>Debrecen, Nagyerdei körút</t>
+          <t>Address unavailable</t>
         </is>
       </c>
       <c r="E689" t="inlineStr">
         <is>
-          <t>not center</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="F689" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-nagyerdei-korut/188260/</t>
+          <t>https://www.greatforest.hu/property/102000-debrecen-close-to-plaza-flat</t>
         </is>
       </c>
     </row>
@@ -18358,24 +18358,24 @@
         <v>375000</v>
       </c>
       <c r="B690" t="n">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C690" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
-          <t>Debrecen, Nagyerdei körút</t>
+          <t>Address unavailable</t>
         </is>
       </c>
       <c r="E690" t="inlineStr">
         <is>
-          <t>not center</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="F690" t="inlineStr">
         <is>
-          <t>https://debrecenrent.hu/for-rent/flat/debrecen-nagyerdei-korut/213647/</t>
+          <t>https://www.greatforest.hu/property/96519-debrecen-greatforest-area-flat</t>
         </is>
       </c>
     </row>
@@ -18384,24 +18384,24 @@
         <v>375000</v>
       </c>
       <c r="B691" t="n">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C691" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
-          <t>Address unavailable</t>
+          <t>Debrecen, Nagyerdei körút</t>
         </is>
       </c>
       <c r="E691" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>not center</t>
         </is>
       </c>
       <c r="F691" t="inlineStr">
         <is>
-          <t>https://www.greatforest.hu/property/96519-debrecen-greatforest-area-flat</t>
+          <t>https://debrecenrent.hu/for-rent/flat/debrecen-nagyerdei-korut/213647/</t>
         </is>
       </c>
     </row>
